--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB98E3-5054-4B33-80BA-B19337112246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17960E65-0887-443D-A870-986A1C2B50A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6090" yWindow="2160" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="168">
   <si>
     <t>JVM</t>
   </si>
@@ -2390,6 +2390,20 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:20~23:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00~11:50
+16:00~17:00
+18:20~23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21, 2.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2798,7 +2812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2900,28 +2914,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2945,21 +2938,12 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,9 +2962,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,9 +2977,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3014,9 +2992,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3026,16 +3001,7 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,46 +3023,181 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3108,89 +3209,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3475,7 +3495,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3519,7 +3539,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="105" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="34"/>
@@ -3535,8 +3555,8 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="129" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="6">
@@ -3551,8 +3571,8 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="2">
         <v>44383</v>
       </c>
@@ -3565,8 +3585,8 @@
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="2">
         <v>44384</v>
       </c>
@@ -3579,8 +3599,8 @@
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="2">
         <v>44385</v>
       </c>
@@ -3597,8 +3617,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="2">
         <v>44386</v>
       </c>
@@ -3613,9 +3633,9 @@
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="127">
+      <c r="A8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="103">
         <v>44387</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3633,23 +3653,29 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="128"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="N9" s="132" t="s">
+      <c r="F9" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="32">
+        <v>3</v>
+      </c>
+      <c r="N9" s="101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="38"/>
+    <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="105"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="7">
         <v>44388</v>
       </c>
@@ -3657,16 +3683,22 @@
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="33">
+        <v>7</v>
+      </c>
       <c r="N10" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="110" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="10">
@@ -3682,8 +3714,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="2">
         <v>44390</v>
       </c>
@@ -3697,8 +3729,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="2">
         <v>44391</v>
       </c>
@@ -3712,8 +3744,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="2">
         <v>44392</v>
       </c>
@@ -3724,8 +3756,8 @@
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="2">
         <v>44393</v>
       </c>
@@ -3736,8 +3768,8 @@
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="2">
         <v>44394</v>
       </c>
@@ -3748,8 +3780,8 @@
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="7">
         <v>44395</v>
       </c>
@@ -3762,8 +3794,8 @@
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="130" t="s">
+      <c r="A18" s="105"/>
+      <c r="B18" s="110" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="10">
@@ -3778,8 +3810,8 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="2">
         <v>44397</v>
       </c>
@@ -3792,8 +3824,8 @@
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="2">
         <v>44398</v>
       </c>
@@ -3806,8 +3838,8 @@
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="2">
         <v>44399</v>
       </c>
@@ -3820,8 +3852,8 @@
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="2">
         <v>44400</v>
       </c>
@@ -3832,8 +3864,8 @@
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="2">
         <v>44401</v>
       </c>
@@ -3844,8 +3876,8 @@
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="7">
         <v>44402</v>
       </c>
@@ -3856,8 +3888,8 @@
       <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="131" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="113" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="10">
@@ -3872,8 +3904,8 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="2">
         <v>44404</v>
       </c>
@@ -3884,8 +3916,8 @@
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="2">
         <v>44405</v>
       </c>
@@ -3896,8 +3928,8 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="2">
         <v>44406</v>
       </c>
@@ -3910,8 +3942,8 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="2">
         <v>44407</v>
       </c>
@@ -3924,8 +3956,8 @@
       <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="2">
         <v>44408</v>
       </c>
@@ -3938,8 +3970,8 @@
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="7">
         <v>44409</v>
       </c>
@@ -3974,1070 +4006,1070 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="91" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5" style="93" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="91" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="9" style="87"/>
-    <col min="16" max="16" width="12.25" style="87" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="87"/>
+    <col min="1" max="1" width="5.25" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="72" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5" style="73" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9" style="71"/>
+    <col min="16" max="16" width="12.25" style="71" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="51">
         <v>44240</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68">
+      <c r="A3" s="118"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="56">
         <v>44241</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="118"/>
+      <c r="B4" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="51">
         <v>44242</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43">
+      <c r="A5" s="118"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="36">
         <v>44243</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="40">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="77">
+      <c r="A6" s="118"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="126">
         <v>44244</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="44" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="48" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43">
+      <c r="A8" s="118"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="36">
         <v>44245</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43">
+      <c r="A9" s="118"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="36">
         <v>44246</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="48" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43">
+      <c r="A10" s="118"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="36">
         <v>44247</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68">
+      <c r="A11" s="118"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="56">
         <v>44248</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="118"/>
+      <c r="B12" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="45">
         <v>44249</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="77">
+      <c r="A13" s="118"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="126">
         <v>44250</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="44" t="s">
+      <c r="A14" s="118"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43">
+      <c r="A15" s="118"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="36">
         <v>44251</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43">
+      <c r="A16" s="118"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="36">
         <v>44252</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43">
+      <c r="A17" s="118"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="36">
         <v>44253</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="77">
+      <c r="A18" s="118"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="126">
         <v>44254</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="81" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68">
+      <c r="A20" s="119"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="56">
         <v>44255</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="51">
         <v>44256</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="A22" s="118"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="36">
         <v>44257</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="77">
+      <c r="A23" s="118"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="126">
         <v>44258</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="44" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="77">
+      <c r="A25" s="118"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="126">
         <v>44259</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="44" t="s">
+      <c r="A26" s="118"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43">
+      <c r="A27" s="118"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="36">
         <v>44260</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43">
+      <c r="A28" s="118"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="36">
         <v>44261</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68">
+      <c r="A29" s="118"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="56">
         <v>44262</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="89" t="s">
+      <c r="A30" s="118"/>
+      <c r="B30" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="51">
         <v>44263</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43">
+      <c r="A31" s="118"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="36">
         <v>44264</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43">
+      <c r="A32" s="118"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="36">
         <v>44265</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43">
+      <c r="A33" s="118"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="36">
         <v>44266</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43">
+      <c r="A34" s="118"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="36">
         <v>44267</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43">
+      <c r="A35" s="118"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="36">
         <v>44268</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68">
+      <c r="A36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="56">
         <v>44269</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="118"/>
+      <c r="B37" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="51">
         <v>44270</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43">
+      <c r="A38" s="118"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="36">
         <v>44271</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43">
+      <c r="A39" s="118"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="36">
         <v>44272</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43">
+      <c r="A40" s="118"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="36">
         <v>44273</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43">
+      <c r="A41" s="118"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="36">
         <v>44274</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43">
+      <c r="A42" s="118"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="36">
         <v>44275</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68">
+      <c r="A43" s="118"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="56">
         <v>44276</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="90" t="s">
+      <c r="A44" s="118"/>
+      <c r="B44" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="45">
         <v>44277</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43">
+      <c r="A45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="36">
         <v>44278</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43">
+      <c r="A46" s="118"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="36">
         <v>44279</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43">
+      <c r="A47" s="118"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="36">
         <v>44280</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43">
+      <c r="A48" s="118"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="36">
         <v>44281</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43">
+      <c r="A49" s="118"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="36">
         <v>44282</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="73"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="68">
+      <c r="A50" s="119"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="56">
         <v>44283</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="51">
         <v>44284</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43">
+      <c r="A52" s="118"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="36">
         <v>44285</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="51">
+      <c r="A53" s="118"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="120">
         <v>44286</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="44" t="s">
+      <c r="A54" s="118"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43">
+      <c r="A55" s="118"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="36">
         <v>44287</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43">
+      <c r="A56" s="118"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="36">
         <v>44288</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43">
+      <c r="A57" s="118"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="36">
         <v>44289</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="50"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="68">
+      <c r="A58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="56">
         <v>44290</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="74"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="61" t="s">
+      <c r="A59" s="118"/>
+      <c r="B59" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="62">
+      <c r="C59" s="51">
         <v>44291</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="64"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43">
+      <c r="A60" s="118"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="36">
         <v>44292</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43">
+      <c r="A61" s="118"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="36">
         <v>44293</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E61" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43">
+      <c r="A62" s="118"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="36">
         <v>44294</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43">
+      <c r="A63" s="118"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="36">
         <v>44295</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43">
+      <c r="A64" s="118"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="36">
         <v>44296</v>
       </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="68">
+      <c r="A65" s="118"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="56">
         <v>44297</v>
       </c>
-      <c r="D65" s="86" t="s">
+      <c r="D65" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E65" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="54" t="s">
+      <c r="A66" s="118"/>
+      <c r="B66" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="55">
+      <c r="C66" s="45">
         <v>44298</v>
       </c>
-      <c r="D66" s="56" t="s">
+      <c r="D66" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="43">
+      <c r="A67" s="118"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="36">
         <v>44299</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="46"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="43">
+      <c r="A68" s="118"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="36">
         <v>44300</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="73"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="68">
+      <c r="A69" s="119"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="56">
         <v>44301</v>
       </c>
-      <c r="D69" s="74"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5053,13 +5085,13 @@
     <mergeCell ref="A21:A50"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="A51:A69"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B44:B50"/>
     <mergeCell ref="B51:B58"/>
     <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B37:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5077,1217 +5109,1214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.125" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.875" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="91" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9" style="87"/>
-    <col min="15" max="15" width="12.25" style="87" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="87"/>
+    <col min="1" max="2" width="7.125" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9" style="71"/>
+    <col min="15" max="15" width="12.25" style="71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="74">
         <v>44093</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="110">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="86">
         <v>44094</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="122" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C4" s="83">
         <v>44095</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="121" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="94">
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="74">
         <v>44096</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="97" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="94">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="74">
         <v>44097</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="97" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="94">
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="74">
         <v>44098</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="97" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="94">
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="74">
         <v>44099</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="105" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="94">
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="74">
         <v>44100</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="110">
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="86">
         <v>44101</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113" t="s">
+      <c r="E10" s="88"/>
+      <c r="F10" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72">
+      <c r="G10" s="60"/>
+      <c r="H10" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="91">
         <v>44102</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="94">
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="74">
         <v>44103</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="94">
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="74">
         <v>44104</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="94">
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="74">
         <v>44105</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47">
+      <c r="E14" s="76"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="94">
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="74">
         <v>44106</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="99" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="94">
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="74">
         <v>44107</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="99" t="s">
+      <c r="E16" s="76"/>
+      <c r="F16" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="110">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="86">
         <v>44108</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="123" t="s">
+      <c r="E17" s="88"/>
+      <c r="F17" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72">
+      <c r="G17" s="60"/>
+      <c r="H17" s="60">
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="115"/>
+      <c r="B18" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="128">
         <v>44109</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="120" t="s">
+      <c r="E18" s="93"/>
+      <c r="F18" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66">
+      <c r="G18" s="55"/>
+      <c r="H18" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="95" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="99" t="s">
+      <c r="E19" s="76"/>
+      <c r="F19" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="95" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="99" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="94">
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="74">
         <v>44110</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="94">
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="74">
         <v>44111</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="94">
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="74">
         <v>44112</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="94">
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="74">
         <v>44113</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="101">
+      <c r="A25" s="115"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="129">
         <v>44114</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="99" t="s">
+      <c r="E25" s="76"/>
+      <c r="F25" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47">
+      <c r="G25" s="40"/>
+      <c r="H25" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="95" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="99" t="s">
+      <c r="E26" s="76"/>
+      <c r="F26" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47">
+      <c r="G26" s="40"/>
+      <c r="H26" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="110">
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="86">
         <v>44115</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="119" t="s">
+      <c r="E27" s="88"/>
+      <c r="F27" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72">
+      <c r="G27" s="60"/>
+      <c r="H27" s="60">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="89" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="91">
         <v>44116</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="94">
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="74">
         <v>44117</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="99" t="s">
+      <c r="E29" s="76"/>
+      <c r="F29" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47">
+      <c r="G29" s="40"/>
+      <c r="H29" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="94">
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="74">
         <v>44118</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="94">
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="74">
         <v>44119</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="99" t="s">
+      <c r="E31" s="76"/>
+      <c r="F31" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47">
+      <c r="G31" s="40"/>
+      <c r="H31" s="40">
         <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="94">
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="74">
         <v>44120</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="94">
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="74">
         <v>44121</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="100" t="s">
+      <c r="E33" s="76"/>
+      <c r="F33" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47">
+      <c r="G33" s="40"/>
+      <c r="H33" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="101">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="129">
         <v>44122</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="99" t="s">
+      <c r="E34" s="76"/>
+      <c r="F34" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47">
+      <c r="G34" s="40"/>
+      <c r="H34" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="111" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="119" t="s">
+      <c r="E35" s="60"/>
+      <c r="F35" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72">
+      <c r="G35" s="60"/>
+      <c r="H35" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="89" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="91">
         <v>44123</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="94">
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="74">
         <v>44124</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="94">
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="74">
         <v>44125</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="94">
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="74">
         <v>44126</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="94">
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="74">
         <v>44127</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="94">
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="74">
         <v>44128</v>
       </c>
-      <c r="D41" s="95" t="s">
+      <c r="D41" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="106">
+      <c r="E41" s="82">
         <v>25</v>
       </c>
-      <c r="F41" s="99"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47">
+      <c r="F41" s="79"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="110">
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="86">
         <v>44129</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="54" t="s">
+      <c r="A43" s="115"/>
+      <c r="B43" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="107">
+      <c r="C43" s="83">
         <v>44130</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D43" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="126">
+      <c r="E43" s="100">
         <v>80</v>
       </c>
-      <c r="F43" s="114"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59">
+      <c r="F43" s="90"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="94">
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="74">
         <v>44131</v>
       </c>
-      <c r="D44" s="95" t="s">
+      <c r="D44" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="106">
+      <c r="E44" s="82">
         <v>93</v>
       </c>
-      <c r="F44" s="99"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47">
+      <c r="F44" s="79"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="94">
+      <c r="A45" s="115"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="74">
         <v>44132</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47">
+      <c r="F45" s="79"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="94">
+      <c r="A46" s="115"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="74">
         <v>44133</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="94">
+      <c r="A47" s="115"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="74">
         <v>44134</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="94">
+      <c r="A48" s="115"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="74">
         <v>44135</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="110">
+      <c r="A49" s="116"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="86">
         <v>44136</v>
       </c>
-      <c r="D49" s="111" t="s">
+      <c r="D49" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="119" t="s">
+      <c r="E49" s="60"/>
+      <c r="F49" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72">
+      <c r="G49" s="60"/>
+      <c r="H49" s="60">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="115">
+      <c r="C50" s="91">
         <v>44137</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="94">
+      <c r="A51" s="115"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="74">
         <v>44138</v>
       </c>
-      <c r="D51" s="95" t="s">
+      <c r="D51" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="99" t="s">
+      <c r="E51" s="40"/>
+      <c r="F51" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47">
+      <c r="G51" s="40"/>
+      <c r="H51" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="94">
+      <c r="A52" s="115"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="74">
         <v>44139</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="94">
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="74">
         <v>44140</v>
       </c>
-      <c r="D53" s="95" t="s">
+      <c r="D53" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="99" t="s">
+      <c r="E53" s="40"/>
+      <c r="F53" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47">
+      <c r="G53" s="40"/>
+      <c r="H53" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="94">
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="74">
         <v>44141</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="94">
+      <c r="A55" s="115"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="74">
         <v>44142</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="110">
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="86">
         <v>44143</v>
       </c>
-      <c r="D56" s="111" t="s">
+      <c r="D56" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="119" t="s">
+      <c r="E56" s="60"/>
+      <c r="F56" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72">
+      <c r="G56" s="60"/>
+      <c r="H56" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="89" t="s">
+      <c r="A57" s="115"/>
+      <c r="B57" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="115">
+      <c r="C57" s="91">
         <v>44144</v>
       </c>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="120" t="s">
+      <c r="E57" s="55"/>
+      <c r="F57" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66">
+      <c r="G57" s="55"/>
+      <c r="H57" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="94">
+      <c r="A58" s="115"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="74">
         <v>44145</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="47"/>
-      <c r="F58" s="99" t="s">
+      <c r="E58" s="40"/>
+      <c r="F58" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47">
+      <c r="G58" s="40"/>
+      <c r="H58" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="94">
+      <c r="A59" s="115"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="74">
         <v>44146</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="99" t="s">
+      <c r="E59" s="40"/>
+      <c r="F59" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47">
+      <c r="G59" s="40"/>
+      <c r="H59" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="94">
+      <c r="A60" s="115"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="74">
         <v>44147</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="99" t="s">
+      <c r="E60" s="40"/>
+      <c r="F60" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47">
+      <c r="G60" s="40"/>
+      <c r="H60" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="94">
+      <c r="A61" s="115"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="74">
         <v>44148</v>
       </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="94">
+      <c r="A62" s="115"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="74">
         <v>44149</v>
       </c>
-      <c r="D62" s="95" t="s">
+      <c r="D62" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="99" t="s">
+      <c r="E62" s="40"/>
+      <c r="F62" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47">
+      <c r="G62" s="40"/>
+      <c r="H62" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="110">
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="86">
         <v>44150</v>
       </c>
-      <c r="D63" s="111" t="s">
+      <c r="D63" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="119" t="s">
+      <c r="E63" s="60"/>
+      <c r="F63" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72">
+      <c r="G63" s="60"/>
+      <c r="H63" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="89" t="s">
+      <c r="A64" s="115"/>
+      <c r="B64" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="115">
+      <c r="C64" s="91">
         <v>44151</v>
       </c>
-      <c r="D64" s="116" t="s">
+      <c r="D64" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="120" t="s">
+      <c r="E64" s="55"/>
+      <c r="F64" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66">
+      <c r="G64" s="55"/>
+      <c r="H64" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="94">
+      <c r="A65" s="115"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="74">
         <v>44152</v>
       </c>
-      <c r="D65" s="95" t="s">
+      <c r="D65" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="47"/>
-      <c r="F65" s="99" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47">
+      <c r="G65" s="40"/>
+      <c r="H65" s="40">
         <v>2.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="94">
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="74">
         <v>44153</v>
       </c>
-      <c r="D66" s="96"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="102">
+      <c r="A67" s="115"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="131">
         <v>44154</v>
       </c>
-      <c r="D67" s="95" t="s">
+      <c r="D67" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="99" t="s">
+      <c r="E67" s="40"/>
+      <c r="F67" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47">
+      <c r="G67" s="40"/>
+      <c r="H67" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="95" t="s">
+      <c r="A68" s="115"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="99" t="s">
+      <c r="E68" s="40"/>
+      <c r="F68" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47">
+      <c r="G68" s="40"/>
+      <c r="H68" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="94">
+      <c r="A69" s="115"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="74">
         <v>44155</v>
       </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="94">
+      <c r="A70" s="115"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="74">
         <v>44156</v>
       </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="110">
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="86">
         <v>44157</v>
       </c>
-      <c r="D71" s="111" t="s">
+      <c r="D71" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="119" t="s">
+      <c r="E71" s="60"/>
+      <c r="F71" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72">
+      <c r="G71" s="60"/>
+      <c r="H71" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="54" t="s">
+      <c r="A72" s="115"/>
+      <c r="B72" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="107">
+      <c r="C72" s="83">
         <v>44158</v>
       </c>
-      <c r="D72" s="108" t="s">
+      <c r="D72" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="E72" s="59"/>
-      <c r="F72" s="114" t="s">
+      <c r="E72" s="49"/>
+      <c r="F72" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59">
+      <c r="G72" s="49"/>
+      <c r="H72" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="94">
+      <c r="A73" s="115"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="74">
         <v>44159</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="110">
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="86">
         <v>44160</v>
       </c>
-      <c r="D74" s="111" t="s">
+      <c r="D74" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E74" s="72"/>
-      <c r="F74" s="119" t="s">
+      <c r="E74" s="60"/>
+      <c r="F74" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72">
+      <c r="G74" s="60"/>
+      <c r="H74" s="60">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -6296,13 +6325,16 @@
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B64:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
     <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A62CF-A6B5-412F-85FF-C97C1DE3B6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57DAB0-4F14-4242-93BC-15C5CB248678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2190" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21990" yWindow="1305" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
   <si>
     <t>JVM</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>Zookeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JMS+MQ(ActiveMq, Kafka)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,10 +163,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2380,9 +2372,6 @@
   </si>
   <si>
     <r>
-      <t>Hive</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -2390,11 +2379,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>调优</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>面试（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1~3</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2403,6 +2398,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00~23:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>面试（</t>
     </r>
     <r>
@@ -2418,28 +2430,35 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:20~23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JUC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00~23:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面试（</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -2448,31 +2467,13 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1~3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:20~23:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>JUC</t>
+      <t>Docker</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nacos</t>
     </r>
     <r>
       <rPr>
@@ -2491,13 +2492,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Docker</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nacos</t>
+      <t>Sentinel</t>
     </r>
     <r>
       <rPr>
@@ -2516,40 +2511,126 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Sentinel</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Seata</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Seata</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>达成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>达成</t>
-    </r>
+      <t>设计模式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring &amp; SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:40~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUC.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUC.91, Docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:50~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:10~0:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nacos, Sentinel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMS, MQ(ActiveMq, Kafka)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELK, K8S, ZK, Nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop, Spark, Hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL &amp; MyBatis &amp; druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nacos, Sentinel, Seata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00~24:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentinel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAuth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2561,69 +2642,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>设计模式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring &amp; SpringBoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringCloud &amp; Alibaba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL &amp; MyBatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringSecurity &amp; OAuth2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIO &amp; Netty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:40~23:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUC.48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUC.91, Docker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:50~23:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:10~</t>
+      <t>算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00~23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2759,7 +2796,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2811,6 +2848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,7 +3014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3253,18 +3296,42 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3335,9 +3402,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3619,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3631,45 +3695,48 @@
     <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="103"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="H1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" s="76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108" t="s">
+        <v>184</v>
+      </c>
       <c r="B2" s="77"/>
       <c r="C2" s="78">
         <v>44381</v>
@@ -3681,43 +3748,43 @@
       <c r="F2" s="91"/>
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="96"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="105" t="s">
-        <v>87</v>
+      <c r="I2" s="98"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="111" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="80">
         <v>44382</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
-      <c r="I3" s="97"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
+      <c r="I3" s="99"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="72">
         <v>44383</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="93"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="72">
         <v>44384</v>
       </c>
@@ -3728,11 +3795,11 @@
       <c r="F5" s="93"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
-      <c r="I5" s="95"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
+      <c r="I5" s="100"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="72">
         <v>44385</v>
       </c>
@@ -3742,216 +3809,212 @@
       <c r="E6" s="74"/>
       <c r="F6" s="93"/>
       <c r="G6" s="69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="69">
         <v>5</v>
       </c>
-      <c r="I6" s="95"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="72">
         <v>44386</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="95"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="101">
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="107">
         <v>44387</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="69">
         <v>5</v>
       </c>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="101"/>
+      <c r="I8" s="100"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="93">
         <v>1.3</v>
       </c>
       <c r="F9" s="93"/>
       <c r="G9" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9" s="69">
         <v>3</v>
       </c>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
+      <c r="I9" s="100"/>
+    </row>
+    <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="83">
         <v>44388</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="94"/>
       <c r="G10" s="85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" s="86">
         <v>7</v>
       </c>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="105" t="s">
-        <v>88</v>
+      <c r="I10" s="101"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="109"/>
+      <c r="B11" s="111" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="80">
         <v>44389</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="87">
         <v>2.3199999999999998</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H11" s="89">
         <v>4</v>
       </c>
-      <c r="I11" s="97"/>
+      <c r="I11" s="99"/>
+      <c r="L11" s="95" t="s">
+        <v>149</v>
+      </c>
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
-      <c r="P11" s="99" t="s">
-        <v>151</v>
-      </c>
+      <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="72">
         <v>44390</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="74">
         <v>2.4700000000000002</v>
       </c>
       <c r="F12" s="74"/>
       <c r="G12" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" s="69">
         <v>4</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="100"/>
+      <c r="L12" s="96" t="s">
+        <v>41</v>
+      </c>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="100" t="s">
-        <v>43</v>
-      </c>
+      <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="72">
         <v>44391</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="75">
         <v>2.67</v>
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="69">
         <v>4</v>
       </c>
-      <c r="I13" s="95"/>
+      <c r="I13" s="100"/>
+      <c r="L13" s="96" t="s">
+        <v>42</v>
+      </c>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
-      <c r="P13" s="100" t="s">
-        <v>44</v>
-      </c>
+      <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="72">
         <v>44392</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="74">
         <v>2.84</v>
       </c>
       <c r="F14" s="74"/>
       <c r="G14" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="69">
         <v>4</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="100"/>
+      <c r="L14" s="96" t="s">
+        <v>43</v>
+      </c>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
-      <c r="P14" s="100" t="s">
-        <v>45</v>
-      </c>
+      <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="72">
         <v>44393</v>
       </c>
@@ -3960,204 +4023,196 @@
       <c r="F15" s="74"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="95"/>
+      <c r="I15" s="100"/>
+      <c r="L15" s="96" t="s">
+        <v>44</v>
+      </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
-      <c r="P15" s="100" t="s">
-        <v>46</v>
-      </c>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="72">
         <v>44394</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F16" s="75"/>
       <c r="G16" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H16" s="69">
         <v>5</v>
       </c>
-      <c r="I16" s="95"/>
+      <c r="I16" s="100"/>
+      <c r="L16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="83">
         <v>44395</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" s="88">
         <v>3.41</v>
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H17" s="86">
         <v>11.5</v>
       </c>
-      <c r="I17" s="98"/>
+      <c r="I17" s="101"/>
+      <c r="L17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
-      <c r="P17" s="71" t="s">
-        <v>4</v>
-      </c>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-    </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="105" t="s">
-        <v>84</v>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="111" t="s">
+        <v>82</v>
       </c>
       <c r="C18" s="80">
         <v>44396</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F18" s="90"/>
       <c r="G18" s="89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H18" s="89">
         <v>3</v>
       </c>
-      <c r="I18" s="97"/>
+      <c r="I18" s="99"/>
+      <c r="L18" s="106" t="s">
+        <v>3</v>
+      </c>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="71" t="s">
-        <v>15</v>
-      </c>
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="72">
         <v>44397</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" s="93" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H19" s="69">
         <v>3</v>
       </c>
-      <c r="I19" s="95"/>
+      <c r="I19" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="106" t="s">
+        <v>1</v>
+      </c>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
-      <c r="P19" s="69" t="s">
-        <v>181</v>
-      </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="72">
         <v>44398</v>
       </c>
-      <c r="D20" s="126" t="s">
-        <v>189</v>
+      <c r="D20" s="97" t="s">
+        <v>181</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G20" s="69" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H20" s="69">
         <v>4</v>
       </c>
-      <c r="I20" s="95"/>
+      <c r="I20" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="106" t="s">
+        <v>2</v>
+      </c>
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="69" t="s">
-        <v>184</v>
-      </c>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="72">
         <v>44399</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="93"/>
+      <c r="D21" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>183</v>
+      </c>
       <c r="F21" s="74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H21" s="69">
-        <v>4</v>
-      </c>
-      <c r="I21" s="95"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="106" t="s">
+        <v>192</v>
+      </c>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
-      <c r="P21" s="69" t="s">
-        <v>179</v>
-      </c>
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="72">
         <v>44400</v>
       </c>
@@ -4166,319 +4221,360 @@
       <c r="F22" s="74"/>
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="95"/>
+      <c r="I22" s="100"/>
+      <c r="L22" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
-      <c r="P22" s="69" t="s">
-        <v>180</v>
-      </c>
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="72">
         <v>44401</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="104" t="s">
+        <v>181</v>
+      </c>
       <c r="E23" s="93"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="95"/>
+      <c r="F23" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="69">
+        <v>7</v>
+      </c>
+      <c r="I23" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>185</v>
+      </c>
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="71" t="s">
-        <v>6</v>
-      </c>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
-      <c r="B24" s="104"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="109"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="83">
         <v>44402</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="86" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="94"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="98"/>
+      <c r="F24" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="86">
+        <v>11</v>
+      </c>
+      <c r="I24" s="101"/>
+      <c r="L24" s="40" t="s">
+        <v>194</v>
+      </c>
       <c r="N24" s="39"/>
       <c r="O24" s="39"/>
-      <c r="P24" s="71" t="s">
-        <v>5</v>
-      </c>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="105" t="s">
-        <v>85</v>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="109"/>
+      <c r="B25" s="111" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="80">
         <v>44403</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="92"/>
-      <c r="F25" s="87"/>
+      <c r="F25" s="87" t="s">
+        <v>189</v>
+      </c>
       <c r="G25" s="89"/>
       <c r="H25" s="89"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="99"/>
+      <c r="L25" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="N25" s="39"/>
       <c r="O25" s="39"/>
-      <c r="P25" s="71" t="s">
-        <v>168</v>
-      </c>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="72">
         <v>44404</v>
       </c>
       <c r="D26" s="71"/>
       <c r="E26" s="93"/>
-      <c r="F26" s="74"/>
+      <c r="F26" s="74" t="s">
+        <v>13</v>
+      </c>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
-      <c r="I26" s="95"/>
+      <c r="I26" s="100"/>
+      <c r="L26" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="N26" s="39"/>
       <c r="O26" s="39"/>
-      <c r="P26" s="71" t="s">
-        <v>183</v>
-      </c>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="72">
         <v>44405</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="93"/>
-      <c r="F27" s="74"/>
+      <c r="F27" s="74" t="s">
+        <v>175</v>
+      </c>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
-      <c r="I27" s="95"/>
+      <c r="I27" s="100"/>
+      <c r="L27" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="N27" s="39"/>
       <c r="O27" s="39"/>
-      <c r="P27" s="71" t="s">
-        <v>182</v>
-      </c>
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="72">
         <v>44406</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="93"/>
-      <c r="F28" s="74"/>
+      <c r="F28" s="74" t="s">
+        <v>186</v>
+      </c>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
-      <c r="I28" s="95"/>
+      <c r="I28" s="100"/>
+      <c r="L28" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="N28" s="39"/>
       <c r="O28" s="39"/>
-      <c r="P28" s="71" t="s">
-        <v>178</v>
-      </c>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="72">
         <v>44407</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="93"/>
-      <c r="F29" s="74"/>
+      <c r="F29" s="74" t="s">
+        <v>188</v>
+      </c>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
-      <c r="I29" s="95"/>
+      <c r="I29" s="100"/>
+      <c r="L29" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="N29" s="39"/>
       <c r="O29" s="39"/>
-      <c r="P29" s="71" t="s">
-        <v>14</v>
-      </c>
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="72">
         <v>44408</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="93"/>
-      <c r="F30" s="74"/>
+      <c r="F30" s="74" t="s">
+        <v>187</v>
+      </c>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
-      <c r="I30" s="95"/>
+      <c r="I30" s="100"/>
+      <c r="L30" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N30" s="39"/>
       <c r="O30" s="39"/>
-      <c r="P30" s="71" t="s">
-        <v>177</v>
-      </c>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="83">
         <v>44409</v>
       </c>
       <c r="D31" s="86"/>
       <c r="E31" s="94"/>
-      <c r="F31" s="88"/>
+      <c r="F31" s="88" t="s">
+        <v>69</v>
+      </c>
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
-      <c r="I31" s="98"/>
+      <c r="I31" s="101"/>
+      <c r="L31" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="N31" s="39"/>
       <c r="O31" s="39"/>
       <c r="Q31" s="39"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K32" s="105"/>
+      <c r="L32" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="N32" s="39"/>
       <c r="O32" s="39"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-    </row>
-    <row r="33" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K33" s="105"/>
+      <c r="L33" s="40" t="s">
+        <v>176</v>
+      </c>
       <c r="N33" s="39"/>
       <c r="O33" s="39"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-    </row>
-    <row r="34" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K34" s="105"/>
+      <c r="L34" s="40" t="s">
+        <v>197</v>
+      </c>
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
       <c r="Q34" s="39"/>
       <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-    </row>
-    <row r="35" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K35" s="105"/>
+      <c r="L35" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-    </row>
-    <row r="36" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K36" s="105"/>
+      <c r="L36" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-    </row>
-    <row r="37" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K37" s="105"/>
+      <c r="L37" s="40" t="s">
+        <v>195</v>
+      </c>
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-    </row>
-    <row r="38" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K38" s="105"/>
+      <c r="L38" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
       <c r="Q38" s="39"/>
       <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-    </row>
-    <row r="39" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K39" s="105"/>
+      <c r="L39" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
       <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-    </row>
-    <row r="40" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="K40" s="105"/>
+      <c r="L40" s="40" t="s">
+        <v>196</v>
+      </c>
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="39"/>
       <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-    </row>
-    <row r="41" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="L41" s="40" t="s">
+        <v>60</v>
+      </c>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-    </row>
-    <row r="42" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="L42" s="40" t="s">
+        <v>193</v>
+      </c>
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="39"/>
       <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-    </row>
-    <row r="43" spans="14:20" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="11:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="L43" s="40" t="s">
+        <v>198</v>
+      </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="39"/>
       <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
+    </row>
+    <row r="44" spans="11:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="L44" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="11:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="L45" s="40" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4499,7 +4595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35D18D-4B8A-4300-A1BD-4C831E6DAB9D}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
@@ -4520,55 +4616,55 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>48</v>
+      <c r="B2" s="123" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="19">
         <v>44240</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22"/>
       <c r="G2" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="24">
         <v>44241</v>
       </c>
@@ -4579,122 +4675,122 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="108" t="s">
-        <v>84</v>
+      <c r="A4" s="120"/>
+      <c r="B4" s="114" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="19">
         <v>44242</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="4">
         <v>44243</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="106">
+      <c r="A6" s="120"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="112">
         <v>44244</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="107"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="4">
         <v>44245</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="4">
         <v>44246</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="4">
         <v>44247</v>
       </c>
@@ -4705,33 +4801,33 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="114"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="24">
         <v>44248</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="111" t="s">
-        <v>85</v>
+      <c r="A12" s="120"/>
+      <c r="B12" s="117" t="s">
+        <v>83</v>
       </c>
       <c r="C12" s="13">
         <v>44249</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
@@ -4739,38 +4835,38 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="106">
+      <c r="A13" s="120"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="112">
         <v>44250</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="107"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="4">
         <v>44251</v>
       </c>
@@ -4779,8 +4875,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="4">
         <v>44252</v>
       </c>
@@ -4791,8 +4887,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="4">
         <v>44253</v>
       </c>
@@ -4803,13 +4899,13 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="106">
+      <c r="A18" s="120"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="112">
         <v>44254</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -4817,11 +4913,11 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="107"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="35"/>
@@ -4829,13 +4925,13 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="24">
         <v>44255</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="27"/>
@@ -4843,17 +4939,17 @@
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="108" t="s">
-        <v>87</v>
+      <c r="A21" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>85</v>
       </c>
       <c r="C21" s="19">
         <v>44256</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
@@ -4861,8 +4957,8 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="109"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="4">
         <v>44257</v>
       </c>
@@ -4875,13 +4971,13 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="106">
+      <c r="A23" s="120"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="112">
         <v>44258</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
@@ -4889,41 +4985,41 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="107"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="106">
+      <c r="A25" s="120"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="112">
         <v>44259</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="107"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -4931,8 +5027,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="109"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="4">
         <v>44260</v>
       </c>
@@ -4943,8 +5039,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="109"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="4">
         <v>44261</v>
       </c>
@@ -4955,8 +5051,8 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
-      <c r="B29" s="110"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="24">
         <v>44262</v>
       </c>
@@ -4967,9 +5063,9 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="108" t="s">
-        <v>88</v>
+      <c r="A30" s="120"/>
+      <c r="B30" s="114" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="19">
         <v>44263</v>
@@ -4981,8 +5077,8 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="109"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="4">
         <v>44264</v>
       </c>
@@ -4993,8 +5089,8 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="109"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="4">
         <v>44265</v>
       </c>
@@ -5005,8 +5101,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="109"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="4">
         <v>44266</v>
       </c>
@@ -5017,8 +5113,8 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="4">
         <v>44267</v>
       </c>
@@ -5029,8 +5125,8 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="109"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="4">
         <v>44268</v>
       </c>
@@ -5041,8 +5137,8 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="24">
         <v>44269</v>
       </c>
@@ -5053,9 +5149,9 @@
       <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="108" t="s">
-        <v>84</v>
+      <c r="A37" s="120"/>
+      <c r="B37" s="114" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="19">
         <v>44270</v>
@@ -5069,8 +5165,8 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="4">
         <v>44271</v>
       </c>
@@ -5078,15 +5174,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="4">
         <v>44272</v>
       </c>
@@ -5094,15 +5190,15 @@
         <v>0</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="4">
         <v>44273</v>
       </c>
@@ -5110,15 +5206,15 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="109"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="4">
         <v>44274</v>
       </c>
@@ -5126,15 +5222,15 @@
         <v>0</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="4">
         <v>44275</v>
       </c>
@@ -5142,15 +5238,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="24">
         <v>44276</v>
       </c>
@@ -5158,16 +5254,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="111" t="s">
-        <v>85</v>
+      <c r="A44" s="120"/>
+      <c r="B44" s="117" t="s">
+        <v>83</v>
       </c>
       <c r="C44" s="13">
         <v>44277</v>
@@ -5176,185 +5272,185 @@
         <v>0</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="109"/>
+      <c r="A45" s="120"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="4">
         <v>44278</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="4">
         <v>44279</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="4">
         <v>44280</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="109"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="4">
         <v>44281</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="4">
         <v>44282</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="24">
         <v>44283</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>90</v>
+      <c r="A51" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="123" t="s">
+        <v>88</v>
       </c>
       <c r="C51" s="19">
         <v>44284</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="109"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="4">
         <v>44285</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="119">
+      <c r="A53" s="120"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="125">
         <v>44286</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="119"/>
+      <c r="A54" s="120"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="4">
         <v>44287</v>
       </c>
@@ -5365,8 +5461,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="109"/>
+      <c r="A56" s="120"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="4">
         <v>44288</v>
       </c>
@@ -5379,13 +5475,13 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="109"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="4">
         <v>44289</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="7"/>
@@ -5393,13 +5489,13 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="24">
         <v>44290</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="27"/>
@@ -5407,15 +5503,15 @@
       <c r="H58" s="28"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="117" t="s">
-        <v>88</v>
+      <c r="A59" s="120"/>
+      <c r="B59" s="123" t="s">
+        <v>86</v>
       </c>
       <c r="C59" s="19">
         <v>44291</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="22"/>
@@ -5423,40 +5519,40 @@
       <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="109"/>
+      <c r="A60" s="120"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="4">
         <v>44292</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="B61" s="109"/>
+      <c r="A61" s="120"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="4">
         <v>44293</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="109"/>
+      <c r="A62" s="120"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="4">
         <v>44294</v>
       </c>
@@ -5464,15 +5560,15 @@
         <v>4</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="114"/>
-      <c r="B63" s="109"/>
+      <c r="A63" s="120"/>
+      <c r="B63" s="115"/>
       <c r="C63" s="4">
         <v>44295</v>
       </c>
@@ -5483,8 +5579,8 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="109"/>
+      <c r="A64" s="120"/>
+      <c r="B64" s="115"/>
       <c r="C64" s="4">
         <v>44296</v>
       </c>
@@ -5495,8 +5591,8 @@
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="24">
         <v>44297</v>
       </c>
@@ -5504,54 +5600,54 @@
         <v>4</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="114"/>
-      <c r="B66" s="118" t="s">
-        <v>84</v>
+      <c r="A66" s="120"/>
+      <c r="B66" s="124" t="s">
+        <v>82</v>
       </c>
       <c r="C66" s="13">
         <v>44298</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="114"/>
-      <c r="B67" s="109"/>
+      <c r="A67" s="120"/>
+      <c r="B67" s="115"/>
       <c r="C67" s="4">
         <v>44299</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="114"/>
-      <c r="B68" s="109"/>
+      <c r="A68" s="120"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="4">
         <v>44300</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
@@ -5559,8 +5655,8 @@
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="110"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="24">
         <v>44301</v>
       </c>
@@ -5602,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F0678-14D1-45EE-85A1-C4C1E5086636}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -5622,46 +5718,46 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>148</v>
+      <c r="A2" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>146</v>
       </c>
       <c r="C2" s="42">
         <v>44093</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8">
@@ -5669,17 +5765,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="54">
         <v>44094</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28">
@@ -5687,19 +5783,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="111" t="s">
-        <v>125</v>
+      <c r="A4" s="115"/>
+      <c r="B4" s="117" t="s">
+        <v>123</v>
       </c>
       <c r="C4" s="51">
         <v>44095</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17">
@@ -5707,17 +5803,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="42">
         <v>44096</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8">
@@ -5725,17 +5821,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="42">
         <v>44097</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8">
@@ -5743,17 +5839,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="42">
         <v>44098</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8">
@@ -5761,17 +5857,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="42">
         <v>44099</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
@@ -5779,17 +5875,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="42">
         <v>44100</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8">
@@ -5797,17 +5893,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="54">
         <v>44101</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28">
@@ -5815,21 +5911,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>90</v>
+      <c r="A11" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>88</v>
       </c>
       <c r="C11" s="59">
         <v>44102</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
@@ -5837,8 +5933,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="42">
         <v>44103</v>
       </c>
@@ -5849,8 +5945,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="42">
         <v>44104</v>
       </c>
@@ -5861,13 +5957,13 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="42">
         <v>44105</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="47"/>
@@ -5877,17 +5973,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="42">
         <v>44106</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8">
@@ -5895,17 +5991,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="42">
         <v>44107</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8">
@@ -5913,17 +6009,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="54">
         <v>44108</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28">
@@ -5931,19 +6027,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="120">
+      <c r="A18" s="115"/>
+      <c r="B18" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="126">
         <v>44109</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="61"/>
       <c r="F18" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23">
@@ -5951,15 +6047,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="121"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8">
@@ -5967,15 +6063,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="121"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8">
@@ -5983,8 +6079,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="42">
         <v>44110</v>
       </c>
@@ -5995,8 +6091,8 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="42">
         <v>44111</v>
       </c>
@@ -6007,8 +6103,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="42">
         <v>44112</v>
       </c>
@@ -6019,8 +6115,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="42">
         <v>44113</v>
       </c>
@@ -6031,17 +6127,17 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="121">
+      <c r="A25" s="115"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="127">
         <v>44114</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8">
@@ -6049,15 +6145,15 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="121"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8">
@@ -6065,17 +6161,17 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="109"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="54">
         <v>44115</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28">
@@ -6083,9 +6179,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
-      <c r="B28" s="108" t="s">
-        <v>84</v>
+      <c r="A28" s="115"/>
+      <c r="B28" s="114" t="s">
+        <v>82</v>
       </c>
       <c r="C28" s="59">
         <v>44116</v>
@@ -6097,17 +6193,17 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="42">
         <v>44117</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8">
@@ -6115,8 +6211,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="42">
         <v>44118</v>
       </c>
@@ -6127,17 +6223,17 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="42">
         <v>44119</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
@@ -6145,8 +6241,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="42">
         <v>44120</v>
       </c>
@@ -6157,17 +6253,17 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="42">
         <v>44121</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8">
@@ -6175,17 +6271,17 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="121">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="127">
         <v>44122</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8">
@@ -6193,15 +6289,15 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="122"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28">
@@ -6209,9 +6305,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
-      <c r="B36" s="108" t="s">
-        <v>85</v>
+      <c r="A36" s="115"/>
+      <c r="B36" s="114" t="s">
+        <v>83</v>
       </c>
       <c r="C36" s="59">
         <v>44123</v>
@@ -6223,8 +6319,8 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="42">
         <v>44124</v>
       </c>
@@ -6235,8 +6331,8 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="42">
         <v>44125</v>
       </c>
@@ -6247,8 +6343,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="42">
         <v>44126</v>
       </c>
@@ -6259,8 +6355,8 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="42">
         <v>44127</v>
       </c>
@@ -6271,13 +6367,13 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="42">
         <v>44128</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="50">
         <v>25</v>
@@ -6289,8 +6385,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="54">
         <v>44129</v>
       </c>
@@ -6301,15 +6397,15 @@
       <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="118" t="s">
-        <v>140</v>
+      <c r="A43" s="115"/>
+      <c r="B43" s="124" t="s">
+        <v>138</v>
       </c>
       <c r="C43" s="51">
         <v>44130</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="68">
         <v>80</v>
@@ -6321,13 +6417,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="42">
         <v>44131</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" s="50">
         <v>93</v>
@@ -6339,16 +6435,16 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
-      <c r="B45" s="109"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="42">
         <v>44132</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="8"/>
@@ -6357,8 +6453,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="42">
         <v>44133</v>
       </c>
@@ -6369,8 +6465,8 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="42">
         <v>44134</v>
       </c>
@@ -6381,8 +6477,8 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
-      <c r="B48" s="109"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="42">
         <v>44135</v>
       </c>
@@ -6393,17 +6489,17 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="110"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="54">
         <v>44136</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28">
@@ -6411,11 +6507,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="108" t="s">
-        <v>90</v>
+      <c r="A50" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="114" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="59">
         <v>44137</v>
@@ -6427,17 +6523,17 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
-      <c r="B51" s="109"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="42">
         <v>44138</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8">
@@ -6445,8 +6541,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="109"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="42">
         <v>44139</v>
       </c>
@@ -6457,17 +6553,17 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="42">
         <v>44140</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8">
@@ -6475,8 +6571,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="42">
         <v>44141</v>
       </c>
@@ -6487,8 +6583,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="42">
         <v>44142</v>
       </c>
@@ -6499,17 +6595,17 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="109"/>
-      <c r="B56" s="110"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="54">
         <v>44143</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="28">
@@ -6517,19 +6613,19 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
-      <c r="B57" s="108" t="s">
-        <v>88</v>
+      <c r="A57" s="115"/>
+      <c r="B57" s="114" t="s">
+        <v>86</v>
       </c>
       <c r="C57" s="59">
         <v>44144</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23">
@@ -6537,17 +6633,17 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="109"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="42">
         <v>44145</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8">
@@ -6555,17 +6651,17 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="109"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="115"/>
       <c r="C59" s="42">
         <v>44146</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8">
@@ -6573,17 +6669,17 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="109"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="42">
         <v>44147</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8">
@@ -6591,8 +6687,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="109"/>
+      <c r="A61" s="115"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="42">
         <v>44148</v>
       </c>
@@ -6603,17 +6699,17 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
-      <c r="B62" s="109"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="42">
         <v>44149</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8">
@@ -6621,17 +6717,17 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="109"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="54">
         <v>44150</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="28">
@@ -6639,19 +6735,19 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="108" t="s">
-        <v>84</v>
+      <c r="A64" s="115"/>
+      <c r="B64" s="114" t="s">
+        <v>82</v>
       </c>
       <c r="C64" s="59">
         <v>44151</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23">
@@ -6659,17 +6755,17 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
-      <c r="B65" s="109"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="42">
         <v>44152</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8">
@@ -6677,8 +6773,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
-      <c r="B66" s="109"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
       <c r="C66" s="42">
         <v>44153</v>
       </c>
@@ -6689,17 +6785,17 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="123">
+      <c r="A67" s="115"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="129">
         <v>44154</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8">
@@ -6707,15 +6803,15 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
-      <c r="B68" s="109"/>
-      <c r="C68" s="124"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="130"/>
       <c r="D68" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8">
@@ -6723,8 +6819,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
-      <c r="B69" s="109"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="42">
         <v>44155</v>
       </c>
@@ -6735,8 +6831,8 @@
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
-      <c r="B70" s="109"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="42">
         <v>44156</v>
       </c>
@@ -6747,17 +6843,17 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="109"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="54">
         <v>44157</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="28">
@@ -6765,19 +6861,19 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
-      <c r="B72" s="118" t="s">
-        <v>125</v>
+      <c r="A72" s="115"/>
+      <c r="B72" s="124" t="s">
+        <v>123</v>
       </c>
       <c r="C72" s="51">
         <v>44158</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17">
@@ -6785,8 +6881,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
-      <c r="B73" s="109"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="42">
         <v>44159</v>
       </c>
@@ -6797,17 +6893,17 @@
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="110"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="54">
         <v>44160</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="28">

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57DAB0-4F14-4242-93BC-15C5CB248678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145A7B3-33F5-41ED-8E92-9A005B5DFBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21990" yWindow="1305" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
   <si>
     <t>JVM</t>
   </si>
@@ -2660,7 +2660,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:00~23:00</t>
+    <t>Jdbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>面试复盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即席查询，用户自定义查询条件的查询方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00~17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30~11:40
+13:30~23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3014,7 +3043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3328,61 +3357,64 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3683,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3734,7 +3766,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="77"/>
@@ -3751,8 +3783,8 @@
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="80">
@@ -3768,8 +3800,8 @@
       <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="72">
         <v>44383</v>
       </c>
@@ -3783,8 +3815,8 @@
       <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="72">
         <v>44384</v>
       </c>
@@ -3798,8 +3830,8 @@
       <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="72">
         <v>44385</v>
       </c>
@@ -3817,8 +3849,8 @@
       <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="72">
         <v>44386</v>
       </c>
@@ -3834,9 +3866,9 @@
       <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="107">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="108">
         <v>44387</v>
       </c>
       <c r="D8" s="71" t="s">
@@ -3855,9 +3887,9 @@
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="107"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="70" t="s">
         <v>12</v>
       </c>
@@ -3874,8 +3906,8 @@
       <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="83">
         <v>44388</v>
       </c>
@@ -3895,8 +3927,8 @@
       <c r="I10" s="101"/>
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="111" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="112" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="80">
@@ -3926,8 +3958,8 @@
       <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="72">
         <v>44390</v>
       </c>
@@ -3955,8 +3987,8 @@
       <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="72">
         <v>44391</v>
       </c>
@@ -3984,8 +4016,8 @@
       <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="72">
         <v>44392</v>
       </c>
@@ -4013,8 +4045,8 @@
       <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="72">
         <v>44393</v>
       </c>
@@ -4033,8 +4065,8 @@
       <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="72">
         <v>44394</v>
       </c>
@@ -4058,9 +4090,9 @@
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="83">
         <v>44395</v>
       </c>
@@ -4084,9 +4116,9 @@
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
     </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="111" t="s">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="110"/>
+      <c r="B18" s="112" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="80">
@@ -4114,9 +4146,9 @@
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="72">
         <v>44397</v>
       </c>
@@ -4146,9 +4178,9 @@
       <c r="Q19" s="39"/>
       <c r="R19" s="39"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="72">
         <v>44398</v>
       </c>
@@ -4178,9 +4210,9 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="72">
         <v>44399</v>
       </c>
@@ -4210,9 +4242,9 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="72">
         <v>44400</v>
       </c>
@@ -4230,9 +4262,9 @@
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="72">
         <v>44401</v>
       </c>
@@ -4254,15 +4286,18 @@
       </c>
       <c r="L23" s="40" t="s">
         <v>185</v>
+      </c>
+      <c r="M23" t="s">
+        <v>200</v>
       </c>
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="110"/>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="83">
         <v>44402</v>
       </c>
@@ -4274,10 +4309,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="86" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H24" s="86">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I24" s="101"/>
       <c r="L24" s="40" t="s">
@@ -4288,21 +4323,27 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
-      <c r="B25" s="111" t="s">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="112" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="80">
         <v>44403</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="82" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="92"/>
       <c r="F25" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
+      <c r="G25" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="89">
+        <v>13</v>
+      </c>
       <c r="I25" s="99"/>
       <c r="L25" s="40" t="s">
         <v>13</v>
@@ -4312,9 +4353,9 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="72">
         <v>44404</v>
       </c>
@@ -4334,9 +4375,9 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="72">
         <v>44405</v>
       </c>
@@ -4356,9 +4397,9 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="110"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="72">
         <v>44406</v>
       </c>
@@ -4378,9 +4419,9 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72">
         <v>44407</v>
       </c>
@@ -4400,9 +4441,9 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="110"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="72">
         <v>44408</v>
       </c>
@@ -4422,9 +4463,9 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="110"/>
-      <c r="B31" s="110"/>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="83">
         <v>44409</v>
       </c>
@@ -4444,7 +4485,7 @@
       <c r="Q31" s="39"/>
       <c r="R31" s="39"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="K32" s="105"/>
       <c r="L32" s="40" t="s">
         <v>71</v>
@@ -4453,6 +4494,9 @@
       <c r="O32" s="39"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
+      <c r="S32" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="33" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K33" s="105"/>
@@ -4558,7 +4602,7 @@
     </row>
     <row r="43" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="L43" s="40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
@@ -4568,12 +4612,22 @@
     </row>
     <row r="44" spans="11:18" ht="15" x14ac:dyDescent="0.2">
       <c r="L44" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="11:18" ht="15" x14ac:dyDescent="0.2">
       <c r="L45" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="11:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="L46" s="40" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="11:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="L47" s="40" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4641,10 +4695,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="121" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="19">
@@ -4663,8 +4717,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
-      <c r="B3" s="116"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="24">
         <v>44241</v>
       </c>
@@ -4675,8 +4729,8 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
-      <c r="B4" s="114" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="122" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="19">
@@ -4695,8 +4749,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="4">
         <v>44243</v>
       </c>
@@ -4713,9 +4767,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="112">
+      <c r="A6" s="117"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="125">
         <v>44244</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4731,9 +4785,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
@@ -4749,8 +4803,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="115"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="4">
         <v>44245</v>
       </c>
@@ -4769,8 +4823,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="4">
         <v>44246</v>
       </c>
@@ -4789,8 +4843,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="4">
         <v>44247</v>
       </c>
@@ -4801,8 +4855,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="24">
         <v>44248</v>
       </c>
@@ -4819,8 +4873,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="117" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="120" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="13">
@@ -4835,9 +4889,9 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="112">
+      <c r="A13" s="117"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="125">
         <v>44250</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -4851,9 +4905,9 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
@@ -4865,8 +4919,8 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="4">
         <v>44251</v>
       </c>
@@ -4875,8 +4929,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="4">
         <v>44252</v>
       </c>
@@ -4887,8 +4941,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="4">
         <v>44253</v>
       </c>
@@ -4899,9 +4953,9 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="112">
+      <c r="A18" s="117"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="125">
         <v>44254</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -4913,9 +4967,9 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="113"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="33" t="s">
         <v>62</v>
       </c>
@@ -4925,8 +4979,8 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="24">
         <v>44255</v>
       </c>
@@ -4939,10 +4993,10 @@
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="122" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="19">
@@ -4957,8 +5011,8 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="4">
         <v>44257</v>
       </c>
@@ -4971,9 +5025,9 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="112">
+      <c r="A23" s="117"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="125">
         <v>44258</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4985,9 +5039,9 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
@@ -4999,9 +5053,9 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="112">
+      <c r="A25" s="117"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="125">
         <v>44259</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -5015,9 +5069,9 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="5" t="s">
         <v>69</v>
       </c>
@@ -5027,8 +5081,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="4">
         <v>44260</v>
       </c>
@@ -5039,8 +5093,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="4">
         <v>44261</v>
       </c>
@@ -5051,8 +5105,8 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="120"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="24">
         <v>44262</v>
       </c>
@@ -5063,8 +5117,8 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
-      <c r="B30" s="114" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="122" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="19">
@@ -5077,8 +5131,8 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="4">
         <v>44264</v>
       </c>
@@ -5089,8 +5143,8 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="4">
         <v>44265</v>
       </c>
@@ -5101,8 +5155,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="115"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="4">
         <v>44266</v>
       </c>
@@ -5113,8 +5167,8 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="120"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="4">
         <v>44267</v>
       </c>
@@ -5125,8 +5179,8 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="4">
         <v>44268</v>
       </c>
@@ -5137,8 +5191,8 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="120"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="24">
         <v>44269</v>
       </c>
@@ -5149,8 +5203,8 @@
       <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
-      <c r="B37" s="114" t="s">
+      <c r="A37" s="117"/>
+      <c r="B37" s="122" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="19">
@@ -5165,8 +5219,8 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
-      <c r="B38" s="115"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="4">
         <v>44271</v>
       </c>
@@ -5181,8 +5235,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="4">
         <v>44272</v>
       </c>
@@ -5197,8 +5251,8 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="4">
         <v>44273</v>
       </c>
@@ -5213,8 +5267,8 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="4">
         <v>44274</v>
       </c>
@@ -5229,8 +5283,8 @@
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
-      <c r="B42" s="115"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="4">
         <v>44275</v>
       </c>
@@ -5245,8 +5299,8 @@
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="116"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="24">
         <v>44276</v>
       </c>
@@ -5261,8 +5315,8 @@
       <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
-      <c r="B44" s="117" t="s">
+      <c r="A44" s="117"/>
+      <c r="B44" s="120" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="13">
@@ -5279,8 +5333,8 @@
       <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="117"/>
+      <c r="B45" s="114"/>
       <c r="C45" s="4">
         <v>44278</v>
       </c>
@@ -5295,8 +5349,8 @@
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="117"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="4">
         <v>44279</v>
       </c>
@@ -5313,8 +5367,8 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="4">
         <v>44280</v>
       </c>
@@ -5331,8 +5385,8 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
-      <c r="B48" s="115"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="4">
         <v>44281</v>
       </c>
@@ -5347,8 +5401,8 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="4">
         <v>44282</v>
       </c>
@@ -5365,8 +5419,8 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="24">
         <v>44283</v>
       </c>
@@ -5381,10 +5435,10 @@
       <c r="H50" s="28"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="121" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="19">
@@ -5403,8 +5457,8 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
-      <c r="B52" s="115"/>
+      <c r="A52" s="117"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="4">
         <v>44285</v>
       </c>
@@ -5419,9 +5473,9 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="125">
+      <c r="A53" s="117"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="119">
         <v>44286</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5435,9 +5489,9 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="125"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="5" t="s">
         <v>70</v>
       </c>
@@ -5449,8 +5503,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="120"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="4">
         <v>44287</v>
       </c>
@@ -5461,8 +5515,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="120"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="117"/>
+      <c r="B56" s="114"/>
       <c r="C56" s="4">
         <v>44288</v>
       </c>
@@ -5475,8 +5529,8 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="114"/>
       <c r="C57" s="4">
         <v>44289</v>
       </c>
@@ -5489,8 +5543,8 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="120"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="24">
         <v>44290</v>
       </c>
@@ -5503,8 +5557,8 @@
       <c r="H58" s="28"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
-      <c r="B59" s="123" t="s">
+      <c r="A59" s="117"/>
+      <c r="B59" s="121" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="19">
@@ -5519,8 +5573,8 @@
       <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
-      <c r="B60" s="115"/>
+      <c r="A60" s="117"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="4">
         <v>44292</v>
       </c>
@@ -5535,8 +5589,8 @@
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
-      <c r="B61" s="115"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="4">
         <v>44293</v>
       </c>
@@ -5551,8 +5605,8 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
-      <c r="B62" s="115"/>
+      <c r="A62" s="117"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="4">
         <v>44294</v>
       </c>
@@ -5567,8 +5621,8 @@
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
-      <c r="B63" s="115"/>
+      <c r="A63" s="117"/>
+      <c r="B63" s="114"/>
       <c r="C63" s="4">
         <v>44295</v>
       </c>
@@ -5579,8 +5633,8 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="120"/>
-      <c r="B64" s="115"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="114"/>
       <c r="C64" s="4">
         <v>44296</v>
       </c>
@@ -5591,8 +5645,8 @@
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="120"/>
-      <c r="B65" s="116"/>
+      <c r="A65" s="117"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="24">
         <v>44297</v>
       </c>
@@ -5607,8 +5661,8 @@
       <c r="H65" s="28"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="120"/>
-      <c r="B66" s="124" t="s">
+      <c r="A66" s="117"/>
+      <c r="B66" s="113" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="13">
@@ -5625,8 +5679,8 @@
       <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
-      <c r="B67" s="115"/>
+      <c r="A67" s="117"/>
+      <c r="B67" s="114"/>
       <c r="C67" s="4">
         <v>44299</v>
       </c>
@@ -5641,8 +5695,8 @@
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
-      <c r="B68" s="115"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="114"/>
       <c r="C68" s="4">
         <v>44300</v>
       </c>
@@ -5655,8 +5709,8 @@
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="121"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="24">
         <v>44301</v>
       </c>
@@ -5668,12 +5722,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -5682,11 +5735,12 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5743,10 +5797,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="114" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="42">
@@ -5765,8 +5819,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="54">
         <v>44094</v>
       </c>
@@ -5783,8 +5837,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="117" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="120" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="51">
@@ -5803,8 +5857,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="42">
         <v>44096</v>
       </c>
@@ -5821,8 +5875,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="42">
         <v>44097</v>
       </c>
@@ -5839,8 +5893,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="42">
         <v>44098</v>
       </c>
@@ -5857,8 +5911,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="42">
         <v>44099</v>
       </c>
@@ -5875,8 +5929,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="42">
         <v>44100</v>
       </c>
@@ -5893,8 +5947,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="54">
         <v>44101</v>
       </c>
@@ -5911,10 +5965,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="122" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="59">
@@ -5933,8 +5987,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="42">
         <v>44103</v>
       </c>
@@ -5945,8 +5999,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="42">
         <v>44104</v>
       </c>
@@ -5957,8 +6011,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="42">
         <v>44105</v>
       </c>
@@ -5973,8 +6027,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="42">
         <v>44106</v>
       </c>
@@ -5991,8 +6045,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="42">
         <v>44107</v>
       </c>
@@ -6009,8 +6063,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="54">
         <v>44108</v>
       </c>
@@ -6027,11 +6081,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="114" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="127">
         <v>44109</v>
       </c>
       <c r="D18" s="60" t="s">
@@ -6047,9 +6101,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="127"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="43" t="s">
         <v>129</v>
       </c>
@@ -6063,9 +6117,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="127"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="43" t="s">
         <v>101</v>
       </c>
@@ -6079,8 +6133,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="42">
         <v>44110</v>
       </c>
@@ -6091,8 +6145,8 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="42">
         <v>44111</v>
       </c>
@@ -6103,8 +6157,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="115"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="42">
         <v>44112</v>
       </c>
@@ -6115,8 +6169,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="42">
         <v>44113</v>
       </c>
@@ -6127,9 +6181,9 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="127">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="128">
         <v>44114</v>
       </c>
       <c r="D25" s="43" t="s">
@@ -6145,9 +6199,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="127"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="43" t="s">
         <v>102</v>
       </c>
@@ -6161,8 +6215,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="54">
         <v>44115</v>
       </c>
@@ -6179,8 +6233,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="114" t="s">
+      <c r="A28" s="114"/>
+      <c r="B28" s="122" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="59">
@@ -6193,8 +6247,8 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="42">
         <v>44117</v>
       </c>
@@ -6211,8 +6265,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="42">
         <v>44118</v>
       </c>
@@ -6223,8 +6277,8 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="42">
         <v>44119</v>
       </c>
@@ -6241,8 +6295,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="42">
         <v>44120</v>
       </c>
@@ -6253,8 +6307,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="42">
         <v>44121</v>
       </c>
@@ -6271,9 +6325,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="127">
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="128">
         <v>44122</v>
       </c>
       <c r="D34" s="43" t="s">
@@ -6289,9 +6343,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="128"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="55" t="s">
         <v>103</v>
       </c>
@@ -6305,8 +6359,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="114" t="s">
+      <c r="A36" s="114"/>
+      <c r="B36" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="59">
@@ -6319,8 +6373,8 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="42">
         <v>44124</v>
       </c>
@@ -6331,8 +6385,8 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="42">
         <v>44125</v>
       </c>
@@ -6343,8 +6397,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="42">
         <v>44126</v>
       </c>
@@ -6355,8 +6409,8 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="42">
         <v>44127</v>
       </c>
@@ -6367,8 +6421,8 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="42">
         <v>44128</v>
       </c>
@@ -6385,8 +6439,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="54">
         <v>44129</v>
       </c>
@@ -6397,8 +6451,8 @@
       <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="124" t="s">
+      <c r="A43" s="114"/>
+      <c r="B43" s="113" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="51">
@@ -6417,8 +6471,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
       <c r="C44" s="42">
         <v>44131</v>
       </c>
@@ -6435,8 +6489,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
       <c r="C45" s="42">
         <v>44132</v>
       </c>
@@ -6453,8 +6507,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="42">
         <v>44133</v>
       </c>
@@ -6465,8 +6519,8 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="42">
         <v>44134</v>
       </c>
@@ -6477,8 +6531,8 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="115"/>
-      <c r="B48" s="115"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="42">
         <v>44135</v>
       </c>
@@ -6489,8 +6543,8 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="54">
         <v>44136</v>
       </c>
@@ -6507,10 +6561,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="122" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="59">
@@ -6523,8 +6577,8 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="114"/>
       <c r="C51" s="42">
         <v>44138</v>
       </c>
@@ -6541,8 +6595,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="115"/>
-      <c r="B52" s="115"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="42">
         <v>44139</v>
       </c>
@@ -6553,8 +6607,8 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="115"/>
-      <c r="B53" s="115"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="114"/>
       <c r="C53" s="42">
         <v>44140</v>
       </c>
@@ -6571,8 +6625,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="115"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="42">
         <v>44141</v>
       </c>
@@ -6583,8 +6637,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="115"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="42">
         <v>44142</v>
       </c>
@@ -6595,8 +6649,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="54">
         <v>44143</v>
       </c>
@@ -6613,8 +6667,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="115"/>
-      <c r="B57" s="114" t="s">
+      <c r="A57" s="114"/>
+      <c r="B57" s="122" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="59">
@@ -6633,8 +6687,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="115"/>
-      <c r="B58" s="115"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="42">
         <v>44145</v>
       </c>
@@ -6651,8 +6705,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="115"/>
-      <c r="B59" s="115"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="42">
         <v>44146</v>
       </c>
@@ -6669,8 +6723,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="115"/>
-      <c r="B60" s="115"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="42">
         <v>44147</v>
       </c>
@@ -6687,8 +6741,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="115"/>
-      <c r="B61" s="115"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="42">
         <v>44148</v>
       </c>
@@ -6699,8 +6753,8 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="115"/>
-      <c r="B62" s="115"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="42">
         <v>44149</v>
       </c>
@@ -6717,8 +6771,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="115"/>
       <c r="C63" s="54">
         <v>44150</v>
       </c>
@@ -6735,8 +6789,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="115"/>
-      <c r="B64" s="114" t="s">
+      <c r="A64" s="114"/>
+      <c r="B64" s="122" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="59">
@@ -6755,8 +6809,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="115"/>
-      <c r="B65" s="115"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
       <c r="C65" s="42">
         <v>44152</v>
       </c>
@@ -6773,8 +6827,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="115"/>
-      <c r="B66" s="115"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
       <c r="C66" s="42">
         <v>44153</v>
       </c>
@@ -6785,9 +6839,9 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="115"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="129">
+      <c r="A67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="130">
         <v>44154</v>
       </c>
       <c r="D67" s="43" t="s">
@@ -6803,9 +6857,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="115"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="130"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="131"/>
       <c r="D68" s="43" t="s">
         <v>107</v>
       </c>
@@ -6819,8 +6873,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="115"/>
-      <c r="B69" s="115"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="114"/>
       <c r="C69" s="42">
         <v>44155</v>
       </c>
@@ -6831,8 +6885,8 @@
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="115"/>
-      <c r="B70" s="115"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="114"/>
       <c r="C70" s="42">
         <v>44156</v>
       </c>
@@ -6843,8 +6897,8 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="115"/>
       <c r="C71" s="54">
         <v>44157</v>
       </c>
@@ -6861,8 +6915,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="115"/>
-      <c r="B72" s="124" t="s">
+      <c r="A72" s="114"/>
+      <c r="B72" s="113" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="51">
@@ -6881,8 +6935,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
-      <c r="B73" s="115"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="42">
         <v>44159</v>
       </c>
@@ -6893,8 +6947,8 @@
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="54">
         <v>44160</v>
       </c>
@@ -6912,13 +6966,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -6930,6 +6977,13 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145A7B3-33F5-41ED-8E92-9A005B5DFBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358FAA9-4783-4D8C-A692-77122B5A510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="207">
   <si>
     <t>JVM</t>
   </si>
@@ -2690,6 +2690,11 @@
   <si>
     <t>8:30~11:40
 13:30~23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30~12:10
+13:10~23:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2700,7 +2705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2823,6 +2828,11 @@
       <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3043,7 +3053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3434,6 +3444,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3715,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4254,7 +4270,7 @@
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
       <c r="I22" s="100"/>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="106" t="s">
         <v>4</v>
       </c>
       <c r="N22" s="39"/>
@@ -4287,10 +4303,12 @@
       <c r="L23" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="40" t="s">
+        <v>194</v>
+      </c>
       <c r="O23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
@@ -4316,9 +4334,10 @@
       </c>
       <c r="I24" s="101"/>
       <c r="L24" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="N24" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="39"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
@@ -4346,14 +4365,17 @@
       </c>
       <c r="I25" s="99"/>
       <c r="L25" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="39"/>
+        <v>63</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="40"/>
       <c r="O25" s="39"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="110"/>
       <c r="C26" s="72">
@@ -4364,11 +4386,17 @@
       <c r="F26" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="100"/>
+      <c r="G26" s="133" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="69">
+        <v>13</v>
+      </c>
+      <c r="I26" s="134" t="s">
+        <v>4</v>
+      </c>
       <c r="L26" s="40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N26" s="39"/>
       <c r="O26" s="39"/>
@@ -4390,7 +4418,7 @@
       <c r="H27" s="69"/>
       <c r="I27" s="100"/>
       <c r="L27" s="40" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="N27" s="39"/>
       <c r="O27" s="39"/>
@@ -4412,7 +4440,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="100"/>
       <c r="L28" s="40" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N28" s="39"/>
       <c r="O28" s="39"/>
@@ -4434,7 +4462,7 @@
       <c r="H29" s="69"/>
       <c r="I29" s="100"/>
       <c r="L29" s="40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N29" s="39"/>
       <c r="O29" s="39"/>
@@ -4456,7 +4484,7 @@
       <c r="H30" s="69"/>
       <c r="I30" s="100"/>
       <c r="L30" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30" s="39"/>
       <c r="O30" s="39"/>
@@ -4478,7 +4506,7 @@
       <c r="H31" s="86"/>
       <c r="I31" s="101"/>
       <c r="L31" s="40" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="N31" s="39"/>
       <c r="O31" s="39"/>
@@ -4488,7 +4516,7 @@
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="K32" s="105"/>
       <c r="L32" s="40" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="N32" s="39"/>
       <c r="O32" s="39"/>
@@ -4501,7 +4529,7 @@
     <row r="33" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K33" s="105"/>
       <c r="L33" s="40" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="N33" s="39"/>
       <c r="O33" s="39"/>
@@ -4511,7 +4539,7 @@
     <row r="34" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K34" s="105"/>
       <c r="L34" s="40" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
@@ -4521,7 +4549,7 @@
     <row r="35" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K35" s="105"/>
       <c r="L35" s="40" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
@@ -4531,7 +4559,7 @@
     <row r="36" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K36" s="105"/>
       <c r="L36" s="40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
@@ -4541,7 +4569,7 @@
     <row r="37" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K37" s="105"/>
       <c r="L37" s="40" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
@@ -4551,7 +4579,7 @@
     <row r="38" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K38" s="105"/>
       <c r="L38" s="40" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
@@ -4561,7 +4589,7 @@
     <row r="39" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K39" s="105"/>
       <c r="L39" s="40" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
@@ -4572,7 +4600,7 @@
     <row r="40" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="K40" s="105"/>
       <c r="L40" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
@@ -4582,7 +4610,7 @@
     </row>
     <row r="41" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="L41" s="40" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
@@ -4592,7 +4620,7 @@
     </row>
     <row r="42" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="L42" s="40" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
@@ -4602,7 +4630,7 @@
     </row>
     <row r="43" spans="11:18" ht="15" x14ac:dyDescent="0.25">
       <c r="L43" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
@@ -4612,21 +4640,11 @@
     </row>
     <row r="44" spans="11:18" ht="15" x14ac:dyDescent="0.2">
       <c r="L44" s="40" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="11:18" ht="15" x14ac:dyDescent="0.2">
       <c r="L45" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="11:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="L46" s="40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="11:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="L47" s="40" t="s">
         <v>201</v>
       </c>
     </row>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358FAA9-4783-4D8C-A692-77122B5A510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44231B0-72D1-493B-886B-6ED4EE38A590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="216">
   <si>
     <t>JVM</t>
   </si>
@@ -2695,6 +2695,45 @@
   <si>
     <t>8:30~12:10
 13:10~23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis, MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clickhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30~12:00
+13:30~18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atguigu,csnote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~12:00
+14:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30~12:30
+13:30~23:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atguigu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30~24:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3053,7 +3092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3370,6 +3409,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3385,46 +3439,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3444,12 +3498,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3734,7 +3782,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3782,7 +3830,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="114" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="77"/>
@@ -3799,8 +3847,8 @@
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="112" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="117" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="80">
@@ -3816,8 +3864,8 @@
       <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="72">
         <v>44383</v>
       </c>
@@ -3831,8 +3879,8 @@
       <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="72">
         <v>44384</v>
       </c>
@@ -3846,8 +3894,8 @@
       <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="72">
         <v>44385</v>
       </c>
@@ -3865,8 +3913,8 @@
       <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="72">
         <v>44386</v>
       </c>
@@ -3882,9 +3930,9 @@
       <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="108">
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="113">
         <v>44387</v>
       </c>
       <c r="D8" s="71" t="s">
@@ -3903,9 +3951,9 @@
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="70" t="s">
         <v>12</v>
       </c>
@@ -3922,8 +3970,8 @@
       <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="83">
         <v>44388</v>
       </c>
@@ -3943,8 +3991,8 @@
       <c r="I10" s="101"/>
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="112" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="117" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="80">
@@ -3974,8 +4022,8 @@
       <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="72">
         <v>44390</v>
       </c>
@@ -4003,8 +4051,8 @@
       <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="72">
         <v>44391</v>
       </c>
@@ -4032,8 +4080,8 @@
       <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="72">
         <v>44392</v>
       </c>
@@ -4061,8 +4109,8 @@
       <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="72">
         <v>44393</v>
       </c>
@@ -4081,8 +4129,8 @@
       <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="72">
         <v>44394</v>
       </c>
@@ -4107,8 +4155,8 @@
       <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="83">
         <v>44395</v>
       </c>
@@ -4133,8 +4181,8 @@
       <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="112" t="s">
+      <c r="A18" s="115"/>
+      <c r="B18" s="117" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="80">
@@ -4163,8 +4211,8 @@
       <c r="R18" s="39"/>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="72">
         <v>44397</v>
       </c>
@@ -4195,8 +4243,8 @@
       <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="72">
         <v>44398</v>
       </c>
@@ -4227,8 +4275,8 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="72">
         <v>44399</v>
       </c>
@@ -4259,8 +4307,8 @@
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="72">
         <v>44400</v>
       </c>
@@ -4279,8 +4327,8 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="72">
         <v>44401</v>
       </c>
@@ -4300,22 +4348,26 @@
       <c r="I23" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="O23" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="111" t="s">
+        <v>208</v>
+      </c>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="83">
         <v>44402</v>
       </c>
@@ -4343,8 +4395,8 @@
       <c r="R24" s="39"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="112" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="117" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="80">
@@ -4367,7 +4419,7 @@
       <c r="L25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="41" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="40"/>
@@ -4376,23 +4428,25 @@
       <c r="R25" s="39"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="72">
         <v>44404</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="71" t="s">
+        <v>207</v>
+      </c>
       <c r="E26" s="93"/>
       <c r="F26" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="133" t="s">
+      <c r="G26" s="108" t="s">
         <v>206</v>
       </c>
       <c r="H26" s="69">
         <v>13</v>
       </c>
-      <c r="I26" s="134" t="s">
+      <c r="I26" s="109" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="40" t="s">
@@ -4403,19 +4457,25 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="115"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="72">
         <v>44405</v>
       </c>
-      <c r="D27" s="71"/>
+      <c r="D27" s="71" t="s">
+        <v>185</v>
+      </c>
       <c r="E27" s="93"/>
       <c r="F27" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="G27" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="69">
+        <v>8</v>
+      </c>
       <c r="I27" s="100"/>
       <c r="L27" s="40" t="s">
         <v>70</v>
@@ -4425,20 +4485,30 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="110"/>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="115"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="72">
         <v>44406</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="93"/>
+      <c r="D28" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>210</v>
+      </c>
       <c r="F28" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="100"/>
+      <c r="G28" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="69">
+        <v>11</v>
+      </c>
+      <c r="I28" s="110" t="s">
+        <v>185</v>
+      </c>
       <c r="L28" s="40" t="s">
         <v>72</v>
       </c>
@@ -4447,19 +4517,27 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
     </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="110"/>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="72">
         <v>44407</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="93"/>
+      <c r="D29" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>214</v>
+      </c>
       <c r="F29" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="69">
+        <v>13</v>
+      </c>
       <c r="I29" s="100"/>
       <c r="L29" s="40" t="s">
         <v>73</v>
@@ -4470,18 +4548,26 @@
       <c r="R29" s="39"/>
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="110"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="72">
         <v>44408</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="93"/>
+      <c r="D30" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>214</v>
+      </c>
       <c r="F30" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
+      <c r="G30" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="69">
+        <v>9</v>
+      </c>
       <c r="I30" s="100"/>
       <c r="L30" s="40" t="s">
         <v>71</v>
@@ -4492,8 +4578,8 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="83">
         <v>44409</v>
       </c>
@@ -4713,10 +4799,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="19">
@@ -4735,8 +4821,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="24">
         <v>44241</v>
       </c>
@@ -4747,8 +4833,8 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="122" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="120" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="19">
@@ -4767,8 +4853,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="4">
         <v>44243</v>
       </c>
@@ -4785,9 +4871,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="125">
+      <c r="A6" s="126"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="118">
         <v>44244</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4803,9 +4889,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="126"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
@@ -4821,8 +4907,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="114"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="4">
         <v>44245</v>
       </c>
@@ -4841,8 +4927,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="4">
         <v>44246</v>
       </c>
@@ -4861,8 +4947,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="114"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="4">
         <v>44247</v>
       </c>
@@ -4873,8 +4959,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="24">
         <v>44248</v>
       </c>
@@ -4891,8 +4977,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="120" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="123" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="13">
@@ -4907,9 +4993,9 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="125">
+      <c r="A13" s="126"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="118">
         <v>44250</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -4923,9 +5009,9 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="126"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
@@ -4937,8 +5023,8 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="114"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="4">
         <v>44251</v>
       </c>
@@ -4947,8 +5033,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="114"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="4">
         <v>44252</v>
       </c>
@@ -4959,8 +5045,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="4">
         <v>44253</v>
       </c>
@@ -4971,9 +5057,9 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="125">
+      <c r="A18" s="126"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="118">
         <v>44254</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -4985,9 +5071,9 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="126"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="33" t="s">
         <v>62</v>
       </c>
@@ -4997,8 +5083,8 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="24">
         <v>44255</v>
       </c>
@@ -5011,10 +5097,10 @@
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="120" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="19">
@@ -5029,8 +5115,8 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="4">
         <v>44257</v>
       </c>
@@ -5043,9 +5129,9 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="125">
+      <c r="A23" s="126"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="118">
         <v>44258</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -5057,9 +5143,9 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="126"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
@@ -5071,9 +5157,9 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="125">
+      <c r="A25" s="126"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="118">
         <v>44259</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -5087,9 +5173,9 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="126"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="5" t="s">
         <v>69</v>
       </c>
@@ -5099,8 +5185,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="114"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="4">
         <v>44260</v>
       </c>
@@ -5111,8 +5197,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="114"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="4">
         <v>44261</v>
       </c>
@@ -5123,8 +5209,8 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="24">
         <v>44262</v>
       </c>
@@ -5135,8 +5221,8 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="122" t="s">
+      <c r="A30" s="126"/>
+      <c r="B30" s="120" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="19">
@@ -5149,8 +5235,8 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="4">
         <v>44264</v>
       </c>
@@ -5161,8 +5247,8 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="4">
         <v>44265</v>
       </c>
@@ -5173,8 +5259,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="114"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="4">
         <v>44266</v>
       </c>
@@ -5185,8 +5271,8 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="114"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="4">
         <v>44267</v>
       </c>
@@ -5197,8 +5283,8 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="114"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="4">
         <v>44268</v>
       </c>
@@ -5209,8 +5295,8 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="24">
         <v>44269</v>
       </c>
@@ -5221,8 +5307,8 @@
       <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="122" t="s">
+      <c r="A37" s="126"/>
+      <c r="B37" s="120" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="19">
@@ -5237,8 +5323,8 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="114"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="4">
         <v>44271</v>
       </c>
@@ -5253,8 +5339,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="114"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="4">
         <v>44272</v>
       </c>
@@ -5269,8 +5355,8 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="114"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="4">
         <v>44273</v>
       </c>
@@ -5285,8 +5371,8 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="114"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="4">
         <v>44274</v>
       </c>
@@ -5301,8 +5387,8 @@
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="114"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="4">
         <v>44275</v>
       </c>
@@ -5317,8 +5403,8 @@
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="115"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="24">
         <v>44276</v>
       </c>
@@ -5333,8 +5419,8 @@
       <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
-      <c r="B44" s="120" t="s">
+      <c r="A44" s="126"/>
+      <c r="B44" s="123" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="13">
@@ -5351,8 +5437,8 @@
       <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
-      <c r="B45" s="114"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="121"/>
       <c r="C45" s="4">
         <v>44278</v>
       </c>
@@ -5367,8 +5453,8 @@
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
-      <c r="B46" s="114"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="4">
         <v>44279</v>
       </c>
@@ -5385,8 +5471,8 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="4">
         <v>44280</v>
       </c>
@@ -5403,8 +5489,8 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
-      <c r="B48" s="114"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="4">
         <v>44281</v>
       </c>
@@ -5419,8 +5505,8 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
-      <c r="B49" s="114"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="4">
         <v>44282</v>
       </c>
@@ -5437,8 +5523,8 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
-      <c r="B50" s="115"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="24">
         <v>44283</v>
       </c>
@@ -5453,10 +5539,10 @@
       <c r="H50" s="28"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="116" t="s">
+      <c r="A51" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="129" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="19">
@@ -5475,8 +5561,8 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
-      <c r="B52" s="114"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="4">
         <v>44285</v>
       </c>
@@ -5491,9 +5577,9 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="119">
+      <c r="A53" s="126"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="131">
         <v>44286</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5507,9 +5593,9 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="119"/>
+      <c r="A54" s="126"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="131"/>
       <c r="D54" s="5" t="s">
         <v>70</v>
       </c>
@@ -5521,8 +5607,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
-      <c r="B55" s="114"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="4">
         <v>44287</v>
       </c>
@@ -5533,8 +5619,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="114"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="121"/>
       <c r="C56" s="4">
         <v>44288</v>
       </c>
@@ -5547,8 +5633,8 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="114"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="4">
         <v>44289</v>
       </c>
@@ -5561,8 +5647,8 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="117"/>
-      <c r="B58" s="115"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="24">
         <v>44290</v>
       </c>
@@ -5575,8 +5661,8 @@
       <c r="H58" s="28"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="117"/>
-      <c r="B59" s="121" t="s">
+      <c r="A59" s="126"/>
+      <c r="B59" s="129" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="19">
@@ -5591,8 +5677,8 @@
       <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="117"/>
-      <c r="B60" s="114"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="121"/>
       <c r="C60" s="4">
         <v>44292</v>
       </c>
@@ -5607,8 +5693,8 @@
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="117"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="4">
         <v>44293</v>
       </c>
@@ -5623,8 +5709,8 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="4">
         <v>44294</v>
       </c>
@@ -5639,8 +5725,8 @@
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="117"/>
-      <c r="B63" s="114"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="4">
         <v>44295</v>
       </c>
@@ -5651,8 +5737,8 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="117"/>
-      <c r="B64" s="114"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="4">
         <v>44296</v>
       </c>
@@ -5663,8 +5749,8 @@
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="117"/>
-      <c r="B65" s="115"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="122"/>
       <c r="C65" s="24">
         <v>44297</v>
       </c>
@@ -5679,8 +5765,8 @@
       <c r="H65" s="28"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="117"/>
-      <c r="B66" s="113" t="s">
+      <c r="A66" s="126"/>
+      <c r="B66" s="130" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="13">
@@ -5697,8 +5783,8 @@
       <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="117"/>
-      <c r="B67" s="114"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="4">
         <v>44299</v>
       </c>
@@ -5713,8 +5799,8 @@
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="117"/>
-      <c r="B68" s="114"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="4">
         <v>44300</v>
       </c>
@@ -5727,8 +5813,8 @@
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="118"/>
-      <c r="B69" s="115"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="24">
         <v>44301</v>
       </c>
@@ -5740,11 +5826,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -5753,12 +5840,11 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5815,10 +5901,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="121" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="42">
@@ -5837,8 +5923,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="54">
         <v>44094</v>
       </c>
@@ -5855,8 +5941,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="120" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="123" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="51">
@@ -5875,8 +5961,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="42">
         <v>44096</v>
       </c>
@@ -5893,8 +5979,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="42">
         <v>44097</v>
       </c>
@@ -5911,8 +5997,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="42">
         <v>44098</v>
       </c>
@@ -5929,8 +6015,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="42">
         <v>44099</v>
       </c>
@@ -5947,8 +6033,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="42">
         <v>44100</v>
       </c>
@@ -5965,8 +6051,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="54">
         <v>44101</v>
       </c>
@@ -5983,10 +6069,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="120" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="59">
@@ -6005,8 +6091,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="42">
         <v>44103</v>
       </c>
@@ -6017,8 +6103,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="42">
         <v>44104</v>
       </c>
@@ -6029,8 +6115,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="42">
         <v>44105</v>
       </c>
@@ -6045,8 +6131,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="114"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="42">
         <v>44106</v>
       </c>
@@ -6063,8 +6149,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="42">
         <v>44107</v>
       </c>
@@ -6081,8 +6167,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="54">
         <v>44108</v>
       </c>
@@ -6099,11 +6185,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="122" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="132">
         <v>44109</v>
       </c>
       <c r="D18" s="60" t="s">
@@ -6119,9 +6205,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="128"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="43" t="s">
         <v>129</v>
       </c>
@@ -6135,9 +6221,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="128"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="43" t="s">
         <v>101</v>
       </c>
@@ -6151,8 +6237,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="114"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="42">
         <v>44110</v>
       </c>
@@ -6163,8 +6249,8 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="42">
         <v>44111</v>
       </c>
@@ -6175,8 +6261,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="42">
         <v>44112</v>
       </c>
@@ -6187,8 +6273,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="42">
         <v>44113</v>
       </c>
@@ -6199,9 +6285,9 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="128">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="133">
         <v>44114</v>
       </c>
       <c r="D25" s="43" t="s">
@@ -6217,9 +6303,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="128"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="43" t="s">
         <v>102</v>
       </c>
@@ -6233,8 +6319,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="54">
         <v>44115</v>
       </c>
@@ -6251,8 +6337,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="122" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="120" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="59">
@@ -6265,8 +6351,8 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="42">
         <v>44117</v>
       </c>
@@ -6283,8 +6369,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="42">
         <v>44118</v>
       </c>
@@ -6295,8 +6381,8 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="42">
         <v>44119</v>
       </c>
@@ -6313,8 +6399,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="42">
         <v>44120</v>
       </c>
@@ -6325,8 +6411,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="42">
         <v>44121</v>
       </c>
@@ -6343,9 +6429,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="128">
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="133">
         <v>44122</v>
       </c>
       <c r="D34" s="43" t="s">
@@ -6361,9 +6447,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="129"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="55" t="s">
         <v>103</v>
       </c>
@@ -6377,8 +6463,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="122" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="120" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="59">
@@ -6391,8 +6477,8 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="42">
         <v>44124</v>
       </c>
@@ -6403,8 +6489,8 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="42">
         <v>44125</v>
       </c>
@@ -6415,8 +6501,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="42">
         <v>44126</v>
       </c>
@@ -6427,8 +6513,8 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="42">
         <v>44127</v>
       </c>
@@ -6439,8 +6525,8 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="42">
         <v>44128</v>
       </c>
@@ -6457,8 +6543,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="54">
         <v>44129</v>
       </c>
@@ -6469,8 +6555,8 @@
       <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="113" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="130" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="51">
@@ -6489,8 +6575,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="114"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
       <c r="C44" s="42">
         <v>44131</v>
       </c>
@@ -6507,8 +6593,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="121"/>
       <c r="C45" s="42">
         <v>44132</v>
       </c>
@@ -6525,8 +6611,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="114"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="42">
         <v>44133</v>
       </c>
@@ -6537,8 +6623,8 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="42">
         <v>44134</v>
       </c>
@@ -6549,8 +6635,8 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="114"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="42">
         <v>44135</v>
       </c>
@@ -6561,8 +6647,8 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="54">
         <v>44136</v>
       </c>
@@ -6579,10 +6665,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="120" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="59">
@@ -6595,8 +6681,8 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="42">
         <v>44138</v>
       </c>
@@ -6613,8 +6699,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
+      <c r="A52" s="121"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="42">
         <v>44139</v>
       </c>
@@ -6625,8 +6711,8 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="114"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="121"/>
       <c r="C53" s="42">
         <v>44140</v>
       </c>
@@ -6643,8 +6729,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="42">
         <v>44141</v>
       </c>
@@ -6655,8 +6741,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="42">
         <v>44142</v>
       </c>
@@ -6667,8 +6753,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="122"/>
       <c r="C56" s="54">
         <v>44143</v>
       </c>
@@ -6685,8 +6771,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="122" t="s">
+      <c r="A57" s="121"/>
+      <c r="B57" s="120" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="59">
@@ -6705,8 +6791,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="121"/>
       <c r="C58" s="42">
         <v>44145</v>
       </c>
@@ -6723,8 +6809,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="114"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="121"/>
       <c r="C59" s="42">
         <v>44146</v>
       </c>
@@ -6741,8 +6827,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="114"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="121"/>
       <c r="C60" s="42">
         <v>44147</v>
       </c>
@@ -6759,8 +6845,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="42">
         <v>44148</v>
       </c>
@@ -6771,8 +6857,8 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="121"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="42">
         <v>44149</v>
       </c>
@@ -6789,8 +6875,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="54">
         <v>44150</v>
       </c>
@@ -6807,8 +6893,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="114"/>
-      <c r="B64" s="122" t="s">
+      <c r="A64" s="121"/>
+      <c r="B64" s="120" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="59">
@@ -6827,8 +6913,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="121"/>
       <c r="C65" s="42">
         <v>44152</v>
       </c>
@@ -6845,8 +6931,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="121"/>
       <c r="C66" s="42">
         <v>44153</v>
       </c>
@@ -6857,9 +6943,9 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="114"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="130">
+      <c r="A67" s="121"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="135">
         <v>44154</v>
       </c>
       <c r="D67" s="43" t="s">
@@ -6875,9 +6961,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="114"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="131"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="136"/>
       <c r="D68" s="43" t="s">
         <v>107</v>
       </c>
@@ -6891,8 +6977,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="114"/>
-      <c r="B69" s="114"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="42">
         <v>44155</v>
       </c>
@@ -6903,8 +6989,8 @@
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="114"/>
-      <c r="B70" s="114"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="121"/>
       <c r="C70" s="42">
         <v>44156</v>
       </c>
@@ -6915,8 +7001,8 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="114"/>
-      <c r="B71" s="115"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="122"/>
       <c r="C71" s="54">
         <v>44157</v>
       </c>
@@ -6933,8 +7019,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="114"/>
-      <c r="B72" s="113" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="130" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="51">
@@ -6953,8 +7039,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="114"/>
-      <c r="B73" s="114"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="121"/>
       <c r="C73" s="42">
         <v>44159</v>
       </c>
@@ -6965,8 +7051,8 @@
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="115"/>
+      <c r="A74" s="122"/>
+      <c r="B74" s="122"/>
       <c r="C74" s="54">
         <v>44160</v>
       </c>
@@ -6984,6 +7070,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -6995,13 +7088,6 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44231B0-72D1-493B-886B-6ED4EE38A590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE241E-685D-436A-A25B-D781846C6AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
   <si>
     <t>JVM</t>
   </si>
@@ -2566,19 +2566,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19:10~0:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nacos, Sentinel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2680,10 +2672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>即席查询，用户自定义查询条件的查询方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12:00~17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2734,6 +2722,153 @@
   </si>
   <si>
     <t>15:30~24:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10~23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM, GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM(-GC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科目</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安排</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>八月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>即席查询，用户自定义查询条件的查询方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>第二周</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>第三周</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2936,7 +3071,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3088,18 +3223,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3296,16 +3462,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3347,9 +3507,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3378,9 +3535,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3396,38 +3550,34 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3439,46 +3589,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3498,6 +3648,37 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3779,963 +3960,1200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="103"/>
-    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="140"/>
+    <col min="10" max="10" width="9" style="37"/>
+    <col min="11" max="11" width="7.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74">
+        <v>44381</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="92"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="76">
+        <v>44382</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="93"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="102">
+        <v>44383</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="102">
+        <v>44384</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="102">
+        <v>44385</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="103">
+        <v>5</v>
+      </c>
+      <c r="I6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="102">
+        <v>44386</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="106">
+        <v>44387</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="103">
+        <v>5</v>
+      </c>
+      <c r="I8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="88">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="103">
+        <v>3</v>
+      </c>
+      <c r="I9" s="94"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="79">
+        <v>44388</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="104">
+        <v>7</v>
+      </c>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="76">
+        <v>44389</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="82">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="84">
+        <v>4</v>
+      </c>
+      <c r="I11" s="93"/>
+      <c r="L11" s="90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="102">
+        <v>44390</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="70">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="103">
+        <v>4</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="L12" s="91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="102">
+        <v>44391</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="71">
+        <v>2.67</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="103">
+        <v>4</v>
+      </c>
+      <c r="I13" s="94"/>
+      <c r="L13" s="91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="102">
+        <v>44392</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="70">
+        <v>2.84</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="103">
+        <v>4</v>
+      </c>
+      <c r="I14" s="94"/>
+      <c r="L14" s="91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="102">
+        <v>44393</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="94"/>
+      <c r="L15" s="91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="102">
+        <v>44394</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="103">
+        <v>5</v>
+      </c>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="79">
+        <v>44395</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="83">
+        <v>3.41</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="104">
+        <v>11.5</v>
+      </c>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="76">
+        <v>44396</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="84">
+        <v>3</v>
+      </c>
+      <c r="I18" s="93"/>
+      <c r="L18" s="97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="102">
+        <v>44397</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="103">
+        <v>3</v>
+      </c>
+      <c r="I19" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="102">
+        <v>44398</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="103">
+        <v>4</v>
+      </c>
+      <c r="I20" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="102">
+        <v>44399</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="103">
+        <v>5</v>
+      </c>
+      <c r="I21" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="102">
+        <v>44400</v>
+      </c>
+      <c r="D22" s="103"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="94"/>
+      <c r="L22" s="97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="102">
+        <v>44401</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="103">
+        <v>7</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="P23" s="101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="79">
+        <v>44402</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="104">
+        <v>5</v>
+      </c>
+      <c r="I24" s="95"/>
+      <c r="L24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="107"/>
+      <c r="B25" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="76">
+        <v>44403</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="84">
+        <v>13</v>
+      </c>
+      <c r="I25" s="93"/>
+      <c r="L25" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="102">
+        <v>44404</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="103">
+        <v>13</v>
+      </c>
+      <c r="I26" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="102">
+        <v>44405</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="103">
+        <v>8</v>
+      </c>
+      <c r="I27" s="94"/>
+      <c r="L27" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="102">
+        <v>44406</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="103">
+        <v>11</v>
+      </c>
+      <c r="I28" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="102">
+        <v>44407</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="103">
+        <v>13</v>
+      </c>
+      <c r="I29" s="94"/>
+      <c r="L29" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="107"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="102">
+        <v>44408</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="103">
         <v>9</v>
       </c>
-      <c r="E1" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78">
-        <v>44381</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="98"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="117" t="s">
+      <c r="I30" s="94"/>
+      <c r="L30" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="79">
+        <v>44409</v>
+      </c>
+      <c r="D31" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="104">
+        <v>11</v>
+      </c>
+      <c r="I31" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="80">
-        <v>44382</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="72">
-        <v>44383</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="72">
-        <v>44384</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="100"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="72">
-        <v>44385</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="69">
+      <c r="C32" s="132">
+        <v>44410</v>
+      </c>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="138"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="134"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="131">
+        <v>44411</v>
+      </c>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="94"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="100"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="72">
-        <v>44386</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="100"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="113">
-        <v>44387</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="69">
-        <v>5</v>
-      </c>
-      <c r="I8" s="100"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="93">
-        <v>1.3</v>
-      </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="69">
-        <v>3</v>
-      </c>
-      <c r="I9" s="100"/>
-    </row>
-    <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="83">
-        <v>44388</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="86">
-        <v>7</v>
-      </c>
-      <c r="I10" s="101"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="80">
-        <v>44389</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="87">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="89">
-        <v>4</v>
-      </c>
-      <c r="I11" s="99"/>
-      <c r="L11" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="72">
-        <v>44390</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="74">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="69">
-        <v>4</v>
-      </c>
-      <c r="I12" s="100"/>
-      <c r="L12" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="72">
-        <v>44391</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="75">
-        <v>2.67</v>
-      </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="69">
-        <v>4</v>
-      </c>
-      <c r="I13" s="100"/>
-      <c r="L13" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="72">
-        <v>44392</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="74">
-        <v>2.84</v>
-      </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="69">
-        <v>4</v>
-      </c>
-      <c r="I14" s="100"/>
-      <c r="L14" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="72">
-        <v>44393</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="100"/>
-      <c r="L15" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="72">
-        <v>44394</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="69">
-        <v>5</v>
-      </c>
-      <c r="I16" s="100"/>
-      <c r="L16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="83">
-        <v>44395</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="88">
-        <v>3.41</v>
-      </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="86">
-        <v>11.5</v>
-      </c>
-      <c r="I17" s="101"/>
-      <c r="L17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="80">
-        <v>44396</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="89">
-        <v>3</v>
-      </c>
-      <c r="I18" s="99"/>
-      <c r="L18" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="72">
-        <v>44397</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="69">
-        <v>3</v>
-      </c>
-      <c r="I19" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="72">
-        <v>44398</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="69">
-        <v>4</v>
-      </c>
-      <c r="I20" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="72">
-        <v>44399</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="69">
-        <v>5</v>
-      </c>
-      <c r="I21" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="106" t="s">
-        <v>192</v>
-      </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="72">
-        <v>44400</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="100"/>
-      <c r="L22" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="72">
-        <v>44401</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="69" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="134"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="131">
+        <v>44412</v>
+      </c>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="94"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="134"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="131">
+        <v>44413</v>
+      </c>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="94"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="134"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="131">
+        <v>44414</v>
+      </c>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="94"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="134"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="131">
+        <v>44415</v>
+      </c>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="94"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="134"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="131">
+        <v>44416</v>
+      </c>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="94"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="134"/>
+      <c r="B39" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="131">
+        <v>44417</v>
+      </c>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="94"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="134"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="131">
+        <v>44418</v>
+      </c>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="94"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="69">
-        <v>7</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="M23" s="41" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="134"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="131">
+        <v>44419</v>
+      </c>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="94"/>
+      <c r="L41" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="N23" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="P23" s="111" t="s">
-        <v>208</v>
-      </c>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="83">
-        <v>44402</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="86">
-        <v>5</v>
-      </c>
-      <c r="I24" s="101"/>
-      <c r="L24" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-    </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="80">
-        <v>44403</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="89">
-        <v>13</v>
-      </c>
-      <c r="I25" s="99"/>
-      <c r="L25" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-    </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="72">
-        <v>44404</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="69">
-        <v>13</v>
-      </c>
-      <c r="I26" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-    </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="72">
-        <v>44405</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="H27" s="69">
-        <v>8</v>
-      </c>
-      <c r="I27" s="100"/>
-      <c r="L27" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-    </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="72">
-        <v>44406</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="69">
-        <v>11</v>
-      </c>
-      <c r="I28" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-    </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="72">
-        <v>44407</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="69">
-        <v>13</v>
-      </c>
-      <c r="I29" s="100"/>
-      <c r="L29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="72">
-        <v>44408</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="69">
-        <v>9</v>
-      </c>
-      <c r="I30" s="100"/>
-      <c r="L30" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="83">
-        <v>44409</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="101"/>
-      <c r="L31" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="K32" s="105"/>
-      <c r="L32" s="40" t="s">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="134"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="131">
+        <v>44420</v>
+      </c>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="94"/>
+      <c r="L42" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="134"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="131">
+        <v>44421</v>
+      </c>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="94"/>
+      <c r="L43" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K33" s="105"/>
-      <c r="L33" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-    </row>
-    <row r="34" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K34" s="105"/>
-      <c r="L34" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-    </row>
-    <row r="35" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K35" s="105"/>
-      <c r="L35" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-    </row>
-    <row r="36" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K36" s="105"/>
-      <c r="L36" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-    </row>
-    <row r="37" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K37" s="105"/>
-      <c r="L37" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-    </row>
-    <row r="38" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K38" s="105"/>
-      <c r="L38" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-    </row>
-    <row r="39" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K39" s="105"/>
-      <c r="L39" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-    </row>
-    <row r="40" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="K40" s="105"/>
-      <c r="L40" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-    </row>
-    <row r="41" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="L41" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-    </row>
-    <row r="42" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="L42" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-    </row>
-    <row r="43" spans="11:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="L43" s="40" t="s">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="134"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="131">
+        <v>44422</v>
+      </c>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="94"/>
+      <c r="L44" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="134"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="131">
+        <v>44423</v>
+      </c>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="94"/>
+      <c r="L45" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-    </row>
-    <row r="44" spans="11:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="L44" s="40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="11:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="L45" s="40" t="s">
-        <v>201</v>
-      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="134"/>
+      <c r="B46" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="131">
+        <v>44424</v>
+      </c>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="94"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="134"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="131">
+        <v>44425</v>
+      </c>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="94"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="134"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="131">
+        <v>44426</v>
+      </c>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="94"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="134"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="131">
+        <v>44427</v>
+      </c>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="94"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="134"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="131">
+        <v>44428</v>
+      </c>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="94"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="134"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="131">
+        <v>44429</v>
+      </c>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="94"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="134"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="131">
+        <v>44430</v>
+      </c>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="94"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="134"/>
+      <c r="B53" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="131">
+        <v>44431</v>
+      </c>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="94"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="134"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="131">
+        <v>44432</v>
+      </c>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="94"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="134"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="131">
+        <v>44433</v>
+      </c>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="94"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="134"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="131">
+        <v>44434</v>
+      </c>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="94"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="134"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="131">
+        <v>44435</v>
+      </c>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="94"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="134"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="131">
+        <v>44436</v>
+      </c>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="94"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="135"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="131">
+        <v>44437</v>
+      </c>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
@@ -4753,1085 +5171,1084 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35D18D-4B8A-4300-A1BD-4C831E6DAB9D}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="9" style="39"/>
-    <col min="16" max="16" width="12.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="5.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9" style="37"/>
+    <col min="16" max="16" width="12.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>44240</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="31" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="24">
+      <c r="A3" s="114"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="22">
         <v>44241</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="120" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>44242</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="4">
+      <c r="A5" s="114"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="2">
         <v>44243</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="118">
+      <c r="A6" s="114"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="122">
         <v>44244</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="114"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="4">
+      <c r="A8" s="114"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="2">
         <v>44245</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="4">
+      <c r="A9" s="114"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="2">
         <v>44246</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="4">
+      <c r="A10" s="114"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="2">
         <v>44247</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="24">
+      <c r="A11" s="114"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="22">
         <v>44248</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="123" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>44249</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="118">
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="122">
         <v>44250</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="4">
+      <c r="A15" s="114"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="2">
         <v>44251</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="4">
+      <c r="A16" s="114"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="2">
         <v>44252</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="4">
+      <c r="A17" s="114"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="2">
         <v>44253</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="118">
+      <c r="A18" s="114"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="122">
         <v>44254</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="33" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="24">
+      <c r="A20" s="115"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="22">
         <v>44255</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>44256</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="4">
+      <c r="A22" s="114"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="2">
         <v>44257</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="118">
+      <c r="A23" s="114"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="122">
         <v>44258</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="114"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="118">
+      <c r="A25" s="114"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="122">
         <v>44259</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="114"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="4">
+      <c r="A27" s="114"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="2">
         <v>44260</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="4">
+      <c r="A28" s="114"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="2">
         <v>44261</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="24">
+      <c r="A29" s="114"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="22">
         <v>44262</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="120" t="s">
+      <c r="A30" s="114"/>
+      <c r="B30" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>44263</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="126"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="4">
+      <c r="A31" s="114"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="2">
         <v>44264</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="126"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="4">
+      <c r="A32" s="114"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="2">
         <v>44265</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="4">
+      <c r="A33" s="114"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="2">
         <v>44266</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="126"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="4">
+      <c r="A34" s="114"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="2">
         <v>44267</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="4">
+      <c r="A35" s="114"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="2">
         <v>44268</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="24">
+      <c r="A36" s="114"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="22">
         <v>44269</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="126"/>
-      <c r="B37" s="120" t="s">
+      <c r="A37" s="114"/>
+      <c r="B37" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="17">
         <v>44270</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="4">
+      <c r="A38" s="114"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="2">
         <v>44271</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="126"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="4">
+      <c r="A39" s="114"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="2">
         <v>44272</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="126"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="4">
+      <c r="A40" s="114"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="2">
         <v>44273</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="126"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="4">
+      <c r="A41" s="114"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="2">
         <v>44274</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="4">
+      <c r="A42" s="114"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="2">
         <v>44275</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="24">
+      <c r="A43" s="114"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="22">
         <v>44276</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="123" t="s">
+      <c r="A44" s="114"/>
+      <c r="B44" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="11">
         <v>44277</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="4">
+      <c r="A45" s="114"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="2">
         <v>44278</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="4">
+      <c r="A46" s="114"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="2">
         <v>44279</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="4">
+      <c r="A47" s="114"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="2">
         <v>44280</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="126"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="4">
+      <c r="A48" s="114"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="2">
         <v>44281</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="126"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="4">
+      <c r="A49" s="114"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="2">
         <v>44282</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="24">
+      <c r="A50" s="115"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="22">
         <v>44283</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="125" t="s">
+      <c r="A51" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="17">
         <v>44284</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="126"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="4">
+      <c r="A52" s="114"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="2">
         <v>44285</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="126"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="131">
+      <c r="A53" s="114"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="116">
         <v>44286</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="5" t="s">
+      <c r="A54" s="114"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="4">
+      <c r="A55" s="114"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="2">
         <v>44287</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="4">
+      <c r="A56" s="114"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="2">
         <v>44288</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="126"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="4">
+      <c r="A57" s="114"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="2">
         <v>44289</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="24">
+      <c r="A58" s="114"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="22">
         <v>44290</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="126"/>
-      <c r="B59" s="129" t="s">
+      <c r="A59" s="114"/>
+      <c r="B59" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="17">
         <v>44291</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="126"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="4">
+      <c r="A60" s="114"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="2">
         <v>44292</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="126"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="4">
+      <c r="A61" s="114"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="2">
         <v>44293</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="126"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="4">
+      <c r="A62" s="114"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="2">
         <v>44294</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="126"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="4">
+      <c r="A63" s="114"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="2">
         <v>44295</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="126"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="4">
+      <c r="A64" s="114"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="2">
         <v>44296</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="126"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="24">
+      <c r="A65" s="114"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="22">
         <v>44297</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="130" t="s">
+      <c r="A66" s="114"/>
+      <c r="B66" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <v>44298</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="126"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="4">
+      <c r="A67" s="114"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="2">
         <v>44299</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="126"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="4">
+      <c r="A68" s="114"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="2">
         <v>44300</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="127"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="24">
+      <c r="A69" s="115"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="22">
         <v>44301</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -5840,11 +6257,12 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5862,1221 +6280,1214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9" style="39"/>
-    <col min="15" max="15" width="12.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="39"/>
+    <col min="1" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9" style="37"/>
+    <col min="15" max="15" width="12.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>44093</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="54">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="52">
         <v>44094</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="123" t="s">
+      <c r="A4" s="111"/>
+      <c r="B4" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>44095</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="42">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="40">
         <v>44096</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="42">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="40">
         <v>44097</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="42">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="40">
         <v>44098</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="42">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="40">
         <v>44099</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="49" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="42">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="40">
         <v>44100</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="46" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="54">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="52">
         <v>44101</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57" t="s">
+      <c r="E10" s="54"/>
+      <c r="F10" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="57">
         <v>44102</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="42">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="40">
         <v>44103</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="42">
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="40">
         <v>44104</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="42">
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="40">
         <v>44105</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8">
+      <c r="E14" s="42"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="42">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="40">
         <v>44106</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="42">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="40">
         <v>44107</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="54">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="52">
         <v>44108</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="67" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26">
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
-      <c r="B18" s="120" t="s">
+      <c r="A18" s="111"/>
+      <c r="B18" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="132">
+      <c r="C18" s="124">
         <v>44109</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="64" t="s">
+      <c r="E18" s="59"/>
+      <c r="F18" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="43" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="43" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="47" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="42">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="40">
         <v>44110</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="42">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="40">
         <v>44111</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="42">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="40">
         <v>44112</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="42">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="40">
         <v>44113</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="133">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="125">
         <v>44114</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="47" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="43" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="47" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="54">
+      <c r="A27" s="111"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="52">
         <v>44115</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="63" t="s">
+      <c r="E27" s="54"/>
+      <c r="F27" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
-      <c r="B28" s="120" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="57">
         <v>44116</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="42">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="40">
         <v>44117</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="47" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="42">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="40">
         <v>44118</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="42">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="40">
         <v>44119</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="47" t="s">
+      <c r="E31" s="42"/>
+      <c r="F31" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="42">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="40">
         <v>44120</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="42">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="40">
         <v>44121</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="48" t="s">
+      <c r="E33" s="42"/>
+      <c r="F33" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="133">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="125">
         <v>44122</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="47" t="s">
+      <c r="E34" s="42"/>
+      <c r="F34" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="55" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="63" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28">
+      <c r="G35" s="26"/>
+      <c r="H35" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="120" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="57">
         <v>44123</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="42">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="40">
         <v>44124</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="42">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="40">
         <v>44125</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="42">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="40">
         <v>44126</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="42">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="40">
         <v>44127</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="42">
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="40">
         <v>44128</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="48">
         <v>25</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8">
+      <c r="F41" s="45"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="121"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="54">
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="52">
         <v>44129</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="130" t="s">
+      <c r="A43" s="111"/>
+      <c r="B43" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="49">
         <v>44130</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="66">
         <v>80</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17">
+      <c r="F43" s="56"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="42">
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="40">
         <v>44131</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="48">
         <v>93</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8">
+      <c r="F44" s="45"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="42">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="40">
         <v>44132</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
+      <c r="F45" s="45"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="42">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="40">
         <v>44133</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="42">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="40">
         <v>44134</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="42">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="40">
         <v>44135</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="122"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="54">
+      <c r="A49" s="112"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="52">
         <v>44136</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="63" t="s">
+      <c r="E49" s="26"/>
+      <c r="F49" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28">
+      <c r="G49" s="26"/>
+      <c r="H49" s="26">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="129" t="s">
+      <c r="A50" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="59">
+      <c r="C50" s="57">
         <v>44137</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="42">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="40">
         <v>44138</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="47" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="42">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="40">
         <v>44139</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="42">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="40">
         <v>44140</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="47" t="s">
+      <c r="E53" s="6"/>
+      <c r="F53" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="42">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="40">
         <v>44141</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="42">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="40">
         <v>44142</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="121"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="54">
+      <c r="A56" s="111"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="52">
         <v>44143</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="63" t="s">
+      <c r="E56" s="26"/>
+      <c r="F56" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28">
+      <c r="G56" s="26"/>
+      <c r="H56" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
-      <c r="B57" s="120" t="s">
+      <c r="A57" s="111"/>
+      <c r="B57" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="59">
+      <c r="C57" s="57">
         <v>44144</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="64" t="s">
+      <c r="E57" s="21"/>
+      <c r="F57" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23">
+      <c r="G57" s="21"/>
+      <c r="H57" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="42">
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="40">
         <v>44145</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="47" t="s">
+      <c r="E58" s="6"/>
+      <c r="F58" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="42">
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="40">
         <v>44146</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="47" t="s">
+      <c r="E59" s="6"/>
+      <c r="F59" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8">
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="42">
+      <c r="A60" s="111"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="40">
         <v>44147</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="47" t="s">
+      <c r="E60" s="6"/>
+      <c r="F60" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="42">
+      <c r="A61" s="111"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="40">
         <v>44148</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="121"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="42">
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="40">
         <v>44149</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="47" t="s">
+      <c r="E62" s="6"/>
+      <c r="F62" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="121"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="54">
+      <c r="A63" s="111"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="52">
         <v>44150</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="63" t="s">
+      <c r="E63" s="26"/>
+      <c r="F63" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28">
+      <c r="G63" s="26"/>
+      <c r="H63" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="121"/>
-      <c r="B64" s="120" t="s">
+      <c r="A64" s="111"/>
+      <c r="B64" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="59">
+      <c r="C64" s="57">
         <v>44151</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="64" t="s">
+      <c r="E64" s="21"/>
+      <c r="F64" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23">
+      <c r="G64" s="21"/>
+      <c r="H64" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="121"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="42">
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="40">
         <v>44152</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="47" t="s">
+      <c r="E65" s="6"/>
+      <c r="F65" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6">
         <v>2.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="121"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="42">
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="40">
         <v>44153</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="121"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="135">
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="127">
         <v>44154</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="47" t="s">
+      <c r="E67" s="6"/>
+      <c r="F67" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="121"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="43" t="s">
+      <c r="A68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="47" t="s">
+      <c r="E68" s="6"/>
+      <c r="F68" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="42">
+      <c r="A69" s="111"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="40">
         <v>44155</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="121"/>
-      <c r="B70" s="121"/>
-      <c r="C70" s="42">
+      <c r="A70" s="111"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="40">
         <v>44156</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="121"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="54">
+      <c r="A71" s="111"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="52">
         <v>44157</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="63" t="s">
+      <c r="E71" s="26"/>
+      <c r="F71" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28">
+      <c r="G71" s="26"/>
+      <c r="H71" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="121"/>
-      <c r="B72" s="130" t="s">
+      <c r="A72" s="111"/>
+      <c r="B72" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="49">
         <v>44158</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="58" t="s">
+      <c r="E72" s="15"/>
+      <c r="F72" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17">
+      <c r="G72" s="15"/>
+      <c r="H72" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
-      <c r="B73" s="121"/>
-      <c r="C73" s="42">
+      <c r="A73" s="111"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="40">
         <v>44159</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="122"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="54">
+      <c r="A74" s="112"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="52">
         <v>44160</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="63" t="s">
+      <c r="E74" s="26"/>
+      <c r="F74" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28">
+      <c r="G74" s="26"/>
+      <c r="H74" s="26">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -7088,6 +7499,13 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE241E-685D-436A-A25B-D781846C6AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD540080-3D42-4FD8-8C9E-87C2CA10D2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="5010" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="226">
   <si>
     <t>JVM</t>
   </si>
@@ -2869,6 +2869,14 @@
       </rPr>
       <t>第三周</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:10~1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30~23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3264,7 +3272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3577,78 +3585,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3656,15 +3592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3679,6 +3606,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3962,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +3987,7 @@
     <col min="6" max="6" width="25" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="140"/>
+    <col min="9" max="9" width="9" style="113"/>
     <col min="10" max="10" width="9" style="37"/>
     <col min="11" max="11" width="7.25" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="37" bestFit="1" customWidth="1"/>
@@ -4013,7 +4024,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="116" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="73"/>
@@ -4030,8 +4041,8 @@
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="109" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="76">
@@ -4047,8 +4058,8 @@
       <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="102">
         <v>44383</v>
       </c>
@@ -4062,8 +4073,8 @@
       <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="102">
         <v>44384</v>
       </c>
@@ -4077,8 +4088,8 @@
       <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="102">
         <v>44385</v>
       </c>
@@ -4096,8 +4107,8 @@
       <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="102">
         <v>44386</v>
       </c>
@@ -4113,9 +4124,9 @@
       <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="106">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="115">
         <v>44387</v>
       </c>
       <c r="D8" s="68" t="s">
@@ -4134,9 +4145,9 @@
       <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="106"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4153,8 +4164,8 @@
       <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="79">
         <v>44388</v>
       </c>
@@ -4174,8 +4185,8 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="119" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="76">
@@ -4200,8 +4211,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="102">
         <v>44390</v>
       </c>
@@ -4224,8 +4235,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="102">
         <v>44391</v>
       </c>
@@ -4248,8 +4259,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="102">
         <v>44392</v>
       </c>
@@ -4272,8 +4283,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="102">
         <v>44393</v>
       </c>
@@ -4288,8 +4299,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="102">
         <v>44394</v>
       </c>
@@ -4309,8 +4320,8 @@
       <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="79">
         <v>44395</v>
       </c>
@@ -4330,8 +4341,8 @@
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="119" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="76">
@@ -4356,8 +4367,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="102">
         <v>44397</v>
       </c>
@@ -4384,8 +4395,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="102">
         <v>44398</v>
       </c>
@@ -4412,8 +4423,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="102">
         <v>44399</v>
       </c>
@@ -4440,8 +4451,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="102">
         <v>44400</v>
       </c>
@@ -4456,8 +4467,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="102">
         <v>44401</v>
       </c>
@@ -4494,8 +4505,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="79">
         <v>44402</v>
       </c>
@@ -4520,8 +4531,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="109" t="s">
+      <c r="A25" s="117"/>
+      <c r="B25" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="76">
@@ -4550,8 +4561,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="102">
         <v>44404</v>
       </c>
@@ -4576,8 +4587,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="102">
         <v>44405</v>
       </c>
@@ -4600,8 +4611,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="102">
         <v>44406</v>
       </c>
@@ -4628,8 +4639,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="102">
         <v>44407</v>
       </c>
@@ -4654,8 +4665,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="102">
         <v>44408</v>
       </c>
@@ -4680,8 +4691,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="79">
         <v>44409</v>
       </c>
@@ -4700,7 +4711,7 @@
       <c r="H31" s="104">
         <v>11</v>
       </c>
-      <c r="I31" s="130" t="s">
+      <c r="I31" s="106" t="s">
         <v>215</v>
       </c>
       <c r="L31" s="38" t="s">
@@ -4708,24 +4719,32 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="132">
+      <c r="C32" s="108">
         <v>44410</v>
       </c>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137" t="s">
+      <c r="D32" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="138"/>
-      <c r="K32" s="139"/>
+      <c r="E32" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="109">
+        <v>3</v>
+      </c>
+      <c r="I32" s="111"/>
+      <c r="K32" s="112"/>
       <c r="L32" s="38" t="s">
         <v>195</v>
       </c>
@@ -4734,28 +4753,36 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="131">
+      <c r="A33" s="121"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="107">
         <v>44411</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
+      <c r="D33" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>211</v>
+      </c>
       <c r="F33" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
+      <c r="G33" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="103">
+        <v>4</v>
+      </c>
       <c r="I33" s="94"/>
-      <c r="K33" s="139"/>
+      <c r="K33" s="112"/>
       <c r="L33" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="134"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="131">
+      <c r="A34" s="121"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="107">
         <v>44412</v>
       </c>
       <c r="D34" s="103"/>
@@ -4766,15 +4793,15 @@
       <c r="G34" s="103"/>
       <c r="H34" s="103"/>
       <c r="I34" s="94"/>
-      <c r="K34" s="139"/>
+      <c r="K34" s="112"/>
       <c r="L34" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="134"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="131">
+      <c r="A35" s="121"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="107">
         <v>44413</v>
       </c>
       <c r="D35" s="103"/>
@@ -4785,15 +4812,15 @@
       <c r="G35" s="103"/>
       <c r="H35" s="103"/>
       <c r="I35" s="94"/>
-      <c r="K35" s="139"/>
+      <c r="K35" s="112"/>
       <c r="L35" s="38" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="134"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="131">
+      <c r="A36" s="121"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="107">
         <v>44414</v>
       </c>
       <c r="D36" s="103"/>
@@ -4804,15 +4831,15 @@
       <c r="G36" s="103"/>
       <c r="H36" s="103"/>
       <c r="I36" s="94"/>
-      <c r="K36" s="139"/>
+      <c r="K36" s="112"/>
       <c r="L36" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="131">
+      <c r="A37" s="121"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="107">
         <v>44415</v>
       </c>
       <c r="D37" s="103"/>
@@ -4823,15 +4850,15 @@
       <c r="G37" s="103"/>
       <c r="H37" s="103"/>
       <c r="I37" s="94"/>
-      <c r="K37" s="139"/>
+      <c r="K37" s="112"/>
       <c r="L37" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="134"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="131">
+      <c r="A38" s="121"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="107">
         <v>44416</v>
       </c>
       <c r="D38" s="103"/>
@@ -4840,17 +4867,17 @@
       <c r="G38" s="103"/>
       <c r="H38" s="103"/>
       <c r="I38" s="94"/>
-      <c r="K38" s="139"/>
+      <c r="K38" s="112"/>
       <c r="L38" s="38" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="107" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="131">
+      <c r="C39" s="107">
         <v>44417</v>
       </c>
       <c r="D39" s="103"/>
@@ -4859,15 +4886,15 @@
       <c r="G39" s="103"/>
       <c r="H39" s="103"/>
       <c r="I39" s="94"/>
-      <c r="K39" s="139"/>
+      <c r="K39" s="112"/>
       <c r="L39" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="134"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="131">
+      <c r="A40" s="121"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="107">
         <v>44418</v>
       </c>
       <c r="D40" s="103"/>
@@ -4876,15 +4903,15 @@
       <c r="G40" s="103"/>
       <c r="H40" s="103"/>
       <c r="I40" s="94"/>
-      <c r="K40" s="139"/>
+      <c r="K40" s="112"/>
       <c r="L40" s="38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="131">
+      <c r="A41" s="121"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="107">
         <v>44419</v>
       </c>
       <c r="D41" s="103"/>
@@ -4898,9 +4925,9 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="134"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="131">
+      <c r="A42" s="121"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="107">
         <v>44420</v>
       </c>
       <c r="D42" s="103"/>
@@ -4914,9 +4941,9 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="131">
+      <c r="A43" s="121"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="107">
         <v>44421</v>
       </c>
       <c r="D43" s="103"/>
@@ -4930,9 +4957,9 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="134"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="131">
+      <c r="A44" s="121"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="107">
         <v>44422</v>
       </c>
       <c r="D44" s="103"/>
@@ -4946,9 +4973,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="131">
+      <c r="A45" s="121"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="107">
         <v>44423</v>
       </c>
       <c r="D45" s="103"/>
@@ -4962,11 +4989,11 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="107" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="131">
+      <c r="C46" s="107">
         <v>44424</v>
       </c>
       <c r="D46" s="103"/>
@@ -4977,9 +5004,9 @@
       <c r="I46" s="94"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="131">
+      <c r="A47" s="121"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="107">
         <v>44425</v>
       </c>
       <c r="D47" s="103"/>
@@ -4990,9 +5017,9 @@
       <c r="I47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="134"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="131">
+      <c r="A48" s="121"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="107">
         <v>44426</v>
       </c>
       <c r="D48" s="103"/>
@@ -5003,9 +5030,9 @@
       <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="131">
+      <c r="A49" s="121"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="107">
         <v>44427</v>
       </c>
       <c r="D49" s="103"/>
@@ -5016,9 +5043,9 @@
       <c r="I49" s="94"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="131">
+      <c r="A50" s="121"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="107">
         <v>44428</v>
       </c>
       <c r="D50" s="103"/>
@@ -5029,9 +5056,9 @@
       <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="131">
+      <c r="A51" s="121"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="107">
         <v>44429</v>
       </c>
       <c r="D51" s="103"/>
@@ -5042,9 +5069,9 @@
       <c r="I51" s="94"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="131">
+      <c r="A52" s="121"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="107">
         <v>44430</v>
       </c>
       <c r="D52" s="103"/>
@@ -5055,11 +5082,11 @@
       <c r="I52" s="94"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="107" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="131">
+      <c r="C53" s="107">
         <v>44431</v>
       </c>
       <c r="D53" s="103"/>
@@ -5070,9 +5097,9 @@
       <c r="I53" s="94"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="131">
+      <c r="A54" s="121"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="107">
         <v>44432</v>
       </c>
       <c r="D54" s="103"/>
@@ -5083,9 +5110,9 @@
       <c r="I54" s="94"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="134"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="131">
+      <c r="A55" s="121"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="107">
         <v>44433</v>
       </c>
       <c r="D55" s="103"/>
@@ -5096,9 +5123,9 @@
       <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="131">
+      <c r="A56" s="121"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="107">
         <v>44434</v>
       </c>
       <c r="D56" s="103"/>
@@ -5109,9 +5136,9 @@
       <c r="I56" s="94"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="131">
+      <c r="A57" s="121"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="107">
         <v>44435</v>
       </c>
       <c r="D57" s="103"/>
@@ -5122,9 +5149,9 @@
       <c r="I57" s="94"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="131">
+      <c r="A58" s="121"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="107">
         <v>44436</v>
       </c>
       <c r="D58" s="103"/>
@@ -5135,9 +5162,9 @@
       <c r="I58" s="94"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="131">
+      <c r="A59" s="120"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="107">
         <v>44437</v>
       </c>
       <c r="D59" s="103"/>
@@ -5217,10 +5244,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="130" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5239,8 +5266,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5251,8 +5278,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="119" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="131" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5271,8 +5298,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5289,9 +5316,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="122">
+      <c r="A6" s="126"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="134">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5307,9 +5334,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="123"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5325,8 +5352,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5345,8 +5372,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5365,8 +5392,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5377,8 +5404,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="114"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5395,8 +5422,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="129" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5411,9 +5438,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="122">
+      <c r="A13" s="126"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="134">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5427,9 +5454,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="123"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5441,8 +5468,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5451,8 +5478,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5463,8 +5490,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5475,9 +5502,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="122">
+      <c r="A18" s="126"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="134">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5489,9 +5516,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="123"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5501,8 +5528,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5515,10 +5542,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="131" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5533,8 +5560,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5547,9 +5574,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="122">
+      <c r="A23" s="126"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="134">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5561,9 +5588,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="123"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5575,9 +5602,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="122">
+      <c r="A25" s="126"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="134">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5591,9 +5618,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="123"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5603,8 +5630,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5615,8 +5642,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="111"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5627,8 +5654,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5639,8 +5666,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="119" t="s">
+      <c r="A30" s="126"/>
+      <c r="B30" s="131" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5653,8 +5680,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5665,8 +5692,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5677,8 +5704,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5689,8 +5716,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -5701,8 +5728,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -5713,8 +5740,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -5725,8 +5752,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="119" t="s">
+      <c r="A37" s="126"/>
+      <c r="B37" s="131" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -5741,8 +5768,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -5757,8 +5784,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -5773,8 +5800,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -5789,8 +5816,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -5805,8 +5832,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="123"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -5821,8 +5848,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="112"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -5837,8 +5864,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="117" t="s">
+      <c r="A44" s="126"/>
+      <c r="B44" s="129" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -5855,8 +5882,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="123"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -5871,8 +5898,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -5889,8 +5916,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -5907,8 +5934,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="123"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -5923,8 +5950,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="123"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -5941,8 +5968,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="112"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -5957,10 +5984,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="113" t="s">
+      <c r="A51" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="130" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -5979,8 +6006,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="123"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -5995,9 +6022,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="116">
+      <c r="A53" s="126"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="128">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6011,9 +6038,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="116"/>
+      <c r="A54" s="126"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="128"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6025,8 +6052,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6037,8 +6064,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="123"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6051,8 +6078,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="123"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6065,8 +6092,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6079,8 +6106,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="118" t="s">
+      <c r="A59" s="126"/>
+      <c r="B59" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6095,8 +6122,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="123"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6111,8 +6138,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6127,8 +6154,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6143,8 +6170,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="114"/>
-      <c r="B63" s="111"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6155,8 +6182,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="123"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6167,8 +6194,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6183,8 +6210,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="114"/>
-      <c r="B66" s="110" t="s">
+      <c r="A66" s="126"/>
+      <c r="B66" s="122" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6201,8 +6228,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="114"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6217,8 +6244,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="114"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="123"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6231,8 +6258,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="112"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="124"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6319,10 +6346,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6341,8 +6368,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6359,8 +6386,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="117" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="129" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6379,8 +6406,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6397,8 +6424,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6415,8 +6442,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6433,8 +6460,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6451,8 +6478,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6469,8 +6496,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6487,10 +6514,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="131" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6509,8 +6536,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6521,8 +6548,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6533,8 +6560,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6549,8 +6576,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6567,8 +6594,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6585,8 +6612,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6603,11 +6630,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="136">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -6623,9 +6650,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -6639,9 +6666,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="125"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -6655,8 +6682,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6667,8 +6694,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6679,8 +6706,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6691,8 +6718,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -6703,9 +6730,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="125">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="137">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -6721,9 +6748,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="125"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -6737,8 +6764,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -6755,8 +6782,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="119" t="s">
+      <c r="A28" s="123"/>
+      <c r="B28" s="131" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -6769,8 +6796,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -6787,8 +6814,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -6799,8 +6826,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -6817,8 +6844,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -6829,8 +6856,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -6847,9 +6874,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="125">
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="137">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -6865,9 +6892,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="126"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -6881,8 +6908,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="123"/>
+      <c r="B36" s="131" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -6895,8 +6922,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -6907,8 +6934,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -6919,8 +6946,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -6931,8 +6958,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -6943,8 +6970,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -6961,8 +6988,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -6973,8 +7000,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="110" t="s">
+      <c r="A43" s="123"/>
+      <c r="B43" s="122" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -6993,8 +7020,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="123"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7011,8 +7038,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="123"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7029,8 +7056,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7041,8 +7068,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7053,8 +7080,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="123"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7065,8 +7092,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
-      <c r="B49" s="112"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7083,10 +7110,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="119" t="s">
+      <c r="B50" s="131" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7099,8 +7126,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="123"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7117,8 +7144,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="123"/>
+      <c r="B52" s="123"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7129,8 +7156,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="123"/>
+      <c r="B53" s="123"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7147,8 +7174,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="123"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7159,8 +7186,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7171,8 +7198,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="111"/>
-      <c r="B56" s="112"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7189,8 +7216,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
-      <c r="B57" s="119" t="s">
+      <c r="A57" s="123"/>
+      <c r="B57" s="131" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7209,8 +7236,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="123"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7227,8 +7254,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="111"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="123"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7245,8 +7272,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="111"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="123"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7263,8 +7290,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="111"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="123"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7275,8 +7302,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7293,8 +7320,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="111"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="123"/>
+      <c r="B63" s="124"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7311,8 +7338,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="111"/>
-      <c r="B64" s="119" t="s">
+      <c r="A64" s="123"/>
+      <c r="B64" s="131" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7331,8 +7358,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7349,8 +7376,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="111"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="123"/>
+      <c r="B66" s="123"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7361,9 +7388,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="127">
+      <c r="A67" s="123"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="139">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -7379,9 +7406,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="111"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="128"/>
+      <c r="A68" s="123"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="140"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -7395,8 +7422,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="111"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="123"/>
+      <c r="B69" s="123"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7407,8 +7434,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="111"/>
-      <c r="B70" s="111"/>
+      <c r="A70" s="123"/>
+      <c r="B70" s="123"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7419,8 +7446,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="111"/>
-      <c r="B71" s="112"/>
+      <c r="A71" s="123"/>
+      <c r="B71" s="124"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7437,8 +7464,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
-      <c r="B72" s="110" t="s">
+      <c r="A72" s="123"/>
+      <c r="B72" s="122" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7457,8 +7484,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
-      <c r="B73" s="111"/>
+      <c r="A73" s="123"/>
+      <c r="B73" s="123"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7469,8 +7496,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="124"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD540080-3D42-4FD8-8C9E-87C2CA10D2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A945FC17-8823-4132-8FEF-D80A87D86071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="5010" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="226">
   <si>
     <t>JVM</t>
   </si>
@@ -3610,13 +3610,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3625,52 +3631,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3973,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="119" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="73"/>
@@ -4041,8 +4041,8 @@
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="119" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="121" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="76">
@@ -4058,8 +4058,8 @@
       <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="102">
         <v>44383</v>
       </c>
@@ -4073,8 +4073,8 @@
       <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="102">
         <v>44384</v>
       </c>
@@ -4088,8 +4088,8 @@
       <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="102">
         <v>44385</v>
       </c>
@@ -4107,8 +4107,8 @@
       <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="102">
         <v>44386</v>
       </c>
@@ -4124,9 +4124,9 @@
       <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="115">
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="118">
         <v>44387</v>
       </c>
       <c r="D8" s="68" t="s">
@@ -4145,9 +4145,9 @@
       <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4164,8 +4164,8 @@
       <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="79">
         <v>44388</v>
       </c>
@@ -4185,8 +4185,8 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="119" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="121" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="76">
@@ -4211,8 +4211,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="102">
         <v>44390</v>
       </c>
@@ -4235,8 +4235,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="102">
         <v>44391</v>
       </c>
@@ -4259,8 +4259,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="102">
         <v>44392</v>
       </c>
@@ -4283,8 +4283,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="102">
         <v>44393</v>
       </c>
@@ -4299,8 +4299,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="102">
         <v>44394</v>
       </c>
@@ -4320,8 +4320,8 @@
       <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="79">
         <v>44395</v>
       </c>
@@ -4341,8 +4341,8 @@
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="116"/>
+      <c r="B18" s="121" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="76">
@@ -4367,8 +4367,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="102">
         <v>44397</v>
       </c>
@@ -4395,8 +4395,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="102">
         <v>44398</v>
       </c>
@@ -4423,8 +4423,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="102">
         <v>44399</v>
       </c>
@@ -4451,8 +4451,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="102">
         <v>44400</v>
       </c>
@@ -4467,8 +4467,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="102">
         <v>44401</v>
       </c>
@@ -4505,8 +4505,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="79">
         <v>44402</v>
       </c>
@@ -4531,8 +4531,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="119" t="s">
+      <c r="A25" s="116"/>
+      <c r="B25" s="121" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="76">
@@ -4561,8 +4561,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="102">
         <v>44404</v>
       </c>
@@ -4587,8 +4587,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="102">
         <v>44405</v>
       </c>
@@ -4611,8 +4611,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="102">
         <v>44406</v>
       </c>
@@ -4639,8 +4639,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="102">
         <v>44407</v>
       </c>
@@ -4665,8 +4665,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="102">
         <v>44408</v>
       </c>
@@ -4691,8 +4691,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="118"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="79">
         <v>44409</v>
       </c>
@@ -4719,10 +4719,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="115" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="108">
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="117"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="107">
         <v>44411</v>
       </c>
@@ -4780,27 +4780,37 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="107">
         <v>44412</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
+      <c r="D34" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>211</v>
+      </c>
       <c r="F34" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="94"/>
+      <c r="G34" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="103">
+        <v>4</v>
+      </c>
+      <c r="I34" s="96" t="s">
+        <v>216</v>
+      </c>
       <c r="K34" s="112"/>
       <c r="L34" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="107">
         <v>44413</v>
       </c>
@@ -4818,8 +4828,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="107">
         <v>44414</v>
       </c>
@@ -4837,8 +4847,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="107">
         <v>44415</v>
       </c>
@@ -4856,8 +4866,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="117"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="107">
         <v>44416</v>
       </c>
@@ -4873,8 +4883,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="117" t="s">
+      <c r="A39" s="117"/>
+      <c r="B39" s="116" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="107">
@@ -4892,8 +4902,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="117"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="107">
         <v>44418</v>
       </c>
@@ -4909,8 +4919,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="107">
         <v>44419</v>
       </c>
@@ -4925,8 +4935,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
-      <c r="B42" s="117"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="107">
         <v>44420</v>
       </c>
@@ -4941,8 +4951,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="107">
         <v>44421</v>
       </c>
@@ -4957,8 +4967,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="117"/>
+      <c r="A44" s="117"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="107">
         <v>44422</v>
       </c>
@@ -4973,8 +4983,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="117"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="107">
         <v>44423</v>
       </c>
@@ -4989,8 +4999,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="117" t="s">
+      <c r="A46" s="117"/>
+      <c r="B46" s="116" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="107">
@@ -5004,8 +5014,8 @@
       <c r="I46" s="94"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="117"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="107">
         <v>44425</v>
       </c>
@@ -5017,8 +5027,8 @@
       <c r="I47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="117"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="107">
         <v>44426</v>
       </c>
@@ -5030,8 +5040,8 @@
       <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="117"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="107">
         <v>44427</v>
       </c>
@@ -5043,8 +5053,8 @@
       <c r="I49" s="94"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="117"/>
+      <c r="A50" s="117"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="107">
         <v>44428</v>
       </c>
@@ -5056,8 +5066,8 @@
       <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="117"/>
+      <c r="A51" s="117"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="107">
         <v>44429</v>
       </c>
@@ -5069,8 +5079,8 @@
       <c r="I51" s="94"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="117"/>
+      <c r="B52" s="116"/>
       <c r="C52" s="107">
         <v>44430</v>
       </c>
@@ -5082,8 +5092,8 @@
       <c r="I52" s="94"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="117" t="s">
+      <c r="A53" s="117"/>
+      <c r="B53" s="116" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="107">
@@ -5097,8 +5107,8 @@
       <c r="I53" s="94"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="107">
         <v>44432</v>
       </c>
@@ -5110,8 +5120,8 @@
       <c r="I54" s="94"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="117"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="107">
         <v>44433</v>
       </c>
@@ -5123,8 +5133,8 @@
       <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
-      <c r="B56" s="117"/>
+      <c r="A56" s="117"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="107">
         <v>44434</v>
       </c>
@@ -5136,8 +5146,8 @@
       <c r="I56" s="94"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
-      <c r="B57" s="117"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="107">
         <v>44435</v>
       </c>
@@ -5149,8 +5159,8 @@
       <c r="I57" s="94"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="107">
         <v>44436</v>
       </c>
@@ -5162,8 +5172,8 @@
       <c r="I58" s="94"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
-      <c r="B59" s="117"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="107">
         <v>44437</v>
       </c>
@@ -5176,17 +5186,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5244,10 +5254,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5266,8 +5276,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5278,8 +5288,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="131" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="124" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5298,8 +5308,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5316,9 +5326,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="134">
+      <c r="A6" s="130"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="122">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5334,9 +5344,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="135"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5352,8 +5362,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="123"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5372,8 +5382,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5392,8 +5402,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="123"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5404,8 +5414,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5422,8 +5432,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="129" t="s">
+      <c r="A12" s="130"/>
+      <c r="B12" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5438,9 +5448,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="134">
+      <c r="A13" s="130"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="122">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5454,9 +5464,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="135"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5468,8 +5478,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="123"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5478,8 +5488,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="123"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5490,8 +5500,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="123"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5502,9 +5512,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="134">
+      <c r="A18" s="130"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="122">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5516,9 +5526,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="135"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5528,8 +5538,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5542,10 +5552,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="124" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5560,8 +5570,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5574,9 +5584,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="134">
+      <c r="A23" s="130"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="122">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5588,9 +5598,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="135"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5602,9 +5612,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="134">
+      <c r="A25" s="130"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="122">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5618,9 +5628,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="135"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5630,8 +5640,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="123"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5642,8 +5652,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="123"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5654,8 +5664,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5666,8 +5676,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="131" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="124" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5680,8 +5690,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="126"/>
-      <c r="B31" s="123"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5692,8 +5702,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="126"/>
-      <c r="B32" s="123"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5704,8 +5714,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
-      <c r="B33" s="123"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5716,8 +5726,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="126"/>
-      <c r="B34" s="123"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -5728,8 +5738,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
-      <c r="B35" s="123"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -5740,8 +5750,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="124"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -5752,8 +5762,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="126"/>
-      <c r="B37" s="131" t="s">
+      <c r="A37" s="130"/>
+      <c r="B37" s="124" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -5768,8 +5778,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
-      <c r="B38" s="123"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -5784,8 +5794,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="126"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -5800,8 +5810,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="126"/>
-      <c r="B40" s="123"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -5816,8 +5826,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="126"/>
-      <c r="B41" s="123"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -5832,8 +5842,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
-      <c r="B42" s="123"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -5848,8 +5858,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
-      <c r="B43" s="124"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -5864,8 +5874,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="129" t="s">
+      <c r="A44" s="130"/>
+      <c r="B44" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -5882,8 +5892,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="123"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="125"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -5898,8 +5908,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="123"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="125"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -5916,8 +5926,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="123"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -5934,8 +5944,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="126"/>
-      <c r="B48" s="123"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -5950,8 +5960,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="126"/>
-      <c r="B49" s="123"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -5968,8 +5978,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="124"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -5984,10 +5994,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="125" t="s">
+      <c r="A51" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="133" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -6006,8 +6016,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="126"/>
-      <c r="B52" s="123"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -6022,9 +6032,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="126"/>
-      <c r="B53" s="123"/>
-      <c r="C53" s="128">
+      <c r="A53" s="130"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="135">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6038,9 +6048,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="123"/>
-      <c r="C54" s="128"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="135"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6052,8 +6062,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="123"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="125"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6064,8 +6074,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
-      <c r="B56" s="123"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="125"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6078,8 +6088,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="126"/>
-      <c r="B57" s="123"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="125"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6092,8 +6102,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
-      <c r="B58" s="124"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6106,8 +6116,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="126"/>
-      <c r="B59" s="130" t="s">
+      <c r="A59" s="130"/>
+      <c r="B59" s="133" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6122,8 +6132,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="126"/>
-      <c r="B60" s="123"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6138,8 +6148,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="126"/>
-      <c r="B61" s="123"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6154,8 +6164,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="126"/>
-      <c r="B62" s="123"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="125"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6170,8 +6180,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="126"/>
-      <c r="B63" s="123"/>
+      <c r="A63" s="130"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6182,8 +6192,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="126"/>
-      <c r="B64" s="123"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="125"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6194,8 +6204,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="126"/>
-      <c r="B65" s="124"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6210,8 +6220,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="122" t="s">
+      <c r="A66" s="130"/>
+      <c r="B66" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6228,8 +6238,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="126"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="130"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6244,8 +6254,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="126"/>
-      <c r="B68" s="123"/>
+      <c r="A68" s="130"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6258,8 +6268,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="127"/>
-      <c r="B69" s="124"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6271,11 +6281,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -6284,12 +6295,11 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6346,10 +6356,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="125" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6368,8 +6378,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6386,8 +6396,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" s="129" t="s">
+      <c r="A4" s="125"/>
+      <c r="B4" s="127" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6406,8 +6416,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6424,8 +6434,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6442,8 +6452,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6460,8 +6470,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6478,8 +6488,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6496,8 +6506,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6514,10 +6524,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="124" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6536,8 +6546,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6548,8 +6558,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6560,8 +6570,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6576,8 +6586,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6594,8 +6604,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6612,8 +6622,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6630,8 +6640,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="124" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="136">
@@ -6650,7 +6660,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="141"/>
       <c r="C19" s="137"/>
       <c r="D19" s="41" t="s">
@@ -6666,7 +6676,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="141"/>
       <c r="C20" s="137"/>
       <c r="D20" s="41" t="s">
@@ -6682,8 +6692,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6694,8 +6704,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6706,8 +6716,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6718,8 +6728,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -6730,8 +6740,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="137">
         <v>44114</v>
       </c>
@@ -6748,8 +6758,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="137"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
@@ -6764,8 +6774,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -6782,8 +6792,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="131" t="s">
+      <c r="A28" s="125"/>
+      <c r="B28" s="124" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -6796,8 +6806,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -6814,8 +6824,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -6826,8 +6836,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -6844,8 +6854,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
-      <c r="B32" s="123"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -6856,8 +6866,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="123"/>
-      <c r="B33" s="123"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -6874,8 +6884,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="123"/>
-      <c r="B34" s="123"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="137">
         <v>44122</v>
       </c>
@@ -6892,8 +6902,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="123"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="138"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
@@ -6908,8 +6918,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
-      <c r="B36" s="131" t="s">
+      <c r="A36" s="125"/>
+      <c r="B36" s="124" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -6922,8 +6932,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="123"/>
-      <c r="B37" s="123"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -6934,8 +6944,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="123"/>
-      <c r="B38" s="123"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -6946,8 +6956,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="123"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -6958,8 +6968,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="123"/>
-      <c r="B40" s="123"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -6970,8 +6980,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="123"/>
-      <c r="B41" s="123"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -6988,8 +6998,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="123"/>
-      <c r="B42" s="124"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -7000,8 +7010,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="123"/>
-      <c r="B43" s="122" t="s">
+      <c r="A43" s="125"/>
+      <c r="B43" s="134" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -7020,8 +7030,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="123"/>
-      <c r="B44" s="123"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7038,8 +7048,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="123"/>
-      <c r="B45" s="123"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="125"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7056,8 +7066,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="123"/>
-      <c r="B46" s="123"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="125"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7068,8 +7078,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="123"/>
-      <c r="B47" s="123"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7080,8 +7090,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="123"/>
-      <c r="B48" s="123"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7092,8 +7102,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7110,10 +7120,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="130" t="s">
+      <c r="A50" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="124" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7126,8 +7136,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="123"/>
-      <c r="B51" s="123"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7144,8 +7154,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="123"/>
-      <c r="B52" s="123"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7156,8 +7166,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="123"/>
-      <c r="B53" s="123"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="125"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7174,8 +7184,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="123"/>
-      <c r="B54" s="123"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7186,8 +7196,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="123"/>
-      <c r="B55" s="123"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7198,8 +7208,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="123"/>
-      <c r="B56" s="124"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7216,8 +7226,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="123"/>
-      <c r="B57" s="131" t="s">
+      <c r="A57" s="125"/>
+      <c r="B57" s="124" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7236,8 +7246,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="123"/>
-      <c r="B58" s="123"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7254,8 +7264,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="123"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7272,8 +7282,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="123"/>
-      <c r="B60" s="123"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7290,8 +7300,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="123"/>
-      <c r="B61" s="123"/>
+      <c r="A61" s="125"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7302,8 +7312,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
-      <c r="B62" s="123"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="125"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7320,8 +7330,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="123"/>
-      <c r="B63" s="124"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7338,8 +7348,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="123"/>
-      <c r="B64" s="131" t="s">
+      <c r="A64" s="125"/>
+      <c r="B64" s="124" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7358,8 +7368,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="123"/>
-      <c r="B65" s="123"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="125"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7376,8 +7386,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="123"/>
-      <c r="B66" s="123"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="125"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7388,8 +7398,8 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="123"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="139">
         <v>44154</v>
       </c>
@@ -7406,8 +7416,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="123"/>
-      <c r="B68" s="123"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="140"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
@@ -7422,8 +7432,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="123"/>
-      <c r="B69" s="123"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7434,8 +7444,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="123"/>
-      <c r="B70" s="123"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="125"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7446,8 +7456,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="123"/>
-      <c r="B71" s="124"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7464,8 +7474,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="123"/>
-      <c r="B72" s="122" t="s">
+      <c r="A72" s="125"/>
+      <c r="B72" s="134" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7484,8 +7494,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="123"/>
-      <c r="B73" s="123"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7496,8 +7506,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="124"/>
-      <c r="B74" s="124"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -7515,6 +7525,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -7526,13 +7543,6 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A945FC17-8823-4132-8FEF-D80A87D86071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124990B-46AE-4245-B882-4C297F5C0CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="232">
   <si>
     <t>JVM</t>
   </si>
@@ -2877,6 +2877,48 @@
   </si>
   <si>
     <t>19:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00~23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">复盘 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zk, Nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO, Netty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2887,7 +2929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3015,6 +3057,13 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3272,7 +3321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3607,8 +3656,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3973,8 +4052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,7 +4104,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="129" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="73"/>
@@ -4034,15 +4114,15 @@
       <c r="D2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="86"/>
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="121" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="131" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="76">
@@ -4051,52 +4131,52 @@
       <c r="D3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="87"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="87"/>
       <c r="G3" s="84"/>
       <c r="H3" s="84"/>
       <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="102">
         <v>44383</v>
       </c>
       <c r="D4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="88"/>
       <c r="G4" s="103"/>
       <c r="H4" s="103"/>
       <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="102">
         <v>44384</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="88"/>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
       <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="102">
         <v>44385</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="88"/>
       <c r="G6" s="103" t="s">
         <v>7</v>
@@ -4107,15 +4187,15 @@
       <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="102">
         <v>44386</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="88" t="s">
         <v>150</v>
       </c>
@@ -4124,15 +4204,15 @@
       <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="118">
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="128">
         <v>44387</v>
       </c>
       <c r="D8" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="117"/>
       <c r="F8" s="88" t="s">
         <v>152</v>
       </c>
@@ -4145,13 +4225,13 @@
       <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="118">
         <v>1.3</v>
       </c>
       <c r="F9" s="88"/>
@@ -4164,15 +4244,15 @@
       <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="79">
         <v>44388</v>
       </c>
       <c r="D10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="119" t="s">
         <v>161</v>
       </c>
       <c r="F10" s="89"/>
@@ -4185,8 +4265,8 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="121" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="131" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="76">
@@ -4195,7 +4275,7 @@
       <c r="D11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="120">
         <v>2.3199999999999998</v>
       </c>
       <c r="F11" s="82"/>
@@ -4211,15 +4291,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="102">
         <v>44390</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="117">
         <v>2.4700000000000002</v>
       </c>
       <c r="F12" s="70"/>
@@ -4235,15 +4315,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="102">
         <v>44391</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="121">
         <v>2.67</v>
       </c>
       <c r="F13" s="71"/>
@@ -4259,15 +4339,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="102">
         <v>44392</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="117">
         <v>2.84</v>
       </c>
       <c r="F14" s="70"/>
@@ -4283,13 +4363,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="102">
         <v>44393</v>
       </c>
       <c r="D15" s="103"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="70"/>
       <c r="G15" s="103"/>
       <c r="H15" s="103"/>
@@ -4299,15 +4379,15 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="102">
         <v>44394</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="121" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="71"/>
@@ -4320,15 +4400,15 @@
       <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="79">
         <v>44395</v>
       </c>
       <c r="D17" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="122">
         <v>3.41</v>
       </c>
       <c r="F17" s="83"/>
@@ -4341,8 +4421,8 @@
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="121" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="131" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="76">
@@ -4351,7 +4431,7 @@
       <c r="D18" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="123" t="s">
         <v>170</v>
       </c>
       <c r="F18" s="85"/>
@@ -4367,15 +4447,15 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="102">
         <v>44397</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="118" t="s">
         <v>178</v>
       </c>
       <c r="F19" s="71" t="s">
@@ -4395,15 +4475,15 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="102">
         <v>44398</v>
       </c>
       <c r="D20" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="118" t="s">
         <v>179</v>
       </c>
       <c r="F20" s="71" t="s">
@@ -4423,15 +4503,15 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="102">
         <v>44399</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="118" t="s">
         <v>182</v>
       </c>
       <c r="F21" s="70" t="s">
@@ -4451,13 +4531,13 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="102">
         <v>44400</v>
       </c>
       <c r="D22" s="103"/>
-      <c r="E22" s="88"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="70"/>
       <c r="G22" s="103"/>
       <c r="H22" s="103"/>
@@ -4467,15 +4547,15 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="102">
         <v>44401</v>
       </c>
       <c r="D23" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="70" t="s">
         <v>188</v>
       </c>
@@ -4505,15 +4585,15 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="120"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="79">
         <v>44402</v>
       </c>
       <c r="D24" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="89"/>
+      <c r="E24" s="119"/>
       <c r="F24" s="83" t="s">
         <v>4</v>
       </c>
@@ -4524,15 +4604,15 @@
         <v>5</v>
       </c>
       <c r="I24" s="95"/>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="97" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="121" t="s">
+      <c r="A25" s="126"/>
+      <c r="B25" s="131" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="76">
@@ -4541,7 +4621,7 @@
       <c r="D25" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="87"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="82" t="s">
         <v>187</v>
       </c>
@@ -4561,15 +4641,15 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="102">
         <v>44404</v>
       </c>
       <c r="D26" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="88"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="70" t="s">
         <v>13</v>
       </c>
@@ -4587,15 +4667,15 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="102">
         <v>44405</v>
       </c>
       <c r="D27" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="70" t="s">
         <v>175</v>
       </c>
@@ -4611,15 +4691,15 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="102">
         <v>44406</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="118" t="s">
         <v>207</v>
       </c>
       <c r="F28" s="70" t="s">
@@ -4639,15 +4719,15 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="102">
         <v>44407</v>
       </c>
       <c r="D29" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="118" t="s">
         <v>211</v>
       </c>
       <c r="F29" s="70" t="s">
@@ -4665,15 +4745,15 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="102">
         <v>44408</v>
       </c>
       <c r="D30" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="118" t="s">
         <v>211</v>
       </c>
       <c r="F30" s="70" t="s">
@@ -4691,15 +4771,15 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120"/>
-      <c r="B31" s="120"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="79">
         <v>44409</v>
       </c>
       <c r="D31" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="119" t="s">
         <v>211</v>
       </c>
       <c r="F31" s="83" t="s">
@@ -4719,10 +4799,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="108">
@@ -4731,7 +4811,7 @@
       <c r="D32" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="114" t="s">
+      <c r="E32" s="124" t="s">
         <v>211</v>
       </c>
       <c r="F32" s="110" t="s">
@@ -4753,15 +4833,15 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="107">
         <v>44411</v>
       </c>
       <c r="D33" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="117" t="s">
         <v>211</v>
       </c>
       <c r="F33" s="70" t="s">
@@ -4780,15 +4860,15 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="116"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="107">
         <v>44412</v>
       </c>
       <c r="D34" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="117" t="s">
         <v>211</v>
       </c>
       <c r="F34" s="70" t="s">
@@ -4809,18 +4889,24 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="116"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="107">
         <v>44413</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
+      <c r="D35" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="117"/>
       <c r="F35" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
+      <c r="G35" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="103">
+        <v>2</v>
+      </c>
       <c r="I35" s="94"/>
       <c r="K35" s="112"/>
       <c r="L35" s="38" t="s">
@@ -4828,13 +4914,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="107">
         <v>44414</v>
       </c>
       <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
+      <c r="E36" s="117"/>
       <c r="F36" s="70" t="s">
         <v>70</v>
       </c>
@@ -4847,18 +4933,24 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="116"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="107">
         <v>44415</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
+      <c r="D37" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" s="117"/>
       <c r="F37" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
+      <c r="G37" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="103">
+        <v>11</v>
+      </c>
       <c r="I37" s="94"/>
       <c r="K37" s="112"/>
       <c r="L37" s="38" t="s">
@@ -4866,16 +4958,24 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="107">
         <v>44416</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
+      <c r="D38" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="117" t="s">
+        <v>211</v>
+      </c>
       <c r="F38" s="70"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
+      <c r="G38" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" s="103">
+        <v>11</v>
+      </c>
       <c r="I38" s="94"/>
       <c r="K38" s="112"/>
       <c r="L38" s="38" t="s">
@@ -4883,16 +4983,18 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="127"/>
+      <c r="B39" s="126" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="107">
         <v>44417</v>
       </c>
       <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="70"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="70" t="s">
+        <v>175</v>
+      </c>
       <c r="G39" s="103"/>
       <c r="H39" s="103"/>
       <c r="I39" s="94"/>
@@ -4902,14 +5004,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="116"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="107">
         <v>44418</v>
       </c>
       <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="70"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="70" t="s">
+        <v>66</v>
+      </c>
       <c r="G40" s="103"/>
       <c r="H40" s="103"/>
       <c r="I40" s="94"/>
@@ -4919,14 +5023,16 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="116"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="107">
         <v>44419</v>
       </c>
       <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="70"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="70" t="s">
+        <v>70</v>
+      </c>
       <c r="G41" s="103"/>
       <c r="H41" s="103"/>
       <c r="I41" s="94"/>
@@ -4935,14 +5041,16 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="107">
         <v>44420</v>
       </c>
       <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="70"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="70" t="s">
+        <v>70</v>
+      </c>
       <c r="G42" s="103"/>
       <c r="H42" s="103"/>
       <c r="I42" s="94"/>
@@ -4951,14 +5059,16 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="117"/>
-      <c r="B43" s="116"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="107">
         <v>44421</v>
       </c>
       <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="70"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="70" t="s">
+        <v>186</v>
+      </c>
       <c r="G43" s="103"/>
       <c r="H43" s="103"/>
       <c r="I43" s="94"/>
@@ -4967,14 +5077,16 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
-      <c r="B44" s="116"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="107">
         <v>44422</v>
       </c>
       <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="70"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="70" t="s">
+        <v>230</v>
+      </c>
       <c r="G44" s="103"/>
       <c r="H44" s="103"/>
       <c r="I44" s="94"/>
@@ -4983,14 +5095,16 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="107">
         <v>44423</v>
       </c>
       <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="70"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="70" t="s">
+        <v>231</v>
+      </c>
       <c r="G45" s="103"/>
       <c r="H45" s="103"/>
       <c r="I45" s="94"/>
@@ -4999,186 +5113,186 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
-      <c r="B46" s="116" t="s">
+      <c r="A46" s="127"/>
+      <c r="B46" s="126" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="107">
         <v>44424</v>
       </c>
       <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="70"/>
       <c r="G46" s="103"/>
       <c r="H46" s="103"/>
       <c r="I46" s="94"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="107">
         <v>44425</v>
       </c>
       <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="70"/>
       <c r="G47" s="103"/>
       <c r="H47" s="103"/>
       <c r="I47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
-      <c r="B48" s="116"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="107">
         <v>44426</v>
       </c>
       <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="70"/>
       <c r="G48" s="103"/>
       <c r="H48" s="103"/>
       <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="107">
         <v>44427</v>
       </c>
       <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="70"/>
       <c r="G49" s="103"/>
       <c r="H49" s="103"/>
       <c r="I49" s="94"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="107">
         <v>44428</v>
       </c>
       <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="70"/>
       <c r="G50" s="103"/>
       <c r="H50" s="103"/>
       <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="107">
         <v>44429</v>
       </c>
       <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="70"/>
       <c r="G51" s="103"/>
       <c r="H51" s="103"/>
       <c r="I51" s="94"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
-      <c r="B52" s="116"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="107">
         <v>44430</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="70"/>
       <c r="G52" s="103"/>
       <c r="H52" s="103"/>
       <c r="I52" s="94"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="116" t="s">
+      <c r="A53" s="127"/>
+      <c r="B53" s="126" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="107">
         <v>44431</v>
       </c>
       <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="70"/>
       <c r="G53" s="103"/>
       <c r="H53" s="103"/>
       <c r="I53" s="94"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
-      <c r="B54" s="116"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="107">
         <v>44432</v>
       </c>
       <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="70"/>
       <c r="G54" s="103"/>
       <c r="H54" s="103"/>
       <c r="I54" s="94"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
-      <c r="B55" s="116"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="107">
         <v>44433</v>
       </c>
       <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="70"/>
       <c r="G55" s="103"/>
       <c r="H55" s="103"/>
       <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="107">
         <v>44434</v>
       </c>
       <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="70"/>
       <c r="G56" s="103"/>
       <c r="H56" s="103"/>
       <c r="I56" s="94"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="107">
         <v>44435</v>
       </c>
       <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="70"/>
       <c r="G57" s="103"/>
       <c r="H57" s="103"/>
       <c r="I57" s="94"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="107">
         <v>44436</v>
       </c>
       <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="70"/>
       <c r="G58" s="103"/>
       <c r="H58" s="103"/>
       <c r="I58" s="94"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="107">
         <v>44437</v>
       </c>
       <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="70"/>
       <c r="G59" s="103"/>
       <c r="H59" s="103"/>
@@ -5209,7 +5323,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5254,10 +5368,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5276,8 +5390,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="126"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5288,8 +5402,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="124" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5308,8 +5422,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5326,9 +5440,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="122">
+      <c r="A6" s="140"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="132">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5344,9 +5458,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="123"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5362,8 +5476,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5382,8 +5496,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5402,8 +5516,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5414,8 +5528,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="126"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5432,8 +5546,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="127" t="s">
+      <c r="A12" s="140"/>
+      <c r="B12" s="137" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5448,9 +5562,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="122">
+      <c r="A13" s="140"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="132">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5464,9 +5578,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="123"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5478,8 +5592,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5488,8 +5602,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5500,8 +5614,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5512,9 +5626,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="122">
+      <c r="A18" s="140"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="132">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5526,9 +5640,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="123"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5538,8 +5652,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="126"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5552,10 +5666,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5570,8 +5684,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5584,9 +5698,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="122">
+      <c r="A23" s="140"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="132">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5598,9 +5712,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="123"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5612,9 +5726,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="122">
+      <c r="A25" s="140"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="132">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5628,9 +5742,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="123"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5640,8 +5754,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
-      <c r="B27" s="125"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5652,8 +5766,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
-      <c r="B28" s="125"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5664,8 +5778,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="126"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5676,8 +5790,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
-      <c r="B30" s="124" t="s">
+      <c r="A30" s="140"/>
+      <c r="B30" s="134" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5690,8 +5804,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="125"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5702,8 +5816,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5714,8 +5828,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="130"/>
-      <c r="B33" s="125"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5726,8 +5840,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="130"/>
-      <c r="B34" s="125"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -5738,8 +5852,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="130"/>
-      <c r="B35" s="125"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -5750,8 +5864,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
-      <c r="B36" s="126"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -5762,8 +5876,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="130"/>
-      <c r="B37" s="124" t="s">
+      <c r="A37" s="140"/>
+      <c r="B37" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -5778,8 +5892,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="130"/>
-      <c r="B38" s="125"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -5794,8 +5908,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="130"/>
-      <c r="B39" s="125"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -5810,8 +5924,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="130"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -5826,8 +5940,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="130"/>
-      <c r="B41" s="125"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -5842,8 +5956,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="130"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -5858,8 +5972,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="130"/>
-      <c r="B43" s="126"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -5874,8 +5988,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="130"/>
-      <c r="B44" s="127" t="s">
+      <c r="A44" s="140"/>
+      <c r="B44" s="137" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -5892,8 +6006,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="130"/>
-      <c r="B45" s="125"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -5908,8 +6022,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="130"/>
-      <c r="B46" s="125"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -5926,8 +6040,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -5944,8 +6058,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="130"/>
-      <c r="B48" s="125"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -5960,8 +6074,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="130"/>
-      <c r="B49" s="125"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -5978,8 +6092,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
-      <c r="B50" s="126"/>
+      <c r="A50" s="141"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -5994,10 +6108,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="129" t="s">
+      <c r="A51" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="143" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -6016,8 +6130,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="130"/>
-      <c r="B52" s="125"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="135"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -6032,9 +6146,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="130"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="135">
+      <c r="A53" s="140"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="145">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6048,9 +6162,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="130"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="135"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="145"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6062,8 +6176,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="130"/>
-      <c r="B55" s="125"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6074,8 +6188,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="130"/>
-      <c r="B56" s="125"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6088,8 +6202,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="130"/>
-      <c r="B57" s="125"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6102,8 +6216,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="130"/>
-      <c r="B58" s="126"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6116,8 +6230,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="130"/>
-      <c r="B59" s="133" t="s">
+      <c r="A59" s="140"/>
+      <c r="B59" s="143" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6132,8 +6246,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="130"/>
-      <c r="B60" s="125"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6148,8 +6262,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="130"/>
-      <c r="B61" s="125"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6164,8 +6278,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="130"/>
-      <c r="B62" s="125"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="135"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6180,8 +6294,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="130"/>
-      <c r="B63" s="125"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="135"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6192,8 +6306,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="130"/>
-      <c r="B64" s="125"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="135"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6204,8 +6318,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="130"/>
-      <c r="B65" s="126"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="136"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6220,8 +6334,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="130"/>
-      <c r="B66" s="134" t="s">
+      <c r="A66" s="140"/>
+      <c r="B66" s="144" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6238,8 +6352,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="130"/>
-      <c r="B67" s="125"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6254,8 +6368,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="130"/>
-      <c r="B68" s="125"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6268,8 +6382,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="131"/>
-      <c r="B69" s="126"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6311,7 +6425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F0678-14D1-45EE-85A1-C4C1E5086636}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6356,10 +6470,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="135" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6378,8 +6492,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6396,8 +6510,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="127" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="137" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6416,8 +6530,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6434,8 +6548,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6452,8 +6566,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6470,8 +6584,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6488,8 +6602,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6506,8 +6620,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6524,10 +6638,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="134" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6546,8 +6660,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6558,8 +6672,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6570,8 +6684,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6586,8 +6700,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6604,8 +6718,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6622,8 +6736,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6640,11 +6754,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="124" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="136">
+      <c r="C18" s="146">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -6660,9 +6774,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="137"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -6676,9 +6790,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="137"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -6692,8 +6806,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6704,8 +6818,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6716,8 +6830,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6728,8 +6842,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -6740,9 +6854,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="137">
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="147">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -6758,9 +6872,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="137"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -6774,8 +6888,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -6792,8 +6906,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
-      <c r="B28" s="124" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -6806,8 +6920,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -6824,8 +6938,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -6836,8 +6950,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -6854,8 +6968,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -6866,8 +6980,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="125"/>
-      <c r="B33" s="125"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -6884,9 +6998,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="137">
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="147">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -6902,9 +7016,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="138"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="148"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -6918,8 +7032,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
-      <c r="B36" s="124" t="s">
+      <c r="A36" s="135"/>
+      <c r="B36" s="134" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -6932,8 +7046,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
-      <c r="B37" s="125"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -6944,8 +7058,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
-      <c r="B38" s="125"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -6956,8 +7070,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
-      <c r="B39" s="125"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -6968,8 +7082,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -6980,8 +7094,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -6998,8 +7112,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="126"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -7010,8 +7124,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="134" t="s">
+      <c r="A43" s="135"/>
+      <c r="B43" s="144" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -7030,8 +7144,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7048,8 +7162,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="125"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7066,8 +7180,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="125"/>
-      <c r="B46" s="125"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7078,8 +7192,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7090,8 +7204,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7102,8 +7216,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="126"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7120,10 +7234,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="134" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7136,8 +7250,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7154,8 +7268,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
+      <c r="A52" s="135"/>
+      <c r="B52" s="135"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7166,8 +7280,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="135"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7184,8 +7298,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7196,8 +7310,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7208,8 +7322,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="125"/>
-      <c r="B56" s="126"/>
+      <c r="A56" s="135"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7226,8 +7340,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="124" t="s">
+      <c r="A57" s="135"/>
+      <c r="B57" s="134" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7246,8 +7360,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7264,8 +7378,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="135"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7282,8 +7396,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="125"/>
-      <c r="B60" s="125"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7300,8 +7414,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="125"/>
-      <c r="B61" s="125"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7312,8 +7426,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7330,8 +7444,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="126"/>
+      <c r="A63" s="135"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7348,8 +7462,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="125"/>
-      <c r="B64" s="124" t="s">
+      <c r="A64" s="135"/>
+      <c r="B64" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7368,8 +7482,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="125"/>
-      <c r="B65" s="125"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="135"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7386,8 +7500,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
+      <c r="A66" s="135"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7398,9 +7512,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="139">
+      <c r="A67" s="135"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="149">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -7416,9 +7530,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="125"/>
-      <c r="B68" s="125"/>
-      <c r="C68" s="140"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="150"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -7432,8 +7546,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="125"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="135"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7444,8 +7558,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="125"/>
-      <c r="B70" s="125"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7456,8 +7570,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="125"/>
-      <c r="B71" s="126"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="136"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7474,8 +7588,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="125"/>
-      <c r="B72" s="134" t="s">
+      <c r="A72" s="135"/>
+      <c r="B72" s="144" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7494,8 +7608,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7506,8 +7620,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
+      <c r="A74" s="136"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124990B-46AE-4245-B882-4C297F5C0CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210FCBF-1624-4CF2-8E71-2332F931A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="233">
   <si>
     <t>JVM</t>
   </si>
@@ -2919,6 +2919,10 @@
   </si>
   <si>
     <t>NIO, Netty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30~23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3689,19 +3693,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3710,46 +3708,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4053,8 +4057,8 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,7 +4108,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="126" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="73"/>
@@ -4121,8 +4125,8 @@
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="131" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="76">
@@ -4138,8 +4142,8 @@
       <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="102">
         <v>44383</v>
       </c>
@@ -4153,8 +4157,8 @@
       <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="102">
         <v>44384</v>
       </c>
@@ -4168,8 +4172,8 @@
       <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="102">
         <v>44385</v>
       </c>
@@ -4187,8 +4191,8 @@
       <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="102">
         <v>44386</v>
       </c>
@@ -4204,9 +4208,9 @@
       <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="128">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="125">
         <v>44387</v>
       </c>
       <c r="D8" s="68" t="s">
@@ -4225,9 +4229,9 @@
       <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="128"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4244,8 +4248,8 @@
       <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="130"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="79">
         <v>44388</v>
       </c>
@@ -4265,8 +4269,8 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="131" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="76">
@@ -4291,8 +4295,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="102">
         <v>44390</v>
       </c>
@@ -4315,8 +4319,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="102">
         <v>44391</v>
       </c>
@@ -4339,8 +4343,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="102">
         <v>44392</v>
       </c>
@@ -4363,8 +4367,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="102">
         <v>44393</v>
       </c>
@@ -4379,8 +4383,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="102">
         <v>44394</v>
       </c>
@@ -4400,8 +4404,8 @@
       <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="79">
         <v>44395</v>
       </c>
@@ -4421,8 +4425,8 @@
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="127"/>
+      <c r="B18" s="129" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="76">
@@ -4447,8 +4451,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="102">
         <v>44397</v>
       </c>
@@ -4475,8 +4479,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="102">
         <v>44398</v>
       </c>
@@ -4503,8 +4507,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="102">
         <v>44399</v>
       </c>
@@ -4531,8 +4535,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="102">
         <v>44400</v>
       </c>
@@ -4547,8 +4551,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="102">
         <v>44401</v>
       </c>
@@ -4585,8 +4589,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="79">
         <v>44402</v>
       </c>
@@ -4611,8 +4615,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="131" t="s">
+      <c r="A25" s="127"/>
+      <c r="B25" s="129" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="76">
@@ -4641,8 +4645,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="102">
         <v>44404</v>
       </c>
@@ -4667,8 +4671,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="102">
         <v>44405</v>
       </c>
@@ -4691,8 +4695,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="102">
         <v>44406</v>
       </c>
@@ -4719,8 +4723,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="102">
         <v>44407</v>
       </c>
@@ -4745,8 +4749,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="102">
         <v>44408</v>
       </c>
@@ -4771,8 +4775,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="79">
         <v>44409</v>
       </c>
@@ -4799,10 +4803,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="108">
@@ -4833,8 +4837,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
-      <c r="B33" s="126"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="107">
         <v>44411</v>
       </c>
@@ -4860,8 +4864,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="126"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="107">
         <v>44412</v>
       </c>
@@ -4889,8 +4893,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
-      <c r="B35" s="126"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="107">
         <v>44413</v>
       </c>
@@ -4914,8 +4918,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
-      <c r="B36" s="126"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="107">
         <v>44414</v>
       </c>
@@ -4933,8 +4937,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
-      <c r="B37" s="126"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="107">
         <v>44415</v>
       </c>
@@ -4958,8 +4962,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
-      <c r="B38" s="126"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="107">
         <v>44416</v>
       </c>
@@ -4983,20 +4987,26 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="126" t="s">
+      <c r="A39" s="131"/>
+      <c r="B39" s="127" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="107">
         <v>44417</v>
       </c>
-      <c r="D39" s="103"/>
+      <c r="D39" s="103" t="s">
+        <v>63</v>
+      </c>
       <c r="E39" s="117"/>
       <c r="F39" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
+      <c r="G39" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="103">
+        <v>3</v>
+      </c>
       <c r="I39" s="94"/>
       <c r="K39" s="112"/>
       <c r="L39" s="38" t="s">
@@ -5004,8 +5014,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
-      <c r="B40" s="126"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="107">
         <v>44418</v>
       </c>
@@ -5023,8 +5033,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
-      <c r="B41" s="126"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="107">
         <v>44419</v>
       </c>
@@ -5041,8 +5051,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
-      <c r="B42" s="126"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="107">
         <v>44420</v>
       </c>
@@ -5059,8 +5069,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="126"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="107">
         <v>44421</v>
       </c>
@@ -5077,8 +5087,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="126"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="107">
         <v>44422</v>
       </c>
@@ -5095,8 +5105,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
-      <c r="B45" s="126"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="107">
         <v>44423</v>
       </c>
@@ -5113,8 +5123,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="126" t="s">
+      <c r="A46" s="131"/>
+      <c r="B46" s="127" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="107">
@@ -5128,8 +5138,8 @@
       <c r="I46" s="94"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
-      <c r="B47" s="126"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="107">
         <v>44425</v>
       </c>
@@ -5141,8 +5151,8 @@
       <c r="I47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
-      <c r="B48" s="126"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="107">
         <v>44426</v>
       </c>
@@ -5154,8 +5164,8 @@
       <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
-      <c r="B49" s="126"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="107">
         <v>44427</v>
       </c>
@@ -5167,8 +5177,8 @@
       <c r="I49" s="94"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
-      <c r="B50" s="126"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="107">
         <v>44428</v>
       </c>
@@ -5180,8 +5190,8 @@
       <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="127"/>
-      <c r="B51" s="126"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="107">
         <v>44429</v>
       </c>
@@ -5193,8 +5203,8 @@
       <c r="I51" s="94"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="127"/>
-      <c r="B52" s="126"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="107">
         <v>44430</v>
       </c>
@@ -5206,8 +5216,8 @@
       <c r="I52" s="94"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
-      <c r="B53" s="126" t="s">
+      <c r="A53" s="131"/>
+      <c r="B53" s="127" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="107">
@@ -5221,8 +5231,8 @@
       <c r="I53" s="94"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
-      <c r="B54" s="126"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="107">
         <v>44432</v>
       </c>
@@ -5234,8 +5244,8 @@
       <c r="I54" s="94"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="127"/>
-      <c r="B55" s="126"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="107">
         <v>44433</v>
       </c>
@@ -5247,8 +5257,8 @@
       <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="127"/>
-      <c r="B56" s="126"/>
+      <c r="A56" s="131"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="107">
         <v>44434</v>
       </c>
@@ -5260,8 +5270,8 @@
       <c r="I56" s="94"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="126"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="107">
         <v>44435</v>
       </c>
@@ -5273,8 +5283,8 @@
       <c r="I57" s="94"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="126"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="107">
         <v>44436</v>
       </c>
@@ -5286,8 +5296,8 @@
       <c r="I58" s="94"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="126"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="107">
         <v>44437</v>
       </c>
@@ -5300,17 +5310,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5368,10 +5378,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="140" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5390,8 +5400,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5402,8 +5412,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="134" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="141" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5422,8 +5432,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5440,9 +5450,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="132">
+      <c r="A6" s="136"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="144">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5458,9 +5468,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="133"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5476,8 +5486,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5496,8 +5506,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5516,8 +5526,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5528,8 +5538,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5546,8 +5556,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="137" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="139" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5562,9 +5572,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="132">
+      <c r="A13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="144">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5578,9 +5588,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="133"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5602,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5602,8 +5612,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5614,8 +5624,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="135"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5626,9 +5636,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="132">
+      <c r="A18" s="136"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="144">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5640,9 +5650,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="142"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="133"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5652,8 +5662,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="136"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5666,10 +5676,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="141" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5684,8 +5694,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5698,9 +5708,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="132">
+      <c r="A23" s="136"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="144">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5712,9 +5722,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="133"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5726,9 +5736,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="132">
+      <c r="A25" s="136"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="144">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5742,9 +5752,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="133"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5754,8 +5764,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="135"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5766,8 +5776,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="135"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5778,8 +5788,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
-      <c r="B29" s="136"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5790,8 +5800,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="140"/>
-      <c r="B30" s="134" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="141" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5804,8 +5814,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5816,8 +5826,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="135"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5828,8 +5838,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
-      <c r="B33" s="135"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5840,8 +5850,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="135"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -5852,8 +5862,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
-      <c r="B35" s="135"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -5864,8 +5874,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
-      <c r="B36" s="136"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -5876,8 +5886,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
-      <c r="B37" s="134" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="141" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -5892,8 +5902,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
-      <c r="B38" s="135"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -5908,8 +5918,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="135"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -5924,8 +5934,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="140"/>
-      <c r="B40" s="135"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -5940,8 +5950,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="135"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -5956,8 +5966,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="135"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -5972,8 +5982,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
-      <c r="B43" s="136"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -5988,8 +5998,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="140"/>
-      <c r="B44" s="137" t="s">
+      <c r="A44" s="136"/>
+      <c r="B44" s="139" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -6006,8 +6016,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -6022,8 +6032,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
-      <c r="B46" s="135"/>
+      <c r="A46" s="136"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -6040,8 +6050,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="140"/>
-      <c r="B47" s="135"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -6058,8 +6068,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="140"/>
-      <c r="B48" s="135"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -6074,8 +6084,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="135"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="133"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -6092,8 +6102,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="141"/>
-      <c r="B50" s="136"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -6108,10 +6118,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="139" t="s">
+      <c r="A51" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="140" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -6130,8 +6140,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="140"/>
-      <c r="B52" s="135"/>
+      <c r="A52" s="136"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -6146,9 +6156,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="140"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="145">
+      <c r="A53" s="136"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="138">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6162,9 +6172,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="140"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="145"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="138"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6176,8 +6186,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="140"/>
-      <c r="B55" s="135"/>
+      <c r="A55" s="136"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6188,8 +6198,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="140"/>
-      <c r="B56" s="135"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6202,8 +6212,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="140"/>
-      <c r="B57" s="135"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="133"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6216,8 +6226,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
-      <c r="B58" s="136"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="134"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6230,8 +6240,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="140"/>
-      <c r="B59" s="143" t="s">
+      <c r="A59" s="136"/>
+      <c r="B59" s="140" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6246,8 +6256,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="140"/>
-      <c r="B60" s="135"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="133"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6262,8 +6272,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="140"/>
-      <c r="B61" s="135"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="133"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6278,8 +6288,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="140"/>
-      <c r="B62" s="135"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="133"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6294,8 +6304,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="140"/>
-      <c r="B63" s="135"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="133"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6306,8 +6316,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="140"/>
-      <c r="B64" s="135"/>
+      <c r="A64" s="136"/>
+      <c r="B64" s="133"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6318,8 +6328,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="140"/>
-      <c r="B65" s="136"/>
+      <c r="A65" s="136"/>
+      <c r="B65" s="134"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6334,8 +6344,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="140"/>
-      <c r="B66" s="144" t="s">
+      <c r="A66" s="136"/>
+      <c r="B66" s="132" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6352,8 +6362,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="140"/>
-      <c r="B67" s="135"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="133"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6368,8 +6378,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="140"/>
-      <c r="B68" s="135"/>
+      <c r="A68" s="136"/>
+      <c r="B68" s="133"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6382,8 +6392,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="141"/>
-      <c r="B69" s="136"/>
+      <c r="A69" s="137"/>
+      <c r="B69" s="134"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6395,12 +6405,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -6409,11 +6418,12 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6470,10 +6480,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="133" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6492,8 +6502,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6510,8 +6520,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="139" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6530,8 +6540,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6548,8 +6558,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6566,8 +6576,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6584,8 +6594,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6602,8 +6612,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6620,8 +6630,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6638,10 +6648,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="141" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6660,8 +6670,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6672,8 +6682,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6684,8 +6694,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6700,8 +6710,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6718,8 +6728,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6736,8 +6746,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="136"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6754,8 +6764,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
-      <c r="B18" s="134" t="s">
+      <c r="A18" s="133"/>
+      <c r="B18" s="141" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="146">
@@ -6774,7 +6784,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="151"/>
       <c r="C19" s="147"/>
       <c r="D19" s="41" t="s">
@@ -6790,7 +6800,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="151"/>
       <c r="C20" s="147"/>
       <c r="D20" s="41" t="s">
@@ -6806,8 +6816,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6818,8 +6828,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6830,8 +6840,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6842,8 +6852,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -6854,8 +6864,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="147">
         <v>44114</v>
       </c>
@@ -6872,8 +6882,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="147"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
@@ -6888,8 +6898,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="136"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -6906,8 +6916,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
-      <c r="B28" s="134" t="s">
+      <c r="A28" s="133"/>
+      <c r="B28" s="141" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -6920,8 +6930,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
-      <c r="B29" s="135"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -6938,8 +6948,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -6950,8 +6960,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -6968,8 +6978,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="135"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -6980,8 +6990,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
-      <c r="B33" s="135"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -6998,8 +7008,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="135"/>
-      <c r="B34" s="135"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="147">
         <v>44122</v>
       </c>
@@ -7016,8 +7026,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="136"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="148"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
@@ -7032,8 +7042,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="135"/>
-      <c r="B36" s="134" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="141" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -7046,8 +7056,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="135"/>
-      <c r="B37" s="135"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -7058,8 +7068,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
-      <c r="B38" s="135"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -7070,8 +7080,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
-      <c r="B39" s="135"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -7082,8 +7092,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -7094,8 +7104,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="135"/>
-      <c r="B41" s="135"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -7112,8 +7122,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="135"/>
-      <c r="B42" s="136"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -7124,8 +7134,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="135"/>
-      <c r="B43" s="144" t="s">
+      <c r="A43" s="133"/>
+      <c r="B43" s="132" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -7144,8 +7154,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="135"/>
-      <c r="B44" s="135"/>
+      <c r="A44" s="133"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7162,8 +7172,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7180,8 +7190,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
-      <c r="B46" s="135"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7192,8 +7202,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
-      <c r="B47" s="135"/>
+      <c r="A47" s="133"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7204,8 +7214,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="135"/>
-      <c r="B48" s="135"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7216,8 +7226,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="136"/>
-      <c r="B49" s="136"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7234,10 +7244,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="141" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7250,8 +7260,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="135"/>
-      <c r="B51" s="135"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="133"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7268,8 +7278,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="135"/>
-      <c r="B52" s="135"/>
+      <c r="A52" s="133"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7280,8 +7290,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="135"/>
-      <c r="B53" s="135"/>
+      <c r="A53" s="133"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7298,8 +7308,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
+      <c r="A54" s="133"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7310,8 +7320,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="135"/>
-      <c r="B55" s="135"/>
+      <c r="A55" s="133"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7322,8 +7332,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="135"/>
-      <c r="B56" s="136"/>
+      <c r="A56" s="133"/>
+      <c r="B56" s="134"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7340,8 +7350,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="135"/>
-      <c r="B57" s="134" t="s">
+      <c r="A57" s="133"/>
+      <c r="B57" s="141" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7360,8 +7370,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
+      <c r="A58" s="133"/>
+      <c r="B58" s="133"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7378,8 +7388,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="135"/>
+      <c r="A59" s="133"/>
+      <c r="B59" s="133"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7396,8 +7406,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
-      <c r="B60" s="135"/>
+      <c r="A60" s="133"/>
+      <c r="B60" s="133"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7414,8 +7424,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
-      <c r="B61" s="135"/>
+      <c r="A61" s="133"/>
+      <c r="B61" s="133"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7426,8 +7436,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="135"/>
+      <c r="A62" s="133"/>
+      <c r="B62" s="133"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7444,8 +7454,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="135"/>
-      <c r="B63" s="136"/>
+      <c r="A63" s="133"/>
+      <c r="B63" s="134"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7462,8 +7472,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="135"/>
-      <c r="B64" s="134" t="s">
+      <c r="A64" s="133"/>
+      <c r="B64" s="141" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7482,8 +7492,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="135"/>
-      <c r="B65" s="135"/>
+      <c r="A65" s="133"/>
+      <c r="B65" s="133"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7500,8 +7510,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="135"/>
-      <c r="B66" s="135"/>
+      <c r="A66" s="133"/>
+      <c r="B66" s="133"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7512,8 +7522,8 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="135"/>
-      <c r="B67" s="135"/>
+      <c r="A67" s="133"/>
+      <c r="B67" s="133"/>
       <c r="C67" s="149">
         <v>44154</v>
       </c>
@@ -7530,8 +7540,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="135"/>
-      <c r="B68" s="135"/>
+      <c r="A68" s="133"/>
+      <c r="B68" s="133"/>
       <c r="C68" s="150"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
@@ -7546,8 +7556,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
+      <c r="A69" s="133"/>
+      <c r="B69" s="133"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7558,8 +7568,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="135"/>
-      <c r="B70" s="135"/>
+      <c r="A70" s="133"/>
+      <c r="B70" s="133"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7570,8 +7580,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="135"/>
-      <c r="B71" s="136"/>
+      <c r="A71" s="133"/>
+      <c r="B71" s="134"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7588,8 +7598,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="135"/>
-      <c r="B72" s="144" t="s">
+      <c r="A72" s="133"/>
+      <c r="B72" s="132" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7608,8 +7618,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="135"/>
-      <c r="B73" s="135"/>
+      <c r="A73" s="133"/>
+      <c r="B73" s="133"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7620,8 +7630,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="136"/>
-      <c r="B74" s="136"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="134"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -7639,13 +7649,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -7657,6 +7660,13 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210FCBF-1624-4CF2-8E71-2332F931A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8DA9C9-0A70-403C-A5F4-D4A4360A1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16875" yWindow="2430" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="235">
   <si>
     <t>JVM</t>
   </si>
@@ -2923,6 +2923,15 @@
   </si>
   <si>
     <t>20:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30~20:30
+22:30~23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4057,8 +4066,8 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,32 +5028,44 @@
       <c r="C40" s="107">
         <v>44418</v>
       </c>
-      <c r="D40" s="103"/>
+      <c r="D40" s="103" t="s">
+        <v>63</v>
+      </c>
       <c r="E40" s="117"/>
       <c r="F40" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
+      <c r="G40" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="103">
+        <v>2</v>
+      </c>
       <c r="I40" s="94"/>
       <c r="K40" s="112"/>
       <c r="L40" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="131"/>
       <c r="B41" s="127"/>
       <c r="C41" s="107">
         <v>44419</v>
       </c>
-      <c r="D41" s="103"/>
+      <c r="D41" s="103" t="s">
+        <v>175</v>
+      </c>
       <c r="E41" s="117"/>
       <c r="F41" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
+      <c r="G41" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="103">
+        <v>3</v>
+      </c>
       <c r="I41" s="94"/>
       <c r="L41" s="38" t="s">
         <v>200</v>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8DA9C9-0A70-403C-A5F4-D4A4360A1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB09F97-B342-492A-9C32-7B95642CDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="2430" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20535" yWindow="3045" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="236">
   <si>
     <t>JVM</t>
   </si>
@@ -2932,6 +2932,10 @@
   <si>
     <t>18:30~20:30
 22:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZK, Kafka</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3079,7 +3083,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3137,6 +3141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3334,7 +3344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3702,13 +3712,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3717,52 +3733,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3782,6 +3792,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4067,7 +4080,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,7 +4130,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="73"/>
@@ -4134,8 +4147,8 @@
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="129" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="131" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="76">
@@ -4151,8 +4164,8 @@
       <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="102">
         <v>44383</v>
       </c>
@@ -4166,8 +4179,8 @@
       <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="102">
         <v>44384</v>
       </c>
@@ -4181,8 +4194,8 @@
       <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="127"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="102">
         <v>44385</v>
       </c>
@@ -4200,8 +4213,8 @@
       <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="127"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="102">
         <v>44386</v>
       </c>
@@ -4217,9 +4230,9 @@
       <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="125">
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="128">
         <v>44387</v>
       </c>
       <c r="D8" s="68" t="s">
@@ -4238,9 +4251,9 @@
       <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="125"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4257,8 +4270,8 @@
       <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
-      <c r="B10" s="128"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="79">
         <v>44388</v>
       </c>
@@ -4278,8 +4291,8 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="131" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="76">
@@ -4304,8 +4317,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="102">
         <v>44390</v>
       </c>
@@ -4328,8 +4341,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="102">
         <v>44391</v>
       </c>
@@ -4352,8 +4365,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="102">
         <v>44392</v>
       </c>
@@ -4376,8 +4389,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="102">
         <v>44393</v>
       </c>
@@ -4392,8 +4405,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="102">
         <v>44394</v>
       </c>
@@ -4413,8 +4426,8 @@
       <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="79">
         <v>44395</v>
       </c>
@@ -4434,8 +4447,8 @@
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="129" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="131" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="76">
@@ -4460,8 +4473,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="102">
         <v>44397</v>
       </c>
@@ -4488,8 +4501,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="102">
         <v>44398</v>
       </c>
@@ -4516,8 +4529,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="102">
         <v>44399</v>
       </c>
@@ -4544,8 +4557,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="102">
         <v>44400</v>
       </c>
@@ -4560,8 +4573,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="102">
         <v>44401</v>
       </c>
@@ -4598,8 +4611,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="79">
         <v>44402</v>
       </c>
@@ -4624,8 +4637,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="129" t="s">
+      <c r="A25" s="126"/>
+      <c r="B25" s="131" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="76">
@@ -4654,8 +4667,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="102">
         <v>44404</v>
       </c>
@@ -4680,8 +4693,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="102">
         <v>44405</v>
       </c>
@@ -4704,8 +4717,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="102">
         <v>44406</v>
       </c>
@@ -4732,8 +4745,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="102">
         <v>44407</v>
       </c>
@@ -4758,8 +4771,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="102">
         <v>44408</v>
       </c>
@@ -4784,8 +4797,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="79">
         <v>44409</v>
       </c>
@@ -4812,10 +4825,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="131" t="s">
+      <c r="A32" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="108">
@@ -4846,8 +4859,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="127"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="107">
         <v>44411</v>
       </c>
@@ -4873,8 +4886,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
-      <c r="B34" s="127"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="107">
         <v>44412</v>
       </c>
@@ -4902,8 +4915,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="131"/>
-      <c r="B35" s="127"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="107">
         <v>44413</v>
       </c>
@@ -4927,8 +4940,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="131"/>
-      <c r="B36" s="127"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="107">
         <v>44414</v>
       </c>
@@ -4946,8 +4959,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="131"/>
-      <c r="B37" s="127"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="107">
         <v>44415</v>
       </c>
@@ -4971,12 +4984,12 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
-      <c r="B38" s="127"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="107">
         <v>44416</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="152" t="s">
         <v>229</v>
       </c>
       <c r="E38" s="117" t="s">
@@ -4996,8 +5009,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
-      <c r="B39" s="127" t="s">
+      <c r="A39" s="127"/>
+      <c r="B39" s="126" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="107">
@@ -5023,8 +5036,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="127"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="107">
         <v>44418</v>
       </c>
@@ -5048,12 +5061,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
-      <c r="B41" s="127"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="107">
         <v>44419</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="152" t="s">
         <v>175</v>
       </c>
       <c r="E41" s="117"/>
@@ -5072,26 +5085,32 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="131"/>
-      <c r="B42" s="127"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="107">
         <v>44420</v>
       </c>
-      <c r="D42" s="103"/>
+      <c r="D42" s="103" t="s">
+        <v>235</v>
+      </c>
       <c r="E42" s="117"/>
       <c r="F42" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
+      <c r="G42" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="103">
+        <v>3</v>
+      </c>
       <c r="I42" s="94"/>
       <c r="L42" s="38" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="131"/>
-      <c r="B43" s="127"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="107">
         <v>44421</v>
       </c>
@@ -5108,8 +5127,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="131"/>
-      <c r="B44" s="127"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="107">
         <v>44422</v>
       </c>
@@ -5126,8 +5145,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="131"/>
-      <c r="B45" s="127"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="107">
         <v>44423</v>
       </c>
@@ -5144,8 +5163,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="131"/>
-      <c r="B46" s="127" t="s">
+      <c r="A46" s="127"/>
+      <c r="B46" s="126" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="107">
@@ -5159,8 +5178,8 @@
       <c r="I46" s="94"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
-      <c r="B47" s="127"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="107">
         <v>44425</v>
       </c>
@@ -5172,8 +5191,8 @@
       <c r="I47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="B48" s="127"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="107">
         <v>44426</v>
       </c>
@@ -5185,8 +5204,8 @@
       <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="127"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="107">
         <v>44427</v>
       </c>
@@ -5198,8 +5217,8 @@
       <c r="I49" s="94"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
-      <c r="B50" s="127"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="107">
         <v>44428</v>
       </c>
@@ -5211,8 +5230,8 @@
       <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="131"/>
-      <c r="B51" s="127"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="107">
         <v>44429</v>
       </c>
@@ -5224,8 +5243,8 @@
       <c r="I51" s="94"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="131"/>
-      <c r="B52" s="127"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="107">
         <v>44430</v>
       </c>
@@ -5237,8 +5256,8 @@
       <c r="I52" s="94"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
-      <c r="B53" s="127" t="s">
+      <c r="A53" s="127"/>
+      <c r="B53" s="126" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="107">
@@ -5252,8 +5271,8 @@
       <c r="I53" s="94"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
-      <c r="B54" s="127"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="107">
         <v>44432</v>
       </c>
@@ -5265,8 +5284,8 @@
       <c r="I54" s="94"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="131"/>
-      <c r="B55" s="127"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="107">
         <v>44433</v>
       </c>
@@ -5278,8 +5297,8 @@
       <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="131"/>
-      <c r="B56" s="127"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="107">
         <v>44434</v>
       </c>
@@ -5291,8 +5310,8 @@
       <c r="I56" s="94"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="131"/>
-      <c r="B57" s="127"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="107">
         <v>44435</v>
       </c>
@@ -5304,8 +5323,8 @@
       <c r="I57" s="94"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="131"/>
-      <c r="B58" s="127"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="107">
         <v>44436</v>
       </c>
@@ -5317,8 +5336,8 @@
       <c r="I58" s="94"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="130"/>
-      <c r="B59" s="127"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="107">
         <v>44437</v>
       </c>
@@ -5331,17 +5350,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5399,10 +5418,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="143" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5421,8 +5440,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="136"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5433,8 +5452,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="141" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5453,8 +5472,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5471,9 +5490,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="144">
+      <c r="A6" s="140"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="132">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5489,9 +5508,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="145"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5507,8 +5526,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5527,8 +5546,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5547,8 +5566,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5559,8 +5578,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5577,8 +5596,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="139" t="s">
+      <c r="A12" s="140"/>
+      <c r="B12" s="137" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5593,9 +5612,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="144">
+      <c r="A13" s="140"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="132">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5609,9 +5628,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="145"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5623,8 +5642,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5633,8 +5652,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5645,8 +5664,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="133"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5657,9 +5676,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="144">
+      <c r="A18" s="140"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="132">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5671,9 +5690,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="145"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5683,8 +5702,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="137"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5697,10 +5716,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5715,8 +5734,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="133"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5729,9 +5748,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="144">
+      <c r="A23" s="140"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="132">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5743,9 +5762,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="145"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5757,9 +5776,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="144">
+      <c r="A25" s="140"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="132">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5773,9 +5792,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="145"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5785,8 +5804,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="133"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5797,8 +5816,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="133"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5809,8 +5828,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="136"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5821,8 +5840,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="141" t="s">
+      <c r="A30" s="140"/>
+      <c r="B30" s="134" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5835,8 +5854,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="133"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5847,8 +5866,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
-      <c r="B32" s="133"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5859,8 +5878,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="133"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5871,8 +5890,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="133"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -5883,8 +5902,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="133"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -5895,8 +5914,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="136"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -5907,8 +5926,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="141" t="s">
+      <c r="A37" s="140"/>
+      <c r="B37" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -5923,8 +5942,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="133"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -5939,8 +5958,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="133"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -5955,8 +5974,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -5971,8 +5990,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
-      <c r="B41" s="133"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -5987,8 +6006,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="133"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -6003,8 +6022,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
-      <c r="B43" s="134"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -6019,8 +6038,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="136"/>
-      <c r="B44" s="139" t="s">
+      <c r="A44" s="140"/>
+      <c r="B44" s="137" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -6037,8 +6056,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="136"/>
-      <c r="B45" s="133"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -6053,8 +6072,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -6071,8 +6090,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -6089,8 +6108,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
-      <c r="B48" s="133"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -6105,8 +6124,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="133"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -6123,8 +6142,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="137"/>
-      <c r="B50" s="134"/>
+      <c r="A50" s="141"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -6139,10 +6158,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="135" t="s">
+      <c r="A51" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="143" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -6161,8 +6180,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="136"/>
-      <c r="B52" s="133"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="135"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -6177,9 +6196,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="138">
+      <c r="A53" s="140"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="145">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6193,9 +6212,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="138"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="145"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6207,8 +6226,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="133"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6219,8 +6238,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="133"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6233,8 +6252,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="133"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6247,8 +6266,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="136"/>
-      <c r="B58" s="134"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6261,8 +6280,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="140" t="s">
+      <c r="A59" s="140"/>
+      <c r="B59" s="143" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6277,8 +6296,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
-      <c r="B60" s="133"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6293,8 +6312,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="136"/>
-      <c r="B61" s="133"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6309,8 +6328,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="136"/>
-      <c r="B62" s="133"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="135"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6325,8 +6344,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="136"/>
-      <c r="B63" s="133"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="135"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6337,8 +6356,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="136"/>
-      <c r="B64" s="133"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="135"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6349,8 +6368,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="136"/>
-      <c r="B65" s="134"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="136"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6365,8 +6384,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="136"/>
-      <c r="B66" s="132" t="s">
+      <c r="A66" s="140"/>
+      <c r="B66" s="144" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6383,8 +6402,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="136"/>
-      <c r="B67" s="133"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6399,8 +6418,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="136"/>
-      <c r="B68" s="133"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6413,8 +6432,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="137"/>
-      <c r="B69" s="134"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6426,11 +6445,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -6439,12 +6459,11 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6501,10 +6520,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="135" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6523,8 +6542,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6541,8 +6560,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="139" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="137" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6561,8 +6580,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6579,8 +6598,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6597,8 +6616,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6615,8 +6634,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6633,8 +6652,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6651,8 +6670,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6669,10 +6688,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="134" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6691,8 +6710,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6703,8 +6722,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="133"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6715,8 +6734,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6731,8 +6750,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6749,8 +6768,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6767,8 +6786,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6785,8 +6804,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="141" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="134" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="146">
@@ -6805,7 +6824,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="151"/>
       <c r="C19" s="147"/>
       <c r="D19" s="41" t="s">
@@ -6821,7 +6840,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="151"/>
       <c r="C20" s="147"/>
       <c r="D20" s="41" t="s">
@@ -6837,8 +6856,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
-      <c r="B21" s="133"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6849,8 +6868,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6861,8 +6880,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="133"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6873,8 +6892,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
-      <c r="B24" s="133"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -6885,8 +6904,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="133"/>
-      <c r="B25" s="133"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="147">
         <v>44114</v>
       </c>
@@ -6903,8 +6922,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
-      <c r="B26" s="133"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="147"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
@@ -6919,8 +6938,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -6937,8 +6956,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="133"/>
-      <c r="B28" s="141" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -6951,8 +6970,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="133"/>
-      <c r="B29" s="133"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -6969,8 +6988,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="133"/>
-      <c r="B30" s="133"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -6981,8 +7000,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="133"/>
-      <c r="B31" s="133"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -6999,8 +7018,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
-      <c r="B32" s="133"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -7011,8 +7030,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
-      <c r="B33" s="133"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -7029,8 +7048,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
-      <c r="B34" s="133"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="147">
         <v>44122</v>
       </c>
@@ -7047,8 +7066,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="148"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
@@ -7063,8 +7082,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="141" t="s">
+      <c r="A36" s="135"/>
+      <c r="B36" s="134" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -7077,8 +7096,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
-      <c r="B37" s="133"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -7089,8 +7108,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="133"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -7101,8 +7120,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="133"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -7113,8 +7132,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -7125,8 +7144,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
-      <c r="B41" s="133"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -7143,8 +7162,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -7155,8 +7174,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
-      <c r="B43" s="132" t="s">
+      <c r="A43" s="135"/>
+      <c r="B43" s="144" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -7175,8 +7194,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7193,8 +7212,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7211,8 +7230,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7223,8 +7242,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="133"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7235,8 +7254,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="133"/>
-      <c r="B48" s="133"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7247,8 +7266,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7265,10 +7284,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="141" t="s">
+      <c r="B50" s="134" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7281,8 +7300,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7299,8 +7318,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="133"/>
-      <c r="B52" s="133"/>
+      <c r="A52" s="135"/>
+      <c r="B52" s="135"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7311,8 +7330,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="133"/>
-      <c r="B53" s="133"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="135"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7329,8 +7348,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7341,8 +7360,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="133"/>
-      <c r="B55" s="133"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7353,8 +7372,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="133"/>
-      <c r="B56" s="134"/>
+      <c r="A56" s="135"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7371,8 +7390,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="133"/>
-      <c r="B57" s="141" t="s">
+      <c r="A57" s="135"/>
+      <c r="B57" s="134" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7391,8 +7410,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="133"/>
-      <c r="B58" s="133"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7409,8 +7428,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="133"/>
-      <c r="B59" s="133"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="135"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7427,8 +7446,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="133"/>
-      <c r="B60" s="133"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7445,8 +7464,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="133"/>
-      <c r="B61" s="133"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7457,8 +7476,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="133"/>
-      <c r="B62" s="133"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7475,8 +7494,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="133"/>
-      <c r="B63" s="134"/>
+      <c r="A63" s="135"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7493,8 +7512,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="133"/>
-      <c r="B64" s="141" t="s">
+      <c r="A64" s="135"/>
+      <c r="B64" s="134" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7513,8 +7532,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="133"/>
-      <c r="B65" s="133"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="135"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7531,8 +7550,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="133"/>
-      <c r="B66" s="133"/>
+      <c r="A66" s="135"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7543,8 +7562,8 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="133"/>
-      <c r="B67" s="133"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="149">
         <v>44154</v>
       </c>
@@ -7561,8 +7580,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="133"/>
-      <c r="B68" s="133"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="150"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
@@ -7577,8 +7596,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="133"/>
-      <c r="B69" s="133"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="135"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7589,8 +7608,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="133"/>
-      <c r="B70" s="133"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7601,8 +7620,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="133"/>
-      <c r="B71" s="134"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="136"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7619,8 +7638,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="133"/>
-      <c r="B72" s="132" t="s">
+      <c r="A72" s="135"/>
+      <c r="B72" s="144" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7639,8 +7658,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="133"/>
-      <c r="B73" s="133"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7651,8 +7670,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="134"/>
-      <c r="B74" s="134"/>
+      <c r="A74" s="136"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -7670,6 +7689,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -7681,13 +7707,6 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB09F97-B342-492A-9C32-7B95642CDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3A40B-3BA9-4D8A-A420-04C5ED91A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="3045" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月计划" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="238">
   <si>
     <t>JVM</t>
   </si>
@@ -2936,6 +2936,14 @@
   </si>
   <si>
     <t>ZK, Kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00~25:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:15~21:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3083,7 +3091,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3150,8 +3158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3340,11 +3354,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3545,97 +3585,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3645,93 +3616,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3793,7 +3686,199 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4079,8 +4164,8 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,7 +4178,7 @@
     <col min="6" max="6" width="25" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="113"/>
+    <col min="9" max="9" width="9" style="81"/>
     <col min="10" max="10" width="9" style="37"/>
     <col min="11" max="11" width="7.25" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="37" bestFit="1" customWidth="1"/>
@@ -4101,500 +4186,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="68" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105">
         <v>44381</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="115"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="92"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="131" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="108">
         <v>44382</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="93"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="102">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="109">
         <v>44383</v>
       </c>
       <c r="D4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="94"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="102">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="109">
         <v>44384</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="94"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="102">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="109">
         <v>44385</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="103" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="113">
         <v>5</v>
       </c>
-      <c r="I6" s="94"/>
+      <c r="I6" s="132"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="102">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="109">
         <v>44386</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="88" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="94"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="132"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="128">
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="110">
         <v>44387</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="88" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="113">
         <v>5</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="132"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="128"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="120">
         <v>1.3</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="113">
         <v>3</v>
       </c>
-      <c r="I9" s="94"/>
+      <c r="I9" s="132"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="79">
+      <c r="A10" s="106"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112">
         <v>44388</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="124"/>
+      <c r="G10" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="114">
         <v>7</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="133"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="131" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="108">
         <v>44389</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="117">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="84" t="s">
+      <c r="F11" s="118"/>
+      <c r="G11" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="119">
         <v>4</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="L11" s="90" t="s">
+      <c r="I11" s="131"/>
+      <c r="L11" s="72" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="102">
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="109">
         <v>44390</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="117">
+      <c r="E12" s="120">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="103" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="113">
         <v>4</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="L12" s="91" t="s">
+      <c r="I12" s="132"/>
+      <c r="L12" s="73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="102">
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="109">
         <v>44391</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="121">
+      <c r="E13" s="126">
         <v>2.67</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="103" t="s">
+      <c r="F13" s="127"/>
+      <c r="G13" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="113">
         <v>4</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="L13" s="91" t="s">
+      <c r="I13" s="132"/>
+      <c r="L13" s="73" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="102">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="109">
         <v>44392</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="117">
+      <c r="E14" s="120">
         <v>2.84</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="103" t="s">
+      <c r="F14" s="121"/>
+      <c r="G14" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="113">
         <v>4</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="L14" s="91" t="s">
+      <c r="I14" s="132"/>
+      <c r="L14" s="73" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="102">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="109">
         <v>44393</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="94"/>
-      <c r="L15" s="91" t="s">
+      <c r="D15" s="113"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="132"/>
+      <c r="L15" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="102">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="109">
         <v>44394</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="103" t="s">
+      <c r="F16" s="127"/>
+      <c r="G16" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="103">
+      <c r="H16" s="113">
         <v>5</v>
       </c>
-      <c r="I16" s="94"/>
+      <c r="I16" s="132"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="79">
+      <c r="A17" s="106"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112">
         <v>44395</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="123">
         <v>3.41</v>
       </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="104" t="s">
+      <c r="F17" s="124"/>
+      <c r="G17" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="114">
         <v>11.5</v>
       </c>
-      <c r="I17" s="95"/>
+      <c r="I17" s="133"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="108">
         <v>44396</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="84" t="s">
+      <c r="F18" s="129"/>
+      <c r="G18" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="119">
         <v>3</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="L18" s="97" t="s">
+      <c r="I18" s="131"/>
+      <c r="L18" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="102">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="109">
         <v>44397</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="103">
+      <c r="H19" s="113">
         <v>3</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="97" t="s">
+      <c r="L19" s="75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="102">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="109">
         <v>44398</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="113">
         <v>4</v>
       </c>
-      <c r="I20" s="96" t="s">
+      <c r="I20" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="97" t="s">
+      <c r="L20" s="75" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="102">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109">
         <v>44399</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="118" t="s">
+      <c r="E21" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="113">
         <v>5</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="75" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="102">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="109">
         <v>44400</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="94"/>
-      <c r="L22" s="97" t="s">
+      <c r="D22" s="113"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="132"/>
+      <c r="L22" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="102">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="109">
         <v>44401</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="70" t="s">
+      <c r="E23" s="120"/>
+      <c r="F23" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="103">
+      <c r="H23" s="113">
         <v>7</v>
       </c>
-      <c r="I23" s="96" t="s">
+      <c r="I23" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="L23" s="97" t="s">
+      <c r="L23" s="75" t="s">
         <v>183</v>
       </c>
       <c r="M23" s="39" t="s">
@@ -4603,61 +4688,61 @@
       <c r="N23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="O23" s="101" t="s">
+      <c r="O23" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="P23" s="101" t="s">
+      <c r="P23" s="78" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="79">
+      <c r="A24" s="106"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112">
         <v>44402</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="83" t="s">
+      <c r="E24" s="123"/>
+      <c r="F24" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="104">
+      <c r="H24" s="114">
         <v>5</v>
       </c>
-      <c r="I24" s="95"/>
-      <c r="L24" s="97" t="s">
+      <c r="I24" s="133"/>
+      <c r="L24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="131" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="108">
         <v>44403</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="82" t="s">
+      <c r="E25" s="117"/>
+      <c r="F25" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="105" t="s">
+      <c r="G25" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="119">
         <v>13</v>
       </c>
-      <c r="I25" s="93"/>
+      <c r="I25" s="131"/>
       <c r="L25" s="38" t="s">
         <v>63</v>
       </c>
@@ -4667,25 +4752,25 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="102">
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="109">
         <v>44404</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="70" t="s">
+      <c r="E26" s="120"/>
+      <c r="F26" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="135" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="103">
+      <c r="H26" s="113">
         <v>13</v>
       </c>
-      <c r="I26" s="99" t="s">
+      <c r="I26" s="76" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="38" t="s">
@@ -4693,51 +4778,51 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="102">
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="109">
         <v>44405</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="70" t="s">
+      <c r="E27" s="120"/>
+      <c r="F27" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="103">
+      <c r="H27" s="113">
         <v>8</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="L27" s="38" t="s">
+      <c r="I27" s="132"/>
+      <c r="L27" s="75" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="102">
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="109">
         <v>44406</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="118" t="s">
+      <c r="E28" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="103">
+      <c r="H28" s="113">
         <v>11</v>
       </c>
-      <c r="I28" s="100" t="s">
+      <c r="I28" s="77" t="s">
         <v>183</v>
       </c>
       <c r="L28" s="38" t="s">
@@ -4745,79 +4830,79 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="102">
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="109">
         <v>44407</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="118" t="s">
+      <c r="E29" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="113">
         <v>13</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="132"/>
       <c r="L29" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="102">
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="109">
         <v>44408</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="118" t="s">
+      <c r="E30" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="70" t="s">
+      <c r="F30" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="H30" s="103">
+      <c r="H30" s="113">
         <v>9</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="132"/>
       <c r="L30" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="79">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112">
         <v>44409</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="E31" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="114">
         <v>11</v>
       </c>
-      <c r="I31" s="106" t="s">
+      <c r="I31" s="79" t="s">
         <v>215</v>
       </c>
       <c r="L31" s="38" t="s">
@@ -4825,32 +4910,32 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="108">
+      <c r="C32" s="153">
         <v>44410</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="124" t="s">
+      <c r="E32" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="110" t="s">
+      <c r="F32" s="156" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="109" t="s">
+      <c r="G32" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="109">
+      <c r="H32" s="154">
         <v>3</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="K32" s="112"/>
+      <c r="I32" s="157"/>
+      <c r="K32" s="80"/>
       <c r="L32" s="38" t="s">
         <v>195</v>
       </c>
@@ -4859,494 +4944,508 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="107">
+      <c r="A33" s="136"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="140">
         <v>44411</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="E33" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="146" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="103">
+      <c r="H33" s="142">
         <v>4</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="K33" s="112"/>
+      <c r="I33" s="150"/>
+      <c r="K33" s="80"/>
       <c r="L33" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="107">
+      <c r="A34" s="136"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140">
         <v>44412</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="H34" s="103">
+      <c r="H34" s="142">
         <v>4</v>
       </c>
-      <c r="I34" s="96" t="s">
+      <c r="I34" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="112"/>
+      <c r="K34" s="80"/>
       <c r="L34" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="107">
+      <c r="A35" s="136"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="140">
         <v>44413</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="117"/>
-      <c r="F35" s="70" t="s">
+      <c r="E35" s="145"/>
+      <c r="F35" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="H35" s="103">
+      <c r="H35" s="142">
         <v>2</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="K35" s="112"/>
+      <c r="I35" s="150"/>
+      <c r="K35" s="80"/>
       <c r="L35" s="38" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="107">
+      <c r="A36" s="136"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="140">
         <v>44414</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="70" t="s">
+      <c r="D36" s="142"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="94"/>
-      <c r="K36" s="112"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="150"/>
+      <c r="K36" s="80"/>
       <c r="L36" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="107">
+      <c r="A37" s="136"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="140">
         <v>44415</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="117"/>
-      <c r="F37" s="70" t="s">
+      <c r="E37" s="145"/>
+      <c r="F37" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="142" t="s">
         <v>227</v>
       </c>
-      <c r="H37" s="103">
+      <c r="H37" s="142">
         <v>11</v>
       </c>
-      <c r="I37" s="94"/>
-      <c r="K37" s="112"/>
+      <c r="I37" s="150"/>
+      <c r="K37" s="80"/>
       <c r="L37" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="107">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="136"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="159">
         <v>44416</v>
       </c>
-      <c r="D38" s="152" t="s">
+      <c r="D38" s="160" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="103" t="s">
+      <c r="F38" s="162"/>
+      <c r="G38" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="H38" s="103">
+      <c r="H38" s="163">
         <v>11</v>
       </c>
-      <c r="I38" s="94"/>
-      <c r="K38" s="112"/>
+      <c r="I38" s="164"/>
+      <c r="K38" s="80"/>
       <c r="L38" s="38" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="126" t="s">
+      <c r="A39" s="136"/>
+      <c r="B39" s="152" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="107">
+      <c r="C39" s="153">
         <v>44417</v>
       </c>
-      <c r="D39" s="103" t="s">
+      <c r="D39" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="70" t="s">
+      <c r="E39" s="165"/>
+      <c r="F39" s="156" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="G39" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="H39" s="103">
+      <c r="H39" s="154">
         <v>3</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="K39" s="112"/>
+      <c r="I39" s="157"/>
+      <c r="K39" s="80"/>
       <c r="L39" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="107">
+      <c r="A40" s="136"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="140">
         <v>44418</v>
       </c>
-      <c r="D40" s="103" t="s">
+      <c r="D40" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="70" t="s">
+      <c r="E40" s="145"/>
+      <c r="F40" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="142" t="s">
         <v>233</v>
       </c>
-      <c r="H40" s="103">
+      <c r="H40" s="142">
         <v>2</v>
       </c>
-      <c r="I40" s="94"/>
-      <c r="K40" s="112"/>
+      <c r="I40" s="150"/>
+      <c r="K40" s="80"/>
       <c r="L40" s="38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="107">
+      <c r="A41" s="136"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140">
         <v>44419</v>
       </c>
-      <c r="D41" s="152" t="s">
+      <c r="D41" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="117"/>
-      <c r="F41" s="70" t="s">
+      <c r="E41" s="145"/>
+      <c r="F41" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="98" t="s">
+      <c r="G41" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="H41" s="103">
+      <c r="H41" s="142">
         <v>3</v>
       </c>
-      <c r="I41" s="94"/>
+      <c r="I41" s="150"/>
       <c r="L41" s="38" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="107">
+      <c r="A42" s="136"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="140">
         <v>44420</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="E42" s="117"/>
-      <c r="F42" s="70" t="s">
+      <c r="E42" s="145"/>
+      <c r="F42" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="103" t="s">
+      <c r="G42" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="H42" s="103">
+      <c r="H42" s="142">
         <v>3</v>
       </c>
-      <c r="I42" s="94"/>
+      <c r="I42" s="150"/>
       <c r="L42" s="38" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="107">
+      <c r="A43" s="136"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="140">
         <v>44421</v>
       </c>
-      <c r="D43" s="103"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="70" t="s">
+      <c r="D43" s="142"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="94"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="150"/>
       <c r="L43" s="38" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="107">
+      <c r="A44" s="136"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="140">
         <v>44422</v>
       </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="70" t="s">
+      <c r="D44" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="145"/>
+      <c r="F44" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="94"/>
+      <c r="G44" s="142" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="142">
+        <v>9</v>
+      </c>
+      <c r="I44" s="150"/>
       <c r="L44" s="38" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="107">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="136"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="159">
         <v>44423</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="70" t="s">
+      <c r="D45" s="163" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="161"/>
+      <c r="F45" s="162" t="s">
         <v>231</v>
       </c>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="94"/>
+      <c r="G45" s="163" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" s="163">
+        <v>9</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>70</v>
+      </c>
       <c r="L45" s="38" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="126" t="s">
+      <c r="A46" s="136"/>
+      <c r="B46" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="107">
+      <c r="C46" s="153">
         <v>44424</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="94"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="157"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="107">
+      <c r="A47" s="136"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140">
         <v>44425</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="94"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="150"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="107">
+      <c r="A48" s="136"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="140">
         <v>44426</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="94"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="150"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="107">
+      <c r="A49" s="136"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140">
         <v>44427</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="94"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="150"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="107">
+      <c r="A50" s="136"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="140">
         <v>44428</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="94"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="150"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="127"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="107">
+      <c r="A51" s="136"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="140">
         <v>44429</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="94"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="127"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="107">
+      <c r="D51" s="142"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="150"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="136"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="159">
         <v>44430</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="94"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="162"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="164"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
-      <c r="B53" s="126" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="107">
+      <c r="C53" s="138">
         <v>44431</v>
       </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="94"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="149"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="107">
+      <c r="A54" s="136"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="140">
         <v>44432</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="94"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="150"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="127"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="107">
+      <c r="A55" s="136"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="140">
         <v>44433</v>
       </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="94"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="150"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="127"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="107">
+      <c r="A56" s="136"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="140">
         <v>44434</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="94"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="150"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="107">
+      <c r="A57" s="136"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="140">
         <v>44435</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="94"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="150"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="107">
+      <c r="A58" s="136"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="140">
         <v>44436</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="94"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="107">
+      <c r="D58" s="142"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="150"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="167"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="159">
         <v>44437</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="94"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5418,10 +5517,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="94" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5440,8 +5539,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5452,8 +5551,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="134" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5472,8 +5571,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5490,9 +5589,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="132">
+      <c r="A6" s="91"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="83">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5508,9 +5607,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="133"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5526,8 +5625,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5546,8 +5645,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5566,8 +5665,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5578,8 +5677,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5596,8 +5695,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="137" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5612,9 +5711,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="132">
+      <c r="A13" s="91"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="83">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5628,9 +5727,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="133"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5642,8 +5741,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5652,8 +5751,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5664,8 +5763,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="135"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5676,9 +5775,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="132">
+      <c r="A18" s="91"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="83">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5690,9 +5789,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="142"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="133"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5702,8 +5801,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="136"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5716,10 +5815,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="85" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5734,8 +5833,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5748,9 +5847,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="132">
+      <c r="A23" s="91"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="83">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5762,9 +5861,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="133"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5776,9 +5875,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="132">
+      <c r="A25" s="91"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="83">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5792,9 +5891,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="133"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5804,8 +5903,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="135"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5816,8 +5915,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="135"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5828,8 +5927,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
-      <c r="B29" s="136"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5840,8 +5939,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="140"/>
-      <c r="B30" s="134" t="s">
+      <c r="A30" s="91"/>
+      <c r="B30" s="85" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5854,8 +5953,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5866,8 +5965,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="135"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5878,8 +5977,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
-      <c r="B33" s="135"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5890,8 +5989,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="135"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -5902,8 +6001,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
-      <c r="B35" s="135"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -5914,8 +6013,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
-      <c r="B36" s="136"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -5926,8 +6025,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
-      <c r="B37" s="134" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -5942,8 +6041,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
-      <c r="B38" s="135"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -5958,8 +6057,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -5974,8 +6073,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="140"/>
-      <c r="B40" s="135"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -5990,8 +6089,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="135"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -6006,8 +6105,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="135"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -6022,8 +6121,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
-      <c r="B43" s="136"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -6038,8 +6137,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="140"/>
-      <c r="B44" s="137" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -6056,8 +6155,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -6072,8 +6171,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
-      <c r="B46" s="135"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -6090,8 +6189,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="140"/>
-      <c r="B47" s="135"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -6108,8 +6207,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="140"/>
-      <c r="B48" s="135"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -6124,8 +6223,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="135"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -6142,8 +6241,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="141"/>
-      <c r="B50" s="136"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -6158,10 +6257,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="139" t="s">
+      <c r="A51" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="94" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -6180,8 +6279,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="140"/>
-      <c r="B52" s="135"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -6196,9 +6295,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="140"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="145">
+      <c r="A53" s="91"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="96">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6212,9 +6311,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="140"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="145"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="96"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6226,8 +6325,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="140"/>
-      <c r="B55" s="135"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6238,8 +6337,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="140"/>
-      <c r="B56" s="135"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6252,8 +6351,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="140"/>
-      <c r="B57" s="135"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6266,8 +6365,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
-      <c r="B58" s="136"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6280,8 +6379,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="140"/>
-      <c r="B59" s="143" t="s">
+      <c r="A59" s="91"/>
+      <c r="B59" s="94" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6296,8 +6395,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="140"/>
-      <c r="B60" s="135"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6312,8 +6411,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="140"/>
-      <c r="B61" s="135"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6328,8 +6427,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="140"/>
-      <c r="B62" s="135"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6344,8 +6443,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="140"/>
-      <c r="B63" s="135"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6356,8 +6455,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="140"/>
-      <c r="B64" s="135"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6368,8 +6467,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="140"/>
-      <c r="B65" s="136"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6384,8 +6483,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="140"/>
-      <c r="B66" s="144" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="95" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6402,8 +6501,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="140"/>
-      <c r="B67" s="135"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="86"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6418,8 +6517,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="140"/>
-      <c r="B68" s="135"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="86"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6432,8 +6531,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="141"/>
-      <c r="B69" s="136"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="87"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6520,10 +6619,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="86" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6542,8 +6641,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6560,8 +6659,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="88" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6580,8 +6679,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6598,8 +6697,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6616,8 +6715,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6634,8 +6733,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6652,8 +6751,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6670,8 +6769,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6688,10 +6787,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6710,8 +6809,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6722,8 +6821,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6734,8 +6833,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6750,8 +6849,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6768,8 +6867,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6786,8 +6885,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="136"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6804,11 +6903,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
-      <c r="B18" s="134" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="146">
+      <c r="C18" s="97">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -6824,9 +6923,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="147"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -6840,9 +6939,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="147"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -6856,8 +6955,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6868,8 +6967,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6880,8 +6979,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6892,8 +6991,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -6904,9 +7003,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="147">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="98">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -6922,9 +7021,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="147"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -6938,8 +7037,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="136"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -6956,8 +7055,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
-      <c r="B28" s="134" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -6970,8 +7069,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
-      <c r="B29" s="135"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -6988,8 +7087,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -7000,8 +7099,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -7018,8 +7117,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="135"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -7030,8 +7129,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
-      <c r="B33" s="135"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -7048,9 +7147,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="135"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="147">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="98">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -7066,9 +7165,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="148"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -7082,8 +7181,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="135"/>
-      <c r="B36" s="134" t="s">
+      <c r="A36" s="86"/>
+      <c r="B36" s="85" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -7096,8 +7195,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="135"/>
-      <c r="B37" s="135"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -7108,8 +7207,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
-      <c r="B38" s="135"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -7120,8 +7219,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
-      <c r="B39" s="135"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -7132,8 +7231,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -7144,8 +7243,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="135"/>
-      <c r="B41" s="135"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -7162,8 +7261,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="135"/>
-      <c r="B42" s="136"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -7174,8 +7273,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="135"/>
-      <c r="B43" s="144" t="s">
+      <c r="A43" s="86"/>
+      <c r="B43" s="95" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -7194,8 +7293,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="135"/>
-      <c r="B44" s="135"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7212,8 +7311,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7230,8 +7329,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
-      <c r="B46" s="135"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7242,8 +7341,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
-      <c r="B47" s="135"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7254,8 +7353,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="135"/>
-      <c r="B48" s="135"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7266,8 +7365,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="136"/>
-      <c r="B49" s="136"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7284,10 +7383,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7300,8 +7399,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="135"/>
-      <c r="B51" s="135"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7318,8 +7417,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="135"/>
-      <c r="B52" s="135"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7330,8 +7429,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="135"/>
-      <c r="B53" s="135"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7348,8 +7447,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7360,8 +7459,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="135"/>
-      <c r="B55" s="135"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7372,8 +7471,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="135"/>
-      <c r="B56" s="136"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7390,8 +7489,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="135"/>
-      <c r="B57" s="134" t="s">
+      <c r="A57" s="86"/>
+      <c r="B57" s="85" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7410,8 +7509,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7428,8 +7527,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="135"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7446,8 +7545,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
-      <c r="B60" s="135"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7464,8 +7563,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
-      <c r="B61" s="135"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7476,8 +7575,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="135"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7494,8 +7593,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="135"/>
-      <c r="B63" s="136"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7512,8 +7611,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="135"/>
-      <c r="B64" s="134" t="s">
+      <c r="A64" s="86"/>
+      <c r="B64" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7532,8 +7631,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="135"/>
-      <c r="B65" s="135"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7550,8 +7649,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="135"/>
-      <c r="B66" s="135"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7562,9 +7661,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="135"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="149">
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="100">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -7580,9 +7679,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="135"/>
-      <c r="B68" s="135"/>
-      <c r="C68" s="150"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -7596,8 +7695,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7608,8 +7707,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="135"/>
-      <c r="B70" s="135"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7620,8 +7719,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="135"/>
-      <c r="B71" s="136"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7638,8 +7737,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="135"/>
-      <c r="B72" s="144" t="s">
+      <c r="A72" s="86"/>
+      <c r="B72" s="95" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7658,8 +7757,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="135"/>
-      <c r="B73" s="135"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7670,8 +7769,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="136"/>
-      <c r="B74" s="136"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="87"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3A40B-3BA9-4D8A-A420-04C5ED91A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F5C3F-8F3A-4A26-B820-1C4054AEAA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="7月计划" sheetId="3" r:id="rId1"/>
-    <sheet name="2021复盘" sheetId="2" r:id="rId2"/>
-    <sheet name="2020复盘" sheetId="4" r:id="rId3"/>
+    <sheet name="Plan" sheetId="3" r:id="rId1"/>
+    <sheet name="2021 Delivery" sheetId="5" r:id="rId2"/>
+    <sheet name="2021 Review" sheetId="2" r:id="rId3"/>
+    <sheet name="2020 Review" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="275">
   <si>
     <t>JVM</t>
   </si>
@@ -2888,28 +2889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">复盘 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MySQL</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElasticSearch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2943,7 +2922,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:15~21:15</t>
+    <t>12:15~20:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:50~23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:45~3:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00~21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>resume</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Spring Boot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Spring Cloud</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MySQL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Index </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梳理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李德永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛世科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~11:30
+16:30~4:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨进好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符明超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨进电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎头联系</t>
+  </si>
+  <si>
+    <t>猎头联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 TEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2954,7 +3176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3083,15 +3305,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3161,6 +3376,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,7 +3611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3597,10 +3824,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3626,6 +3849,216 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3686,200 +4119,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4161,11 +4465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,15 +4477,15 @@
     <col min="1" max="1" width="5.25" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="38" customWidth="1"/>
     <col min="6" max="6" width="25" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="81"/>
-    <col min="10" max="10" width="9" style="37"/>
+    <col min="9" max="9" width="10.5" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="37" customWidth="1"/>
     <col min="11" max="11" width="7.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
@@ -4215,471 +4519,471 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82">
         <v>44381</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="130"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="83">
         <v>44382</v>
       </c>
       <c r="D3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="131"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="109">
+      <c r="A4" s="150"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="125">
         <v>44383</v>
       </c>
       <c r="D4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="132"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="109">
+      <c r="A5" s="150"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="125">
         <v>44384</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="132"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="109">
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="125">
         <v>44385</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="127">
         <v>5</v>
       </c>
-      <c r="I6" s="132"/>
+      <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="109">
+      <c r="A7" s="150"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="125">
         <v>44386</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="132"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="110">
+      <c r="A8" s="150"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="148">
         <v>44387</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="127">
         <v>5</v>
       </c>
-      <c r="I8" s="132"/>
+      <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="110"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="89">
         <v>1.3</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="122" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="127">
         <v>3</v>
       </c>
-      <c r="I9" s="132"/>
+      <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112">
+      <c r="A10" s="150"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="84">
         <v>44388</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="128">
         <v>7</v>
       </c>
-      <c r="I10" s="133"/>
+      <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="150"/>
+      <c r="B11" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="83">
         <v>44389</v>
       </c>
       <c r="D11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="87">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119" t="s">
+      <c r="F11" s="88"/>
+      <c r="G11" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="126">
         <v>4</v>
       </c>
-      <c r="I11" s="131"/>
-      <c r="L11" s="72" t="s">
+      <c r="I11" s="100"/>
+      <c r="L11" s="130" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="109">
+      <c r="A12" s="150"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="125">
         <v>44390</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="89">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="113" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="127">
         <v>4</v>
       </c>
-      <c r="I12" s="132"/>
-      <c r="L12" s="73" t="s">
+      <c r="I12" s="101"/>
+      <c r="L12" s="131" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="109">
+      <c r="A13" s="150"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="125">
         <v>44391</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="95">
         <v>2.67</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="113" t="s">
+      <c r="F13" s="96"/>
+      <c r="G13" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="127">
         <v>4</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="L13" s="73" t="s">
+      <c r="I13" s="101"/>
+      <c r="L13" s="131" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="109">
+      <c r="A14" s="150"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="125">
         <v>44392</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="89">
         <v>2.84</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="113" t="s">
+      <c r="F14" s="90"/>
+      <c r="G14" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H14" s="127">
         <v>4</v>
       </c>
-      <c r="I14" s="132"/>
-      <c r="L14" s="73" t="s">
+      <c r="I14" s="101"/>
+      <c r="L14" s="131" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="109">
+      <c r="A15" s="150"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="125">
         <v>44393</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="132"/>
-      <c r="L15" s="73" t="s">
+      <c r="D15" s="127"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="101"/>
+      <c r="L15" s="131" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="109">
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="125">
         <v>44394</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="113" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="127">
         <v>5</v>
       </c>
-      <c r="I16" s="132"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112">
+      <c r="A17" s="150"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="84">
         <v>44395</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="92">
         <v>3.41</v>
       </c>
-      <c r="F17" s="124"/>
-      <c r="G17" s="114" t="s">
+      <c r="F17" s="93"/>
+      <c r="G17" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="128">
         <v>11.5</v>
       </c>
-      <c r="I17" s="133"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="107" t="s">
+      <c r="A18" s="150"/>
+      <c r="B18" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="83">
         <v>44396</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="119" t="s">
+      <c r="F18" s="98"/>
+      <c r="G18" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="119">
+      <c r="H18" s="126">
         <v>3</v>
       </c>
-      <c r="I18" s="131"/>
-      <c r="L18" s="75" t="s">
+      <c r="I18" s="100"/>
+      <c r="L18" s="73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="109">
+      <c r="A19" s="150"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="125">
         <v>44397</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="127" t="s">
+      <c r="F19" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="113">
+      <c r="H19" s="127">
         <v>3</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="109">
+      <c r="A20" s="150"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="125">
         <v>44398</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="127" t="s">
+      <c r="F20" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="127">
         <v>4</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="73" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109">
+      <c r="A21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="125">
         <v>44399</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="127">
         <v>5</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="109">
+      <c r="A22" s="150"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="125">
         <v>44400</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="132"/>
-      <c r="L22" s="75" t="s">
+      <c r="D22" s="127"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="101"/>
+      <c r="L22" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="109">
+      <c r="A23" s="150"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="125">
         <v>44401</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121" t="s">
+      <c r="E23" s="89"/>
+      <c r="F23" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="113" t="s">
+      <c r="G23" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="113">
+      <c r="H23" s="127">
         <v>7</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="73" t="s">
         <v>183</v>
       </c>
       <c r="M23" s="39" t="s">
@@ -4688,767 +4992,1330 @@
       <c r="N23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="O23" s="78" t="s">
+      <c r="O23" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="P23" s="78" t="s">
+      <c r="P23" s="76" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112">
+      <c r="A24" s="150"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="84">
         <v>44402</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="124" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="114" t="s">
+      <c r="G24" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="114">
+      <c r="H24" s="128">
         <v>5</v>
       </c>
-      <c r="I24" s="133"/>
-      <c r="L24" s="75" t="s">
+      <c r="I24" s="102"/>
+      <c r="L24" s="73" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="107" t="s">
+      <c r="A25" s="150"/>
+      <c r="B25" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="108">
+      <c r="C25" s="83">
         <v>44403</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118" t="s">
+      <c r="E25" s="87"/>
+      <c r="F25" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="134" t="s">
+      <c r="G25" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="119">
+      <c r="H25" s="126">
         <v>13</v>
       </c>
-      <c r="I25" s="131"/>
-      <c r="L25" s="38" t="s">
+      <c r="I25" s="100"/>
+      <c r="L25" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="150"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="125">
+        <v>44404</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="127">
+        <v>13</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="38"/>
-    </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="109">
-        <v>44404</v>
-      </c>
-      <c r="D26" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121" t="s">
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="150"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="125">
+        <v>44405</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="127">
+        <v>8</v>
+      </c>
+      <c r="I27" s="101"/>
+      <c r="L27" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="150"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="125">
+        <v>44406</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="127">
+        <v>11</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="150"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="125">
+        <v>44407</v>
+      </c>
+      <c r="D29" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="113">
+      <c r="E29" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="127">
         <v>13</v>
       </c>
-      <c r="I26" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="109">
-        <v>44405</v>
-      </c>
-      <c r="D27" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="135" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="113">
-        <v>8</v>
-      </c>
-      <c r="I27" s="132"/>
-      <c r="L27" s="75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="109">
-        <v>44406</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="121" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="135" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="113">
+      <c r="I29" s="101"/>
+      <c r="L29" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="150"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="125">
+        <v>44408</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="127">
+        <v>9</v>
+      </c>
+      <c r="I30" s="101"/>
+      <c r="L30" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="151"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="84">
+        <v>44409</v>
+      </c>
+      <c r="D31" s="128" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="128" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="128">
         <v>11</v>
       </c>
-      <c r="I28" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="109">
-        <v>44407</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="120" t="s">
+      <c r="I31" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="145" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="114">
+        <v>44410</v>
+      </c>
+      <c r="D32" s="132" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="135" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="113">
-        <v>13</v>
-      </c>
-      <c r="I29" s="132"/>
-      <c r="L29" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="109">
-        <v>44408</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="F30" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="113" t="s">
-        <v>212</v>
-      </c>
-      <c r="H30" s="113">
-        <v>9</v>
-      </c>
-      <c r="I30" s="132"/>
-      <c r="L30" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112">
-        <v>44409</v>
-      </c>
-      <c r="D31" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" s="124" t="s">
+      <c r="F32" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="132">
+        <v>3</v>
+      </c>
+      <c r="I32" s="117"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="38" t="s">
         <v>69</v>
-      </c>
-      <c r="G31" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="114">
-        <v>11</v>
-      </c>
-      <c r="I31" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="153">
-        <v>44410</v>
-      </c>
-      <c r="D32" s="154" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="155" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="154" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="154">
-        <v>3</v>
-      </c>
-      <c r="I32" s="157"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="38" t="s">
-        <v>195</v>
       </c>
       <c r="S32" s="37" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140">
+      <c r="A33" s="146"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="105">
         <v>44411</v>
       </c>
-      <c r="D33" s="142" t="s">
+      <c r="D33" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="145" t="s">
+      <c r="E33" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="146" t="s">
+      <c r="F33" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="142" t="s">
+      <c r="G33" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="142">
+      <c r="H33" s="133">
         <v>4</v>
       </c>
-      <c r="I33" s="150"/>
-      <c r="K33" s="80"/>
+      <c r="I33" s="112"/>
+      <c r="K33" s="78"/>
       <c r="L33" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="146"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="105">
+        <v>44412</v>
+      </c>
+      <c r="D34" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="133">
+        <v>4</v>
+      </c>
+      <c r="I34" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="146"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="105">
+        <v>44413</v>
+      </c>
+      <c r="D35" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="107"/>
+      <c r="F35" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="133">
+        <v>2</v>
+      </c>
+      <c r="I35" s="112"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="146"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="105">
+        <v>44414</v>
+      </c>
+      <c r="D36" s="133"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="112"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="146"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="105">
+        <v>44415</v>
+      </c>
+      <c r="D37" s="133" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="107"/>
+      <c r="F37" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="133" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="133">
+        <v>11</v>
+      </c>
+      <c r="I37" s="112"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="146"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="118">
+        <v>44416</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="121"/>
+      <c r="G38" s="134" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" s="134">
+        <v>11</v>
+      </c>
+      <c r="I38" s="122"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="146"/>
+      <c r="B39" s="141" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="114">
+        <v>44417</v>
+      </c>
+      <c r="D39" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="123"/>
+      <c r="F39" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="132" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="132">
+        <v>3</v>
+      </c>
+      <c r="I39" s="117"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="146"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="105">
+        <v>44418</v>
+      </c>
+      <c r="D40" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="133">
+        <v>2</v>
+      </c>
+      <c r="I40" s="112"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="146"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="105">
+        <v>44419</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="107"/>
+      <c r="F41" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="133">
+        <v>3</v>
+      </c>
+      <c r="I41" s="112"/>
+      <c r="L41" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="146"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="105">
+        <v>44420</v>
+      </c>
+      <c r="D42" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="133" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="133">
+        <v>3</v>
+      </c>
+      <c r="I42" s="112"/>
+      <c r="L42" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="146"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="105">
+        <v>44421</v>
+      </c>
+      <c r="D43" s="133"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="112"/>
+      <c r="L43" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="146"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="105">
+        <v>44422</v>
+      </c>
+      <c r="D44" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="133">
+        <v>9</v>
+      </c>
+      <c r="I44" s="112"/>
+      <c r="L44" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="146"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="118">
+        <v>44423</v>
+      </c>
+      <c r="D45" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="134">
+        <v>8</v>
+      </c>
+      <c r="I45" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="146"/>
+      <c r="B46" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="114">
+        <v>44424</v>
+      </c>
+      <c r="D46" s="132" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="123"/>
+      <c r="F46" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="132">
+        <v>3</v>
+      </c>
+      <c r="I46" s="124" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140">
-        <v>44412</v>
-      </c>
-      <c r="D34" s="142" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="145" t="s">
+      <c r="L46" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="146"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="105">
+        <v>44425</v>
+      </c>
+      <c r="D47" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="133">
+        <v>5</v>
+      </c>
+      <c r="I47" s="112"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="146"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="105">
+        <v>44426</v>
+      </c>
+      <c r="D48" s="133"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="112"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="146"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="105">
+        <v>44427</v>
+      </c>
+      <c r="D49" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="109"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="112"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="146"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="105">
+        <v>44428</v>
+      </c>
+      <c r="D50" s="133"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="112"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="146"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="105">
+        <v>44429</v>
+      </c>
+      <c r="D51" s="133"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="112"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="146"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="118">
+        <v>44430</v>
+      </c>
+      <c r="D52" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="134" t="s">
+        <v>225</v>
+      </c>
+      <c r="H52" s="134">
+        <v>4</v>
+      </c>
+      <c r="I52" s="122"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="146"/>
+      <c r="B53" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="104">
+        <v>44431</v>
+      </c>
+      <c r="D53" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="113"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="135" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53" s="135">
+        <v>3</v>
+      </c>
+      <c r="I53" s="111"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="146"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="105">
+        <v>44432</v>
+      </c>
+      <c r="D54" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="133" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" s="133">
+        <v>3</v>
+      </c>
+      <c r="I54" s="72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="146"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="105">
+        <v>44433</v>
+      </c>
+      <c r="D55" s="133" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" s="107"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55" s="133">
+        <v>4</v>
+      </c>
+      <c r="I55" s="112"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="146"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="105">
+        <v>44434</v>
+      </c>
+      <c r="D56" s="133" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" s="108"/>
+      <c r="G56" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="133">
+        <v>14</v>
+      </c>
+      <c r="I56" s="72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="146"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="105">
+        <v>44435</v>
+      </c>
+      <c r="D57" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="108"/>
+      <c r="G57" s="133" t="s">
+        <v>247</v>
+      </c>
+      <c r="H57" s="133">
+        <v>1</v>
+      </c>
+      <c r="I57" s="112"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="146"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="105">
+        <v>44436</v>
+      </c>
+      <c r="D58" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="146" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="147" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" s="142">
-        <v>4</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="K34" s="80"/>
-      <c r="L34" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="140">
-        <v>44413</v>
-      </c>
-      <c r="D35" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="146" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="142" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="142">
-        <v>2</v>
-      </c>
-      <c r="I35" s="150"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="140">
-        <v>44414</v>
-      </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="150"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="38" t="s">
+      <c r="F58" s="108"/>
+      <c r="G58" s="136" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="133">
+        <v>13</v>
+      </c>
+      <c r="I58" s="112"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="147"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="118">
+        <v>44437</v>
+      </c>
+      <c r="D59" s="134" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="140">
-        <v>44415</v>
-      </c>
-      <c r="D37" s="143" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="145"/>
-      <c r="F37" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" s="142">
-        <v>11</v>
-      </c>
-      <c r="I37" s="150"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="136"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="159">
-        <v>44416</v>
-      </c>
-      <c r="D38" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="161" t="s">
+      <c r="E59" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="162"/>
-      <c r="G38" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="163">
-        <v>11</v>
-      </c>
-      <c r="I38" s="164"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="152" t="s">
+      <c r="F59" s="121"/>
+      <c r="G59" s="173" t="s">
+        <v>272</v>
+      </c>
+      <c r="H59" s="134">
+        <v>9</v>
+      </c>
+      <c r="I59" s="122"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="174" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="175" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="176">
+        <v>44438</v>
+      </c>
+      <c r="D60" s="177"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="178"/>
+      <c r="G60" s="177"/>
+      <c r="H60" s="177"/>
+      <c r="I60" s="179"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="180"/>
+      <c r="B61" s="180"/>
+      <c r="C61" s="181">
+        <v>44439</v>
+      </c>
+      <c r="D61" s="182"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="182"/>
+      <c r="H61" s="182"/>
+      <c r="I61" s="184"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="180"/>
+      <c r="B62" s="180"/>
+      <c r="C62" s="181">
+        <v>44440</v>
+      </c>
+      <c r="D62" s="182"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="183"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="184"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="180"/>
+      <c r="B63" s="180"/>
+      <c r="C63" s="181">
+        <v>44441</v>
+      </c>
+      <c r="D63" s="182"/>
+      <c r="E63" s="182"/>
+      <c r="F63" s="183"/>
+      <c r="G63" s="182"/>
+      <c r="H63" s="182"/>
+      <c r="I63" s="184"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="180"/>
+      <c r="B64" s="180"/>
+      <c r="C64" s="181">
+        <v>44442</v>
+      </c>
+      <c r="D64" s="182"/>
+      <c r="E64" s="182"/>
+      <c r="F64" s="183"/>
+      <c r="G64" s="182"/>
+      <c r="H64" s="182"/>
+      <c r="I64" s="184"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="180"/>
+      <c r="B65" s="180"/>
+      <c r="C65" s="181">
+        <v>44443</v>
+      </c>
+      <c r="D65" s="182"/>
+      <c r="E65" s="182"/>
+      <c r="F65" s="183"/>
+      <c r="G65" s="182"/>
+      <c r="H65" s="182"/>
+      <c r="I65" s="184"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="180"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="186">
+        <v>44444</v>
+      </c>
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="188"/>
+      <c r="G66" s="187"/>
+      <c r="H66" s="187"/>
+      <c r="I66" s="189"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="180"/>
+      <c r="B67" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="153">
-        <v>44417</v>
-      </c>
-      <c r="D39" s="154" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="156" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="H39" s="154">
-        <v>3</v>
-      </c>
-      <c r="I39" s="157"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="140">
-        <v>44418</v>
-      </c>
-      <c r="D40" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="145"/>
-      <c r="F40" s="146" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="142" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="142">
-        <v>2</v>
-      </c>
-      <c r="I40" s="150"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140">
-        <v>44419</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="148" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="142">
-        <v>3</v>
-      </c>
-      <c r="I41" s="150"/>
-      <c r="L41" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="140">
-        <v>44420</v>
-      </c>
-      <c r="D42" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="145"/>
-      <c r="F42" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="142" t="s">
-        <v>232</v>
-      </c>
-      <c r="H42" s="142">
-        <v>3</v>
-      </c>
-      <c r="I42" s="150"/>
-      <c r="L42" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="136"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="140">
-        <v>44421</v>
-      </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="146" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="150"/>
-      <c r="L43" s="38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="136"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="140">
-        <v>44422</v>
-      </c>
-      <c r="D44" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="145"/>
-      <c r="F44" s="146" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" s="142">
-        <v>9</v>
-      </c>
-      <c r="I44" s="150"/>
-      <c r="L44" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="136"/>
-      <c r="B45" s="158"/>
-      <c r="C45" s="159">
-        <v>44423</v>
-      </c>
-      <c r="D45" s="163" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="161"/>
-      <c r="F45" s="162" t="s">
-        <v>231</v>
-      </c>
-      <c r="G45" s="163" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="163">
-        <v>9</v>
-      </c>
-      <c r="I45" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="L45" s="38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
-      <c r="B46" s="152" t="s">
+      <c r="C67" s="176">
+        <v>44445</v>
+      </c>
+      <c r="D67" s="177"/>
+      <c r="E67" s="177"/>
+      <c r="F67" s="178"/>
+      <c r="G67" s="177"/>
+      <c r="H67" s="177"/>
+      <c r="I67" s="179"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="180"/>
+      <c r="B68" s="180"/>
+      <c r="C68" s="181">
+        <v>44446</v>
+      </c>
+      <c r="D68" s="182"/>
+      <c r="E68" s="182"/>
+      <c r="F68" s="183"/>
+      <c r="G68" s="182"/>
+      <c r="H68" s="182"/>
+      <c r="I68" s="184"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="180"/>
+      <c r="B69" s="180"/>
+      <c r="C69" s="181">
+        <v>44447</v>
+      </c>
+      <c r="D69" s="182"/>
+      <c r="E69" s="182"/>
+      <c r="F69" s="183"/>
+      <c r="G69" s="182"/>
+      <c r="H69" s="182"/>
+      <c r="I69" s="184"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="180"/>
+      <c r="B70" s="180"/>
+      <c r="C70" s="181">
+        <v>44448</v>
+      </c>
+      <c r="D70" s="182"/>
+      <c r="E70" s="182"/>
+      <c r="F70" s="183"/>
+      <c r="G70" s="182"/>
+      <c r="H70" s="182"/>
+      <c r="I70" s="184"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="180"/>
+      <c r="B71" s="180"/>
+      <c r="C71" s="181">
+        <v>44449</v>
+      </c>
+      <c r="D71" s="182"/>
+      <c r="E71" s="182"/>
+      <c r="F71" s="183"/>
+      <c r="G71" s="182"/>
+      <c r="H71" s="182"/>
+      <c r="I71" s="184"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="180"/>
+      <c r="B72" s="180"/>
+      <c r="C72" s="181">
+        <v>44450</v>
+      </c>
+      <c r="D72" s="182"/>
+      <c r="E72" s="182"/>
+      <c r="F72" s="183"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="182"/>
+      <c r="I72" s="184"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="180"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="186">
+        <v>44451</v>
+      </c>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="188"/>
+      <c r="G73" s="187"/>
+      <c r="H73" s="187"/>
+      <c r="I73" s="189"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="180"/>
+      <c r="B74" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="153">
-        <v>44424</v>
-      </c>
-      <c r="D46" s="154"/>
-      <c r="E46" s="165"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="157"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140">
-        <v>44425</v>
-      </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="150"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="140">
-        <v>44426</v>
-      </c>
-      <c r="D48" s="142"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="150"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140">
-        <v>44427</v>
-      </c>
-      <c r="D49" s="142"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="150"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="136"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="140">
-        <v>44428</v>
-      </c>
-      <c r="D50" s="142"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="150"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="136"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="140">
-        <v>44429</v>
-      </c>
-      <c r="D51" s="142"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="150"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159">
-        <v>44430</v>
-      </c>
-      <c r="D52" s="163"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="164"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="137" t="s">
+      <c r="C74" s="176">
+        <v>44452</v>
+      </c>
+      <c r="D74" s="177"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="178"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="177"/>
+      <c r="I74" s="179"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="180"/>
+      <c r="B75" s="180"/>
+      <c r="C75" s="181">
+        <v>44453</v>
+      </c>
+      <c r="D75" s="182"/>
+      <c r="E75" s="182"/>
+      <c r="F75" s="183"/>
+      <c r="G75" s="182"/>
+      <c r="H75" s="182"/>
+      <c r="I75" s="184"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="180"/>
+      <c r="B76" s="180"/>
+      <c r="C76" s="181">
+        <v>44454</v>
+      </c>
+      <c r="D76" s="182"/>
+      <c r="E76" s="182"/>
+      <c r="F76" s="183"/>
+      <c r="G76" s="182"/>
+      <c r="H76" s="182"/>
+      <c r="I76" s="184"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="180"/>
+      <c r="B77" s="180"/>
+      <c r="C77" s="181">
+        <v>44455</v>
+      </c>
+      <c r="D77" s="182"/>
+      <c r="E77" s="182"/>
+      <c r="F77" s="183"/>
+      <c r="G77" s="182"/>
+      <c r="H77" s="182"/>
+      <c r="I77" s="184"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="180"/>
+      <c r="B78" s="180"/>
+      <c r="C78" s="181">
+        <v>44456</v>
+      </c>
+      <c r="D78" s="182"/>
+      <c r="E78" s="182"/>
+      <c r="F78" s="183"/>
+      <c r="G78" s="182"/>
+      <c r="H78" s="182"/>
+      <c r="I78" s="184"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="180"/>
+      <c r="B79" s="180"/>
+      <c r="C79" s="181">
+        <v>44457</v>
+      </c>
+      <c r="D79" s="182"/>
+      <c r="E79" s="182"/>
+      <c r="F79" s="183"/>
+      <c r="G79" s="182"/>
+      <c r="H79" s="182"/>
+      <c r="I79" s="184"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="180"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="186">
+        <v>44458</v>
+      </c>
+      <c r="D80" s="187"/>
+      <c r="E80" s="187"/>
+      <c r="F80" s="188"/>
+      <c r="G80" s="187"/>
+      <c r="H80" s="187"/>
+      <c r="I80" s="189"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="180"/>
+      <c r="B81" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="138">
-        <v>44431</v>
-      </c>
-      <c r="D53" s="141"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="149"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="140">
-        <v>44432</v>
-      </c>
-      <c r="D54" s="142"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="150"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="140">
-        <v>44433</v>
-      </c>
-      <c r="D55" s="142"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="150"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="140">
-        <v>44434</v>
-      </c>
-      <c r="D56" s="142"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="150"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="140">
-        <v>44435</v>
-      </c>
-      <c r="D57" s="142"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="150"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="140">
-        <v>44436</v>
-      </c>
-      <c r="D58" s="142"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="150"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="167"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="159">
-        <v>44437</v>
-      </c>
-      <c r="D59" s="163"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="164"/>
+      <c r="C81" s="176">
+        <v>44459</v>
+      </c>
+      <c r="D81" s="177"/>
+      <c r="E81" s="177"/>
+      <c r="F81" s="178"/>
+      <c r="G81" s="177"/>
+      <c r="H81" s="177"/>
+      <c r="I81" s="179"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="180"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="181">
+        <v>44460</v>
+      </c>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
+      <c r="F82" s="183"/>
+      <c r="G82" s="182"/>
+      <c r="H82" s="182"/>
+      <c r="I82" s="184"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="180"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="181">
+        <v>44461</v>
+      </c>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
+      <c r="F83" s="183"/>
+      <c r="G83" s="182"/>
+      <c r="H83" s="182"/>
+      <c r="I83" s="184"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="180"/>
+      <c r="B84" s="180"/>
+      <c r="C84" s="181">
+        <v>44462</v>
+      </c>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="183"/>
+      <c r="G84" s="182"/>
+      <c r="H84" s="182"/>
+      <c r="I84" s="184"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="180"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="181">
+        <v>44463</v>
+      </c>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="183"/>
+      <c r="G85" s="182"/>
+      <c r="H85" s="182"/>
+      <c r="I85" s="184"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="180"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="181">
+        <v>44464</v>
+      </c>
+      <c r="D86" s="182"/>
+      <c r="E86" s="182"/>
+      <c r="F86" s="183"/>
+      <c r="G86" s="182"/>
+      <c r="H86" s="182"/>
+      <c r="I86" s="184"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="180"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="186">
+        <v>44465</v>
+      </c>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="188"/>
+      <c r="G87" s="187"/>
+      <c r="H87" s="187"/>
+      <c r="I87" s="189"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="180"/>
+      <c r="B88" s="190" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="191">
+        <v>44466</v>
+      </c>
+      <c r="D88" s="192"/>
+      <c r="E88" s="192"/>
+      <c r="F88" s="193"/>
+      <c r="G88" s="192"/>
+      <c r="H88" s="192"/>
+      <c r="I88" s="194"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="180"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="181">
+        <v>44467</v>
+      </c>
+      <c r="D89" s="182"/>
+      <c r="E89" s="182"/>
+      <c r="F89" s="183"/>
+      <c r="G89" s="182"/>
+      <c r="H89" s="182"/>
+      <c r="I89" s="184"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="180"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="181">
+        <v>44468</v>
+      </c>
+      <c r="D90" s="182"/>
+      <c r="E90" s="182"/>
+      <c r="F90" s="183"/>
+      <c r="G90" s="182"/>
+      <c r="H90" s="182"/>
+      <c r="I90" s="184"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="180"/>
+      <c r="B91" s="180"/>
+      <c r="C91" s="181">
+        <v>44469</v>
+      </c>
+      <c r="D91" s="182"/>
+      <c r="E91" s="182"/>
+      <c r="F91" s="183"/>
+      <c r="G91" s="182"/>
+      <c r="H91" s="182"/>
+      <c r="I91" s="184"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="180"/>
+      <c r="B92" s="180"/>
+      <c r="C92" s="181">
+        <v>44470</v>
+      </c>
+      <c r="D92" s="182"/>
+      <c r="E92" s="182"/>
+      <c r="F92" s="183"/>
+      <c r="G92" s="182"/>
+      <c r="H92" s="182"/>
+      <c r="I92" s="184"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="180"/>
+      <c r="B93" s="180"/>
+      <c r="C93" s="181">
+        <v>44471</v>
+      </c>
+      <c r="D93" s="182"/>
+      <c r="E93" s="182"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="182"/>
+      <c r="H93" s="182"/>
+      <c r="I93" s="184"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="185"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="186">
+        <v>44472</v>
+      </c>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="188"/>
+      <c r="G94" s="187"/>
+      <c r="H94" s="187"/>
+      <c r="I94" s="189"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="A60:A94"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="B88:B94"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
@@ -5468,11 +6335,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373594B2-FED4-4FED-B7E8-06EFC8E46E82}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="140" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="137">
+        <v>44435</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="137">
+        <v>44435</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="137">
+        <v>44436</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="138" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="137">
+        <v>44436</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="138" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="137">
+        <v>44437</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="138"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="138"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="138"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="138"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="138"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="138"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="138"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="138"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="138"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35D18D-4B8A-4300-A1BD-4C831E6DAB9D}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,10 +6737,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="164" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -5539,8 +6759,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="161"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -5551,8 +6771,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="161"/>
+      <c r="B4" s="155" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -5571,8 +6791,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -5589,9 +6809,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="83">
+      <c r="A6" s="161"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="153">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5607,9 +6827,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="84"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5625,8 +6845,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -5645,8 +6865,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -5665,8 +6885,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -5677,8 +6897,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="87"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -5695,8 +6915,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="88" t="s">
+      <c r="A12" s="161"/>
+      <c r="B12" s="158" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -5711,9 +6931,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="83">
+      <c r="A13" s="161"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="153">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5727,9 +6947,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="84"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -5741,8 +6961,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -5751,8 +6971,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="86"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -5763,8 +6983,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -5775,9 +6995,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="83">
+      <c r="A18" s="161"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="153">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5789,9 +7009,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="84"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -5801,8 +7021,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="157"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -5815,10 +7035,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="155" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -5833,8 +7053,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -5847,9 +7067,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="83">
+      <c r="A23" s="161"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="153">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5861,9 +7081,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -5875,9 +7095,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="83">
+      <c r="A25" s="161"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="153">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5891,9 +7111,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="84"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="154"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -5903,8 +7123,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -5915,8 +7135,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="86"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -5927,8 +7147,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -5939,8 +7159,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="85" t="s">
+      <c r="A30" s="161"/>
+      <c r="B30" s="155" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -5953,8 +7173,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -5965,8 +7185,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="86"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -5977,8 +7197,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -5989,8 +7209,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="86"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -6001,8 +7221,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="86"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -6013,8 +7233,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="87"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="157"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -6025,8 +7245,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="85" t="s">
+      <c r="A37" s="161"/>
+      <c r="B37" s="155" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -6041,8 +7261,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="161"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -6057,8 +7277,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -6073,8 +7293,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -6089,8 +7309,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="161"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -6105,8 +7325,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="86"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -6121,8 +7341,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="157"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -6137,8 +7357,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="88" t="s">
+      <c r="A44" s="161"/>
+      <c r="B44" s="158" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -6155,8 +7375,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="161"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -6171,8 +7391,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="161"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -6189,8 +7409,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="161"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -6207,8 +7427,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="86"/>
+      <c r="A48" s="161"/>
+      <c r="B48" s="156"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -6223,8 +7443,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="161"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -6241,8 +7461,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
-      <c r="B50" s="87"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -6257,10 +7477,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="164" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -6279,8 +7499,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="161"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -6295,9 +7515,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="96">
+      <c r="A53" s="161"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="166">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6311,9 +7531,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="96"/>
+      <c r="A54" s="161"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="166"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -6325,8 +7545,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="161"/>
+      <c r="B55" s="156"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -6337,8 +7557,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="161"/>
+      <c r="B56" s="156"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -6351,8 +7571,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="86"/>
+      <c r="A57" s="161"/>
+      <c r="B57" s="156"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -6365,8 +7585,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="91"/>
-      <c r="B58" s="87"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="157"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -6379,8 +7599,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="94" t="s">
+      <c r="A59" s="161"/>
+      <c r="B59" s="164" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -6395,8 +7615,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="86"/>
+      <c r="A60" s="161"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -6411,8 +7631,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="156"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -6427,8 +7647,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="86"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="156"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -6443,8 +7663,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="86"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="156"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -6455,8 +7675,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="91"/>
-      <c r="B64" s="86"/>
+      <c r="A64" s="161"/>
+      <c r="B64" s="156"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -6467,8 +7687,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
-      <c r="B65" s="87"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="157"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -6483,8 +7703,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="95" t="s">
+      <c r="A66" s="161"/>
+      <c r="B66" s="165" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -6501,8 +7721,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="86"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -6517,8 +7737,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="86"/>
+      <c r="A68" s="161"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -6531,8 +7751,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="87"/>
+      <c r="A69" s="162"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -6570,12 +7790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F0678-14D1-45EE-85A1-C4C1E5086636}">
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6619,10 +7839,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="156" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="156" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -6641,8 +7861,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -6659,8 +7879,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="156"/>
+      <c r="B4" s="158" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -6679,8 +7899,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -6697,8 +7917,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -6715,8 +7935,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -6733,8 +7953,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -6751,8 +7971,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -6769,8 +7989,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -6787,10 +8007,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="155" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -6809,8 +8029,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -6821,8 +8041,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -6833,8 +8053,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -6849,8 +8069,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -6867,8 +8087,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -6885,8 +8105,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -6903,11 +8123,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="156"/>
+      <c r="B18" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="167">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -6923,9 +8143,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="98"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -6939,9 +8159,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="98"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="168"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -6955,8 +8175,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -6967,8 +8187,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -6979,8 +8199,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -6991,8 +8211,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -7003,9 +8223,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="98">
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="168">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -7021,9 +8241,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -7037,8 +8257,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -7055,8 +8275,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="155" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -7069,8 +8289,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -7087,8 +8307,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -7099,8 +8319,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -7117,8 +8337,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -7129,8 +8349,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -7147,9 +8367,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="98">
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="168">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -7165,9 +8385,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="169"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -7181,8 +8401,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="85" t="s">
+      <c r="A36" s="156"/>
+      <c r="B36" s="155" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -7195,8 +8415,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -7207,8 +8427,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -7219,8 +8439,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -7231,8 +8451,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="156"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -7243,8 +8463,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -7261,8 +8481,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
-      <c r="B42" s="87"/>
+      <c r="A42" s="156"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -7273,8 +8493,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="95" t="s">
+      <c r="A43" s="156"/>
+      <c r="B43" s="165" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -7293,8 +8513,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="156"/>
+      <c r="B44" s="156"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -7311,8 +8531,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="156"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -7329,8 +8549,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="156"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -7341,8 +8561,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -7353,8 +8573,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
+      <c r="A48" s="156"/>
+      <c r="B48" s="156"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -7365,8 +8585,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
+      <c r="A49" s="157"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -7383,10 +8603,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="155" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -7399,8 +8619,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
+      <c r="A51" s="156"/>
+      <c r="B51" s="156"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -7417,8 +8637,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="156"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -7429,8 +8649,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
+      <c r="A53" s="156"/>
+      <c r="B53" s="156"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -7447,8 +8667,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
+      <c r="A54" s="156"/>
+      <c r="B54" s="156"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -7459,8 +8679,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="156"/>
+      <c r="B55" s="156"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -7471,8 +8691,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="86"/>
-      <c r="B56" s="87"/>
+      <c r="A56" s="156"/>
+      <c r="B56" s="157"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -7489,8 +8709,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
-      <c r="B57" s="85" t="s">
+      <c r="A57" s="156"/>
+      <c r="B57" s="155" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -7509,8 +8729,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -7527,8 +8747,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
+      <c r="A59" s="156"/>
+      <c r="B59" s="156"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -7545,8 +8765,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -7563,8 +8783,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="156"/>
+      <c r="B61" s="156"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -7575,8 +8795,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
+      <c r="A62" s="156"/>
+      <c r="B62" s="156"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -7593,8 +8813,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="86"/>
-      <c r="B63" s="87"/>
+      <c r="A63" s="156"/>
+      <c r="B63" s="157"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -7611,8 +8831,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
-      <c r="B64" s="85" t="s">
+      <c r="A64" s="156"/>
+      <c r="B64" s="155" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -7631,8 +8851,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
+      <c r="A65" s="156"/>
+      <c r="B65" s="156"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -7649,8 +8869,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="86"/>
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -7661,9 +8881,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="100">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="170">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -7679,9 +8899,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="101"/>
+      <c r="A68" s="156"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="171"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -7695,8 +8915,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -7707,8 +8927,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
-      <c r="B70" s="86"/>
+      <c r="A70" s="156"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -7719,8 +8939,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="86"/>
-      <c r="B71" s="87"/>
+      <c r="A71" s="156"/>
+      <c r="B71" s="157"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -7737,8 +8957,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
-      <c r="B72" s="95" t="s">
+      <c r="A72" s="156"/>
+      <c r="B72" s="165" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -7757,8 +8977,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="86"/>
+      <c r="A73" s="156"/>
+      <c r="B73" s="156"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -7769,8 +8989,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
-      <c r="B74" s="87"/>
+      <c r="A74" s="157"/>
+      <c r="B74" s="157"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F5C3F-8F3A-4A26-B820-1C4054AEAA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5A1F05-A9BD-4E9C-A989-A0538830B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="2175" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="281">
   <si>
     <t>JVM</t>
   </si>
@@ -3065,10 +3065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3077,10 +3073,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3098,14 +3090,6 @@
   </si>
   <si>
     <t>微服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛世科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林小姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3166,6 +3150,45 @@
   </si>
   <si>
     <t>九月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netty</t>
+  </si>
+  <si>
+    <t>盛视科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小姐/付小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门/地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/车公庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30~24:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3611,7 +3634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4023,6 +4046,64 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4059,6 +4140,21 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4118,72 +4214,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4468,8 +4498,8 @@
   <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31:L32"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,7 +4549,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="169" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -4536,8 +4566,8 @@
       <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="152" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="172" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -4553,8 +4583,8 @@
       <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="125">
         <v>44383</v>
       </c>
@@ -4568,8 +4598,8 @@
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="125">
         <v>44384</v>
       </c>
@@ -4583,8 +4613,8 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="125">
         <v>44385</v>
       </c>
@@ -4602,8 +4632,8 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="125">
         <v>44386</v>
       </c>
@@ -4619,9 +4649,9 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="148">
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="168">
         <v>44387</v>
       </c>
       <c r="D8" s="127" t="s">
@@ -4640,9 +4670,9 @@
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="148"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4659,8 +4689,8 @@
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150"/>
-      <c r="B10" s="151"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -4680,8 +4710,8 @@
       <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="152" t="s">
+      <c r="A11" s="170"/>
+      <c r="B11" s="172" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -4706,8 +4736,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="125">
         <v>44390</v>
       </c>
@@ -4730,8 +4760,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
-      <c r="B13" s="150"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="125">
         <v>44391</v>
       </c>
@@ -4754,8 +4784,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="150"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="125">
         <v>44392</v>
       </c>
@@ -4778,8 +4808,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="150"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="125">
         <v>44393</v>
       </c>
@@ -4794,8 +4824,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="125">
         <v>44394</v>
       </c>
@@ -4815,8 +4845,8 @@
       <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="150"/>
-      <c r="B17" s="151"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -4836,8 +4866,8 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="152" t="s">
+      <c r="A18" s="170"/>
+      <c r="B18" s="172" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -4862,8 +4892,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="125">
         <v>44397</v>
       </c>
@@ -4890,8 +4920,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="150"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="125">
         <v>44398</v>
       </c>
@@ -4918,8 +4948,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="125">
         <v>44399</v>
       </c>
@@ -4946,8 +4976,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="125">
         <v>44400</v>
       </c>
@@ -4962,8 +4992,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="150"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="125">
         <v>44401</v>
       </c>
@@ -5000,8 +5030,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="151"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
@@ -5026,8 +5056,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="152" t="s">
+      <c r="A25" s="170"/>
+      <c r="B25" s="172" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
@@ -5053,8 +5083,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="150"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="125">
         <v>44404</v>
       </c>
@@ -5079,8 +5109,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="125">
         <v>44405</v>
       </c>
@@ -5103,8 +5133,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="170"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="125">
         <v>44406</v>
       </c>
@@ -5131,8 +5161,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="150"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="125">
         <v>44407</v>
       </c>
@@ -5157,8 +5187,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="150"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="125">
         <v>44408</v>
       </c>
@@ -5183,8 +5213,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="151"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
@@ -5211,10 +5241,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="141" t="s">
+      <c r="B32" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
@@ -5245,8 +5275,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
-      <c r="B33" s="142"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
@@ -5272,8 +5302,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
-      <c r="B34" s="142"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
@@ -5301,8 +5331,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="146"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
@@ -5326,8 +5356,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="146"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
@@ -5345,8 +5375,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
-      <c r="B37" s="142"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
@@ -5370,8 +5400,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="146"/>
-      <c r="B38" s="143"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -5395,8 +5425,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
-      <c r="B39" s="141" t="s">
+      <c r="A39" s="166"/>
+      <c r="B39" s="161" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
@@ -5422,8 +5452,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="146"/>
-      <c r="B40" s="142"/>
+      <c r="A40" s="166"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
@@ -5447,8 +5477,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="146"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -5471,8 +5501,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="146"/>
-      <c r="B42" s="142"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
@@ -5495,8 +5525,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="146"/>
-      <c r="B43" s="142"/>
+      <c r="A43" s="166"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
@@ -5513,8 +5543,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
-      <c r="B44" s="142"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="162"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
@@ -5537,8 +5567,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="146"/>
-      <c r="B45" s="143"/>
+      <c r="A45" s="166"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
@@ -5563,8 +5593,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="146"/>
-      <c r="B46" s="141" t="s">
+      <c r="A46" s="166"/>
+      <c r="B46" s="161" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
@@ -5591,8 +5621,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="146"/>
-      <c r="B47" s="142"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="162"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
@@ -5612,8 +5642,8 @@
       <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="146"/>
-      <c r="B48" s="142"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="162"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
@@ -5626,9 +5656,9 @@
       <c r="H48" s="133"/>
       <c r="I48" s="112"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="146"/>
-      <c r="B49" s="142"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="166"/>
+      <c r="B49" s="162"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
@@ -5643,9 +5673,9 @@
       <c r="H49" s="133"/>
       <c r="I49" s="112"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="146"/>
-      <c r="B50" s="142"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="166"/>
+      <c r="B50" s="162"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
@@ -5658,9 +5688,9 @@
       <c r="H50" s="133"/>
       <c r="I50" s="112"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="146"/>
-      <c r="B51" s="142"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="166"/>
+      <c r="B51" s="162"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
@@ -5673,9 +5703,9 @@
       <c r="H51" s="133"/>
       <c r="I51" s="112"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="146"/>
-      <c r="B52" s="143"/>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="166"/>
+      <c r="B52" s="163"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
@@ -5694,9 +5724,9 @@
       </c>
       <c r="I52" s="122"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="146"/>
-      <c r="B53" s="144" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="166"/>
+      <c r="B53" s="164" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
@@ -5715,9 +5745,9 @@
       </c>
       <c r="I53" s="111"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="146"/>
-      <c r="B54" s="142"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="166"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
@@ -5736,9 +5766,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="146"/>
-      <c r="B55" s="142"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="166"/>
+      <c r="B55" s="162"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
@@ -5755,9 +5785,9 @@
       </c>
       <c r="I55" s="112"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="146"/>
-      <c r="B56" s="142"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="166"/>
+      <c r="B56" s="162"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
@@ -5778,9 +5808,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="146"/>
-      <c r="B57" s="142"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="166"/>
+      <c r="B57" s="162"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
@@ -5799,9 +5829,9 @@
       </c>
       <c r="I57" s="112"/>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="146"/>
-      <c r="B58" s="142"/>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="166"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
@@ -5813,16 +5843,16 @@
       </c>
       <c r="F58" s="108"/>
       <c r="G58" s="136" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H58" s="133">
         <v>13</v>
       </c>
       <c r="I58" s="112"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="147"/>
-      <c r="B59" s="143"/>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="167"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
@@ -5833,480 +5863,491 @@
         <v>211</v>
       </c>
       <c r="F59" s="121"/>
-      <c r="G59" s="173" t="s">
-        <v>272</v>
+      <c r="G59" s="141" t="s">
+        <v>268</v>
       </c>
       <c r="H59" s="134">
         <v>9</v>
       </c>
       <c r="I59" s="122"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="175" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="173" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="176">
+      <c r="C60" s="142">
         <v>44438</v>
       </c>
-      <c r="D60" s="177"/>
-      <c r="E60" s="177"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="177"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="179"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="180"/>
-      <c r="B61" s="180"/>
-      <c r="C61" s="181">
+      <c r="D60" s="143" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="144"/>
+      <c r="G60" s="143" t="s">
+        <v>280</v>
+      </c>
+      <c r="H60" s="143">
+        <v>5</v>
+      </c>
+      <c r="I60" s="145"/>
+      <c r="J60" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="174"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="146">
         <v>44439</v>
       </c>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="183"/>
-      <c r="G61" s="182"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="184"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="180"/>
-      <c r="B62" s="180"/>
-      <c r="C62" s="181">
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="149"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="174"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="146">
         <v>44440</v>
       </c>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="182"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="184"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="180"/>
-      <c r="B63" s="180"/>
-      <c r="C63" s="181">
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="149"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="174"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="146">
         <v>44441</v>
       </c>
-      <c r="D63" s="182"/>
-      <c r="E63" s="182"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="182"/>
-      <c r="H63" s="182"/>
-      <c r="I63" s="184"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="180"/>
-      <c r="B64" s="180"/>
-      <c r="C64" s="181">
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="149"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="174"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="146">
         <v>44442</v>
       </c>
-      <c r="D64" s="182"/>
-      <c r="E64" s="182"/>
-      <c r="F64" s="183"/>
-      <c r="G64" s="182"/>
-      <c r="H64" s="182"/>
-      <c r="I64" s="184"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="149"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="180"/>
-      <c r="B65" s="180"/>
-      <c r="C65" s="181">
+      <c r="A65" s="174"/>
+      <c r="B65" s="174"/>
+      <c r="C65" s="146">
         <v>44443</v>
       </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="182"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="182"/>
-      <c r="H65" s="182"/>
-      <c r="I65" s="184"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="149"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="180"/>
-      <c r="B66" s="185"/>
-      <c r="C66" s="186">
+      <c r="A66" s="174"/>
+      <c r="B66" s="175"/>
+      <c r="C66" s="150">
         <v>44444</v>
       </c>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="188"/>
-      <c r="G66" s="187"/>
-      <c r="H66" s="187"/>
-      <c r="I66" s="189"/>
+      <c r="D66" s="151"/>
+      <c r="E66" s="151"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="153"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="180"/>
-      <c r="B67" s="175" t="s">
+      <c r="A67" s="174"/>
+      <c r="B67" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="176">
+      <c r="C67" s="142">
         <v>44445</v>
       </c>
-      <c r="D67" s="177"/>
-      <c r="E67" s="177"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="177"/>
-      <c r="H67" s="177"/>
-      <c r="I67" s="179"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="143"/>
+      <c r="H67" s="143"/>
+      <c r="I67" s="145"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="180"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="181">
+      <c r="A68" s="174"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="146">
         <v>44446</v>
       </c>
-      <c r="D68" s="182"/>
-      <c r="E68" s="182"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="182"/>
-      <c r="H68" s="182"/>
-      <c r="I68" s="184"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="149"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="180"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="181">
+      <c r="A69" s="174"/>
+      <c r="B69" s="174"/>
+      <c r="C69" s="146">
         <v>44447</v>
       </c>
-      <c r="D69" s="182"/>
-      <c r="E69" s="182"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="182"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="184"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="149"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="180"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="181">
+      <c r="A70" s="174"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="146">
         <v>44448</v>
       </c>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="184"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="147"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="149"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="180"/>
-      <c r="B71" s="180"/>
-      <c r="C71" s="181">
+      <c r="A71" s="174"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="146">
         <v>44449</v>
       </c>
-      <c r="D71" s="182"/>
-      <c r="E71" s="182"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="182"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="184"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="149"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="180"/>
-      <c r="B72" s="180"/>
-      <c r="C72" s="181">
+      <c r="A72" s="174"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="146">
         <v>44450</v>
       </c>
-      <c r="D72" s="182"/>
-      <c r="E72" s="182"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="184"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="148"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="147"/>
+      <c r="I72" s="149"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="180"/>
-      <c r="B73" s="185"/>
-      <c r="C73" s="186">
+      <c r="A73" s="174"/>
+      <c r="B73" s="175"/>
+      <c r="C73" s="150">
         <v>44451</v>
       </c>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="188"/>
-      <c r="G73" s="187"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="189"/>
+      <c r="D73" s="151"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="152"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="153"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="180"/>
-      <c r="B74" s="175" t="s">
+      <c r="A74" s="174"/>
+      <c r="B74" s="176" t="s">
         <v>223</v>
       </c>
-      <c r="C74" s="176">
+      <c r="C74" s="142">
         <v>44452</v>
       </c>
-      <c r="D74" s="177"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="179"/>
+      <c r="D74" s="143"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="144"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="143"/>
+      <c r="I74" s="145"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="180"/>
-      <c r="B75" s="180"/>
-      <c r="C75" s="181">
+      <c r="A75" s="174"/>
+      <c r="B75" s="174"/>
+      <c r="C75" s="146">
         <v>44453</v>
       </c>
-      <c r="D75" s="182"/>
-      <c r="E75" s="182"/>
-      <c r="F75" s="183"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="184"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="149"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="180"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="181">
+      <c r="A76" s="174"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="146">
         <v>44454</v>
       </c>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="183"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182"/>
-      <c r="I76" s="184"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="147"/>
+      <c r="H76" s="147"/>
+      <c r="I76" s="149"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="180"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="181">
+      <c r="A77" s="174"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="146">
         <v>44455</v>
       </c>
-      <c r="D77" s="182"/>
-      <c r="E77" s="182"/>
-      <c r="F77" s="183"/>
-      <c r="G77" s="182"/>
-      <c r="H77" s="182"/>
-      <c r="I77" s="184"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="147"/>
+      <c r="I77" s="149"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="180"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="181">
+      <c r="A78" s="174"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="146">
         <v>44456</v>
       </c>
-      <c r="D78" s="182"/>
-      <c r="E78" s="182"/>
-      <c r="F78" s="183"/>
-      <c r="G78" s="182"/>
-      <c r="H78" s="182"/>
-      <c r="I78" s="184"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="147"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="147"/>
+      <c r="I78" s="149"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="180"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="181">
+      <c r="A79" s="174"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="146">
         <v>44457</v>
       </c>
-      <c r="D79" s="182"/>
-      <c r="E79" s="182"/>
-      <c r="F79" s="183"/>
-      <c r="G79" s="182"/>
-      <c r="H79" s="182"/>
-      <c r="I79" s="184"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="149"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="180"/>
-      <c r="B80" s="185"/>
-      <c r="C80" s="186">
+      <c r="A80" s="174"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="150">
         <v>44458</v>
       </c>
-      <c r="D80" s="187"/>
-      <c r="E80" s="187"/>
-      <c r="F80" s="188"/>
-      <c r="G80" s="187"/>
-      <c r="H80" s="187"/>
-      <c r="I80" s="189"/>
+      <c r="D80" s="151"/>
+      <c r="E80" s="151"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="151"/>
+      <c r="H80" s="151"/>
+      <c r="I80" s="153"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="180"/>
-      <c r="B81" s="175" t="s">
+      <c r="A81" s="174"/>
+      <c r="B81" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="176">
+      <c r="C81" s="142">
         <v>44459</v>
       </c>
-      <c r="D81" s="177"/>
-      <c r="E81" s="177"/>
-      <c r="F81" s="178"/>
-      <c r="G81" s="177"/>
-      <c r="H81" s="177"/>
-      <c r="I81" s="179"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="144"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="145"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="180"/>
-      <c r="B82" s="180"/>
-      <c r="C82" s="181">
+      <c r="A82" s="174"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="146">
         <v>44460</v>
       </c>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
-      <c r="F82" s="183"/>
-      <c r="G82" s="182"/>
-      <c r="H82" s="182"/>
-      <c r="I82" s="184"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="147"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="149"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="180"/>
-      <c r="B83" s="180"/>
-      <c r="C83" s="181">
+      <c r="A83" s="174"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="146">
         <v>44461</v>
       </c>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="183"/>
-      <c r="G83" s="182"/>
-      <c r="H83" s="182"/>
-      <c r="I83" s="184"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="149"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="180"/>
-      <c r="B84" s="180"/>
-      <c r="C84" s="181">
+      <c r="A84" s="174"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="146">
         <v>44462</v>
       </c>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="183"/>
-      <c r="G84" s="182"/>
-      <c r="H84" s="182"/>
-      <c r="I84" s="184"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="147"/>
+      <c r="H84" s="147"/>
+      <c r="I84" s="149"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="180"/>
-      <c r="B85" s="180"/>
-      <c r="C85" s="181">
+      <c r="A85" s="174"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="146">
         <v>44463</v>
       </c>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="183"/>
-      <c r="G85" s="182"/>
-      <c r="H85" s="182"/>
-      <c r="I85" s="184"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="147"/>
+      <c r="H85" s="147"/>
+      <c r="I85" s="149"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="180"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="181">
+      <c r="A86" s="174"/>
+      <c r="B86" s="174"/>
+      <c r="C86" s="146">
         <v>44464</v>
       </c>
-      <c r="D86" s="182"/>
-      <c r="E86" s="182"/>
-      <c r="F86" s="183"/>
-      <c r="G86" s="182"/>
-      <c r="H86" s="182"/>
-      <c r="I86" s="184"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="147"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="147"/>
+      <c r="H86" s="147"/>
+      <c r="I86" s="149"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="180"/>
-      <c r="B87" s="185"/>
-      <c r="C87" s="186">
+      <c r="A87" s="174"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="150">
         <v>44465</v>
       </c>
-      <c r="D87" s="187"/>
-      <c r="E87" s="187"/>
-      <c r="F87" s="188"/>
-      <c r="G87" s="187"/>
-      <c r="H87" s="187"/>
-      <c r="I87" s="189"/>
+      <c r="D87" s="151"/>
+      <c r="E87" s="151"/>
+      <c r="F87" s="152"/>
+      <c r="G87" s="151"/>
+      <c r="H87" s="151"/>
+      <c r="I87" s="153"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="180"/>
-      <c r="B88" s="190" t="s">
-        <v>273</v>
-      </c>
-      <c r="C88" s="191">
+      <c r="A88" s="174"/>
+      <c r="B88" s="177" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="154">
         <v>44466</v>
       </c>
-      <c r="D88" s="192"/>
-      <c r="E88" s="192"/>
-      <c r="F88" s="193"/>
-      <c r="G88" s="192"/>
-      <c r="H88" s="192"/>
-      <c r="I88" s="194"/>
+      <c r="D88" s="155"/>
+      <c r="E88" s="155"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="157"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="180"/>
-      <c r="B89" s="180"/>
-      <c r="C89" s="181">
+      <c r="A89" s="174"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="146">
         <v>44467</v>
       </c>
-      <c r="D89" s="182"/>
-      <c r="E89" s="182"/>
-      <c r="F89" s="183"/>
-      <c r="G89" s="182"/>
-      <c r="H89" s="182"/>
-      <c r="I89" s="184"/>
+      <c r="D89" s="147"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="147"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="149"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="180"/>
-      <c r="B90" s="180"/>
-      <c r="C90" s="181">
+      <c r="A90" s="174"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="146">
         <v>44468</v>
       </c>
-      <c r="D90" s="182"/>
-      <c r="E90" s="182"/>
-      <c r="F90" s="183"/>
-      <c r="G90" s="182"/>
-      <c r="H90" s="182"/>
-      <c r="I90" s="184"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="147"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="149"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="180"/>
-      <c r="B91" s="180"/>
-      <c r="C91" s="181">
+      <c r="A91" s="174"/>
+      <c r="B91" s="174"/>
+      <c r="C91" s="146">
         <v>44469</v>
       </c>
-      <c r="D91" s="182"/>
-      <c r="E91" s="182"/>
-      <c r="F91" s="183"/>
-      <c r="G91" s="182"/>
-      <c r="H91" s="182"/>
-      <c r="I91" s="184"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="147"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="149"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="180"/>
-      <c r="B92" s="180"/>
-      <c r="C92" s="181">
+      <c r="A92" s="174"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="146">
         <v>44470</v>
       </c>
-      <c r="D92" s="182"/>
-      <c r="E92" s="182"/>
-      <c r="F92" s="183"/>
-      <c r="G92" s="182"/>
-      <c r="H92" s="182"/>
-      <c r="I92" s="184"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="147"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="147"/>
+      <c r="H92" s="147"/>
+      <c r="I92" s="149"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="180"/>
-      <c r="B93" s="180"/>
-      <c r="C93" s="181">
+      <c r="A93" s="174"/>
+      <c r="B93" s="174"/>
+      <c r="C93" s="146">
         <v>44471</v>
       </c>
-      <c r="D93" s="182"/>
-      <c r="E93" s="182"/>
-      <c r="F93" s="183"/>
-      <c r="G93" s="182"/>
-      <c r="H93" s="182"/>
-      <c r="I93" s="184"/>
+      <c r="D93" s="147"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="147"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="149"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="185"/>
-      <c r="B94" s="185"/>
-      <c r="C94" s="186">
+      <c r="A94" s="175"/>
+      <c r="B94" s="175"/>
+      <c r="C94" s="150">
         <v>44472</v>
       </c>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="188"/>
-      <c r="G94" s="187"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="189"/>
+      <c r="D94" s="151"/>
+      <c r="E94" s="151"/>
+      <c r="F94" s="152"/>
+      <c r="G94" s="151"/>
+      <c r="H94" s="151"/>
+      <c r="I94" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6336,145 +6377,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373594B2-FED4-4FED-B7E8-06EFC8E46E82}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="C1" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="D1" s="140" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="F1" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="140" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="140" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="140" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="159" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="158" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="137">
         <v>44435</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D2" s="138"/>
       <c r="E2" s="138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F2" s="138"/>
       <c r="G2" s="138" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="H2" s="138"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="137">
         <v>44435</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D3" s="138"/>
       <c r="E3" s="138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="138" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="H3" s="138"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="137">
         <v>44436</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" s="138"/>
       <c r="E4" s="138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="H4" s="138"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="137">
         <v>44436</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="138"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>278</v>
+      </c>
       <c r="E5" s="138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F5" s="138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="H5" s="160">
+        <v>44442.604166666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="137">
         <v>44437</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
       <c r="F6" s="138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G6" s="138" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="H6" s="138"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="138"/>
       <c r="B7" s="138"/>
       <c r="C7" s="138"/>
@@ -6482,8 +6536,9 @@
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
       <c r="G7" s="138"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="138"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="138"/>
       <c r="B8" s="138"/>
       <c r="C8" s="138"/>
@@ -6491,8 +6546,9 @@
       <c r="E8" s="138"/>
       <c r="F8" s="138"/>
       <c r="G8" s="138"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="138"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="138"/>
       <c r="B9" s="138"/>
       <c r="C9" s="138"/>
@@ -6500,8 +6556,9 @@
       <c r="E9" s="138"/>
       <c r="F9" s="138"/>
       <c r="G9" s="138"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="138"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="138"/>
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
@@ -6509,8 +6566,9 @@
       <c r="E10" s="138"/>
       <c r="F10" s="138"/>
       <c r="G10" s="138"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="138"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="138"/>
       <c r="B11" s="138"/>
       <c r="C11" s="138"/>
@@ -6518,8 +6576,9 @@
       <c r="E11" s="138"/>
       <c r="F11" s="138"/>
       <c r="G11" s="138"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="138"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="138"/>
       <c r="B12" s="138"/>
       <c r="C12" s="138"/>
@@ -6527,8 +6586,9 @@
       <c r="E12" s="138"/>
       <c r="F12" s="138"/>
       <c r="G12" s="138"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="138"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="138"/>
       <c r="B13" s="138"/>
       <c r="C13" s="138"/>
@@ -6536,8 +6596,9 @@
       <c r="E13" s="138"/>
       <c r="F13" s="138"/>
       <c r="G13" s="138"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="138"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="138"/>
       <c r="B14" s="138"/>
       <c r="C14" s="138"/>
@@ -6545,8 +6606,9 @@
       <c r="E14" s="138"/>
       <c r="F14" s="138"/>
       <c r="G14" s="138"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="138"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="138"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
@@ -6554,8 +6616,9 @@
       <c r="E15" s="138"/>
       <c r="F15" s="138"/>
       <c r="G15" s="138"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="138"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="138"/>
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
@@ -6563,8 +6626,9 @@
       <c r="E16" s="138"/>
       <c r="F16" s="138"/>
       <c r="G16" s="138"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="138"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="138"/>
       <c r="B17" s="138"/>
       <c r="C17" s="138"/>
@@ -6572,8 +6636,9 @@
       <c r="E17" s="138"/>
       <c r="F17" s="138"/>
       <c r="G17" s="138"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="138"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="138"/>
       <c r="B18" s="138"/>
       <c r="C18" s="138"/>
@@ -6581,8 +6646,9 @@
       <c r="E18" s="138"/>
       <c r="F18" s="138"/>
       <c r="G18" s="138"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="138"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="138"/>
       <c r="B19" s="138"/>
       <c r="C19" s="138"/>
@@ -6590,8 +6656,9 @@
       <c r="E19" s="138"/>
       <c r="F19" s="138"/>
       <c r="G19" s="138"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="138"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="138"/>
       <c r="B20" s="138"/>
       <c r="C20" s="138"/>
@@ -6599,8 +6666,9 @@
       <c r="E20" s="138"/>
       <c r="F20" s="138"/>
       <c r="G20" s="138"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="138"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="138"/>
       <c r="B21" s="138"/>
       <c r="C21" s="138"/>
@@ -6608,8 +6676,9 @@
       <c r="E21" s="138"/>
       <c r="F21" s="138"/>
       <c r="G21" s="138"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="138"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="138"/>
       <c r="B22" s="138"/>
       <c r="C22" s="138"/>
@@ -6617,8 +6686,9 @@
       <c r="E22" s="138"/>
       <c r="F22" s="138"/>
       <c r="G22" s="138"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="138"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="138"/>
       <c r="B23" s="138"/>
       <c r="C23" s="138"/>
@@ -6626,8 +6696,9 @@
       <c r="E23" s="138"/>
       <c r="F23" s="138"/>
       <c r="G23" s="138"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="138"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="138"/>
       <c r="B24" s="138"/>
       <c r="C24" s="138"/>
@@ -6635,8 +6706,9 @@
       <c r="E24" s="138"/>
       <c r="F24" s="138"/>
       <c r="G24" s="138"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="138"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="138"/>
       <c r="B25" s="138"/>
       <c r="C25" s="138"/>
@@ -6644,8 +6716,9 @@
       <c r="E25" s="138"/>
       <c r="F25" s="138"/>
       <c r="G25" s="138"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="138"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="138"/>
       <c r="B26" s="138"/>
       <c r="C26" s="138"/>
@@ -6653,8 +6726,9 @@
       <c r="E26" s="138"/>
       <c r="F26" s="138"/>
       <c r="G26" s="138"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="138"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="138"/>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
@@ -6662,8 +6736,9 @@
       <c r="E27" s="138"/>
       <c r="F27" s="138"/>
       <c r="G27" s="138"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="138"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="138"/>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -6671,8 +6746,9 @@
       <c r="E28" s="138"/>
       <c r="F28" s="138"/>
       <c r="G28" s="138"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="138"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="138"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
@@ -6680,6 +6756,7 @@
       <c r="E29" s="138"/>
       <c r="F29" s="138"/>
       <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6737,10 +6814,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="189" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -6759,8 +6836,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="161"/>
-      <c r="B3" s="157"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -6771,8 +6848,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="161"/>
-      <c r="B4" s="155" t="s">
+      <c r="A4" s="186"/>
+      <c r="B4" s="180" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -6791,8 +6868,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="186"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -6809,9 +6886,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="153">
+      <c r="A6" s="186"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="178">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6827,9 +6904,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="154"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -6845,8 +6922,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -6865,8 +6942,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="156"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -6885,8 +6962,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="161"/>
-      <c r="B10" s="156"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -6897,8 +6974,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="161"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -6915,8 +6992,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="158" t="s">
+      <c r="A12" s="186"/>
+      <c r="B12" s="183" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -6931,9 +7008,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="153">
+      <c r="A13" s="186"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="178">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -6947,9 +7024,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="154"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -6961,8 +7038,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="156"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -6971,8 +7048,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="156"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -6983,8 +7060,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="156"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -6995,9 +7072,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="153">
+      <c r="A18" s="186"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="178">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7009,9 +7086,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="154"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7021,8 +7098,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="162"/>
-      <c r="B20" s="157"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="182"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7035,10 +7112,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="180" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7053,8 +7130,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="156"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7067,9 +7144,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="153">
+      <c r="A23" s="186"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="178">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7081,9 +7158,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="154"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7095,9 +7172,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="153">
+      <c r="A25" s="186"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="178">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7111,9 +7188,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="154"/>
+      <c r="A26" s="186"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -7123,8 +7200,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="156"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -7135,8 +7212,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="156"/>
+      <c r="A28" s="186"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -7147,8 +7224,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="186"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -7159,8 +7236,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="155" t="s">
+      <c r="A30" s="186"/>
+      <c r="B30" s="180" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -7173,8 +7250,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="156"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -7185,8 +7262,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="156"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -7197,8 +7274,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
-      <c r="B33" s="156"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -7209,8 +7286,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="156"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -7221,8 +7298,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
-      <c r="B35" s="156"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -7233,8 +7310,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="161"/>
-      <c r="B36" s="157"/>
+      <c r="A36" s="186"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -7245,8 +7322,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
-      <c r="B37" s="155" t="s">
+      <c r="A37" s="186"/>
+      <c r="B37" s="180" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -7261,8 +7338,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="156"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -7277,8 +7354,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="161"/>
-      <c r="B39" s="156"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -7293,8 +7370,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
-      <c r="B40" s="156"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -7309,8 +7386,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
-      <c r="B41" s="156"/>
+      <c r="A41" s="186"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -7325,8 +7402,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
-      <c r="B42" s="156"/>
+      <c r="A42" s="186"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -7341,8 +7418,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="161"/>
-      <c r="B43" s="157"/>
+      <c r="A43" s="186"/>
+      <c r="B43" s="182"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -7357,8 +7434,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="158" t="s">
+      <c r="A44" s="186"/>
+      <c r="B44" s="183" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -7375,8 +7452,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="161"/>
-      <c r="B45" s="156"/>
+      <c r="A45" s="186"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -7391,8 +7468,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
-      <c r="B46" s="156"/>
+      <c r="A46" s="186"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -7409,8 +7486,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
-      <c r="B47" s="156"/>
+      <c r="A47" s="186"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -7427,8 +7504,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="156"/>
+      <c r="A48" s="186"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -7443,8 +7520,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="156"/>
+      <c r="A49" s="186"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -7461,8 +7538,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
-      <c r="B50" s="157"/>
+      <c r="A50" s="187"/>
+      <c r="B50" s="182"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -7477,10 +7554,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="160" t="s">
+      <c r="A51" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="164" t="s">
+      <c r="B51" s="189" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -7499,8 +7576,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
-      <c r="B52" s="156"/>
+      <c r="A52" s="186"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -7515,9 +7592,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="166">
+      <c r="A53" s="186"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="191">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7531,9 +7608,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="166"/>
+      <c r="A54" s="186"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="191"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -7545,8 +7622,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="161"/>
-      <c r="B55" s="156"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -7557,8 +7634,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
-      <c r="B56" s="156"/>
+      <c r="A56" s="186"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -7571,8 +7648,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
-      <c r="B57" s="156"/>
+      <c r="A57" s="186"/>
+      <c r="B57" s="181"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -7585,8 +7662,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="161"/>
-      <c r="B58" s="157"/>
+      <c r="A58" s="186"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -7599,8 +7676,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
-      <c r="B59" s="164" t="s">
+      <c r="A59" s="186"/>
+      <c r="B59" s="189" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -7615,8 +7692,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
-      <c r="B60" s="156"/>
+      <c r="A60" s="186"/>
+      <c r="B60" s="181"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -7631,8 +7708,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
-      <c r="B61" s="156"/>
+      <c r="A61" s="186"/>
+      <c r="B61" s="181"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -7647,8 +7724,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
-      <c r="B62" s="156"/>
+      <c r="A62" s="186"/>
+      <c r="B62" s="181"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -7663,8 +7740,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
-      <c r="B63" s="156"/>
+      <c r="A63" s="186"/>
+      <c r="B63" s="181"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -7675,8 +7752,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="161"/>
-      <c r="B64" s="156"/>
+      <c r="A64" s="186"/>
+      <c r="B64" s="181"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -7687,8 +7764,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="161"/>
-      <c r="B65" s="157"/>
+      <c r="A65" s="186"/>
+      <c r="B65" s="182"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -7703,8 +7780,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
-      <c r="B66" s="165" t="s">
+      <c r="A66" s="186"/>
+      <c r="B66" s="190" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -7721,8 +7798,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
-      <c r="B67" s="156"/>
+      <c r="A67" s="186"/>
+      <c r="B67" s="181"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -7737,8 +7814,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="156"/>
+      <c r="A68" s="186"/>
+      <c r="B68" s="181"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -7751,8 +7828,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="162"/>
-      <c r="B69" s="157"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -7839,10 +7916,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="181" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="181" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -7861,8 +7938,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -7879,8 +7956,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158" t="s">
+      <c r="A4" s="181"/>
+      <c r="B4" s="183" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -7899,8 +7976,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -7917,8 +7994,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -7935,8 +8012,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -7953,8 +8030,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -7971,8 +8048,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
-      <c r="B9" s="156"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -7989,8 +8066,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8007,10 +8084,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="180" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8029,8 +8106,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8041,8 +8118,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="156"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8053,8 +8130,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8069,8 +8146,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="156"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8087,8 +8164,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8105,8 +8182,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -8123,11 +8200,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
-      <c r="B18" s="155" t="s">
+      <c r="A18" s="181"/>
+      <c r="B18" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="167">
+      <c r="C18" s="192">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -8143,9 +8220,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="181"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -8159,9 +8236,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="193"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -8175,8 +8252,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
-      <c r="B21" s="156"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -8187,8 +8264,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
-      <c r="B22" s="156"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -8199,8 +8276,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
-      <c r="B23" s="156"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -8211,8 +8288,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
-      <c r="B24" s="156"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -8223,9 +8300,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="168">
+      <c r="A25" s="181"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="193">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -8241,9 +8318,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="168"/>
+      <c r="A26" s="181"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="193"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -8257,8 +8334,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="181"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -8275,8 +8352,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
-      <c r="B28" s="155" t="s">
+      <c r="A28" s="181"/>
+      <c r="B28" s="180" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -8289,8 +8366,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
-      <c r="B29" s="156"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -8307,8 +8384,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
-      <c r="B30" s="156"/>
+      <c r="A30" s="181"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -8319,8 +8396,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
-      <c r="B31" s="156"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -8337,8 +8414,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="156"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -8349,8 +8426,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="156"/>
-      <c r="B33" s="156"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -8367,9 +8444,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="156"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="168">
+      <c r="A34" s="181"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="193">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -8385,9 +8462,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="169"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="194"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -8401,8 +8478,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="155" t="s">
+      <c r="A36" s="181"/>
+      <c r="B36" s="180" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -8415,8 +8492,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
-      <c r="B37" s="156"/>
+      <c r="A37" s="181"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -8427,8 +8504,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="156"/>
-      <c r="B38" s="156"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -8439,8 +8516,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="156"/>
-      <c r="B39" s="156"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -8451,8 +8528,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="156"/>
-      <c r="B40" s="156"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -8463,8 +8540,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="156"/>
-      <c r="B41" s="156"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -8481,8 +8558,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="156"/>
-      <c r="B42" s="157"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -8493,8 +8570,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="156"/>
-      <c r="B43" s="165" t="s">
+      <c r="A43" s="181"/>
+      <c r="B43" s="190" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -8513,8 +8590,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="156"/>
-      <c r="B44" s="156"/>
+      <c r="A44" s="181"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -8531,8 +8608,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="156"/>
-      <c r="B45" s="156"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -8549,8 +8626,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
-      <c r="B46" s="156"/>
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -8561,8 +8638,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="156"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -8573,8 +8650,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="156"/>
-      <c r="B48" s="156"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -8585,8 +8662,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="157"/>
-      <c r="B49" s="157"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -8603,10 +8680,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="164" t="s">
+      <c r="A50" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="180" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -8619,8 +8696,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="156"/>
-      <c r="B51" s="156"/>
+      <c r="A51" s="181"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -8637,8 +8714,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="156"/>
-      <c r="B52" s="156"/>
+      <c r="A52" s="181"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -8649,8 +8726,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="156"/>
-      <c r="B53" s="156"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="181"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -8667,8 +8744,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
-      <c r="B54" s="156"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -8679,8 +8756,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
-      <c r="B55" s="156"/>
+      <c r="A55" s="181"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -8691,8 +8768,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="156"/>
-      <c r="B56" s="157"/>
+      <c r="A56" s="181"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -8709,8 +8786,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
-      <c r="B57" s="155" t="s">
+      <c r="A57" s="181"/>
+      <c r="B57" s="180" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -8729,8 +8806,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="156"/>
+      <c r="A58" s="181"/>
+      <c r="B58" s="181"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -8747,8 +8824,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
-      <c r="B59" s="156"/>
+      <c r="A59" s="181"/>
+      <c r="B59" s="181"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -8765,8 +8842,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
-      <c r="B60" s="156"/>
+      <c r="A60" s="181"/>
+      <c r="B60" s="181"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -8783,8 +8860,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="156"/>
-      <c r="B61" s="156"/>
+      <c r="A61" s="181"/>
+      <c r="B61" s="181"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -8795,8 +8872,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="156"/>
-      <c r="B62" s="156"/>
+      <c r="A62" s="181"/>
+      <c r="B62" s="181"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -8813,8 +8890,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="156"/>
-      <c r="B63" s="157"/>
+      <c r="A63" s="181"/>
+      <c r="B63" s="182"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -8831,8 +8908,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
-      <c r="B64" s="155" t="s">
+      <c r="A64" s="181"/>
+      <c r="B64" s="180" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -8851,8 +8928,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
-      <c r="B65" s="156"/>
+      <c r="A65" s="181"/>
+      <c r="B65" s="181"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -8869,8 +8946,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="156"/>
-      <c r="B66" s="156"/>
+      <c r="A66" s="181"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -8881,9 +8958,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="156"/>
-      <c r="B67" s="156"/>
-      <c r="C67" s="170">
+      <c r="A67" s="181"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="195">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -8899,9 +8976,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="156"/>
-      <c r="B68" s="156"/>
-      <c r="C68" s="171"/>
+      <c r="A68" s="181"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="196"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -8915,8 +8992,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="156"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -8927,8 +9004,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="156"/>
-      <c r="B70" s="156"/>
+      <c r="A70" s="181"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -8939,8 +9016,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="156"/>
-      <c r="B71" s="157"/>
+      <c r="A71" s="181"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -8957,8 +9034,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
-      <c r="B72" s="165" t="s">
+      <c r="A72" s="181"/>
+      <c r="B72" s="190" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -8977,8 +9054,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="156"/>
-      <c r="B73" s="156"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="181"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -8989,8 +9066,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="157"/>
-      <c r="B74" s="157"/>
+      <c r="A74" s="182"/>
+      <c r="B74" s="182"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5A1F05-A9BD-4E9C-A989-A0538830B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108E23D-E905-494A-80B9-EB991E7CB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="2175" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="285">
   <si>
     <t>JVM</t>
   </si>
@@ -3101,10 +3101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00~11:30
 16:30~4:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3137,10 +3133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简历不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:30~23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3189,6 +3181,29 @@
   </si>
   <si>
     <t>19:30~24:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judith Zhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨进电商</t>
+  </si>
+  <si>
+    <t>HR 投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监 投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面评影响，简历不通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3199,7 +3214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3328,8 +3343,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3411,6 +3432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3634,7 +3661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4103,26 +4130,19 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4140,61 +4160,67 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4215,6 +4241,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="19" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4498,8 +4526,8 @@
   <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,7 +4577,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="166" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -4566,8 +4594,8 @@
       <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="172" t="s">
+      <c r="A3" s="167"/>
+      <c r="B3" s="169" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -4583,8 +4611,8 @@
       <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="170"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="125">
         <v>44383</v>
       </c>
@@ -4598,8 +4626,8 @@
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="125">
         <v>44384</v>
       </c>
@@ -4613,8 +4641,8 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="125">
         <v>44385</v>
       </c>
@@ -4632,8 +4660,8 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="125">
         <v>44386</v>
       </c>
@@ -4649,9 +4677,9 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="168">
+      <c r="A8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="165">
         <v>44387</v>
       </c>
       <c r="D8" s="127" t="s">
@@ -4670,9 +4698,9 @@
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="165"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4689,8 +4717,8 @@
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="170"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -4710,8 +4738,8 @@
       <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="172" t="s">
+      <c r="A11" s="167"/>
+      <c r="B11" s="169" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -4736,8 +4764,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="170"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="125">
         <v>44390</v>
       </c>
@@ -4760,8 +4788,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="170"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="125">
         <v>44391</v>
       </c>
@@ -4784,8 +4812,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="170"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="125">
         <v>44392</v>
       </c>
@@ -4808,8 +4836,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="125">
         <v>44393</v>
       </c>
@@ -4824,8 +4852,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="125">
         <v>44394</v>
       </c>
@@ -4845,8 +4873,8 @@
       <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="170"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -4866,8 +4894,8 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="170"/>
-      <c r="B18" s="172" t="s">
+      <c r="A18" s="167"/>
+      <c r="B18" s="169" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -4892,8 +4920,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="B19" s="170"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="125">
         <v>44397</v>
       </c>
@@ -4920,8 +4948,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="125">
         <v>44398</v>
       </c>
@@ -4948,8 +4976,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="170"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="125">
         <v>44399</v>
       </c>
@@ -4976,8 +5004,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
-      <c r="B22" s="170"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="125">
         <v>44400</v>
       </c>
@@ -4992,8 +5020,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="125">
         <v>44401</v>
       </c>
@@ -5030,8 +5058,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
@@ -5056,8 +5084,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="172" t="s">
+      <c r="A25" s="167"/>
+      <c r="B25" s="169" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
@@ -5083,8 +5111,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
-      <c r="B26" s="170"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="125">
         <v>44404</v>
       </c>
@@ -5109,8 +5137,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="170"/>
-      <c r="B27" s="170"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="125">
         <v>44405</v>
       </c>
@@ -5133,8 +5161,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="170"/>
-      <c r="B28" s="170"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="125">
         <v>44406</v>
       </c>
@@ -5161,8 +5189,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
-      <c r="B29" s="170"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="125">
         <v>44407</v>
       </c>
@@ -5187,8 +5215,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="170"/>
-      <c r="B30" s="170"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="125">
         <v>44408</v>
       </c>
@@ -5213,8 +5241,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
@@ -5241,10 +5269,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
@@ -5275,8 +5303,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="166"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="175"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
@@ -5302,8 +5330,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="166"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="175"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
@@ -5331,8 +5359,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="166"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
@@ -5356,8 +5384,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="175"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
@@ -5375,8 +5403,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="166"/>
-      <c r="B37" s="162"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="171"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
@@ -5400,8 +5428,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="166"/>
-      <c r="B38" s="163"/>
+      <c r="A38" s="175"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -5425,8 +5453,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="166"/>
-      <c r="B39" s="161" t="s">
+      <c r="A39" s="175"/>
+      <c r="B39" s="170" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
@@ -5452,8 +5480,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="166"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="175"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
@@ -5477,8 +5505,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="166"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="175"/>
+      <c r="B41" s="171"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -5501,8 +5529,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="166"/>
-      <c r="B42" s="162"/>
+      <c r="A42" s="175"/>
+      <c r="B42" s="171"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
@@ -5525,8 +5553,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="166"/>
-      <c r="B43" s="162"/>
+      <c r="A43" s="175"/>
+      <c r="B43" s="171"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
@@ -5543,8 +5571,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="166"/>
-      <c r="B44" s="162"/>
+      <c r="A44" s="175"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
@@ -5567,8 +5595,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="166"/>
-      <c r="B45" s="163"/>
+      <c r="A45" s="175"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
@@ -5593,8 +5621,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="161" t="s">
+      <c r="A46" s="175"/>
+      <c r="B46" s="170" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
@@ -5621,8 +5649,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="166"/>
-      <c r="B47" s="162"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="171"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
@@ -5642,8 +5670,8 @@
       <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="166"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="175"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
@@ -5657,8 +5685,8 @@
       <c r="I48" s="112"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="166"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="175"/>
+      <c r="B49" s="171"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
@@ -5674,8 +5702,8 @@
       <c r="I49" s="112"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="162"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="171"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
@@ -5689,8 +5717,8 @@
       <c r="I50" s="112"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="166"/>
-      <c r="B51" s="162"/>
+      <c r="A51" s="175"/>
+      <c r="B51" s="171"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
@@ -5704,8 +5732,8 @@
       <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="166"/>
-      <c r="B52" s="163"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
@@ -5725,8 +5753,8 @@
       <c r="I52" s="122"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
-      <c r="B53" s="164" t="s">
+      <c r="A53" s="175"/>
+      <c r="B53" s="173" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
@@ -5746,8 +5774,8 @@
       <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="162"/>
+      <c r="A54" s="175"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
@@ -5767,8 +5795,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="162"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
@@ -5786,8 +5814,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="166"/>
-      <c r="B56" s="162"/>
+      <c r="A56" s="175"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
@@ -5809,8 +5837,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="162"/>
+      <c r="A57" s="175"/>
+      <c r="B57" s="171"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
@@ -5830,8 +5858,8 @@
       <c r="I57" s="112"/>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="162"/>
+      <c r="A58" s="175"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
@@ -5843,7 +5871,7 @@
       </c>
       <c r="F58" s="108"/>
       <c r="G58" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H58" s="133">
         <v>13</v>
@@ -5851,8 +5879,8 @@
       <c r="I58" s="112"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="167"/>
-      <c r="B59" s="163"/>
+      <c r="A59" s="176"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
@@ -5864,7 +5892,7 @@
       </c>
       <c r="F59" s="121"/>
       <c r="G59" s="141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H59" s="134">
         <v>9</v>
@@ -5872,478 +5900,486 @@
       <c r="I59" s="122"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="173" t="s">
-        <v>270</v>
-      </c>
-      <c r="B60" s="176" t="s">
+      <c r="A60" s="160" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="142">
         <v>44438</v>
       </c>
       <c r="D60" s="143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E60" s="144" t="s">
         <v>211</v>
       </c>
       <c r="F60" s="144"/>
       <c r="G60" s="143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H60" s="143">
         <v>5</v>
       </c>
       <c r="I60" s="145"/>
       <c r="J60" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="174"/>
-      <c r="B61" s="174"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="146">
         <v>44439</v>
       </c>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
+      <c r="D61" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="148" t="s">
+        <v>211</v>
+      </c>
       <c r="F61" s="148"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
+      <c r="G61" s="147" t="s">
+        <v>278</v>
+      </c>
+      <c r="H61" s="147">
+        <v>5</v>
+      </c>
       <c r="I61" s="149"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="174"/>
-      <c r="B62" s="174"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="161"/>
       <c r="C62" s="146">
         <v>44440</v>
       </c>
       <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
+      <c r="E62" s="148"/>
       <c r="F62" s="148"/>
       <c r="G62" s="147"/>
       <c r="H62" s="147"/>
       <c r="I62" s="149"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="174"/>
-      <c r="B63" s="174"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="161"/>
       <c r="C63" s="146">
         <v>44441</v>
       </c>
       <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
+      <c r="E63" s="148"/>
       <c r="F63" s="148"/>
       <c r="G63" s="147"/>
       <c r="H63" s="147"/>
       <c r="I63" s="149"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="174"/>
-      <c r="B64" s="174"/>
+      <c r="A64" s="161"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="146">
         <v>44442</v>
       </c>
       <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
+      <c r="E64" s="148"/>
       <c r="F64" s="148"/>
       <c r="G64" s="147"/>
       <c r="H64" s="147"/>
       <c r="I64" s="149"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="174"/>
-      <c r="B65" s="174"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="161"/>
       <c r="C65" s="146">
         <v>44443</v>
       </c>
       <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
+      <c r="E65" s="148"/>
       <c r="F65" s="148"/>
       <c r="G65" s="147"/>
       <c r="H65" s="147"/>
       <c r="I65" s="149"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="174"/>
-      <c r="B66" s="175"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
       <c r="C66" s="150">
         <v>44444</v>
       </c>
       <c r="D66" s="151"/>
-      <c r="E66" s="151"/>
+      <c r="E66" s="152"/>
       <c r="F66" s="152"/>
       <c r="G66" s="151"/>
       <c r="H66" s="151"/>
       <c r="I66" s="153"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="174"/>
-      <c r="B67" s="176" t="s">
+      <c r="A67" s="161"/>
+      <c r="B67" s="163" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="142">
         <v>44445</v>
       </c>
       <c r="D67" s="143"/>
-      <c r="E67" s="143"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="144"/>
       <c r="G67" s="143"/>
       <c r="H67" s="143"/>
       <c r="I67" s="145"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="174"/>
-      <c r="B68" s="174"/>
+      <c r="A68" s="161"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="146">
         <v>44446</v>
       </c>
       <c r="D68" s="147"/>
-      <c r="E68" s="147"/>
+      <c r="E68" s="148"/>
       <c r="F68" s="148"/>
       <c r="G68" s="147"/>
       <c r="H68" s="147"/>
       <c r="I68" s="149"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="174"/>
-      <c r="B69" s="174"/>
+      <c r="A69" s="161"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="146">
         <v>44447</v>
       </c>
       <c r="D69" s="147"/>
-      <c r="E69" s="147"/>
+      <c r="E69" s="148"/>
       <c r="F69" s="148"/>
       <c r="G69" s="147"/>
       <c r="H69" s="147"/>
       <c r="I69" s="149"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="174"/>
-      <c r="B70" s="174"/>
+      <c r="A70" s="161"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="146">
         <v>44448</v>
       </c>
       <c r="D70" s="147"/>
-      <c r="E70" s="147"/>
+      <c r="E70" s="148"/>
       <c r="F70" s="148"/>
       <c r="G70" s="147"/>
       <c r="H70" s="147"/>
       <c r="I70" s="149"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="174"/>
-      <c r="B71" s="174"/>
+      <c r="A71" s="161"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="146">
         <v>44449</v>
       </c>
       <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
+      <c r="E71" s="148"/>
       <c r="F71" s="148"/>
       <c r="G71" s="147"/>
       <c r="H71" s="147"/>
       <c r="I71" s="149"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="174"/>
-      <c r="B72" s="174"/>
+      <c r="A72" s="161"/>
+      <c r="B72" s="161"/>
       <c r="C72" s="146">
         <v>44450</v>
       </c>
       <c r="D72" s="147"/>
-      <c r="E72" s="147"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="148"/>
       <c r="G72" s="147"/>
       <c r="H72" s="147"/>
       <c r="I72" s="149"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="174"/>
-      <c r="B73" s="175"/>
+      <c r="A73" s="161"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="150">
         <v>44451</v>
       </c>
       <c r="D73" s="151"/>
-      <c r="E73" s="151"/>
+      <c r="E73" s="152"/>
       <c r="F73" s="152"/>
       <c r="G73" s="151"/>
       <c r="H73" s="151"/>
       <c r="I73" s="153"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="174"/>
-      <c r="B74" s="176" t="s">
+      <c r="A74" s="161"/>
+      <c r="B74" s="163" t="s">
         <v>223</v>
       </c>
       <c r="C74" s="142">
         <v>44452</v>
       </c>
       <c r="D74" s="143"/>
-      <c r="E74" s="143"/>
+      <c r="E74" s="144"/>
       <c r="F74" s="144"/>
       <c r="G74" s="143"/>
       <c r="H74" s="143"/>
       <c r="I74" s="145"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="174"/>
-      <c r="B75" s="174"/>
+      <c r="A75" s="161"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="146">
         <v>44453</v>
       </c>
       <c r="D75" s="147"/>
-      <c r="E75" s="147"/>
+      <c r="E75" s="148"/>
       <c r="F75" s="148"/>
       <c r="G75" s="147"/>
       <c r="H75" s="147"/>
       <c r="I75" s="149"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="174"/>
-      <c r="B76" s="174"/>
+      <c r="A76" s="161"/>
+      <c r="B76" s="161"/>
       <c r="C76" s="146">
         <v>44454</v>
       </c>
       <c r="D76" s="147"/>
-      <c r="E76" s="147"/>
+      <c r="E76" s="148"/>
       <c r="F76" s="148"/>
       <c r="G76" s="147"/>
       <c r="H76" s="147"/>
       <c r="I76" s="149"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="174"/>
-      <c r="B77" s="174"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="161"/>
       <c r="C77" s="146">
         <v>44455</v>
       </c>
       <c r="D77" s="147"/>
-      <c r="E77" s="147"/>
+      <c r="E77" s="148"/>
       <c r="F77" s="148"/>
       <c r="G77" s="147"/>
       <c r="H77" s="147"/>
       <c r="I77" s="149"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="174"/>
-      <c r="B78" s="174"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="161"/>
       <c r="C78" s="146">
         <v>44456</v>
       </c>
       <c r="D78" s="147"/>
-      <c r="E78" s="147"/>
+      <c r="E78" s="148"/>
       <c r="F78" s="148"/>
       <c r="G78" s="147"/>
       <c r="H78" s="147"/>
       <c r="I78" s="149"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="174"/>
-      <c r="B79" s="174"/>
+      <c r="A79" s="161"/>
+      <c r="B79" s="161"/>
       <c r="C79" s="146">
         <v>44457</v>
       </c>
       <c r="D79" s="147"/>
-      <c r="E79" s="147"/>
+      <c r="E79" s="148"/>
       <c r="F79" s="148"/>
       <c r="G79" s="147"/>
       <c r="H79" s="147"/>
       <c r="I79" s="149"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="174"/>
-      <c r="B80" s="175"/>
+      <c r="A80" s="161"/>
+      <c r="B80" s="162"/>
       <c r="C80" s="150">
         <v>44458</v>
       </c>
       <c r="D80" s="151"/>
-      <c r="E80" s="151"/>
+      <c r="E80" s="152"/>
       <c r="F80" s="152"/>
       <c r="G80" s="151"/>
       <c r="H80" s="151"/>
       <c r="I80" s="153"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="174"/>
-      <c r="B81" s="176" t="s">
+      <c r="A81" s="161"/>
+      <c r="B81" s="163" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="142">
         <v>44459</v>
       </c>
       <c r="D81" s="143"/>
-      <c r="E81" s="143"/>
+      <c r="E81" s="144"/>
       <c r="F81" s="144"/>
       <c r="G81" s="143"/>
       <c r="H81" s="143"/>
       <c r="I81" s="145"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="174"/>
-      <c r="B82" s="174"/>
+      <c r="A82" s="161"/>
+      <c r="B82" s="161"/>
       <c r="C82" s="146">
         <v>44460</v>
       </c>
       <c r="D82" s="147"/>
-      <c r="E82" s="147"/>
+      <c r="E82" s="148"/>
       <c r="F82" s="148"/>
       <c r="G82" s="147"/>
       <c r="H82" s="147"/>
       <c r="I82" s="149"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="174"/>
-      <c r="B83" s="174"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="146">
         <v>44461</v>
       </c>
       <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="148"/>
       <c r="G83" s="147"/>
       <c r="H83" s="147"/>
       <c r="I83" s="149"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="174"/>
-      <c r="B84" s="174"/>
+      <c r="A84" s="161"/>
+      <c r="B84" s="161"/>
       <c r="C84" s="146">
         <v>44462</v>
       </c>
       <c r="D84" s="147"/>
-      <c r="E84" s="147"/>
+      <c r="E84" s="148"/>
       <c r="F84" s="148"/>
       <c r="G84" s="147"/>
       <c r="H84" s="147"/>
       <c r="I84" s="149"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="174"/>
-      <c r="B85" s="174"/>
+      <c r="A85" s="161"/>
+      <c r="B85" s="161"/>
       <c r="C85" s="146">
         <v>44463</v>
       </c>
       <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
+      <c r="E85" s="148"/>
       <c r="F85" s="148"/>
       <c r="G85" s="147"/>
       <c r="H85" s="147"/>
       <c r="I85" s="149"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="174"/>
-      <c r="B86" s="174"/>
+      <c r="A86" s="161"/>
+      <c r="B86" s="161"/>
       <c r="C86" s="146">
         <v>44464</v>
       </c>
       <c r="D86" s="147"/>
-      <c r="E86" s="147"/>
+      <c r="E86" s="148"/>
       <c r="F86" s="148"/>
       <c r="G86" s="147"/>
       <c r="H86" s="147"/>
       <c r="I86" s="149"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="174"/>
-      <c r="B87" s="175"/>
+      <c r="A87" s="161"/>
+      <c r="B87" s="162"/>
       <c r="C87" s="150">
         <v>44465</v>
       </c>
       <c r="D87" s="151"/>
-      <c r="E87" s="151"/>
+      <c r="E87" s="152"/>
       <c r="F87" s="152"/>
       <c r="G87" s="151"/>
       <c r="H87" s="151"/>
       <c r="I87" s="153"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="174"/>
-      <c r="B88" s="177" t="s">
-        <v>269</v>
+      <c r="A88" s="161"/>
+      <c r="B88" s="164" t="s">
+        <v>267</v>
       </c>
       <c r="C88" s="154">
         <v>44466</v>
       </c>
       <c r="D88" s="155"/>
-      <c r="E88" s="155"/>
+      <c r="E88" s="156"/>
       <c r="F88" s="156"/>
       <c r="G88" s="155"/>
       <c r="H88" s="155"/>
       <c r="I88" s="157"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="174"/>
-      <c r="B89" s="174"/>
+      <c r="A89" s="161"/>
+      <c r="B89" s="161"/>
       <c r="C89" s="146">
         <v>44467</v>
       </c>
       <c r="D89" s="147"/>
-      <c r="E89" s="147"/>
+      <c r="E89" s="148"/>
       <c r="F89" s="148"/>
       <c r="G89" s="147"/>
       <c r="H89" s="147"/>
       <c r="I89" s="149"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="174"/>
-      <c r="B90" s="174"/>
+      <c r="A90" s="161"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="146">
         <v>44468</v>
       </c>
       <c r="D90" s="147"/>
-      <c r="E90" s="147"/>
+      <c r="E90" s="148"/>
       <c r="F90" s="148"/>
       <c r="G90" s="147"/>
       <c r="H90" s="147"/>
       <c r="I90" s="149"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="174"/>
-      <c r="B91" s="174"/>
+      <c r="A91" s="161"/>
+      <c r="B91" s="161"/>
       <c r="C91" s="146">
         <v>44469</v>
       </c>
       <c r="D91" s="147"/>
-      <c r="E91" s="147"/>
+      <c r="E91" s="148"/>
       <c r="F91" s="148"/>
       <c r="G91" s="147"/>
       <c r="H91" s="147"/>
       <c r="I91" s="149"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="174"/>
-      <c r="B92" s="174"/>
+      <c r="A92" s="161"/>
+      <c r="B92" s="161"/>
       <c r="C92" s="146">
         <v>44470</v>
       </c>
       <c r="D92" s="147"/>
-      <c r="E92" s="147"/>
+      <c r="E92" s="148"/>
       <c r="F92" s="148"/>
       <c r="G92" s="147"/>
       <c r="H92" s="147"/>
       <c r="I92" s="149"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="174"/>
-      <c r="B93" s="174"/>
+      <c r="A93" s="161"/>
+      <c r="B93" s="161"/>
       <c r="C93" s="146">
         <v>44471</v>
       </c>
       <c r="D93" s="147"/>
-      <c r="E93" s="147"/>
+      <c r="E93" s="148"/>
       <c r="F93" s="148"/>
       <c r="G93" s="147"/>
       <c r="H93" s="147"/>
       <c r="I93" s="149"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="175"/>
-      <c r="B94" s="175"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="162"/>
       <c r="C94" s="150">
         <v>44472</v>
       </c>
       <c r="D94" s="151"/>
-      <c r="E94" s="151"/>
+      <c r="E94" s="152"/>
       <c r="F94" s="152"/>
       <c r="G94" s="151"/>
       <c r="H94" s="151"/>
@@ -6351,23 +6387,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
     <mergeCell ref="A60:A94"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6381,7 +6417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6390,13 +6426,13 @@
     <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="140" t="s">
         <v>249</v>
@@ -6405,7 +6441,7 @@
         <v>250</v>
       </c>
       <c r="D1" s="140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E1" s="140" t="s">
         <v>251</v>
@@ -6417,7 +6453,7 @@
         <v>257</v>
       </c>
       <c r="H1" s="158" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6425,10 +6461,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="138"/>
       <c r="E2" s="138" t="s">
@@ -6436,19 +6472,21 @@
       </c>
       <c r="F2" s="138"/>
       <c r="G2" s="138" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="138"/>
+        <v>284</v>
+      </c>
+      <c r="H2" s="197">
+        <v>44435</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="137">
         <v>44435</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="138"/>
       <c r="E3" s="138" t="s">
@@ -6456,7 +6494,7 @@
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="138" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H3" s="138"/>
     </row>
@@ -6478,22 +6516,24 @@
         <v>255</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>258</v>
-      </c>
-      <c r="H4" s="138"/>
+        <v>283</v>
+      </c>
+      <c r="H4" s="197">
+        <v>44438</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="137">
         <v>44436</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" s="138" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5" s="138" t="s">
         <v>256</v>
@@ -6502,9 +6542,9 @@
         <v>255</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="160">
+        <v>272</v>
+      </c>
+      <c r="H5" s="198">
         <v>44442.604166666664</v>
       </c>
     </row>
@@ -6513,29 +6553,39 @@
         <v>44437</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>261</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
       <c r="F6" s="138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G6" s="138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
+      <c r="A7" s="137">
+        <v>44439</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>280</v>
+      </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
+      <c r="F7" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="138" t="s">
+        <v>282</v>
+      </c>
       <c r="H7" s="138"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6814,10 +6864,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="185" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -6836,8 +6886,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -6848,8 +6898,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
-      <c r="B4" s="180" t="s">
+      <c r="A4" s="181"/>
+      <c r="B4" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -6868,8 +6918,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -6886,9 +6936,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="178">
+      <c r="A6" s="181"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="189">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6904,9 +6954,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="179"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="190"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -6922,8 +6972,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -6942,8 +6992,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -6962,8 +7012,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="181"/>
+      <c r="A10" s="181"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -6974,8 +7024,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="182"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -6992,8 +7042,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
-      <c r="B12" s="183" t="s">
+      <c r="A12" s="181"/>
+      <c r="B12" s="184" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -7008,9 +7058,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="178">
+      <c r="A13" s="181"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="189">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7024,9 +7074,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="179"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -7038,8 +7088,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -7048,8 +7098,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -7060,8 +7110,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="181"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -7072,9 +7122,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="178">
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="189">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7087,8 +7137,8 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="188"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="179"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7098,8 +7148,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="187"/>
-      <c r="B20" s="182"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7112,10 +7162,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="186" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7130,8 +7180,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
-      <c r="B22" s="181"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7144,9 +7194,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="186"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="178">
+      <c r="A23" s="181"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="189">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7158,9 +7208,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="186"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="179"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7172,9 +7222,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="186"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="178">
+      <c r="A25" s="181"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="189">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7188,9 +7238,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="179"/>
+      <c r="A26" s="181"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -7200,8 +7250,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="186"/>
-      <c r="B27" s="181"/>
+      <c r="A27" s="181"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -7212,8 +7262,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="186"/>
-      <c r="B28" s="181"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -7224,8 +7274,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
-      <c r="B29" s="182"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -7236,8 +7286,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="186"/>
-      <c r="B30" s="180" t="s">
+      <c r="A30" s="181"/>
+      <c r="B30" s="186" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -7250,8 +7300,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="186"/>
-      <c r="B31" s="181"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -7262,8 +7312,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="186"/>
-      <c r="B32" s="181"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -7274,8 +7324,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -7286,8 +7336,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="186"/>
-      <c r="B34" s="181"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -7298,8 +7348,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
-      <c r="B35" s="181"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -7310,8 +7360,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="186"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -7322,8 +7372,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
-      <c r="B37" s="180" t="s">
+      <c r="A37" s="181"/>
+      <c r="B37" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -7338,8 +7388,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
-      <c r="B38" s="181"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -7354,8 +7404,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="186"/>
-      <c r="B39" s="181"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -7370,8 +7420,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="186"/>
-      <c r="B40" s="181"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -7386,8 +7436,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="186"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -7402,8 +7452,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="186"/>
-      <c r="B42" s="181"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -7418,8 +7468,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="186"/>
-      <c r="B43" s="182"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -7434,8 +7484,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="186"/>
-      <c r="B44" s="183" t="s">
+      <c r="A44" s="181"/>
+      <c r="B44" s="184" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -7452,8 +7502,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="186"/>
-      <c r="B45" s="181"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -7468,8 +7518,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="186"/>
-      <c r="B46" s="181"/>
+      <c r="A46" s="181"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -7486,8 +7536,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="186"/>
-      <c r="B47" s="181"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -7504,8 +7554,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="186"/>
-      <c r="B48" s="181"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -7520,8 +7570,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="186"/>
-      <c r="B49" s="181"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="178"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -7538,8 +7588,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="187"/>
-      <c r="B50" s="182"/>
+      <c r="A50" s="182"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -7554,10 +7604,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="185" t="s">
+      <c r="A51" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="189" t="s">
+      <c r="B51" s="185" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -7576,8 +7626,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="186"/>
-      <c r="B52" s="181"/>
+      <c r="A52" s="181"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -7592,9 +7642,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="186"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="191">
+      <c r="A53" s="181"/>
+      <c r="B53" s="178"/>
+      <c r="C53" s="183">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7608,9 +7658,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="186"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="191"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="178"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -7622,8 +7672,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="186"/>
-      <c r="B55" s="181"/>
+      <c r="A55" s="181"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -7634,8 +7684,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="186"/>
-      <c r="B56" s="181"/>
+      <c r="A56" s="181"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -7648,8 +7698,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="186"/>
-      <c r="B57" s="181"/>
+      <c r="A57" s="181"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -7662,8 +7712,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="186"/>
-      <c r="B58" s="182"/>
+      <c r="A58" s="181"/>
+      <c r="B58" s="179"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -7676,8 +7726,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="186"/>
-      <c r="B59" s="189" t="s">
+      <c r="A59" s="181"/>
+      <c r="B59" s="185" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -7692,8 +7742,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="186"/>
-      <c r="B60" s="181"/>
+      <c r="A60" s="181"/>
+      <c r="B60" s="178"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -7708,8 +7758,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="186"/>
-      <c r="B61" s="181"/>
+      <c r="A61" s="181"/>
+      <c r="B61" s="178"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -7724,8 +7774,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="186"/>
-      <c r="B62" s="181"/>
+      <c r="A62" s="181"/>
+      <c r="B62" s="178"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -7740,8 +7790,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="186"/>
-      <c r="B63" s="181"/>
+      <c r="A63" s="181"/>
+      <c r="B63" s="178"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -7752,8 +7802,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="186"/>
-      <c r="B64" s="181"/>
+      <c r="A64" s="181"/>
+      <c r="B64" s="178"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -7764,8 +7814,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="186"/>
-      <c r="B65" s="182"/>
+      <c r="A65" s="181"/>
+      <c r="B65" s="179"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -7780,8 +7830,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="186"/>
-      <c r="B66" s="190" t="s">
+      <c r="A66" s="181"/>
+      <c r="B66" s="177" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -7798,8 +7848,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="186"/>
-      <c r="B67" s="181"/>
+      <c r="A67" s="181"/>
+      <c r="B67" s="178"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -7814,8 +7864,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="186"/>
-      <c r="B68" s="181"/>
+      <c r="A68" s="181"/>
+      <c r="B68" s="178"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -7828,8 +7878,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="187"/>
-      <c r="B69" s="182"/>
+      <c r="A69" s="182"/>
+      <c r="B69" s="179"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -7841,12 +7891,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -7855,11 +7904,12 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7916,10 +7966,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="178" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -7938,8 +7988,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -7956,8 +8006,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183" t="s">
+      <c r="A4" s="178"/>
+      <c r="B4" s="184" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -7976,8 +8026,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="181"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -7994,8 +8044,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="181"/>
-      <c r="B6" s="181"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -8012,8 +8062,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -8030,8 +8080,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="181"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -8048,8 +8098,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="181"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -8066,8 +8116,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
-      <c r="B10" s="182"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8084,10 +8134,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="186" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8106,8 +8156,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="181"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8118,8 +8168,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
-      <c r="B13" s="181"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8130,8 +8180,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="181"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8146,8 +8196,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="178"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8164,8 +8214,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8182,8 +8232,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
-      <c r="B17" s="182"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -8200,11 +8250,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
-      <c r="B18" s="180" t="s">
+      <c r="A18" s="178"/>
+      <c r="B18" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="191">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -8220,9 +8270,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="193"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="192"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -8236,9 +8286,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="193"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="192"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -8252,8 +8302,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
-      <c r="B21" s="181"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -8264,8 +8314,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="181"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -8276,8 +8326,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -8288,8 +8338,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
-      <c r="B24" s="181"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -8300,9 +8350,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="193">
+      <c r="A25" s="178"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="192">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -8318,9 +8368,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="193"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="192"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -8334,8 +8384,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="181"/>
-      <c r="B27" s="182"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -8352,8 +8402,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
-      <c r="B28" s="180" t="s">
+      <c r="A28" s="178"/>
+      <c r="B28" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -8366,8 +8416,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
-      <c r="B29" s="181"/>
+      <c r="A29" s="178"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -8384,8 +8434,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
-      <c r="B30" s="181"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -8396,8 +8446,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
-      <c r="B31" s="181"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -8414,8 +8464,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="181"/>
+      <c r="A32" s="178"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -8426,8 +8476,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -8444,9 +8494,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="193">
+      <c r="A34" s="178"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="192">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -8462,9 +8512,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
-      <c r="B35" s="182"/>
-      <c r="C35" s="194"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="193"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -8478,8 +8528,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
-      <c r="B36" s="180" t="s">
+      <c r="A36" s="178"/>
+      <c r="B36" s="186" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -8492,8 +8542,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
-      <c r="B37" s="181"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -8504,8 +8554,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
-      <c r="B38" s="181"/>
+      <c r="A38" s="178"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -8516,8 +8566,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
-      <c r="B39" s="181"/>
+      <c r="A39" s="178"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -8528,8 +8578,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -8540,8 +8590,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="178"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -8558,8 +8608,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="181"/>
-      <c r="B42" s="182"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -8570,8 +8620,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="190" t="s">
+      <c r="A43" s="178"/>
+      <c r="B43" s="177" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -8590,8 +8640,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="181"/>
+      <c r="A44" s="178"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -8608,8 +8658,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
-      <c r="B45" s="181"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -8626,8 +8676,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -8638,8 +8688,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
-      <c r="B47" s="181"/>
+      <c r="A47" s="178"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -8650,8 +8700,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
-      <c r="B48" s="181"/>
+      <c r="A48" s="178"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -8662,8 +8712,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
-      <c r="B49" s="182"/>
+      <c r="A49" s="179"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -8680,10 +8730,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="189" t="s">
+      <c r="A50" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="186" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -8696,8 +8746,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="181"/>
-      <c r="B51" s="181"/>
+      <c r="A51" s="178"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -8714,8 +8764,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="181"/>
-      <c r="B52" s="181"/>
+      <c r="A52" s="178"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -8726,8 +8776,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="181"/>
+      <c r="A53" s="178"/>
+      <c r="B53" s="178"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -8744,8 +8794,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="181"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -8756,8 +8806,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="181"/>
-      <c r="B55" s="181"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -8768,8 +8818,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="181"/>
-      <c r="B56" s="182"/>
+      <c r="A56" s="178"/>
+      <c r="B56" s="179"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -8786,8 +8836,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="181"/>
-      <c r="B57" s="180" t="s">
+      <c r="A57" s="178"/>
+      <c r="B57" s="186" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -8806,8 +8856,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="181"/>
-      <c r="B58" s="181"/>
+      <c r="A58" s="178"/>
+      <c r="B58" s="178"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -8824,8 +8874,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="181"/>
-      <c r="B59" s="181"/>
+      <c r="A59" s="178"/>
+      <c r="B59" s="178"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -8842,8 +8892,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="181"/>
-      <c r="B60" s="181"/>
+      <c r="A60" s="178"/>
+      <c r="B60" s="178"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -8860,8 +8910,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="181"/>
-      <c r="B61" s="181"/>
+      <c r="A61" s="178"/>
+      <c r="B61" s="178"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -8872,8 +8922,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="181"/>
-      <c r="B62" s="181"/>
+      <c r="A62" s="178"/>
+      <c r="B62" s="178"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -8890,8 +8940,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="181"/>
-      <c r="B63" s="182"/>
+      <c r="A63" s="178"/>
+      <c r="B63" s="179"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -8908,8 +8958,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="181"/>
-      <c r="B64" s="180" t="s">
+      <c r="A64" s="178"/>
+      <c r="B64" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -8928,8 +8978,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="181"/>
-      <c r="B65" s="181"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="178"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -8946,8 +8996,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="181"/>
-      <c r="B66" s="181"/>
+      <c r="A66" s="178"/>
+      <c r="B66" s="178"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -8958,9 +9008,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="181"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="195">
+      <c r="A67" s="178"/>
+      <c r="B67" s="178"/>
+      <c r="C67" s="194">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -8976,9 +9026,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="181"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="196"/>
+      <c r="A68" s="178"/>
+      <c r="B68" s="178"/>
+      <c r="C68" s="195"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -8992,8 +9042,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="181"/>
-      <c r="B69" s="181"/>
+      <c r="A69" s="178"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -9004,8 +9054,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="181"/>
-      <c r="B70" s="181"/>
+      <c r="A70" s="178"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -9016,8 +9066,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="181"/>
-      <c r="B71" s="182"/>
+      <c r="A71" s="178"/>
+      <c r="B71" s="179"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -9034,8 +9084,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="181"/>
-      <c r="B72" s="190" t="s">
+      <c r="A72" s="178"/>
+      <c r="B72" s="177" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -9054,8 +9104,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="181"/>
-      <c r="B73" s="181"/>
+      <c r="A73" s="178"/>
+      <c r="B73" s="178"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -9066,8 +9116,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="182"/>
-      <c r="B74" s="182"/>
+      <c r="A74" s="179"/>
+      <c r="B74" s="179"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -9085,13 +9135,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -9103,6 +9146,13 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108E23D-E905-494A-80B9-EB991E7CB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625D4C89-1713-4867-B6AB-C9164FBA99D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="2175" windowWidth="16065" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="285">
   <si>
     <t>JVM</t>
   </si>
@@ -4130,19 +4130,27 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="19" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,67 +4168,61 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4241,8 +4243,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="19" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4526,8 +4526,8 @@
   <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="170" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -4594,8 +4594,8 @@
       <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="167"/>
-      <c r="B3" s="169" t="s">
+      <c r="A3" s="171"/>
+      <c r="B3" s="173" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -4611,8 +4611,8 @@
       <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="167"/>
-      <c r="B4" s="167"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="125">
         <v>44383</v>
       </c>
@@ -4626,8 +4626,8 @@
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
+      <c r="A5" s="171"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="125">
         <v>44384</v>
       </c>
@@ -4641,8 +4641,8 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
-      <c r="B6" s="167"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="125">
         <v>44385</v>
       </c>
@@ -4660,8 +4660,8 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="125">
         <v>44386</v>
       </c>
@@ -4677,9 +4677,9 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="165">
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="169">
         <v>44387</v>
       </c>
       <c r="D8" s="127" t="s">
@@ -4698,9 +4698,9 @@
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="165"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4717,8 +4717,8 @@
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -4738,8 +4738,8 @@
       <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
-      <c r="B11" s="169" t="s">
+      <c r="A11" s="171"/>
+      <c r="B11" s="173" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -4764,8 +4764,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="167"/>
-      <c r="B12" s="167"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="125">
         <v>44390</v>
       </c>
@@ -4788,8 +4788,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="167"/>
-      <c r="B13" s="167"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="125">
         <v>44391</v>
       </c>
@@ -4812,8 +4812,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="167"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="125">
         <v>44392</v>
       </c>
@@ -4836,8 +4836,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="167"/>
-      <c r="B15" s="167"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="125">
         <v>44393</v>
       </c>
@@ -4852,8 +4852,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="167"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="125">
         <v>44394</v>
       </c>
@@ -4873,8 +4873,8 @@
       <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="167"/>
-      <c r="B17" s="168"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -4894,8 +4894,8 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="167"/>
-      <c r="B18" s="169" t="s">
+      <c r="A18" s="171"/>
+      <c r="B18" s="173" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -4920,8 +4920,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="125">
         <v>44397</v>
       </c>
@@ -4948,8 +4948,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="167"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="125">
         <v>44398</v>
       </c>
@@ -4976,8 +4976,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="167"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="171"/>
       <c r="C21" s="125">
         <v>44399</v>
       </c>
@@ -5004,8 +5004,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
-      <c r="B22" s="167"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="125">
         <v>44400</v>
       </c>
@@ -5020,8 +5020,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-      <c r="B23" s="167"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="125">
         <v>44401</v>
       </c>
@@ -5058,8 +5058,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
@@ -5084,8 +5084,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
-      <c r="B25" s="169" t="s">
+      <c r="A25" s="171"/>
+      <c r="B25" s="173" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
@@ -5111,8 +5111,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="167"/>
-      <c r="B26" s="167"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="171"/>
       <c r="C26" s="125">
         <v>44404</v>
       </c>
@@ -5137,8 +5137,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="167"/>
-      <c r="B27" s="167"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="125">
         <v>44405</v>
       </c>
@@ -5161,8 +5161,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="167"/>
-      <c r="B28" s="167"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="125">
         <v>44406</v>
       </c>
@@ -5189,8 +5189,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="167"/>
-      <c r="B29" s="167"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="125">
         <v>44407</v>
       </c>
@@ -5215,8 +5215,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="167"/>
-      <c r="B30" s="167"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="171"/>
       <c r="C30" s="125">
         <v>44408</v>
       </c>
@@ -5241,8 +5241,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="168"/>
-      <c r="B31" s="168"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
@@ -5269,10 +5269,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
@@ -5303,8 +5303,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="175"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="167"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
@@ -5330,8 +5330,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="175"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
@@ -5359,8 +5359,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
@@ -5384,8 +5384,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="167"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
@@ -5403,8 +5403,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="171"/>
+      <c r="A37" s="167"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
@@ -5428,8 +5428,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="175"/>
-      <c r="B38" s="172"/>
+      <c r="A38" s="167"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -5453,8 +5453,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="175"/>
-      <c r="B39" s="170" t="s">
+      <c r="A39" s="167"/>
+      <c r="B39" s="162" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
@@ -5480,8 +5480,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="175"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="167"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
@@ -5505,8 +5505,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="175"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="167"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="175"/>
-      <c r="B42" s="171"/>
+      <c r="A42" s="167"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
@@ -5553,8 +5553,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="175"/>
-      <c r="B43" s="171"/>
+      <c r="A43" s="167"/>
+      <c r="B43" s="163"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
@@ -5571,8 +5571,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="175"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="167"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
@@ -5595,8 +5595,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="175"/>
-      <c r="B45" s="172"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
@@ -5621,8 +5621,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="175"/>
-      <c r="B46" s="170" t="s">
+      <c r="A46" s="167"/>
+      <c r="B46" s="162" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
@@ -5649,8 +5649,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="175"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="167"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
@@ -5670,8 +5670,8 @@
       <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="175"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="167"/>
+      <c r="B48" s="163"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
@@ -5685,8 +5685,8 @@
       <c r="I48" s="112"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="175"/>
-      <c r="B49" s="171"/>
+      <c r="A49" s="167"/>
+      <c r="B49" s="163"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
@@ -5702,8 +5702,8 @@
       <c r="I49" s="112"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="175"/>
-      <c r="B50" s="171"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
@@ -5717,8 +5717,8 @@
       <c r="I50" s="112"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="175"/>
-      <c r="B51" s="171"/>
+      <c r="A51" s="167"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
@@ -5732,8 +5732,8 @@
       <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="175"/>
-      <c r="B52" s="172"/>
+      <c r="A52" s="167"/>
+      <c r="B52" s="164"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
@@ -5753,8 +5753,8 @@
       <c r="I52" s="122"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="175"/>
-      <c r="B53" s="173" t="s">
+      <c r="A53" s="167"/>
+      <c r="B53" s="165" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
@@ -5774,8 +5774,8 @@
       <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="175"/>
-      <c r="B54" s="171"/>
+      <c r="A54" s="167"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
@@ -5795,8 +5795,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="175"/>
-      <c r="B55" s="171"/>
+      <c r="A55" s="167"/>
+      <c r="B55" s="163"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
@@ -5814,8 +5814,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="175"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="167"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
@@ -5837,8 +5837,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="175"/>
-      <c r="B57" s="171"/>
+      <c r="A57" s="167"/>
+      <c r="B57" s="163"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
@@ -5858,8 +5858,8 @@
       <c r="I57" s="112"/>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="175"/>
-      <c r="B58" s="171"/>
+      <c r="A58" s="167"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
@@ -5879,8 +5879,8 @@
       <c r="I58" s="112"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="176"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="164"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
@@ -5900,10 +5900,10 @@
       <c r="I59" s="122"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="142">
@@ -5928,8 +5928,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
-      <c r="B61" s="161"/>
+      <c r="A61" s="175"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="146">
         <v>44439</v>
       </c>
@@ -5949,21 +5949,29 @@
       <c r="I61" s="149"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
-      <c r="B62" s="161"/>
+      <c r="A62" s="175"/>
+      <c r="B62" s="175"/>
       <c r="C62" s="146">
         <v>44440</v>
       </c>
-      <c r="D62" s="147"/>
-      <c r="E62" s="148"/>
+      <c r="D62" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="148" t="s">
+        <v>211</v>
+      </c>
       <c r="F62" s="148"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="147"/>
+      <c r="G62" s="147" t="s">
+        <v>225</v>
+      </c>
+      <c r="H62" s="147">
+        <v>4</v>
+      </c>
       <c r="I62" s="149"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
-      <c r="B63" s="161"/>
+      <c r="A63" s="175"/>
+      <c r="B63" s="175"/>
       <c r="C63" s="146">
         <v>44441</v>
       </c>
@@ -5975,8 +5983,8 @@
       <c r="I63" s="149"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
-      <c r="B64" s="161"/>
+      <c r="A64" s="175"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="146">
         <v>44442</v>
       </c>
@@ -5988,8 +5996,8 @@
       <c r="I64" s="149"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
-      <c r="B65" s="161"/>
+      <c r="A65" s="175"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="146">
         <v>44443</v>
       </c>
@@ -6001,8 +6009,8 @@
       <c r="I65" s="149"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="161"/>
-      <c r="B66" s="162"/>
+      <c r="A66" s="175"/>
+      <c r="B66" s="176"/>
       <c r="C66" s="150">
         <v>44444</v>
       </c>
@@ -6014,8 +6022,8 @@
       <c r="I66" s="153"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
-      <c r="B67" s="163" t="s">
+      <c r="A67" s="175"/>
+      <c r="B67" s="177" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="142">
@@ -6029,8 +6037,8 @@
       <c r="I67" s="145"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="161"/>
+      <c r="A68" s="175"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="146">
         <v>44446</v>
       </c>
@@ -6042,8 +6050,8 @@
       <c r="I68" s="149"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
-      <c r="B69" s="161"/>
+      <c r="A69" s="175"/>
+      <c r="B69" s="175"/>
       <c r="C69" s="146">
         <v>44447</v>
       </c>
@@ -6055,8 +6063,8 @@
       <c r="I69" s="149"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="161"/>
-      <c r="B70" s="161"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="175"/>
       <c r="C70" s="146">
         <v>44448</v>
       </c>
@@ -6068,8 +6076,8 @@
       <c r="I70" s="149"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="161"/>
-      <c r="B71" s="161"/>
+      <c r="A71" s="175"/>
+      <c r="B71" s="175"/>
       <c r="C71" s="146">
         <v>44449</v>
       </c>
@@ -6081,8 +6089,8 @@
       <c r="I71" s="149"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
-      <c r="B72" s="161"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="175"/>
       <c r="C72" s="146">
         <v>44450</v>
       </c>
@@ -6094,8 +6102,8 @@
       <c r="I72" s="149"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="161"/>
-      <c r="B73" s="162"/>
+      <c r="A73" s="175"/>
+      <c r="B73" s="176"/>
       <c r="C73" s="150">
         <v>44451</v>
       </c>
@@ -6107,8 +6115,8 @@
       <c r="I73" s="153"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="161"/>
-      <c r="B74" s="163" t="s">
+      <c r="A74" s="175"/>
+      <c r="B74" s="177" t="s">
         <v>223</v>
       </c>
       <c r="C74" s="142">
@@ -6122,8 +6130,8 @@
       <c r="I74" s="145"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="161"/>
-      <c r="B75" s="161"/>
+      <c r="A75" s="175"/>
+      <c r="B75" s="175"/>
       <c r="C75" s="146">
         <v>44453</v>
       </c>
@@ -6135,8 +6143,8 @@
       <c r="I75" s="149"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="161"/>
-      <c r="B76" s="161"/>
+      <c r="A76" s="175"/>
+      <c r="B76" s="175"/>
       <c r="C76" s="146">
         <v>44454</v>
       </c>
@@ -6148,8 +6156,8 @@
       <c r="I76" s="149"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="161"/>
-      <c r="B77" s="161"/>
+      <c r="A77" s="175"/>
+      <c r="B77" s="175"/>
       <c r="C77" s="146">
         <v>44455</v>
       </c>
@@ -6161,8 +6169,8 @@
       <c r="I77" s="149"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="161"/>
-      <c r="B78" s="161"/>
+      <c r="A78" s="175"/>
+      <c r="B78" s="175"/>
       <c r="C78" s="146">
         <v>44456</v>
       </c>
@@ -6174,8 +6182,8 @@
       <c r="I78" s="149"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="161"/>
-      <c r="B79" s="161"/>
+      <c r="A79" s="175"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="146">
         <v>44457</v>
       </c>
@@ -6187,8 +6195,8 @@
       <c r="I79" s="149"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="161"/>
-      <c r="B80" s="162"/>
+      <c r="A80" s="175"/>
+      <c r="B80" s="176"/>
       <c r="C80" s="150">
         <v>44458</v>
       </c>
@@ -6200,8 +6208,8 @@
       <c r="I80" s="153"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="161"/>
-      <c r="B81" s="163" t="s">
+      <c r="A81" s="175"/>
+      <c r="B81" s="177" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="142">
@@ -6215,8 +6223,8 @@
       <c r="I81" s="145"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="161"/>
-      <c r="B82" s="161"/>
+      <c r="A82" s="175"/>
+      <c r="B82" s="175"/>
       <c r="C82" s="146">
         <v>44460</v>
       </c>
@@ -6228,8 +6236,8 @@
       <c r="I82" s="149"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="161"/>
-      <c r="B83" s="161"/>
+      <c r="A83" s="175"/>
+      <c r="B83" s="175"/>
       <c r="C83" s="146">
         <v>44461</v>
       </c>
@@ -6241,8 +6249,8 @@
       <c r="I83" s="149"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="161"/>
-      <c r="B84" s="161"/>
+      <c r="A84" s="175"/>
+      <c r="B84" s="175"/>
       <c r="C84" s="146">
         <v>44462</v>
       </c>
@@ -6254,8 +6262,8 @@
       <c r="I84" s="149"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="161"/>
-      <c r="B85" s="161"/>
+      <c r="A85" s="175"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="146">
         <v>44463</v>
       </c>
@@ -6267,8 +6275,8 @@
       <c r="I85" s="149"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="161"/>
-      <c r="B86" s="161"/>
+      <c r="A86" s="175"/>
+      <c r="B86" s="175"/>
       <c r="C86" s="146">
         <v>44464</v>
       </c>
@@ -6280,8 +6288,8 @@
       <c r="I86" s="149"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="161"/>
-      <c r="B87" s="162"/>
+      <c r="A87" s="175"/>
+      <c r="B87" s="176"/>
       <c r="C87" s="150">
         <v>44465</v>
       </c>
@@ -6293,8 +6301,8 @@
       <c r="I87" s="153"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="161"/>
-      <c r="B88" s="164" t="s">
+      <c r="A88" s="175"/>
+      <c r="B88" s="178" t="s">
         <v>267</v>
       </c>
       <c r="C88" s="154">
@@ -6308,8 +6316,8 @@
       <c r="I88" s="157"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="161"/>
-      <c r="B89" s="161"/>
+      <c r="A89" s="175"/>
+      <c r="B89" s="175"/>
       <c r="C89" s="146">
         <v>44467</v>
       </c>
@@ -6321,8 +6329,8 @@
       <c r="I89" s="149"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="161"/>
-      <c r="B90" s="161"/>
+      <c r="A90" s="175"/>
+      <c r="B90" s="175"/>
       <c r="C90" s="146">
         <v>44468</v>
       </c>
@@ -6334,8 +6342,8 @@
       <c r="I90" s="149"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="161"/>
-      <c r="B91" s="161"/>
+      <c r="A91" s="175"/>
+      <c r="B91" s="175"/>
       <c r="C91" s="146">
         <v>44469</v>
       </c>
@@ -6347,8 +6355,8 @@
       <c r="I91" s="149"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="161"/>
-      <c r="B92" s="161"/>
+      <c r="A92" s="175"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="146">
         <v>44470</v>
       </c>
@@ -6360,8 +6368,8 @@
       <c r="I92" s="149"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="161"/>
-      <c r="B93" s="161"/>
+      <c r="A93" s="175"/>
+      <c r="B93" s="175"/>
       <c r="C93" s="146">
         <v>44471</v>
       </c>
@@ -6373,8 +6381,8 @@
       <c r="I93" s="149"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="162"/>
-      <c r="B94" s="162"/>
+      <c r="A94" s="176"/>
+      <c r="B94" s="176"/>
       <c r="C94" s="150">
         <v>44472</v>
       </c>
@@ -6387,23 +6395,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
+    <mergeCell ref="A60:A94"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="B88:B94"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A60:A94"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6474,7 +6482,7 @@
       <c r="G2" s="138" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="197">
+      <c r="H2" s="160">
         <v>44435</v>
       </c>
     </row>
@@ -6518,7 +6526,7 @@
       <c r="G4" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="H4" s="197">
+      <c r="H4" s="160">
         <v>44438</v>
       </c>
     </row>
@@ -6544,7 +6552,7 @@
       <c r="G5" s="139" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="198">
+      <c r="H5" s="161">
         <v>44442.604166666664</v>
       </c>
     </row>
@@ -6864,10 +6872,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="190" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -6886,8 +6894,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -6898,8 +6906,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="181"/>
-      <c r="B4" s="186" t="s">
+      <c r="A4" s="187"/>
+      <c r="B4" s="181" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -6918,8 +6926,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="181"/>
-      <c r="B5" s="178"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -6936,9 +6944,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="181"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="189">
+      <c r="A6" s="187"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="179">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6954,9 +6962,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="190"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -6972,8 +6980,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="181"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -6992,8 +7000,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="181"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -7012,8 +7020,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
-      <c r="B10" s="178"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -7024,8 +7032,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
-      <c r="B11" s="179"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -7042,7 +7050,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="181"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="184" t="s">
         <v>83</v>
       </c>
@@ -7058,9 +7066,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="184"/>
-      <c r="C13" s="189">
+      <c r="C13" s="179">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7074,9 +7082,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="190"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="180"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -7088,8 +7096,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
-      <c r="B15" s="178"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -7098,8 +7106,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
-      <c r="B16" s="178"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -7110,8 +7118,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
-      <c r="B17" s="178"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -7122,9 +7130,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="189">
+      <c r="A18" s="187"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="179">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7136,9 +7144,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="190"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7148,8 +7156,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
-      <c r="B20" s="179"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7162,10 +7170,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="181" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7180,8 +7188,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="178"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7194,9 +7202,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="189">
+      <c r="A23" s="187"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="179">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7208,9 +7216,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="190"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="180"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7222,9 +7230,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="189">
+      <c r="A25" s="187"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="179">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7238,9 +7246,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="190"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="180"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -7250,8 +7258,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
-      <c r="B27" s="178"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -7262,8 +7270,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
-      <c r="B28" s="178"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="182"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -7274,8 +7282,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="181"/>
-      <c r="B29" s="179"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -7286,8 +7294,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
-      <c r="B30" s="186" t="s">
+      <c r="A30" s="187"/>
+      <c r="B30" s="181" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -7300,8 +7308,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
-      <c r="B31" s="178"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -7312,8 +7320,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="178"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -7324,8 +7332,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="178"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -7336,8 +7344,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="178"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -7348,8 +7356,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
-      <c r="B35" s="178"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -7360,8 +7368,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="181"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="183"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -7372,8 +7380,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
-      <c r="B37" s="186" t="s">
+      <c r="A37" s="187"/>
+      <c r="B37" s="181" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -7388,8 +7396,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
-      <c r="B38" s="178"/>
+      <c r="A38" s="187"/>
+      <c r="B38" s="182"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -7404,8 +7412,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
-      <c r="B39" s="178"/>
+      <c r="A39" s="187"/>
+      <c r="B39" s="182"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -7420,8 +7428,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
-      <c r="B40" s="178"/>
+      <c r="A40" s="187"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -7436,8 +7444,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
-      <c r="B41" s="178"/>
+      <c r="A41" s="187"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -7452,8 +7460,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
-      <c r="B42" s="178"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -7468,8 +7476,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="181"/>
-      <c r="B43" s="179"/>
+      <c r="A43" s="187"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -7484,7 +7492,7 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
+      <c r="A44" s="187"/>
       <c r="B44" s="184" t="s">
         <v>83</v>
       </c>
@@ -7502,8 +7510,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
-      <c r="B45" s="178"/>
+      <c r="A45" s="187"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -7518,8 +7526,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
-      <c r="B46" s="178"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="182"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -7536,8 +7544,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
-      <c r="B47" s="178"/>
+      <c r="A47" s="187"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -7554,8 +7562,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
-      <c r="B48" s="178"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="182"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -7570,8 +7578,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="181"/>
-      <c r="B49" s="178"/>
+      <c r="A49" s="187"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -7588,8 +7596,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="182"/>
-      <c r="B50" s="179"/>
+      <c r="A50" s="188"/>
+      <c r="B50" s="183"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -7604,10 +7612,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="185" t="s">
+      <c r="B51" s="190" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -7626,8 +7634,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="181"/>
-      <c r="B52" s="178"/>
+      <c r="A52" s="187"/>
+      <c r="B52" s="182"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -7642,9 +7650,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="183">
+      <c r="A53" s="187"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="192">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7658,9 +7666,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="183"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="192"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -7672,8 +7680,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="181"/>
-      <c r="B55" s="178"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -7684,8 +7692,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="181"/>
-      <c r="B56" s="178"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -7698,8 +7706,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="181"/>
-      <c r="B57" s="178"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -7712,8 +7720,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="181"/>
-      <c r="B58" s="179"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -7726,8 +7734,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="181"/>
-      <c r="B59" s="185" t="s">
+      <c r="A59" s="187"/>
+      <c r="B59" s="190" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -7742,8 +7750,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="181"/>
-      <c r="B60" s="178"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -7758,8 +7766,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="181"/>
-      <c r="B61" s="178"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -7774,8 +7782,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="181"/>
-      <c r="B62" s="178"/>
+      <c r="A62" s="187"/>
+      <c r="B62" s="182"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -7790,8 +7798,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="181"/>
-      <c r="B63" s="178"/>
+      <c r="A63" s="187"/>
+      <c r="B63" s="182"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -7802,8 +7810,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="181"/>
-      <c r="B64" s="178"/>
+      <c r="A64" s="187"/>
+      <c r="B64" s="182"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -7814,8 +7822,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="181"/>
-      <c r="B65" s="179"/>
+      <c r="A65" s="187"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -7830,8 +7838,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="181"/>
-      <c r="B66" s="177" t="s">
+      <c r="A66" s="187"/>
+      <c r="B66" s="191" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -7848,8 +7856,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="181"/>
-      <c r="B67" s="178"/>
+      <c r="A67" s="187"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -7864,8 +7872,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="181"/>
-      <c r="B68" s="178"/>
+      <c r="A68" s="187"/>
+      <c r="B68" s="182"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -7878,8 +7886,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="182"/>
-      <c r="B69" s="179"/>
+      <c r="A69" s="188"/>
+      <c r="B69" s="183"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -7891,11 +7899,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -7904,12 +7913,11 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7966,10 +7974,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -7988,8 +7996,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -8006,7 +8014,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="178"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="184" t="s">
         <v>123</v>
       </c>
@@ -8026,8 +8034,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -8044,8 +8052,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -8062,8 +8070,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -8080,8 +8088,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -8098,8 +8106,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -8116,8 +8124,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8134,10 +8142,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="181" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8156,8 +8164,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8168,8 +8176,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="178"/>
-      <c r="B13" s="178"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8180,8 +8188,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
-      <c r="B14" s="178"/>
+      <c r="A14" s="182"/>
+      <c r="B14" s="182"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8196,8 +8204,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="178"/>
-      <c r="B15" s="178"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8214,8 +8222,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8232,8 +8240,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="178"/>
-      <c r="B17" s="179"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -8250,11 +8258,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="178"/>
-      <c r="B18" s="186" t="s">
+      <c r="A18" s="182"/>
+      <c r="B18" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="191">
+      <c r="C18" s="193">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -8270,9 +8278,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="178"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="192"/>
+      <c r="A19" s="182"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -8286,9 +8294,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="178"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="192"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="194"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -8302,8 +8310,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="178"/>
-      <c r="B21" s="178"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -8314,8 +8322,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -8326,8 +8334,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178"/>
+      <c r="A23" s="182"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -8338,8 +8346,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="178"/>
-      <c r="B24" s="178"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -8350,9 +8358,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="178"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="192">
+      <c r="A25" s="182"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="194">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -8368,9 +8376,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="192"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="194"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -8384,8 +8392,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
-      <c r="B27" s="179"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -8402,8 +8410,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="178"/>
-      <c r="B28" s="186" t="s">
+      <c r="A28" s="182"/>
+      <c r="B28" s="181" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -8416,8 +8424,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="178"/>
-      <c r="B29" s="178"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -8434,8 +8442,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -8446,8 +8454,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="178"/>
-      <c r="B31" s="178"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -8464,8 +8472,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="178"/>
-      <c r="B32" s="178"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -8476,8 +8484,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -8494,9 +8502,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="192">
+      <c r="A34" s="182"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="194">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -8512,9 +8520,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="178"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="193"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="195"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -8528,8 +8536,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="178"/>
-      <c r="B36" s="186" t="s">
+      <c r="A36" s="182"/>
+      <c r="B36" s="181" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -8542,8 +8550,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="178"/>
-      <c r="B37" s="178"/>
+      <c r="A37" s="182"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -8554,8 +8562,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="178"/>
-      <c r="B38" s="178"/>
+      <c r="A38" s="182"/>
+      <c r="B38" s="182"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -8566,8 +8574,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="178"/>
+      <c r="A39" s="182"/>
+      <c r="B39" s="182"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -8578,8 +8586,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="178"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -8590,8 +8598,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="178"/>
+      <c r="A41" s="182"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -8608,8 +8616,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="178"/>
-      <c r="B42" s="179"/>
+      <c r="A42" s="182"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -8620,8 +8628,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="178"/>
-      <c r="B43" s="177" t="s">
+      <c r="A43" s="182"/>
+      <c r="B43" s="191" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -8640,8 +8648,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
+      <c r="A44" s="182"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -8658,8 +8666,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
+      <c r="A45" s="182"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -8676,8 +8684,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="178"/>
-      <c r="B46" s="178"/>
+      <c r="A46" s="182"/>
+      <c r="B46" s="182"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -8688,8 +8696,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="178"/>
-      <c r="B47" s="178"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -8700,8 +8708,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="178"/>
-      <c r="B48" s="178"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -8712,8 +8720,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="179"/>
-      <c r="B49" s="179"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -8730,10 +8738,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="186" t="s">
+      <c r="B50" s="181" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -8746,8 +8754,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="178"/>
-      <c r="B51" s="178"/>
+      <c r="A51" s="182"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -8764,8 +8772,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="178"/>
-      <c r="B52" s="178"/>
+      <c r="A52" s="182"/>
+      <c r="B52" s="182"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -8776,8 +8784,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
+      <c r="A53" s="182"/>
+      <c r="B53" s="182"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -8794,8 +8802,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
+      <c r="A54" s="182"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -8806,8 +8814,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
+      <c r="A55" s="182"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -8818,8 +8826,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="178"/>
-      <c r="B56" s="179"/>
+      <c r="A56" s="182"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -8836,8 +8844,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="178"/>
-      <c r="B57" s="186" t="s">
+      <c r="A57" s="182"/>
+      <c r="B57" s="181" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -8856,8 +8864,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="178"/>
-      <c r="B58" s="178"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -8874,8 +8882,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="178"/>
-      <c r="B59" s="178"/>
+      <c r="A59" s="182"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -8892,8 +8900,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
-      <c r="B60" s="178"/>
+      <c r="A60" s="182"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -8910,8 +8918,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="178"/>
-      <c r="B61" s="178"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -8922,8 +8930,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="178"/>
-      <c r="B62" s="178"/>
+      <c r="A62" s="182"/>
+      <c r="B62" s="182"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -8940,8 +8948,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="178"/>
-      <c r="B63" s="179"/>
+      <c r="A63" s="182"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -8958,8 +8966,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="178"/>
-      <c r="B64" s="186" t="s">
+      <c r="A64" s="182"/>
+      <c r="B64" s="181" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -8978,8 +8986,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="178"/>
-      <c r="B65" s="178"/>
+      <c r="A65" s="182"/>
+      <c r="B65" s="182"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -8996,8 +9004,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="178"/>
-      <c r="B66" s="178"/>
+      <c r="A66" s="182"/>
+      <c r="B66" s="182"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -9008,9 +9016,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="178"/>
-      <c r="B67" s="178"/>
-      <c r="C67" s="194">
+      <c r="A67" s="182"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="196">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -9026,9 +9034,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="178"/>
-      <c r="B68" s="178"/>
-      <c r="C68" s="195"/>
+      <c r="A68" s="182"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="197"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -9042,8 +9050,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="178"/>
-      <c r="B69" s="178"/>
+      <c r="A69" s="182"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -9054,8 +9062,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="178"/>
-      <c r="B70" s="178"/>
+      <c r="A70" s="182"/>
+      <c r="B70" s="182"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -9066,8 +9074,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="178"/>
-      <c r="B71" s="179"/>
+      <c r="A71" s="182"/>
+      <c r="B71" s="183"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -9084,8 +9092,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="178"/>
-      <c r="B72" s="177" t="s">
+      <c r="A72" s="182"/>
+      <c r="B72" s="191" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -9104,8 +9112,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="178"/>
-      <c r="B73" s="178"/>
+      <c r="A73" s="182"/>
+      <c r="B73" s="182"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -9116,8 +9124,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="179"/>
-      <c r="B74" s="179"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="183"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -9135,6 +9143,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -9146,13 +9161,6 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625D4C89-1713-4867-B6AB-C9164FBA99D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8755A6-5029-4B9C-A3E1-22A8DB219D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="283">
   <si>
     <t>JVM</t>
   </si>
@@ -3106,25 +3106,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跨进好运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>符明超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跨进电商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猎头联系</t>
   </si>
   <si>
-    <t>猎头联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯 TEG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3192,18 +3180,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跨进电商</t>
-  </si>
-  <si>
-    <t>HR 投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术总监 投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面评影响，简历不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨境电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨境好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR 简历刷掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3437,7 +3430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3661,7 +3654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4130,27 +4123,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="19" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4168,61 +4154,67 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4242,6 +4234,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4526,8 +4524,8 @@
   <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,7 +4575,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="167" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -4594,8 +4592,8 @@
       <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="173" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -4611,8 +4609,8 @@
       <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="125">
         <v>44383</v>
       </c>
@@ -4626,8 +4624,8 @@
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="125">
         <v>44384</v>
       </c>
@@ -4641,8 +4639,8 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="125">
         <v>44385</v>
       </c>
@@ -4660,8 +4658,8 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="171"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="125">
         <v>44386</v>
       </c>
@@ -4677,9 +4675,9 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="169">
+      <c r="A8" s="168"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="166">
         <v>44387</v>
       </c>
       <c r="D8" s="127" t="s">
@@ -4698,9 +4696,9 @@
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="166"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4717,8 +4715,8 @@
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171"/>
-      <c r="B10" s="172"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -4738,8 +4736,8 @@
       <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="171"/>
-      <c r="B11" s="173" t="s">
+      <c r="A11" s="168"/>
+      <c r="B11" s="170" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -4764,8 +4762,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="171"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="168"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="125">
         <v>44390</v>
       </c>
@@ -4788,8 +4786,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="171"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="125">
         <v>44391</v>
       </c>
@@ -4812,8 +4810,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="171"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="125">
         <v>44392</v>
       </c>
@@ -4836,8 +4834,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="125">
         <v>44393</v>
       </c>
@@ -4852,8 +4850,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="125">
         <v>44394</v>
       </c>
@@ -4873,8 +4871,8 @@
       <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -4894,8 +4892,8 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="171"/>
-      <c r="B18" s="173" t="s">
+      <c r="A18" s="168"/>
+      <c r="B18" s="170" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -4920,8 +4918,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="171"/>
-      <c r="B19" s="171"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="125">
         <v>44397</v>
       </c>
@@ -4948,8 +4946,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
-      <c r="B20" s="171"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="125">
         <v>44398</v>
       </c>
@@ -4976,8 +4974,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="125">
         <v>44399</v>
       </c>
@@ -5004,8 +5002,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
-      <c r="B22" s="171"/>
+      <c r="A22" s="168"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="125">
         <v>44400</v>
       </c>
@@ -5020,8 +5018,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="171"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="125">
         <v>44401</v>
       </c>
@@ -5058,8 +5056,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
@@ -5084,8 +5082,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="171"/>
-      <c r="B25" s="173" t="s">
+      <c r="A25" s="168"/>
+      <c r="B25" s="170" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
@@ -5111,8 +5109,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="125">
         <v>44404</v>
       </c>
@@ -5137,8 +5135,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="125">
         <v>44405</v>
       </c>
@@ -5161,8 +5159,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="125">
         <v>44406</v>
       </c>
@@ -5189,8 +5187,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="168"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="125">
         <v>44407</v>
       </c>
@@ -5215,8 +5213,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="171"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="125">
         <v>44408</v>
       </c>
@@ -5241,8 +5239,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
-      <c r="B31" s="172"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
@@ -5269,10 +5267,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
@@ -5303,8 +5301,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="167"/>
-      <c r="B33" s="163"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
@@ -5330,8 +5328,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="167"/>
-      <c r="B34" s="163"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
@@ -5359,8 +5357,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="167"/>
-      <c r="B35" s="163"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
@@ -5384,8 +5382,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="167"/>
-      <c r="B36" s="163"/>
+      <c r="A36" s="176"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
@@ -5403,8 +5401,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="167"/>
-      <c r="B37" s="163"/>
+      <c r="A37" s="176"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
@@ -5428,8 +5426,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="167"/>
-      <c r="B38" s="164"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -5453,8 +5451,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="167"/>
-      <c r="B39" s="162" t="s">
+      <c r="A39" s="176"/>
+      <c r="B39" s="171" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
@@ -5480,8 +5478,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="167"/>
-      <c r="B40" s="163"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
@@ -5505,8 +5503,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="167"/>
-      <c r="B41" s="163"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -5529,8 +5527,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="167"/>
-      <c r="B42" s="163"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
@@ -5553,8 +5551,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="167"/>
-      <c r="B43" s="163"/>
+      <c r="A43" s="176"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
@@ -5571,8 +5569,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="167"/>
-      <c r="B44" s="163"/>
+      <c r="A44" s="176"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
@@ -5595,8 +5593,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="167"/>
-      <c r="B45" s="164"/>
+      <c r="A45" s="176"/>
+      <c r="B45" s="173"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
@@ -5621,8 +5619,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="167"/>
-      <c r="B46" s="162" t="s">
+      <c r="A46" s="176"/>
+      <c r="B46" s="171" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
@@ -5649,8 +5647,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="167"/>
-      <c r="B47" s="163"/>
+      <c r="A47" s="176"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
@@ -5670,8 +5668,8 @@
       <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="167"/>
-      <c r="B48" s="163"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="172"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
@@ -5685,8 +5683,8 @@
       <c r="I48" s="112"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="167"/>
-      <c r="B49" s="163"/>
+      <c r="A49" s="176"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
@@ -5702,8 +5700,8 @@
       <c r="I49" s="112"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="167"/>
-      <c r="B50" s="163"/>
+      <c r="A50" s="176"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
@@ -5717,8 +5715,8 @@
       <c r="I50" s="112"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="167"/>
-      <c r="B51" s="163"/>
+      <c r="A51" s="176"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
@@ -5732,8 +5730,8 @@
       <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="167"/>
-      <c r="B52" s="164"/>
+      <c r="A52" s="176"/>
+      <c r="B52" s="173"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
@@ -5753,8 +5751,8 @@
       <c r="I52" s="122"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="167"/>
-      <c r="B53" s="165" t="s">
+      <c r="A53" s="176"/>
+      <c r="B53" s="174" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
@@ -5774,8 +5772,8 @@
       <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="167"/>
-      <c r="B54" s="163"/>
+      <c r="A54" s="176"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
@@ -5795,8 +5793,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="167"/>
-      <c r="B55" s="163"/>
+      <c r="A55" s="176"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
@@ -5814,8 +5812,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="167"/>
-      <c r="B56" s="163"/>
+      <c r="A56" s="176"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
@@ -5837,8 +5835,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="167"/>
-      <c r="B57" s="163"/>
+      <c r="A57" s="176"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
@@ -5858,8 +5856,8 @@
       <c r="I57" s="112"/>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="167"/>
-      <c r="B58" s="163"/>
+      <c r="A58" s="176"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
@@ -5879,8 +5877,8 @@
       <c r="I58" s="112"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="168"/>
-      <c r="B59" s="164"/>
+      <c r="A59" s="177"/>
+      <c r="B59" s="173"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
@@ -5892,7 +5890,7 @@
       </c>
       <c r="F59" s="121"/>
       <c r="G59" s="141" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H59" s="134">
         <v>9</v>
@@ -5900,36 +5898,36 @@
       <c r="I59" s="122"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="174" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="177" t="s">
+      <c r="A60" s="161" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="142">
         <v>44438</v>
       </c>
       <c r="D60" s="143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E60" s="144" t="s">
         <v>211</v>
       </c>
       <c r="F60" s="144"/>
       <c r="G60" s="143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H60" s="143">
         <v>5</v>
       </c>
       <c r="I60" s="145"/>
       <c r="J60" s="37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="175"/>
-      <c r="B61" s="175"/>
+      <c r="A61" s="162"/>
+      <c r="B61" s="162"/>
       <c r="C61" s="146">
         <v>44439</v>
       </c>
@@ -5941,7 +5939,7 @@
       </c>
       <c r="F61" s="148"/>
       <c r="G61" s="147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H61" s="147">
         <v>5</v>
@@ -5949,8 +5947,8 @@
       <c r="I61" s="149"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="175"/>
-      <c r="B62" s="175"/>
+      <c r="A62" s="162"/>
+      <c r="B62" s="162"/>
       <c r="C62" s="146">
         <v>44440</v>
       </c>
@@ -5970,21 +5968,27 @@
       <c r="I62" s="149"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="175"/>
-      <c r="B63" s="175"/>
+      <c r="A63" s="162"/>
+      <c r="B63" s="162"/>
       <c r="C63" s="146">
         <v>44441</v>
       </c>
-      <c r="D63" s="147"/>
+      <c r="D63" s="201" t="s">
+        <v>282</v>
+      </c>
       <c r="E63" s="148"/>
       <c r="F63" s="148"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
+      <c r="G63" s="147" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="147">
+        <v>3</v>
+      </c>
       <c r="I63" s="149"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="175"/>
-      <c r="B64" s="175"/>
+      <c r="A64" s="162"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="146">
         <v>44442</v>
       </c>
@@ -5996,8 +6000,8 @@
       <c r="I64" s="149"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="175"/>
-      <c r="B65" s="175"/>
+      <c r="A65" s="162"/>
+      <c r="B65" s="162"/>
       <c r="C65" s="146">
         <v>44443</v>
       </c>
@@ -6009,8 +6013,8 @@
       <c r="I65" s="149"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="175"/>
-      <c r="B66" s="176"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="150">
         <v>44444</v>
       </c>
@@ -6022,8 +6026,8 @@
       <c r="I66" s="153"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="175"/>
-      <c r="B67" s="177" t="s">
+      <c r="A67" s="162"/>
+      <c r="B67" s="164" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="142">
@@ -6037,8 +6041,8 @@
       <c r="I67" s="145"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="175"/>
-      <c r="B68" s="175"/>
+      <c r="A68" s="162"/>
+      <c r="B68" s="162"/>
       <c r="C68" s="146">
         <v>44446</v>
       </c>
@@ -6050,8 +6054,8 @@
       <c r="I68" s="149"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="175"/>
-      <c r="B69" s="175"/>
+      <c r="A69" s="162"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="146">
         <v>44447</v>
       </c>
@@ -6063,8 +6067,8 @@
       <c r="I69" s="149"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="175"/>
-      <c r="B70" s="175"/>
+      <c r="A70" s="162"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="146">
         <v>44448</v>
       </c>
@@ -6076,8 +6080,8 @@
       <c r="I70" s="149"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="175"/>
-      <c r="B71" s="175"/>
+      <c r="A71" s="162"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="146">
         <v>44449</v>
       </c>
@@ -6089,8 +6093,8 @@
       <c r="I71" s="149"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="175"/>
-      <c r="B72" s="175"/>
+      <c r="A72" s="162"/>
+      <c r="B72" s="162"/>
       <c r="C72" s="146">
         <v>44450</v>
       </c>
@@ -6102,8 +6106,8 @@
       <c r="I72" s="149"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="175"/>
-      <c r="B73" s="176"/>
+      <c r="A73" s="162"/>
+      <c r="B73" s="163"/>
       <c r="C73" s="150">
         <v>44451</v>
       </c>
@@ -6115,8 +6119,8 @@
       <c r="I73" s="153"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="175"/>
-      <c r="B74" s="177" t="s">
+      <c r="A74" s="162"/>
+      <c r="B74" s="164" t="s">
         <v>223</v>
       </c>
       <c r="C74" s="142">
@@ -6130,8 +6134,8 @@
       <c r="I74" s="145"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="175"/>
-      <c r="B75" s="175"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="162"/>
       <c r="C75" s="146">
         <v>44453</v>
       </c>
@@ -6143,8 +6147,8 @@
       <c r="I75" s="149"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="175"/>
-      <c r="B76" s="175"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="162"/>
       <c r="C76" s="146">
         <v>44454</v>
       </c>
@@ -6156,8 +6160,8 @@
       <c r="I76" s="149"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="175"/>
-      <c r="B77" s="175"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="162"/>
       <c r="C77" s="146">
         <v>44455</v>
       </c>
@@ -6169,8 +6173,8 @@
       <c r="I77" s="149"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="175"/>
-      <c r="B78" s="175"/>
+      <c r="A78" s="162"/>
+      <c r="B78" s="162"/>
       <c r="C78" s="146">
         <v>44456</v>
       </c>
@@ -6182,8 +6186,8 @@
       <c r="I78" s="149"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="175"/>
-      <c r="B79" s="175"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="162"/>
       <c r="C79" s="146">
         <v>44457</v>
       </c>
@@ -6195,8 +6199,8 @@
       <c r="I79" s="149"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="175"/>
-      <c r="B80" s="176"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="163"/>
       <c r="C80" s="150">
         <v>44458</v>
       </c>
@@ -6208,8 +6212,8 @@
       <c r="I80" s="153"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="175"/>
-      <c r="B81" s="177" t="s">
+      <c r="A81" s="162"/>
+      <c r="B81" s="164" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="142">
@@ -6223,8 +6227,8 @@
       <c r="I81" s="145"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="175"/>
-      <c r="B82" s="175"/>
+      <c r="A82" s="162"/>
+      <c r="B82" s="162"/>
       <c r="C82" s="146">
         <v>44460</v>
       </c>
@@ -6236,8 +6240,8 @@
       <c r="I82" s="149"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="175"/>
-      <c r="B83" s="175"/>
+      <c r="A83" s="162"/>
+      <c r="B83" s="162"/>
       <c r="C83" s="146">
         <v>44461</v>
       </c>
@@ -6249,8 +6253,8 @@
       <c r="I83" s="149"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="175"/>
-      <c r="B84" s="175"/>
+      <c r="A84" s="162"/>
+      <c r="B84" s="162"/>
       <c r="C84" s="146">
         <v>44462</v>
       </c>
@@ -6262,8 +6266,8 @@
       <c r="I84" s="149"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="175"/>
-      <c r="B85" s="175"/>
+      <c r="A85" s="162"/>
+      <c r="B85" s="162"/>
       <c r="C85" s="146">
         <v>44463</v>
       </c>
@@ -6275,8 +6279,8 @@
       <c r="I85" s="149"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="175"/>
-      <c r="B86" s="175"/>
+      <c r="A86" s="162"/>
+      <c r="B86" s="162"/>
       <c r="C86" s="146">
         <v>44464</v>
       </c>
@@ -6288,8 +6292,8 @@
       <c r="I86" s="149"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="175"/>
-      <c r="B87" s="176"/>
+      <c r="A87" s="162"/>
+      <c r="B87" s="163"/>
       <c r="C87" s="150">
         <v>44465</v>
       </c>
@@ -6301,9 +6305,9 @@
       <c r="I87" s="153"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="175"/>
-      <c r="B88" s="178" t="s">
-        <v>267</v>
+      <c r="A88" s="162"/>
+      <c r="B88" s="165" t="s">
+        <v>264</v>
       </c>
       <c r="C88" s="154">
         <v>44466</v>
@@ -6316,8 +6320,8 @@
       <c r="I88" s="157"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="175"/>
-      <c r="B89" s="175"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="162"/>
       <c r="C89" s="146">
         <v>44467</v>
       </c>
@@ -6329,8 +6333,8 @@
       <c r="I89" s="149"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="175"/>
-      <c r="B90" s="175"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="162"/>
       <c r="C90" s="146">
         <v>44468</v>
       </c>
@@ -6342,8 +6346,8 @@
       <c r="I90" s="149"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="175"/>
-      <c r="B91" s="175"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="162"/>
       <c r="C91" s="146">
         <v>44469</v>
       </c>
@@ -6355,8 +6359,8 @@
       <c r="I91" s="149"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="175"/>
-      <c r="B92" s="175"/>
+      <c r="A92" s="162"/>
+      <c r="B92" s="162"/>
       <c r="C92" s="146">
         <v>44470</v>
       </c>
@@ -6368,8 +6372,8 @@
       <c r="I92" s="149"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="175"/>
-      <c r="B93" s="175"/>
+      <c r="A93" s="162"/>
+      <c r="B93" s="162"/>
       <c r="C93" s="146">
         <v>44471</v>
       </c>
@@ -6381,8 +6385,8 @@
       <c r="I93" s="149"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="176"/>
-      <c r="B94" s="176"/>
+      <c r="A94" s="163"/>
+      <c r="B94" s="163"/>
       <c r="C94" s="150">
         <v>44472</v>
       </c>
@@ -6395,23 +6399,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
     <mergeCell ref="A60:A94"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6425,7 +6429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6440,7 +6444,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B1" s="140" t="s">
         <v>249</v>
@@ -6449,7 +6453,7 @@
         <v>250</v>
       </c>
       <c r="D1" s="140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E1" s="140" t="s">
         <v>251</v>
@@ -6461,7 +6465,7 @@
         <v>257</v>
       </c>
       <c r="H1" s="158" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6469,20 +6473,20 @@
         <v>44435</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="138"/>
       <c r="E2" s="138" t="s">
         <v>256</v>
       </c>
       <c r="F2" s="138"/>
-      <c r="G2" s="138" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="160">
+      <c r="G2" s="199" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="200">
         <v>44435</v>
       </c>
     </row>
@@ -6491,10 +6495,10 @@
         <v>44435</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="138"/>
       <c r="E3" s="138" t="s">
@@ -6502,7 +6506,7 @@
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H3" s="138"/>
     </row>
@@ -6523,10 +6527,10 @@
       <c r="F4" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="139" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" s="160">
+      <c r="G4" s="199" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="200">
         <v>44438</v>
       </c>
     </row>
@@ -6535,13 +6539,13 @@
         <v>44436</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D5" s="138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E5" s="138" t="s">
         <v>256</v>
@@ -6550,9 +6554,9 @@
         <v>255</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>272</v>
-      </c>
-      <c r="H5" s="161">
+        <v>269</v>
+      </c>
+      <c r="H5" s="160">
         <v>44442.604166666664</v>
       </c>
     </row>
@@ -6561,38 +6565,40 @@
         <v>44437</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>259</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>260</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
       <c r="F6" s="138" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G6" s="138" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="138"/>
+        <v>269</v>
+      </c>
+      <c r="H6" s="198">
+        <v>44442.791666666664</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="137">
         <v>44439</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
       <c r="F7" s="138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" s="138" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H7" s="138"/>
     </row>
@@ -6819,6 +6825,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6872,10 +6879,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="186" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -6894,8 +6901,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -6906,8 +6913,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="187"/>
-      <c r="B4" s="181" t="s">
+      <c r="A4" s="182"/>
+      <c r="B4" s="187" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -6926,8 +6933,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="187"/>
-      <c r="B5" s="182"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -6944,9 +6951,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="187"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="179">
+      <c r="A6" s="182"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="190">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6962,9 +6969,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="187"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="180"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -6980,8 +6987,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="182"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -7000,8 +7007,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
-      <c r="B9" s="182"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -7020,8 +7027,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="182"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -7032,8 +7039,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
-      <c r="B11" s="183"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -7050,8 +7057,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
-      <c r="B12" s="184" t="s">
+      <c r="A12" s="182"/>
+      <c r="B12" s="185" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -7066,9 +7073,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="187"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="179">
+      <c r="A13" s="182"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="190">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7082,9 +7089,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="180"/>
+      <c r="A14" s="182"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -7096,8 +7103,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -7106,8 +7113,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="187"/>
-      <c r="B16" s="182"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -7118,8 +7125,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="187"/>
-      <c r="B17" s="182"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -7130,9 +7137,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
-      <c r="B18" s="182"/>
-      <c r="C18" s="179">
+      <c r="A18" s="182"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="190">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7145,8 +7152,8 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="189"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7156,8 +7163,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
-      <c r="B20" s="183"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7170,10 +7177,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7188,8 +7195,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
-      <c r="B22" s="182"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7202,9 +7209,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="187"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="179">
+      <c r="A23" s="182"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="190">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7216,9 +7223,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="180"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7230,9 +7237,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="187"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="179">
+      <c r="A25" s="182"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="190">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7246,9 +7253,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="187"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="180"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -7258,8 +7265,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="187"/>
-      <c r="B27" s="182"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -7270,8 +7277,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="187"/>
-      <c r="B28" s="182"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -7282,8 +7289,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="187"/>
-      <c r="B29" s="183"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -7294,8 +7301,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="187"/>
-      <c r="B30" s="181" t="s">
+      <c r="A30" s="182"/>
+      <c r="B30" s="187" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -7308,8 +7315,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="187"/>
-      <c r="B31" s="182"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -7320,8 +7327,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="187"/>
-      <c r="B32" s="182"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -7332,8 +7339,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
-      <c r="B33" s="182"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -7344,8 +7351,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
-      <c r="B34" s="182"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -7356,8 +7363,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
-      <c r="B35" s="182"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -7368,8 +7375,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
-      <c r="B36" s="183"/>
+      <c r="A36" s="182"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -7380,8 +7387,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="187"/>
-      <c r="B37" s="181" t="s">
+      <c r="A37" s="182"/>
+      <c r="B37" s="187" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -7396,8 +7403,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="187"/>
-      <c r="B38" s="182"/>
+      <c r="A38" s="182"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -7412,8 +7419,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="187"/>
-      <c r="B39" s="182"/>
+      <c r="A39" s="182"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -7428,8 +7435,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="187"/>
-      <c r="B40" s="182"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -7444,8 +7451,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="187"/>
-      <c r="B41" s="182"/>
+      <c r="A41" s="182"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -7460,8 +7467,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="187"/>
-      <c r="B42" s="182"/>
+      <c r="A42" s="182"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -7476,8 +7483,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="187"/>
-      <c r="B43" s="183"/>
+      <c r="A43" s="182"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -7492,8 +7499,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="187"/>
-      <c r="B44" s="184" t="s">
+      <c r="A44" s="182"/>
+      <c r="B44" s="185" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -7510,8 +7517,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="187"/>
-      <c r="B45" s="182"/>
+      <c r="A45" s="182"/>
+      <c r="B45" s="179"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -7526,8 +7533,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="187"/>
-      <c r="B46" s="182"/>
+      <c r="A46" s="182"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -7544,8 +7551,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="187"/>
-      <c r="B47" s="182"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="179"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -7562,8 +7569,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="187"/>
-      <c r="B48" s="182"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="179"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -7578,8 +7585,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="187"/>
-      <c r="B49" s="182"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -7596,8 +7603,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="188"/>
-      <c r="B50" s="183"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -7612,10 +7619,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="186" t="s">
+      <c r="A51" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="190" t="s">
+      <c r="B51" s="186" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -7634,8 +7641,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="187"/>
-      <c r="B52" s="182"/>
+      <c r="A52" s="182"/>
+      <c r="B52" s="179"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -7650,9 +7657,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="187"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="192">
+      <c r="A53" s="182"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="184">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7666,9 +7673,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="187"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="192"/>
+      <c r="A54" s="182"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="184"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -7680,8 +7687,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="187"/>
-      <c r="B55" s="182"/>
+      <c r="A55" s="182"/>
+      <c r="B55" s="179"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -7692,8 +7699,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="187"/>
-      <c r="B56" s="182"/>
+      <c r="A56" s="182"/>
+      <c r="B56" s="179"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -7706,8 +7713,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="187"/>
-      <c r="B57" s="182"/>
+      <c r="A57" s="182"/>
+      <c r="B57" s="179"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -7720,8 +7727,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="187"/>
-      <c r="B58" s="183"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="180"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -7734,8 +7741,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="187"/>
-      <c r="B59" s="190" t="s">
+      <c r="A59" s="182"/>
+      <c r="B59" s="186" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -7750,8 +7757,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="187"/>
-      <c r="B60" s="182"/>
+      <c r="A60" s="182"/>
+      <c r="B60" s="179"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -7766,8 +7773,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="187"/>
-      <c r="B61" s="182"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="179"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -7782,8 +7789,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="187"/>
-      <c r="B62" s="182"/>
+      <c r="A62" s="182"/>
+      <c r="B62" s="179"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -7798,8 +7805,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="187"/>
-      <c r="B63" s="182"/>
+      <c r="A63" s="182"/>
+      <c r="B63" s="179"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -7810,8 +7817,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="187"/>
-      <c r="B64" s="182"/>
+      <c r="A64" s="182"/>
+      <c r="B64" s="179"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -7822,8 +7829,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="187"/>
-      <c r="B65" s="183"/>
+      <c r="A65" s="182"/>
+      <c r="B65" s="180"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -7838,8 +7845,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="187"/>
-      <c r="B66" s="191" t="s">
+      <c r="A66" s="182"/>
+      <c r="B66" s="178" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -7856,8 +7863,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="187"/>
-      <c r="B67" s="182"/>
+      <c r="A67" s="182"/>
+      <c r="B67" s="179"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -7872,8 +7879,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="187"/>
-      <c r="B68" s="182"/>
+      <c r="A68" s="182"/>
+      <c r="B68" s="179"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -7886,8 +7893,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="188"/>
-      <c r="B69" s="183"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="180"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -7899,12 +7906,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -7913,11 +7919,12 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7974,10 +7981,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -7996,8 +8003,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -8014,8 +8021,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="182"/>
-      <c r="B4" s="184" t="s">
+      <c r="A4" s="179"/>
+      <c r="B4" s="185" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -8034,8 +8041,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -8052,8 +8059,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -8070,8 +8077,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="182"/>
-      <c r="B7" s="182"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -8088,8 +8095,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
-      <c r="B8" s="182"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -8106,8 +8113,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="182"/>
-      <c r="B9" s="182"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -8124,8 +8131,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="183"/>
-      <c r="B10" s="183"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8142,10 +8149,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="187" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8164,8 +8171,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
-      <c r="B12" s="182"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8176,8 +8183,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
-      <c r="B13" s="182"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8188,8 +8195,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="182"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8204,8 +8211,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8222,8 +8229,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="182"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8240,8 +8247,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
-      <c r="B17" s="183"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -8258,11 +8265,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
-      <c r="B18" s="181" t="s">
+      <c r="A18" s="179"/>
+      <c r="B18" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="192">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -8278,9 +8285,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="194"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -8294,9 +8301,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="194"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="193"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -8310,8 +8317,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
-      <c r="B21" s="182"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -8322,8 +8329,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
-      <c r="B22" s="182"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -8334,8 +8341,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
-      <c r="B23" s="182"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -8346,8 +8353,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
-      <c r="B24" s="182"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -8358,9 +8365,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="194">
+      <c r="A25" s="179"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="193">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -8376,9 +8383,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="194"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="193"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -8392,8 +8399,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
-      <c r="B27" s="183"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -8410,8 +8417,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
-      <c r="B28" s="181" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="187" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -8424,8 +8431,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="182"/>
-      <c r="B29" s="182"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -8442,8 +8449,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
-      <c r="B30" s="182"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -8454,8 +8461,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -8472,8 +8479,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
-      <c r="B32" s="182"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -8484,8 +8491,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="182"/>
-      <c r="B33" s="182"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -8502,9 +8509,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="182"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="194">
+      <c r="A34" s="179"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="193">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -8520,9 +8527,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="195"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="194"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -8536,8 +8543,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="182"/>
-      <c r="B36" s="181" t="s">
+      <c r="A36" s="179"/>
+      <c r="B36" s="187" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -8550,8 +8557,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
-      <c r="B37" s="182"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -8562,8 +8569,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="182"/>
-      <c r="B38" s="182"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -8574,8 +8581,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
-      <c r="B39" s="182"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -8586,8 +8593,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -8598,8 +8605,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
-      <c r="B41" s="182"/>
+      <c r="A41" s="179"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -8616,8 +8623,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="182"/>
-      <c r="B42" s="183"/>
+      <c r="A42" s="179"/>
+      <c r="B42" s="180"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -8628,8 +8635,8 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
-      <c r="B43" s="191" t="s">
+      <c r="A43" s="179"/>
+      <c r="B43" s="178" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -8648,8 +8655,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="182"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -8666,8 +8673,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="182"/>
+      <c r="A45" s="179"/>
+      <c r="B45" s="179"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -8684,8 +8691,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
-      <c r="B46" s="182"/>
+      <c r="A46" s="179"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -8696,8 +8703,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
+      <c r="A47" s="179"/>
+      <c r="B47" s="179"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -8708,8 +8715,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="179"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -8720,8 +8727,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
-      <c r="B49" s="183"/>
+      <c r="A49" s="180"/>
+      <c r="B49" s="180"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -8738,10 +8745,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="190" t="s">
+      <c r="A50" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="187" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -8754,8 +8761,8 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="182"/>
-      <c r="B51" s="182"/>
+      <c r="A51" s="179"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -8772,8 +8779,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="182"/>
-      <c r="B52" s="182"/>
+      <c r="A52" s="179"/>
+      <c r="B52" s="179"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -8784,8 +8791,8 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="182"/>
-      <c r="B53" s="182"/>
+      <c r="A53" s="179"/>
+      <c r="B53" s="179"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -8802,8 +8809,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="182"/>
-      <c r="B54" s="182"/>
+      <c r="A54" s="179"/>
+      <c r="B54" s="179"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -8814,8 +8821,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="182"/>
-      <c r="B55" s="182"/>
+      <c r="A55" s="179"/>
+      <c r="B55" s="179"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -8826,8 +8833,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="182"/>
-      <c r="B56" s="183"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -8844,8 +8851,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="182"/>
-      <c r="B57" s="181" t="s">
+      <c r="A57" s="179"/>
+      <c r="B57" s="187" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -8864,8 +8871,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="182"/>
-      <c r="B58" s="182"/>
+      <c r="A58" s="179"/>
+      <c r="B58" s="179"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -8882,8 +8889,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="182"/>
-      <c r="B59" s="182"/>
+      <c r="A59" s="179"/>
+      <c r="B59" s="179"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -8900,8 +8907,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="182"/>
-      <c r="B60" s="182"/>
+      <c r="A60" s="179"/>
+      <c r="B60" s="179"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -8918,8 +8925,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="182"/>
-      <c r="B61" s="182"/>
+      <c r="A61" s="179"/>
+      <c r="B61" s="179"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -8930,8 +8937,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="182"/>
-      <c r="B62" s="182"/>
+      <c r="A62" s="179"/>
+      <c r="B62" s="179"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -8948,8 +8955,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="182"/>
-      <c r="B63" s="183"/>
+      <c r="A63" s="179"/>
+      <c r="B63" s="180"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -8966,8 +8973,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="182"/>
-      <c r="B64" s="181" t="s">
+      <c r="A64" s="179"/>
+      <c r="B64" s="187" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -8986,8 +8993,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="182"/>
-      <c r="B65" s="182"/>
+      <c r="A65" s="179"/>
+      <c r="B65" s="179"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -9004,8 +9011,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="182"/>
-      <c r="B66" s="182"/>
+      <c r="A66" s="179"/>
+      <c r="B66" s="179"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -9016,9 +9023,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="182"/>
-      <c r="B67" s="182"/>
-      <c r="C67" s="196">
+      <c r="A67" s="179"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="195">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -9034,9 +9041,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="182"/>
-      <c r="B68" s="182"/>
-      <c r="C68" s="197"/>
+      <c r="A68" s="179"/>
+      <c r="B68" s="179"/>
+      <c r="C68" s="196"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -9050,8 +9057,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="182"/>
-      <c r="B69" s="182"/>
+      <c r="A69" s="179"/>
+      <c r="B69" s="179"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -9062,8 +9069,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="182"/>
-      <c r="B70" s="182"/>
+      <c r="A70" s="179"/>
+      <c r="B70" s="179"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -9074,8 +9081,8 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="182"/>
-      <c r="B71" s="183"/>
+      <c r="A71" s="179"/>
+      <c r="B71" s="180"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -9092,8 +9099,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="182"/>
-      <c r="B72" s="191" t="s">
+      <c r="A72" s="179"/>
+      <c r="B72" s="178" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -9112,8 +9119,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="182"/>
-      <c r="B73" s="182"/>
+      <c r="A73" s="179"/>
+      <c r="B73" s="179"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -9124,8 +9131,8 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="183"/>
-      <c r="B74" s="183"/>
+      <c r="A74" s="180"/>
+      <c r="B74" s="180"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -9143,13 +9150,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A49"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C25:C26"/>
@@ -9161,6 +9161,13 @@
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A74"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10829"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelius/Documents/WorkSpace/inotebook/career/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8755A6-5029-4B9C-A3E1-22A8DB219D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575C383-DF9A-524A-BB9B-390D8C990646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="291">
   <si>
     <t>JVM</t>
   </si>
@@ -3160,10 +3160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/车公庙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3197,6 +3193,46 @@
   </si>
   <si>
     <t>速记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis / MysSQL 系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究院/车公庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务研发/科技园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务、底层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术面、HR 面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 三种缓存异常
+2. Spring run 做了哪些事
+3. Kafka 如何实现有序
+4. MySQL 索引有效性
+5. 事务隔离级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3207,7 +3243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3418,12 +3454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3431,6 +3461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3654,7 +3690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4062,81 +4098,75 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4235,10 +4265,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="19" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4247,6 +4285,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC5EF6E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4523,29 +4566,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="38" customWidth="1"/>
     <col min="6" max="6" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16" thickBot="1">
       <c r="A1" s="68" t="s">
         <v>121</v>
       </c>
@@ -4574,8 +4617,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:12" ht="16" thickBot="1">
+      <c r="A2" s="165" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -4591,9 +4634,9 @@
       <c r="H2" s="81"/>
       <c r="I2" s="99"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="168"/>
-      <c r="B3" s="170" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="166"/>
+      <c r="B3" s="168" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -4608,9 +4651,9 @@
       <c r="H3" s="126"/>
       <c r="I3" s="100"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="168"/>
-      <c r="B4" s="168"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="125">
         <v>44383</v>
       </c>
@@ -4623,9 +4666,9 @@
       <c r="H4" s="127"/>
       <c r="I4" s="101"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="125">
         <v>44384</v>
       </c>
@@ -4638,9 +4681,9 @@
       <c r="H5" s="127"/>
       <c r="I5" s="101"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="125">
         <v>44385</v>
       </c>
@@ -4657,9 +4700,9 @@
       </c>
       <c r="I6" s="101"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
-      <c r="B7" s="168"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="125">
         <v>44386</v>
       </c>
@@ -4674,10 +4717,10 @@
       <c r="H7" s="127"/>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="166">
+    <row r="8" spans="1:12">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="164">
         <v>44387</v>
       </c>
       <c r="D8" s="127" t="s">
@@ -4695,10 +4738,10 @@
       </c>
       <c r="I8" s="101"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="166"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4714,9 +4757,9 @@
       </c>
       <c r="I9" s="101"/>
     </row>
-    <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
-      <c r="B10" s="169"/>
+    <row r="10" spans="1:12" ht="49" thickBot="1">
+      <c r="A10" s="166"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -4735,9 +4778,9 @@
       </c>
       <c r="I10" s="102"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
-      <c r="B11" s="170" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="166"/>
+      <c r="B11" s="168" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -4761,9 +4804,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="168"/>
-      <c r="B12" s="168"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="125">
         <v>44390</v>
       </c>
@@ -4785,9 +4828,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
-      <c r="B13" s="168"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="125">
         <v>44391</v>
       </c>
@@ -4809,9 +4852,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="168"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="125">
         <v>44392</v>
       </c>
@@ -4833,9 +4876,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
-      <c r="B15" s="168"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="166"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="125">
         <v>44393</v>
       </c>
@@ -4849,9 +4892,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="168"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="125">
         <v>44394</v>
       </c>
@@ -4870,9 +4913,9 @@
       </c>
       <c r="I16" s="101"/>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
-      <c r="B17" s="169"/>
+    <row r="17" spans="1:19" ht="16" thickBot="1">
+      <c r="A17" s="166"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -4891,9 +4934,9 @@
       </c>
       <c r="I17" s="102"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="168"/>
-      <c r="B18" s="170" t="s">
+    <row r="18" spans="1:19" ht="17">
+      <c r="A18" s="166"/>
+      <c r="B18" s="168" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -4917,9 +4960,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
-      <c r="B19" s="168"/>
+    <row r="19" spans="1:19">
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="125">
         <v>44397</v>
       </c>
@@ -4945,9 +4988,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="168"/>
-      <c r="B20" s="168"/>
+    <row r="20" spans="1:19">
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="125">
         <v>44398</v>
       </c>
@@ -4973,9 +5016,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
-      <c r="B21" s="168"/>
+    <row r="21" spans="1:19">
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="125">
         <v>44399</v>
       </c>
@@ -5001,9 +5044,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="168"/>
+    <row r="22" spans="1:19">
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="125">
         <v>44400</v>
       </c>
@@ -5017,9 +5060,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="168"/>
-      <c r="B23" s="168"/>
+    <row r="23" spans="1:19">
+      <c r="A23" s="166"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="125">
         <v>44401</v>
       </c>
@@ -5055,9 +5098,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="168"/>
-      <c r="B24" s="169"/>
+    <row r="24" spans="1:19" ht="16" thickBot="1">
+      <c r="A24" s="166"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
@@ -5081,9 +5124,9 @@
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="168"/>
-      <c r="B25" s="170" t="s">
+    <row r="25" spans="1:19" ht="32">
+      <c r="A25" s="166"/>
+      <c r="B25" s="168" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
@@ -5108,9 +5151,9 @@
       </c>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
-      <c r="B26" s="168"/>
+    <row r="26" spans="1:19" ht="32">
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="125">
         <v>44404</v>
       </c>
@@ -5134,9 +5177,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
-      <c r="B27" s="168"/>
+    <row r="27" spans="1:19" ht="32">
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="125">
         <v>44405</v>
       </c>
@@ -5158,9 +5201,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="168"/>
-      <c r="B28" s="168"/>
+    <row r="28" spans="1:19" ht="32">
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="125">
         <v>44406</v>
       </c>
@@ -5186,9 +5229,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="168"/>
-      <c r="B29" s="168"/>
+    <row r="29" spans="1:19" ht="32">
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="125">
         <v>44407</v>
       </c>
@@ -5212,9 +5255,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="168"/>
-      <c r="B30" s="168"/>
+    <row r="30" spans="1:19">
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="125">
         <v>44408</v>
       </c>
@@ -5238,9 +5281,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="169"/>
-      <c r="B31" s="169"/>
+    <row r="31" spans="1:19" ht="16" thickBot="1">
+      <c r="A31" s="167"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
@@ -5266,11 +5309,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="175" t="s">
+    <row r="32" spans="1:19">
+      <c r="A32" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="169" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
@@ -5300,9 +5343,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
-      <c r="B33" s="172"/>
+    <row r="33" spans="1:12">
+      <c r="A33" s="174"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
@@ -5327,9 +5370,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
-      <c r="B34" s="172"/>
+    <row r="34" spans="1:12">
+      <c r="A34" s="174"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
@@ -5356,9 +5399,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
-      <c r="B35" s="172"/>
+    <row r="35" spans="1:12">
+      <c r="A35" s="174"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
@@ -5381,9 +5424,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="176"/>
-      <c r="B36" s="172"/>
+    <row r="36" spans="1:12">
+      <c r="A36" s="174"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
@@ -5400,9 +5443,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="176"/>
-      <c r="B37" s="172"/>
+    <row r="37" spans="1:12">
+      <c r="A37" s="174"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
@@ -5425,9 +5468,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="176"/>
-      <c r="B38" s="173"/>
+    <row r="38" spans="1:12" ht="16" thickBot="1">
+      <c r="A38" s="174"/>
+      <c r="B38" s="171"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -5450,9 +5493,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="171" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="174"/>
+      <c r="B39" s="169" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
@@ -5477,9 +5520,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="172"/>
+    <row r="40" spans="1:12">
+      <c r="A40" s="174"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
@@ -5502,9 +5545,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="176"/>
-      <c r="B41" s="172"/>
+    <row r="41" spans="1:12" ht="32">
+      <c r="A41" s="174"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -5526,9 +5569,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="176"/>
-      <c r="B42" s="172"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="174"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
@@ -5550,9 +5593,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="176"/>
-      <c r="B43" s="172"/>
+    <row r="43" spans="1:12">
+      <c r="A43" s="174"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
@@ -5568,9 +5611,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="176"/>
-      <c r="B44" s="172"/>
+    <row r="44" spans="1:12">
+      <c r="A44" s="174"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
@@ -5592,9 +5635,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="176"/>
-      <c r="B45" s="173"/>
+    <row r="45" spans="1:12" ht="16" thickBot="1">
+      <c r="A45" s="174"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
@@ -5618,9 +5661,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="176"/>
-      <c r="B46" s="171" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="174"/>
+      <c r="B46" s="169" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
@@ -5646,9 +5689,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="176"/>
-      <c r="B47" s="172"/>
+    <row r="47" spans="1:12">
+      <c r="A47" s="174"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
@@ -5667,9 +5710,9 @@
       </c>
       <c r="I47" s="112"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="176"/>
-      <c r="B48" s="172"/>
+    <row r="48" spans="1:12">
+      <c r="A48" s="174"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
@@ -5682,9 +5725,9 @@
       <c r="H48" s="133"/>
       <c r="I48" s="112"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="176"/>
-      <c r="B49" s="172"/>
+    <row r="49" spans="1:10">
+      <c r="A49" s="174"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
@@ -5699,9 +5742,9 @@
       <c r="H49" s="133"/>
       <c r="I49" s="112"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="176"/>
-      <c r="B50" s="172"/>
+    <row r="50" spans="1:10">
+      <c r="A50" s="174"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
@@ -5714,9 +5757,9 @@
       <c r="H50" s="133"/>
       <c r="I50" s="112"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="176"/>
-      <c r="B51" s="172"/>
+    <row r="51" spans="1:10">
+      <c r="A51" s="174"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
@@ -5729,9 +5772,9 @@
       <c r="H51" s="133"/>
       <c r="I51" s="112"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="176"/>
-      <c r="B52" s="173"/>
+    <row r="52" spans="1:10" ht="16" thickBot="1">
+      <c r="A52" s="174"/>
+      <c r="B52" s="171"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
@@ -5750,9 +5793,9 @@
       </c>
       <c r="I52" s="122"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="176"/>
-      <c r="B53" s="174" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" s="174"/>
+      <c r="B53" s="172" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
@@ -5771,9 +5814,9 @@
       </c>
       <c r="I53" s="111"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="176"/>
-      <c r="B54" s="172"/>
+    <row r="54" spans="1:10">
+      <c r="A54" s="174"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
@@ -5792,9 +5835,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="176"/>
-      <c r="B55" s="172"/>
+    <row r="55" spans="1:10">
+      <c r="A55" s="174"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
@@ -5811,9 +5854,9 @@
       </c>
       <c r="I55" s="112"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="176"/>
-      <c r="B56" s="172"/>
+    <row r="56" spans="1:10">
+      <c r="A56" s="174"/>
+      <c r="B56" s="170"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
@@ -5834,9 +5877,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="176"/>
-      <c r="B57" s="172"/>
+    <row r="57" spans="1:10">
+      <c r="A57" s="174"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
@@ -5855,9 +5898,9 @@
       </c>
       <c r="I57" s="112"/>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="176"/>
-      <c r="B58" s="172"/>
+    <row r="58" spans="1:10" ht="32">
+      <c r="A58" s="174"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
@@ -5876,9 +5919,9 @@
       </c>
       <c r="I58" s="112"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="177"/>
-      <c r="B59" s="173"/>
+    <row r="59" spans="1:10" ht="16" thickBot="1">
+      <c r="A59" s="175"/>
+      <c r="B59" s="171"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
@@ -5889,7 +5932,7 @@
         <v>211</v>
       </c>
       <c r="F59" s="121"/>
-      <c r="G59" s="141" t="s">
+      <c r="G59" s="139" t="s">
         <v>263</v>
       </c>
       <c r="H59" s="134">
@@ -5897,505 +5940,507 @@
       </c>
       <c r="I59" s="122"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="161" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="164" t="s">
+      <c r="B60" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="142">
+      <c r="C60" s="140">
         <v>44438</v>
       </c>
-      <c r="D60" s="143" t="s">
+      <c r="D60" s="141" t="s">
         <v>266</v>
       </c>
-      <c r="E60" s="144" t="s">
+      <c r="E60" s="142" t="s">
         <v>211</v>
       </c>
-      <c r="F60" s="144"/>
-      <c r="G60" s="143" t="s">
-        <v>275</v>
-      </c>
-      <c r="H60" s="143">
+      <c r="F60" s="142"/>
+      <c r="G60" s="141" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" s="141">
         <v>5</v>
       </c>
-      <c r="I60" s="145"/>
+      <c r="I60" s="143"/>
       <c r="J60" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="160"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="144">
+        <v>44439</v>
+      </c>
+      <c r="D61" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" s="146"/>
+      <c r="G61" s="145" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="146">
-        <v>44439</v>
-      </c>
-      <c r="D61" s="147" t="s">
+      <c r="H61" s="145">
+        <v>5</v>
+      </c>
+      <c r="I61" s="147"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="160"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="144">
+        <v>44440</v>
+      </c>
+      <c r="D62" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="148" t="s">
+      <c r="E62" s="146" t="s">
         <v>211</v>
       </c>
-      <c r="F61" s="148"/>
-      <c r="G61" s="147" t="s">
-        <v>275</v>
-      </c>
-      <c r="H61" s="147">
-        <v>5</v>
-      </c>
-      <c r="I61" s="149"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="146">
-        <v>44440</v>
-      </c>
-      <c r="D62" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="F62" s="148"/>
-      <c r="G62" s="147" t="s">
+      <c r="F62" s="146"/>
+      <c r="G62" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="H62" s="147">
+      <c r="H62" s="145">
         <v>4</v>
       </c>
-      <c r="I62" s="149"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="146">
+      <c r="I62" s="147"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="160"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="144">
         <v>44441</v>
       </c>
-      <c r="D63" s="201" t="s">
-        <v>282</v>
-      </c>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="147" t="s">
+      <c r="D63" s="158" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="H63" s="147">
+      <c r="H63" s="145">
         <v>3</v>
       </c>
-      <c r="I63" s="149"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="162"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="146">
+      <c r="I63" s="147"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="160"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="144">
         <v>44442</v>
       </c>
-      <c r="D64" s="147"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="149"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="162"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="146">
+      <c r="D64" s="145" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="147"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="160"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="144">
         <v>44443</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="149"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="162"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="150">
+      <c r="D65" s="145"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="147"/>
+    </row>
+    <row r="66" spans="1:9" ht="16" thickBot="1">
+      <c r="A66" s="160"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="148">
         <v>44444</v>
       </c>
-      <c r="D66" s="151"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="153"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
-      <c r="B67" s="164" t="s">
+      <c r="D66" s="149"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="151"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="160"/>
+      <c r="B67" s="162" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="142">
+      <c r="C67" s="140">
         <v>44445</v>
       </c>
-      <c r="D67" s="143"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
-      <c r="G67" s="143"/>
-      <c r="H67" s="143"/>
-      <c r="I67" s="145"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="162"/>
-      <c r="B68" s="162"/>
-      <c r="C68" s="146">
+      <c r="D67" s="141"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="141"/>
+      <c r="H67" s="141"/>
+      <c r="I67" s="143"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="160"/>
+      <c r="B68" s="160"/>
+      <c r="C68" s="144">
         <v>44446</v>
       </c>
-      <c r="D68" s="147"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="147"/>
-      <c r="I68" s="149"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="162"/>
-      <c r="B69" s="162"/>
-      <c r="C69" s="146">
+      <c r="D68" s="145"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="145"/>
+      <c r="H68" s="145"/>
+      <c r="I68" s="147"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="160"/>
+      <c r="B69" s="160"/>
+      <c r="C69" s="144">
         <v>44447</v>
       </c>
-      <c r="D69" s="147"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147"/>
-      <c r="I69" s="149"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="162"/>
-      <c r="B70" s="162"/>
-      <c r="C70" s="146">
+      <c r="D69" s="145"/>
+      <c r="E69" s="146"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="145"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="147"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="160"/>
+      <c r="B70" s="160"/>
+      <c r="C70" s="144">
         <v>44448</v>
       </c>
-      <c r="D70" s="147"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="147"/>
-      <c r="H70" s="147"/>
-      <c r="I70" s="149"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="162"/>
-      <c r="B71" s="162"/>
-      <c r="C71" s="146">
+      <c r="D70" s="145"/>
+      <c r="E70" s="146"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="147"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="160"/>
+      <c r="B71" s="160"/>
+      <c r="C71" s="144">
         <v>44449</v>
       </c>
-      <c r="D71" s="147"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="149"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="162"/>
-      <c r="B72" s="162"/>
-      <c r="C72" s="146">
+      <c r="D71" s="145"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="147"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="160"/>
+      <c r="B72" s="160"/>
+      <c r="C72" s="144">
         <v>44450</v>
       </c>
-      <c r="D72" s="147"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="147"/>
-      <c r="I72" s="149"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="162"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="150">
+      <c r="D72" s="145"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="145"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="147"/>
+    </row>
+    <row r="73" spans="1:9" ht="16" thickBot="1">
+      <c r="A73" s="160"/>
+      <c r="B73" s="161"/>
+      <c r="C73" s="148">
         <v>44451</v>
       </c>
-      <c r="D73" s="151"/>
-      <c r="E73" s="152"/>
-      <c r="F73" s="152"/>
-      <c r="G73" s="151"/>
-      <c r="H73" s="151"/>
-      <c r="I73" s="153"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="162"/>
-      <c r="B74" s="164" t="s">
+      <c r="D73" s="149"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="149"/>
+      <c r="H73" s="149"/>
+      <c r="I73" s="151"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="160"/>
+      <c r="B74" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="C74" s="142">
+      <c r="C74" s="140">
         <v>44452</v>
       </c>
-      <c r="D74" s="143"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="145"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="162"/>
-      <c r="B75" s="162"/>
-      <c r="C75" s="146">
+      <c r="D74" s="141"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="141"/>
+      <c r="H74" s="141"/>
+      <c r="I74" s="143"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="160"/>
+      <c r="B75" s="160"/>
+      <c r="C75" s="144">
         <v>44453</v>
       </c>
-      <c r="D75" s="147"/>
-      <c r="E75" s="148"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="147"/>
-      <c r="H75" s="147"/>
-      <c r="I75" s="149"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="162"/>
-      <c r="B76" s="162"/>
-      <c r="C76" s="146">
+      <c r="D75" s="145"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="147"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="160"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="144">
         <v>44454</v>
       </c>
-      <c r="D76" s="147"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="147"/>
-      <c r="H76" s="147"/>
-      <c r="I76" s="149"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="162"/>
-      <c r="B77" s="162"/>
-      <c r="C77" s="146">
+      <c r="D76" s="145"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="145"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="147"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="160"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="144">
         <v>44455</v>
       </c>
-      <c r="D77" s="147"/>
-      <c r="E77" s="148"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147"/>
-      <c r="I77" s="149"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="162"/>
-      <c r="B78" s="162"/>
-      <c r="C78" s="146">
+      <c r="D77" s="145"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="147"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="160"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="144">
         <v>44456</v>
       </c>
-      <c r="D78" s="147"/>
-      <c r="E78" s="148"/>
-      <c r="F78" s="148"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="147"/>
-      <c r="I78" s="149"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="162"/>
-      <c r="B79" s="162"/>
-      <c r="C79" s="146">
+      <c r="D78" s="145"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="147"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="160"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="144">
         <v>44457</v>
       </c>
-      <c r="D79" s="147"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="149"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="162"/>
-      <c r="B80" s="163"/>
-      <c r="C80" s="150">
+      <c r="D79" s="145"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="145"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="147"/>
+    </row>
+    <row r="80" spans="1:9" ht="16" thickBot="1">
+      <c r="A80" s="160"/>
+      <c r="B80" s="161"/>
+      <c r="C80" s="148">
         <v>44458</v>
       </c>
-      <c r="D80" s="151"/>
-      <c r="E80" s="152"/>
-      <c r="F80" s="152"/>
-      <c r="G80" s="151"/>
-      <c r="H80" s="151"/>
-      <c r="I80" s="153"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="162"/>
-      <c r="B81" s="164" t="s">
+      <c r="D80" s="149"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="149"/>
+      <c r="H80" s="149"/>
+      <c r="I80" s="151"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="160"/>
+      <c r="B81" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="142">
+      <c r="C81" s="140">
         <v>44459</v>
       </c>
-      <c r="D81" s="143"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="143"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="145"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="162"/>
-      <c r="B82" s="162"/>
-      <c r="C82" s="146">
+      <c r="D81" s="141"/>
+      <c r="E81" s="142"/>
+      <c r="F81" s="142"/>
+      <c r="G81" s="141"/>
+      <c r="H81" s="141"/>
+      <c r="I81" s="143"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="160"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="144">
         <v>44460</v>
       </c>
-      <c r="D82" s="147"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="147"/>
-      <c r="H82" s="147"/>
-      <c r="I82" s="149"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="162"/>
-      <c r="B83" s="162"/>
-      <c r="C83" s="146">
+      <c r="D82" s="145"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="146"/>
+      <c r="G82" s="145"/>
+      <c r="H82" s="145"/>
+      <c r="I82" s="147"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="160"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="144">
         <v>44461</v>
       </c>
-      <c r="D83" s="147"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
-      <c r="I83" s="149"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="162"/>
-      <c r="B84" s="162"/>
-      <c r="C84" s="146">
+      <c r="D83" s="145"/>
+      <c r="E83" s="146"/>
+      <c r="F83" s="146"/>
+      <c r="G83" s="145"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="147"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="160"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="144">
         <v>44462</v>
       </c>
-      <c r="D84" s="147"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="148"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="147"/>
-      <c r="I84" s="149"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="162"/>
-      <c r="B85" s="162"/>
-      <c r="C85" s="146">
+      <c r="D84" s="145"/>
+      <c r="E84" s="146"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="145"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="147"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="160"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="144">
         <v>44463</v>
       </c>
-      <c r="D85" s="147"/>
-      <c r="E85" s="148"/>
-      <c r="F85" s="148"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147"/>
-      <c r="I85" s="149"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="162"/>
-      <c r="B86" s="162"/>
-      <c r="C86" s="146">
+      <c r="D85" s="145"/>
+      <c r="E85" s="146"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="147"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="160"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="144">
         <v>44464</v>
       </c>
-      <c r="D86" s="147"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="147"/>
-      <c r="H86" s="147"/>
-      <c r="I86" s="149"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="162"/>
-      <c r="B87" s="163"/>
-      <c r="C87" s="150">
+      <c r="D86" s="145"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="145"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="147"/>
+    </row>
+    <row r="87" spans="1:9" ht="16" thickBot="1">
+      <c r="A87" s="160"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="148">
         <v>44465</v>
       </c>
-      <c r="D87" s="151"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="152"/>
-      <c r="G87" s="151"/>
-      <c r="H87" s="151"/>
-      <c r="I87" s="153"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="162"/>
-      <c r="B88" s="165" t="s">
+      <c r="D87" s="149"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="150"/>
+      <c r="G87" s="149"/>
+      <c r="H87" s="149"/>
+      <c r="I87" s="151"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="160"/>
+      <c r="B88" s="163" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="154">
+      <c r="C88" s="152">
         <v>44466</v>
       </c>
-      <c r="D88" s="155"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="155"/>
-      <c r="H88" s="155"/>
-      <c r="I88" s="157"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="162"/>
-      <c r="B89" s="162"/>
-      <c r="C89" s="146">
+      <c r="D88" s="153"/>
+      <c r="E88" s="154"/>
+      <c r="F88" s="154"/>
+      <c r="G88" s="153"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="155"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="160"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="144">
         <v>44467</v>
       </c>
-      <c r="D89" s="147"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="147"/>
-      <c r="I89" s="149"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="162"/>
-      <c r="B90" s="162"/>
-      <c r="C90" s="146">
+      <c r="D89" s="145"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="145"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="147"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="160"/>
+      <c r="B90" s="160"/>
+      <c r="C90" s="144">
         <v>44468</v>
       </c>
-      <c r="D90" s="147"/>
-      <c r="E90" s="148"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="147"/>
-      <c r="H90" s="147"/>
-      <c r="I90" s="149"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="162"/>
-      <c r="B91" s="162"/>
-      <c r="C91" s="146">
+      <c r="D90" s="145"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="145"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="147"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="160"/>
+      <c r="B91" s="160"/>
+      <c r="C91" s="144">
         <v>44469</v>
       </c>
-      <c r="D91" s="147"/>
-      <c r="E91" s="148"/>
-      <c r="F91" s="148"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="149"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="162"/>
-      <c r="B92" s="162"/>
-      <c r="C92" s="146">
+      <c r="D91" s="145"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="145"/>
+      <c r="H91" s="145"/>
+      <c r="I91" s="147"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="160"/>
+      <c r="B92" s="160"/>
+      <c r="C92" s="144">
         <v>44470</v>
       </c>
-      <c r="D92" s="147"/>
-      <c r="E92" s="148"/>
-      <c r="F92" s="148"/>
-      <c r="G92" s="147"/>
-      <c r="H92" s="147"/>
-      <c r="I92" s="149"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="162"/>
-      <c r="B93" s="162"/>
-      <c r="C93" s="146">
+      <c r="D92" s="145"/>
+      <c r="E92" s="146"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="145"/>
+      <c r="H92" s="145"/>
+      <c r="I92" s="147"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="160"/>
+      <c r="B93" s="160"/>
+      <c r="C93" s="144">
         <v>44471</v>
       </c>
-      <c r="D93" s="147"/>
-      <c r="E93" s="148"/>
-      <c r="F93" s="148"/>
-      <c r="G93" s="147"/>
-      <c r="H93" s="147"/>
-      <c r="I93" s="149"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="163"/>
-      <c r="B94" s="163"/>
-      <c r="C94" s="150">
+      <c r="D93" s="145"/>
+      <c r="E93" s="146"/>
+      <c r="F93" s="146"/>
+      <c r="G93" s="145"/>
+      <c r="H93" s="145"/>
+      <c r="I93" s="147"/>
+    </row>
+    <row r="94" spans="1:9" ht="16" thickBot="1">
+      <c r="A94" s="161"/>
+      <c r="B94" s="161"/>
+      <c r="C94" s="148">
         <v>44472</v>
       </c>
-      <c r="D94" s="151"/>
-      <c r="E94" s="152"/>
-      <c r="F94" s="152"/>
-      <c r="G94" s="151"/>
-      <c r="H94" s="151"/>
-      <c r="I94" s="153"/>
+      <c r="D94" s="149"/>
+      <c r="E94" s="150"/>
+      <c r="F94" s="150"/>
+      <c r="G94" s="149"/>
+      <c r="H94" s="149"/>
+      <c r="I94" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6425,72 +6470,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373594B2-FED4-4FED-B7E8-06EFC8E46E82}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:9" ht="16" thickBot="1">
+      <c r="A1" s="205" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="205" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="205" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="205" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="205" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="F1" s="205" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="205" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="158" t="s">
+      <c r="H1" s="205" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="137">
+      <c r="I1" s="205" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="203">
         <v>44435</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="204" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="204" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138" t="s">
+      <c r="D2" s="204"/>
+      <c r="E2" s="204" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="199" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="200">
+      <c r="F2" s="204"/>
+      <c r="G2" s="204" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="203">
         <v>44435</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="204"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="137">
         <v>44435</v>
       </c>
@@ -6509,100 +6559,115 @@
         <v>260</v>
       </c>
       <c r="H3" s="138"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="137">
+      <c r="I3" s="138"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="157">
         <v>44436</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="199" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="200">
+      <c r="G4" s="156" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="157">
         <v>44438</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="137">
+      <c r="I4" s="156"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="196">
         <v>44436</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="197" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="138" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="138" t="s">
+      <c r="D5" s="197" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="197" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="197" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="198">
+        <v>44442.604166666664</v>
+      </c>
+      <c r="I5" s="197" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="196">
+        <v>44437</v>
+      </c>
+      <c r="B6" s="197" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="197" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="197" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="197" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="138" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="139" t="s">
+      <c r="F6" s="197" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="197" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="199">
+        <v>44442.791666666664</v>
+      </c>
+      <c r="I6" s="200" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" s="201">
+        <v>44439</v>
+      </c>
+      <c r="B7" s="202" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="202" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="202" t="s">
         <v>269</v>
       </c>
-      <c r="H5" s="160">
-        <v>44442.604166666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="137">
-        <v>44437</v>
-      </c>
-      <c r="B6" s="138" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="138" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="198">
-        <v>44442.791666666664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="137">
-        <v>44439</v>
-      </c>
-      <c r="B7" s="138" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="138" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="138" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="138"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="201">
+        <v>44450</v>
+      </c>
+      <c r="I7" s="202"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="138"/>
       <c r="B8" s="138"/>
       <c r="C8" s="138"/>
@@ -6611,8 +6676,9 @@
       <c r="F8" s="138"/>
       <c r="G8" s="138"/>
       <c r="H8" s="138"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="138"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="138"/>
       <c r="B9" s="138"/>
       <c r="C9" s="138"/>
@@ -6621,8 +6687,9 @@
       <c r="F9" s="138"/>
       <c r="G9" s="138"/>
       <c r="H9" s="138"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="138"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="138"/>
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
@@ -6631,8 +6698,9 @@
       <c r="F10" s="138"/>
       <c r="G10" s="138"/>
       <c r="H10" s="138"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="138"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="138"/>
       <c r="B11" s="138"/>
       <c r="C11" s="138"/>
@@ -6641,8 +6709,9 @@
       <c r="F11" s="138"/>
       <c r="G11" s="138"/>
       <c r="H11" s="138"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="138"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="138"/>
       <c r="B12" s="138"/>
       <c r="C12" s="138"/>
@@ -6651,8 +6720,9 @@
       <c r="F12" s="138"/>
       <c r="G12" s="138"/>
       <c r="H12" s="138"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="138"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="138"/>
       <c r="B13" s="138"/>
       <c r="C13" s="138"/>
@@ -6661,8 +6731,9 @@
       <c r="F13" s="138"/>
       <c r="G13" s="138"/>
       <c r="H13" s="138"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="138"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="138"/>
       <c r="B14" s="138"/>
       <c r="C14" s="138"/>
@@ -6671,8 +6742,9 @@
       <c r="F14" s="138"/>
       <c r="G14" s="138"/>
       <c r="H14" s="138"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="138"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="138"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
@@ -6681,8 +6753,9 @@
       <c r="F15" s="138"/>
       <c r="G15" s="138"/>
       <c r="H15" s="138"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="138"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="138"/>
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
@@ -6691,8 +6764,9 @@
       <c r="F16" s="138"/>
       <c r="G16" s="138"/>
       <c r="H16" s="138"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="138"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="138"/>
       <c r="B17" s="138"/>
       <c r="C17" s="138"/>
@@ -6701,8 +6775,9 @@
       <c r="F17" s="138"/>
       <c r="G17" s="138"/>
       <c r="H17" s="138"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="138"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="138"/>
       <c r="B18" s="138"/>
       <c r="C18" s="138"/>
@@ -6711,8 +6786,9 @@
       <c r="F18" s="138"/>
       <c r="G18" s="138"/>
       <c r="H18" s="138"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="138"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="138"/>
       <c r="B19" s="138"/>
       <c r="C19" s="138"/>
@@ -6721,8 +6797,9 @@
       <c r="F19" s="138"/>
       <c r="G19" s="138"/>
       <c r="H19" s="138"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="138"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="138"/>
       <c r="B20" s="138"/>
       <c r="C20" s="138"/>
@@ -6731,8 +6808,9 @@
       <c r="F20" s="138"/>
       <c r="G20" s="138"/>
       <c r="H20" s="138"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="138"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="138"/>
       <c r="B21" s="138"/>
       <c r="C21" s="138"/>
@@ -6741,8 +6819,9 @@
       <c r="F21" s="138"/>
       <c r="G21" s="138"/>
       <c r="H21" s="138"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="138"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="138"/>
       <c r="B22" s="138"/>
       <c r="C22" s="138"/>
@@ -6751,8 +6830,9 @@
       <c r="F22" s="138"/>
       <c r="G22" s="138"/>
       <c r="H22" s="138"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="138"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="138"/>
       <c r="B23" s="138"/>
       <c r="C23" s="138"/>
@@ -6761,8 +6841,9 @@
       <c r="F23" s="138"/>
       <c r="G23" s="138"/>
       <c r="H23" s="138"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="138"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="138"/>
       <c r="B24" s="138"/>
       <c r="C24" s="138"/>
@@ -6771,8 +6852,9 @@
       <c r="F24" s="138"/>
       <c r="G24" s="138"/>
       <c r="H24" s="138"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="138"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="138"/>
       <c r="C25" s="138"/>
@@ -6781,8 +6863,9 @@
       <c r="F25" s="138"/>
       <c r="G25" s="138"/>
       <c r="H25" s="138"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="138"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="138"/>
       <c r="B26" s="138"/>
       <c r="C26" s="138"/>
@@ -6791,8 +6874,9 @@
       <c r="F26" s="138"/>
       <c r="G26" s="138"/>
       <c r="H26" s="138"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="138"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="138"/>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
@@ -6801,8 +6885,9 @@
       <c r="F27" s="138"/>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="138"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="138"/>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -6811,8 +6896,9 @@
       <c r="F28" s="138"/>
       <c r="G28" s="138"/>
       <c r="H28" s="138"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="138"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="138"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
@@ -6821,6 +6907,7 @@
       <c r="F29" s="138"/>
       <c r="G29" s="138"/>
       <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6837,22 +6924,22 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="9" style="37"/>
-    <col min="16" max="16" width="12.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
@@ -6878,11 +6965,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="184" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -6900,9 +6987,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
-      <c r="B3" s="180"/>
+    <row r="3" spans="1:8" ht="16" thickBot="1">
+      <c r="A3" s="180"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -6912,9 +6999,9 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="182"/>
-      <c r="B4" s="187" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="180"/>
+      <c r="B4" s="185" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -6932,9 +7019,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="182"/>
-      <c r="B5" s="179"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="180"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -6950,10 +7037,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="182"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="190">
+    <row r="6" spans="1:8">
+      <c r="A6" s="180"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="188">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6968,10 +7055,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="182"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="191"/>
+    <row r="7" spans="1:8" ht="16">
+      <c r="A7" s="180"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -6986,9 +7073,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
-      <c r="B8" s="179"/>
+    <row r="8" spans="1:8" ht="16">
+      <c r="A8" s="180"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -7006,9 +7093,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="182"/>
-      <c r="B9" s="179"/>
+    <row r="9" spans="1:8" ht="16">
+      <c r="A9" s="180"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -7026,9 +7113,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
-      <c r="B10" s="179"/>
+    <row r="10" spans="1:8" ht="16" thickBot="1">
+      <c r="A10" s="180"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -7038,9 +7125,9 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="180"/>
+    <row r="11" spans="1:8" ht="16" thickBot="1">
+      <c r="A11" s="180"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -7056,9 +7143,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
-      <c r="B12" s="185" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="180"/>
+      <c r="B12" s="183" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -7072,10 +7159,10 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="190">
+    <row r="13" spans="1:8">
+      <c r="A13" s="180"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="188">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7088,10 +7175,10 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="191"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="180"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -7102,9 +7189,9 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="179"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="180"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -7112,9 +7199,9 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="179"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="180"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -7124,9 +7211,9 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
-      <c r="B17" s="179"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="180"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -7136,10 +7223,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="190">
+    <row r="18" spans="1:8">
+      <c r="A18" s="180"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="188">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7150,10 +7237,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="189"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="191"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="187"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7162,9 +7249,9 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="183"/>
-      <c r="B20" s="180"/>
+    <row r="20" spans="1:8" ht="16" thickBot="1">
+      <c r="A20" s="181"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7176,11 +7263,11 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="181" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="185" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7194,9 +7281,9 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
-      <c r="B22" s="179"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="180"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7208,10 +7295,10 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="190">
+    <row r="23" spans="1:8">
+      <c r="A23" s="180"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="188">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7222,10 +7309,10 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="191"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="180"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="189"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7236,10 +7323,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="190">
+    <row r="25" spans="1:8">
+      <c r="A25" s="180"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="188">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7252,10 +7339,10 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="191"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="180"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="189"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -7264,9 +7351,9 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
-      <c r="B27" s="179"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="180"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -7276,9 +7363,9 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
-      <c r="B28" s="179"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="180"/>
+      <c r="B28" s="177"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -7288,9 +7375,9 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
-      <c r="B29" s="180"/>
+    <row r="29" spans="1:8" ht="16" thickBot="1">
+      <c r="A29" s="180"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -7300,9 +7387,9 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
-      <c r="B30" s="187" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="180"/>
+      <c r="B30" s="185" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -7314,9 +7401,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
-      <c r="B31" s="179"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="180"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -7326,9 +7413,9 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
-      <c r="B32" s="179"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="180"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -7338,9 +7425,9 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="182"/>
-      <c r="B33" s="179"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="180"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -7350,9 +7437,9 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="182"/>
-      <c r="B34" s="179"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="180"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -7362,9 +7449,9 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
-      <c r="B35" s="179"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="180"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -7374,9 +7461,9 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
-      <c r="B36" s="180"/>
+    <row r="36" spans="1:8" ht="16" thickBot="1">
+      <c r="A36" s="180"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -7386,9 +7473,9 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
-      <c r="B37" s="187" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="180"/>
+      <c r="B37" s="185" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -7402,9 +7489,9 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="182"/>
-      <c r="B38" s="179"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="180"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -7418,9 +7505,9 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
-      <c r="B39" s="179"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="180"/>
+      <c r="B39" s="177"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -7434,9 +7521,9 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="179"/>
+    <row r="40" spans="1:8">
+      <c r="A40" s="180"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -7450,9 +7537,9 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
-      <c r="B41" s="179"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="180"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -7466,9 +7553,9 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
-      <c r="B42" s="179"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="180"/>
+      <c r="B42" s="177"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -7482,9 +7569,9 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
-      <c r="B43" s="180"/>
+    <row r="43" spans="1:8" ht="16" thickBot="1">
+      <c r="A43" s="180"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -7498,9 +7585,9 @@
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="185" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="180"/>
+      <c r="B44" s="183" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -7516,9 +7603,9 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="179"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="180"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -7532,9 +7619,9 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
-      <c r="B46" s="179"/>
+    <row r="46" spans="1:8" ht="17">
+      <c r="A46" s="180"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -7550,9 +7637,9 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
-      <c r="B47" s="179"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="180"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -7568,9 +7655,9 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
-      <c r="B48" s="179"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="180"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -7584,9 +7671,9 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="182"/>
-      <c r="B49" s="179"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="180"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -7602,9 +7689,9 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="183"/>
-      <c r="B50" s="180"/>
+    <row r="50" spans="1:8" ht="16" thickBot="1">
+      <c r="A50" s="181"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -7618,11 +7705,11 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="186" t="s">
+      <c r="B51" s="184" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -7640,9 +7727,9 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="182"/>
-      <c r="B52" s="179"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="180"/>
+      <c r="B52" s="177"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -7656,10 +7743,10 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="182"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="184">
+    <row r="53" spans="1:8">
+      <c r="A53" s="180"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="182">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7672,10 +7759,10 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="182"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="184"/>
+    <row r="54" spans="1:8">
+      <c r="A54" s="180"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="182"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -7686,9 +7773,9 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="182"/>
-      <c r="B55" s="179"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="180"/>
+      <c r="B55" s="177"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -7698,9 +7785,9 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="182"/>
-      <c r="B56" s="179"/>
+    <row r="56" spans="1:8">
+      <c r="A56" s="180"/>
+      <c r="B56" s="177"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -7712,9 +7799,9 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="182"/>
-      <c r="B57" s="179"/>
+    <row r="57" spans="1:8">
+      <c r="A57" s="180"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -7726,9 +7813,9 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="182"/>
-      <c r="B58" s="180"/>
+    <row r="58" spans="1:8" ht="16" thickBot="1">
+      <c r="A58" s="180"/>
+      <c r="B58" s="178"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -7740,9 +7827,9 @@
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="182"/>
-      <c r="B59" s="186" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="180"/>
+      <c r="B59" s="184" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -7756,9 +7843,9 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="182"/>
-      <c r="B60" s="179"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="180"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -7772,9 +7859,9 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="182"/>
-      <c r="B61" s="179"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="180"/>
+      <c r="B61" s="177"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -7788,9 +7875,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="182"/>
-      <c r="B62" s="179"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="180"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -7804,9 +7891,9 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="182"/>
-      <c r="B63" s="179"/>
+    <row r="63" spans="1:8">
+      <c r="A63" s="180"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -7816,9 +7903,9 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="182"/>
-      <c r="B64" s="179"/>
+    <row r="64" spans="1:8" ht="16" thickBot="1">
+      <c r="A64" s="180"/>
+      <c r="B64" s="177"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -7828,9 +7915,9 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="182"/>
-      <c r="B65" s="180"/>
+    <row r="65" spans="1:8" ht="16" thickBot="1">
+      <c r="A65" s="180"/>
+      <c r="B65" s="178"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -7844,9 +7931,9 @@
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="182"/>
-      <c r="B66" s="178" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="180"/>
+      <c r="B66" s="176" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -7862,9 +7949,9 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="182"/>
-      <c r="B67" s="179"/>
+    <row r="67" spans="1:8" ht="16">
+      <c r="A67" s="180"/>
+      <c r="B67" s="177"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -7878,9 +7965,9 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="182"/>
-      <c r="B68" s="179"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="180"/>
+      <c r="B68" s="177"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -7892,9 +7979,9 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="183"/>
-      <c r="B69" s="180"/>
+    <row r="69" spans="1:8" ht="16" thickBot="1">
+      <c r="A69" s="181"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -7940,21 +8027,21 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="9" style="37"/>
-    <col min="15" max="15" width="12.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -7980,11 +8067,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="177" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -8002,9 +8089,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
+    <row r="3" spans="1:8" ht="16" thickBot="1">
+      <c r="A3" s="177"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -8020,9 +8107,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="179"/>
-      <c r="B4" s="185" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="177"/>
+      <c r="B4" s="183" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -8040,9 +8127,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -8058,9 +8145,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -8076,9 +8163,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -8094,9 +8181,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
+    <row r="8" spans="1:8" ht="16">
+      <c r="A8" s="177"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -8112,9 +8199,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="177"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -8130,9 +8217,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
-      <c r="B10" s="180"/>
+    <row r="10" spans="1:8" ht="16" thickBot="1">
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8148,11 +8235,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="186" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="185" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8170,9 +8257,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="177"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8182,9 +8269,9 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
-      <c r="B13" s="179"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8194,9 +8281,9 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
-      <c r="B14" s="179"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="177"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8210,9 +8297,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="177"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8228,9 +8315,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="177"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8246,9 +8333,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="180"/>
+    <row r="17" spans="1:8" ht="32" thickBot="1">
+      <c r="A17" s="177"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -8264,12 +8351,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
-      <c r="B18" s="187" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="177"/>
+      <c r="B18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="190">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -8284,10 +8371,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="193"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="177"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -8300,10 +8387,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="193"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="177"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -8316,9 +8403,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -8328,9 +8415,9 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="177"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -8340,9 +8427,9 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
-      <c r="B23" s="179"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="177"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -8352,9 +8439,9 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="177"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -8364,10 +8451,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="193">
+    <row r="25" spans="1:8">
+      <c r="A25" s="177"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="191">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -8382,10 +8469,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="193"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="177"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -8398,9 +8485,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
+    <row r="27" spans="1:8" ht="16" thickBot="1">
+      <c r="A27" s="177"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -8416,9 +8503,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="179"/>
-      <c r="B28" s="187" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="177"/>
+      <c r="B28" s="185" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -8430,9 +8517,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
-      <c r="B29" s="179"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="177"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -8448,9 +8535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
-      <c r="B30" s="179"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="177"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -8460,9 +8547,9 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="179"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="177"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -8478,9 +8565,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
-      <c r="B32" s="179"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="177"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -8490,9 +8577,9 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
-      <c r="B33" s="179"/>
+    <row r="33" spans="1:8" ht="32">
+      <c r="A33" s="177"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -8508,10 +8595,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="179"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="193">
+    <row r="34" spans="1:8">
+      <c r="A34" s="177"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="191">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -8526,10 +8613,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
-      <c r="B35" s="180"/>
-      <c r="C35" s="194"/>
+    <row r="35" spans="1:8" ht="16" thickBot="1">
+      <c r="A35" s="177"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="192"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -8542,9 +8629,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="B36" s="187" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="177"/>
+      <c r="B36" s="185" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -8556,9 +8643,9 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
-      <c r="B37" s="179"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="177"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -8568,9 +8655,9 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
-      <c r="B38" s="179"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="177"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -8580,9 +8667,9 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="B39" s="179"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="177"/>
+      <c r="B39" s="177"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -8592,9 +8679,9 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
+    <row r="40" spans="1:8">
+      <c r="A40" s="177"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -8604,9 +8691,9 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
-      <c r="B41" s="179"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="177"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -8622,9 +8709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="179"/>
-      <c r="B42" s="180"/>
+    <row r="42" spans="1:8" ht="16" thickBot="1">
+      <c r="A42" s="177"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -8634,9 +8721,9 @@
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="B43" s="178" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="177"/>
+      <c r="B43" s="176" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -8654,9 +8741,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="179"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="177"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -8672,9 +8759,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
-      <c r="B45" s="179"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -8690,9 +8777,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
-      <c r="B46" s="179"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="177"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -8702,9 +8789,9 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="179"/>
-      <c r="B47" s="179"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="177"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -8714,9 +8801,9 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="179"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="177"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -8726,9 +8813,9 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
-      <c r="B49" s="180"/>
+    <row r="49" spans="1:8" ht="16" thickBot="1">
+      <c r="A49" s="178"/>
+      <c r="B49" s="178"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -8744,11 +8831,11 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="186" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="187" t="s">
+      <c r="B50" s="185" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -8760,9 +8847,9 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="179"/>
-      <c r="B51" s="179"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="177"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -8778,9 +8865,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="179"/>
-      <c r="B52" s="179"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -8790,9 +8877,9 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="179"/>
-      <c r="B53" s="179"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -8808,9 +8895,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="179"/>
-      <c r="B54" s="179"/>
+    <row r="54" spans="1:8">
+      <c r="A54" s="177"/>
+      <c r="B54" s="177"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -8820,9 +8907,9 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="179"/>
-      <c r="B55" s="179"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -8832,9 +8919,9 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
+    <row r="56" spans="1:8" ht="16" thickBot="1">
+      <c r="A56" s="177"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -8850,9 +8937,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="179"/>
-      <c r="B57" s="187" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="177"/>
+      <c r="B57" s="185" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -8870,9 +8957,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="179"/>
-      <c r="B58" s="179"/>
+    <row r="58" spans="1:8">
+      <c r="A58" s="177"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -8888,9 +8975,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="179"/>
-      <c r="B59" s="179"/>
+    <row r="59" spans="1:8">
+      <c r="A59" s="177"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -8906,9 +8993,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="179"/>
-      <c r="B60" s="179"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="177"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -8924,9 +9011,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="179"/>
-      <c r="B61" s="179"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="177"/>
+      <c r="B61" s="177"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -8936,9 +9023,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="179"/>
-      <c r="B62" s="179"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="177"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -8954,9 +9041,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="179"/>
-      <c r="B63" s="180"/>
+    <row r="63" spans="1:8" ht="16" thickBot="1">
+      <c r="A63" s="177"/>
+      <c r="B63" s="178"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -8972,9 +9059,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="179"/>
-      <c r="B64" s="187" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="177"/>
+      <c r="B64" s="185" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -8992,9 +9079,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="179"/>
-      <c r="B65" s="179"/>
+    <row r="65" spans="1:8">
+      <c r="A65" s="177"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -9010,9 +9097,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="179"/>
-      <c r="B66" s="179"/>
+    <row r="66" spans="1:8">
+      <c r="A66" s="177"/>
+      <c r="B66" s="177"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -9022,10 +9109,10 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="179"/>
-      <c r="B67" s="179"/>
-      <c r="C67" s="195">
+    <row r="67" spans="1:8">
+      <c r="A67" s="177"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="193">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -9040,10 +9127,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="179"/>
-      <c r="B68" s="179"/>
-      <c r="C68" s="196"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="177"/>
+      <c r="B68" s="177"/>
+      <c r="C68" s="194"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -9056,9 +9143,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="179"/>
-      <c r="B69" s="179"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="177"/>
+      <c r="B69" s="177"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -9068,9 +9155,9 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="179"/>
-      <c r="B70" s="179"/>
+    <row r="70" spans="1:8">
+      <c r="A70" s="177"/>
+      <c r="B70" s="177"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -9080,9 +9167,9 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="179"/>
-      <c r="B71" s="180"/>
+    <row r="71" spans="1:8" ht="16" thickBot="1">
+      <c r="A71" s="177"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -9098,9 +9185,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="179"/>
-      <c r="B72" s="178" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="177"/>
+      <c r="B72" s="176" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -9118,9 +9205,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="179"/>
-      <c r="B73" s="179"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="177"/>
+      <c r="B73" s="177"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -9130,9 +9217,9 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="180"/>
-      <c r="B74" s="180"/>
+    <row r="74" spans="1:8" ht="16" thickBot="1">
+      <c r="A74" s="178"/>
+      <c r="B74" s="178"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>

--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10829"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelius/Documents/WorkSpace/inotebook/career/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575C383-DF9A-524A-BB9B-390D8C990646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE08482-80C0-420F-979B-F378B6DCAC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
     <sheet name="2021 Delivery" sheetId="5" r:id="rId2"/>
     <sheet name="2021 Review" sheetId="2" r:id="rId3"/>
     <sheet name="2020 Review" sheetId="4" r:id="rId4"/>
+    <sheet name="NIO - Reactor 模式" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="306">
   <si>
     <t>JVM</t>
   </si>
@@ -3065,101 +3066,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李德永</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀终端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00~11:30
 16:30~4:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符明超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎头联系</t>
-  </si>
-  <si>
-    <t>腾讯 TEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:30~23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第五周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Netty</t>
   </si>
   <si>
-    <t>盛视科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林小姐/付小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务部门/地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3168,71 +3086,773 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Judith Zhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>腾讯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TEG</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>符明超</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>面评影响，简历不通过</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>腾讯音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>猎头联系</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>荣耀终端</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>李德永</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>微服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>简历刷掉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>盛视科技</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>林小姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>付小姐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>研究院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>车公庙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>架构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>微服务、底层</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>技术面、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">HR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Redis / MysSQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>系统参数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>跨境好运</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>业务研发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>科技园</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>跨境电商</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>技术面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">三种缓存异常
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2. Spring run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">做了哪些事
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3. Kafka </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">如何实现有序
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">4. MySQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">索引有效性
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>事务隔离级别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>虾皮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>面试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速记</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盛视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跨境速运</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>SocketChannel &amp; READ</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>writeAndFlush</t>
+  </si>
+  <si>
+    <t>Reactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainReactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubReactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>联系人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>业务部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>职位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>技术栈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>状态时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>关键问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Reactor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>单线程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Reacotr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>多线程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>主从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Reactor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>多线程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30~25:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>虾皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judith Zhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面评影响，简历不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨境电商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨境好运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR 简历刷掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis / MysSQL 系统参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究院/车公庙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务研发/科技园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务、底层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术面、HR 面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 三种缓存异常
-2. Spring run 做了哪些事
-3. Kafka 如何实现有序
-4. MySQL 索引有效性
-5. 事务隔离级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3243,7 +3863,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3373,13 +3993,25 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF98C379"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3467,6 +4099,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3690,7 +4328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4060,6 +4698,66 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4075,98 +4773,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="18" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4265,19 +4908,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="19" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4566,29 +5210,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="38" customWidth="1"/>
     <col min="6" max="6" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>121</v>
       </c>
@@ -4617,8 +5261,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
-      <c r="A2" s="165" t="s">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="172" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -4634,9 +5278,9 @@
       <c r="H2" s="81"/>
       <c r="I2" s="99"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="166"/>
-      <c r="B3" s="168" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="173"/>
+      <c r="B3" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -4647,14 +5291,14 @@
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="88"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="100"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="166"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="125">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="145">
         <v>44383</v>
       </c>
       <c r="D4" s="67" t="s">
@@ -4662,14 +5306,14 @@
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="90"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="101"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="125">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="145">
         <v>44384</v>
       </c>
       <c r="D5" s="67" t="s">
@@ -4677,14 +5321,14 @@
       </c>
       <c r="E5" s="89"/>
       <c r="F5" s="90"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="101"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="125">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="145">
         <v>44385</v>
       </c>
       <c r="D6" s="67" t="s">
@@ -4692,56 +5336,56 @@
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="90"/>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="127">
+      <c r="H6" s="147">
         <v>5</v>
       </c>
       <c r="I6" s="101"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="125">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="145">
         <v>44386</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="147" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="89"/>
       <c r="F7" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="166"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="164">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="171">
         <v>44387</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="147" t="s">
         <v>153</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="147">
         <v>5</v>
       </c>
       <c r="I8" s="101"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="166"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="164"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -4752,14 +5396,14 @@
       <c r="G9" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="147">
         <v>3</v>
       </c>
       <c r="I9" s="101"/>
     </row>
-    <row r="10" spans="1:12" ht="49" thickBot="1">
-      <c r="A10" s="166"/>
-      <c r="B10" s="167"/>
+    <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="173"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -4773,14 +5417,14 @@
       <c r="G10" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="148">
         <v>7</v>
       </c>
       <c r="I10" s="102"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="166"/>
-      <c r="B11" s="168" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="173"/>
+      <c r="B11" s="175" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -4793,21 +5437,21 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="F11" s="88"/>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="146">
         <v>4</v>
       </c>
       <c r="I11" s="100"/>
-      <c r="L11" s="130" t="s">
+      <c r="L11" s="125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="166"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="125">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="173"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="145">
         <v>44390</v>
       </c>
       <c r="D12" s="67" t="s">
@@ -4817,21 +5461,21 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="F12" s="90"/>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="127">
+      <c r="H12" s="147">
         <v>4</v>
       </c>
       <c r="I12" s="101"/>
-      <c r="L12" s="131" t="s">
+      <c r="L12" s="126" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="166"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="125">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="173"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="145">
         <v>44391</v>
       </c>
       <c r="D13" s="67" t="s">
@@ -4841,21 +5485,21 @@
         <v>2.67</v>
       </c>
       <c r="F13" s="96"/>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="127">
+      <c r="H13" s="147">
         <v>4</v>
       </c>
       <c r="I13" s="101"/>
-      <c r="L13" s="131" t="s">
+      <c r="L13" s="126" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="166"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="125">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="173"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="145">
         <v>44392</v>
       </c>
       <c r="D14" s="67" t="s">
@@ -4865,37 +5509,37 @@
         <v>2.84</v>
       </c>
       <c r="F14" s="90"/>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="147">
         <v>4</v>
       </c>
       <c r="I14" s="101"/>
-      <c r="L14" s="131" t="s">
+      <c r="L14" s="126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="166"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="125">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="173"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="145">
         <v>44393</v>
       </c>
-      <c r="D15" s="127"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="101"/>
-      <c r="L15" s="131" t="s">
+      <c r="L15" s="126" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="166"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="125">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="173"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="145">
         <v>44394</v>
       </c>
       <c r="D16" s="67" t="s">
@@ -4905,17 +5549,17 @@
         <v>165</v>
       </c>
       <c r="F16" s="96"/>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="147">
         <v>5</v>
       </c>
       <c r="I16" s="101"/>
     </row>
-    <row r="17" spans="1:19" ht="16" thickBot="1">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -4926,17 +5570,17 @@
         <v>3.41</v>
       </c>
       <c r="F17" s="93"/>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="128">
+      <c r="H17" s="148">
         <v>11.5</v>
       </c>
       <c r="I17" s="102"/>
     </row>
-    <row r="18" spans="1:19" ht="17">
-      <c r="A18" s="166"/>
-      <c r="B18" s="168" t="s">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="173"/>
+      <c r="B18" s="175" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -4949,10 +5593,10 @@
         <v>170</v>
       </c>
       <c r="F18" s="98"/>
-      <c r="G18" s="126" t="s">
+      <c r="G18" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="126">
+      <c r="H18" s="146">
         <v>3</v>
       </c>
       <c r="I18" s="100"/>
@@ -4960,13 +5604,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="166"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="125">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="173"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="145">
         <v>44397</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="147" t="s">
         <v>153</v>
       </c>
       <c r="E19" s="89" t="s">
@@ -4975,10 +5619,10 @@
       <c r="F19" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="127">
+      <c r="H19" s="147">
         <v>3</v>
       </c>
       <c r="I19" s="72" t="s">
@@ -4988,13 +5632,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="166"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="125">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="145">
         <v>44398</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="147" t="s">
         <v>153</v>
       </c>
       <c r="E20" s="89" t="s">
@@ -5003,10 +5647,10 @@
       <c r="F20" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="147">
         <v>4</v>
       </c>
       <c r="I20" s="72" t="s">
@@ -5016,13 +5660,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="166"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="125">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="173"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="145">
         <v>44399</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="147" t="s">
         <v>153</v>
       </c>
       <c r="E21" s="89" t="s">
@@ -5031,10 +5675,10 @@
       <c r="F21" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="127" t="s">
+      <c r="G21" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="127">
+      <c r="H21" s="147">
         <v>5</v>
       </c>
       <c r="I21" s="72" t="s">
@@ -5044,39 +5688,39 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="166"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="125">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="173"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="145">
         <v>44400</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="89"/>
       <c r="F22" s="90"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="101"/>
       <c r="L22" s="73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="166"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="125">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="173"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="145">
         <v>44401</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="147" t="s">
         <v>153</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="127">
+      <c r="H23" s="147">
         <v>7</v>
       </c>
       <c r="I23" s="72" t="s">
@@ -5098,51 +5742,53 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16" thickBot="1">
-      <c r="A24" s="166"/>
-      <c r="B24" s="167"/>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="D24" s="148" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="128" t="s">
+      <c r="G24" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="128">
+      <c r="H24" s="148">
         <v>5</v>
       </c>
       <c r="I24" s="102"/>
       <c r="L24" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="38"/>
+      <c r="M24" s="39" t="s">
+        <v>252</v>
+      </c>
       <c r="N24" s="38"/>
     </row>
-    <row r="25" spans="1:19" ht="32">
-      <c r="A25" s="166"/>
-      <c r="B25" s="168" t="s">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="173"/>
+      <c r="B25" s="175" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
         <v>44403</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="146" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="87"/>
       <c r="F25" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="129" t="s">
+      <c r="G25" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25" s="146">
         <v>13</v>
       </c>
       <c r="I25" s="100"/>
@@ -5151,13 +5797,13 @@
       </c>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:19" ht="32">
-      <c r="A26" s="166"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="125">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="173"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="145">
         <v>44404</v>
       </c>
-      <c r="D26" s="127" t="s">
+      <c r="D26" s="147" t="s">
         <v>204</v>
       </c>
       <c r="E26" s="89"/>
@@ -5167,7 +5813,7 @@
       <c r="G26" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H26" s="147">
         <v>13</v>
       </c>
       <c r="I26" s="74" t="s">
@@ -5177,13 +5823,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="32">
-      <c r="A27" s="166"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="125">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="173"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="145">
         <v>44405</v>
       </c>
-      <c r="D27" s="127" t="s">
+      <c r="D27" s="147" t="s">
         <v>183</v>
       </c>
       <c r="E27" s="89"/>
@@ -5193,7 +5839,7 @@
       <c r="G27" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="127">
+      <c r="H27" s="147">
         <v>8</v>
       </c>
       <c r="I27" s="101"/>
@@ -5201,13 +5847,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="32">
-      <c r="A28" s="166"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="125">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="173"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="145">
         <v>44406</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="147" t="s">
         <v>183</v>
       </c>
       <c r="E28" s="89" t="s">
@@ -5219,7 +5865,7 @@
       <c r="G28" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="127">
+      <c r="H28" s="147">
         <v>11</v>
       </c>
       <c r="I28" s="75" t="s">
@@ -5229,13 +5875,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="32">
-      <c r="A29" s="166"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="125">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="173"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="145">
         <v>44407</v>
       </c>
-      <c r="D29" s="127" t="s">
+      <c r="D29" s="147" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="89" t="s">
@@ -5247,7 +5893,7 @@
       <c r="G29" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="H29" s="127">
+      <c r="H29" s="147">
         <v>13</v>
       </c>
       <c r="I29" s="101"/>
@@ -5255,13 +5901,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="166"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="125">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="173"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="145">
         <v>44408</v>
       </c>
-      <c r="D30" s="127" t="s">
+      <c r="D30" s="147" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="89" t="s">
@@ -5270,10 +5916,10 @@
       <c r="F30" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="127" t="s">
+      <c r="G30" s="147" t="s">
         <v>212</v>
       </c>
-      <c r="H30" s="127">
+      <c r="H30" s="147">
         <v>9</v>
       </c>
       <c r="I30" s="101"/>
@@ -5281,13 +5927,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="16" thickBot="1">
-      <c r="A31" s="167"/>
-      <c r="B31" s="167"/>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="174"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
-      <c r="D31" s="128" t="s">
+      <c r="D31" s="148" t="s">
         <v>214</v>
       </c>
       <c r="E31" s="92" t="s">
@@ -5296,30 +5942,30 @@
       <c r="F31" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="128" t="s">
+      <c r="G31" s="148" t="s">
         <v>213</v>
       </c>
-      <c r="H31" s="128">
+      <c r="H31" s="148">
         <v>11</v>
       </c>
       <c r="I31" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="73" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="173" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="180" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="176" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
         <v>44410</v>
       </c>
-      <c r="D32" s="132" t="s">
+      <c r="D32" s="150" t="s">
         <v>216</v>
       </c>
       <c r="E32" s="115" t="s">
@@ -5328,28 +5974,28 @@
       <c r="F32" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="132" t="s">
+      <c r="G32" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="132">
+      <c r="H32" s="150">
         <v>3</v>
       </c>
       <c r="I32" s="117"/>
       <c r="K32" s="78"/>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="73" t="s">
         <v>69</v>
       </c>
       <c r="S32" s="37" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="174"/>
-      <c r="B33" s="170"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="181"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
-      <c r="D33" s="133" t="s">
+      <c r="D33" s="151" t="s">
         <v>216</v>
       </c>
       <c r="E33" s="107" t="s">
@@ -5358,10 +6004,10 @@
       <c r="F33" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="133" t="s">
+      <c r="G33" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="133">
+      <c r="H33" s="151">
         <v>4</v>
       </c>
       <c r="I33" s="112"/>
@@ -5370,13 +6016,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="174"/>
-      <c r="B34" s="170"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="181"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
-      <c r="D34" s="133" t="s">
+      <c r="D34" s="151" t="s">
         <v>216</v>
       </c>
       <c r="E34" s="107" t="s">
@@ -5388,7 +6034,7 @@
       <c r="G34" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="H34" s="133">
+      <c r="H34" s="151">
         <v>4</v>
       </c>
       <c r="I34" s="72" t="s">
@@ -5399,23 +6045,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="174"/>
-      <c r="B35" s="170"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="181"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
-      <c r="D35" s="133" t="s">
+      <c r="D35" s="151" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="107"/>
       <c r="F35" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="133" t="s">
+      <c r="G35" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="H35" s="133">
+      <c r="H35" s="151">
         <v>2</v>
       </c>
       <c r="I35" s="112"/>
@@ -5424,42 +6070,42 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="174"/>
-      <c r="B36" s="170"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="181"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
-      <c r="D36" s="133"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="107"/>
       <c r="F36" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
       <c r="I36" s="112"/>
       <c r="K36" s="78"/>
       <c r="L36" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="174"/>
-      <c r="B37" s="170"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="181"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
-      <c r="D37" s="133" t="s">
+      <c r="D37" s="151" t="s">
         <v>245</v>
       </c>
       <c r="E37" s="107"/>
       <c r="F37" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="133" t="s">
+      <c r="G37" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="H37" s="133">
+      <c r="H37" s="151">
         <v>11</v>
       </c>
       <c r="I37" s="112"/>
@@ -5468,9 +6114,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16" thickBot="1">
-      <c r="A38" s="174"/>
-      <c r="B38" s="171"/>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="181"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -5481,10 +6127,10 @@
         <v>211</v>
       </c>
       <c r="F38" s="121"/>
-      <c r="G38" s="134" t="s">
+      <c r="G38" s="152" t="s">
         <v>227</v>
       </c>
-      <c r="H38" s="134">
+      <c r="H38" s="152">
         <v>11</v>
       </c>
       <c r="I38" s="122"/>
@@ -5493,25 +6139,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="174"/>
-      <c r="B39" s="169" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="181"/>
+      <c r="B39" s="176" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
         <v>44417</v>
       </c>
-      <c r="D39" s="132" t="s">
+      <c r="D39" s="150" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="123"/>
       <c r="F39" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="132" t="s">
+      <c r="G39" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="132">
+      <c r="H39" s="150">
         <v>3</v>
       </c>
       <c r="I39" s="117"/>
@@ -5520,23 +6166,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="174"/>
-      <c r="B40" s="170"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="181"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
-      <c r="D40" s="133" t="s">
+      <c r="D40" s="151" t="s">
         <v>63</v>
       </c>
       <c r="E40" s="107"/>
       <c r="F40" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="133" t="s">
+      <c r="G40" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="H40" s="133">
+      <c r="H40" s="151">
         <v>2</v>
       </c>
       <c r="I40" s="112"/>
@@ -5545,9 +6191,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="32">
-      <c r="A41" s="174"/>
-      <c r="B41" s="170"/>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="181"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -5561,7 +6207,7 @@
       <c r="G41" s="110" t="s">
         <v>233</v>
       </c>
-      <c r="H41" s="133">
+      <c r="H41" s="151">
         <v>3</v>
       </c>
       <c r="I41" s="112"/>
@@ -5569,23 +6215,23 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="174"/>
-      <c r="B42" s="170"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="181"/>
+      <c r="B42" s="177"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="151" t="s">
         <v>234</v>
       </c>
       <c r="E42" s="107"/>
       <c r="F42" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="133" t="s">
+      <c r="G42" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="H42" s="133">
+      <c r="H42" s="151">
         <v>3</v>
       </c>
       <c r="I42" s="112"/>
@@ -5593,41 +6239,41 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="174"/>
-      <c r="B43" s="170"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="181"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
-      <c r="D43" s="133"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="107"/>
       <c r="F43" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
       <c r="I43" s="112"/>
       <c r="L43" s="38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="174"/>
-      <c r="B44" s="170"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="181"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
-      <c r="D44" s="133" t="s">
+      <c r="D44" s="151" t="s">
         <v>70</v>
       </c>
       <c r="E44" s="107"/>
       <c r="F44" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="G44" s="133" t="s">
+      <c r="G44" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="133">
+      <c r="H44" s="151">
         <v>9</v>
       </c>
       <c r="I44" s="112"/>
@@ -5635,23 +6281,23 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" thickBot="1">
-      <c r="A45" s="174"/>
-      <c r="B45" s="171"/>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="181"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
-      <c r="D45" s="134" t="s">
+      <c r="D45" s="152" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="120"/>
       <c r="F45" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="134" t="s">
+      <c r="G45" s="152" t="s">
         <v>236</v>
       </c>
-      <c r="H45" s="134">
+      <c r="H45" s="152">
         <v>8</v>
       </c>
       <c r="I45" s="77" t="s">
@@ -5661,25 +6307,25 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="174"/>
-      <c r="B46" s="169" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="181"/>
+      <c r="B46" s="176" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
         <v>44424</v>
       </c>
-      <c r="D46" s="132" t="s">
+      <c r="D46" s="150" t="s">
         <v>237</v>
       </c>
       <c r="E46" s="123"/>
       <c r="F46" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="G46" s="132" t="s">
+      <c r="G46" s="150" t="s">
         <v>238</v>
       </c>
-      <c r="H46" s="132">
+      <c r="H46" s="150">
         <v>3</v>
       </c>
       <c r="I46" s="124" t="s">
@@ -5689,13 +6335,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="174"/>
-      <c r="B47" s="170"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="181"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
-      <c r="D47" s="133" t="s">
+      <c r="D47" s="151" t="s">
         <v>239</v>
       </c>
       <c r="E47" s="107"/>
@@ -5705,33 +6351,33 @@
       <c r="G47" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="133">
+      <c r="H47" s="151">
         <v>5</v>
       </c>
       <c r="I47" s="112"/>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="174"/>
-      <c r="B48" s="170"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="181"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
-      <c r="D48" s="133"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="107"/>
       <c r="F48" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
       <c r="I48" s="112"/>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="174"/>
-      <c r="B49" s="170"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="181"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="151" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="107"/>
@@ -5739,109 +6385,109 @@
         <v>230</v>
       </c>
       <c r="G49" s="109"/>
-      <c r="H49" s="133"/>
+      <c r="H49" s="151"/>
       <c r="I49" s="112"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="174"/>
-      <c r="B50" s="170"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="181"/>
+      <c r="B50" s="177"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
-      <c r="D50" s="133"/>
+      <c r="D50" s="151"/>
       <c r="E50" s="107"/>
       <c r="F50" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
       <c r="I50" s="112"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="174"/>
-      <c r="B51" s="170"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="181"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
-      <c r="D51" s="133"/>
+      <c r="D51" s="151"/>
       <c r="E51" s="107"/>
       <c r="F51" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
       <c r="I51" s="112"/>
     </row>
-    <row r="52" spans="1:10" ht="16" thickBot="1">
-      <c r="A52" s="174"/>
-      <c r="B52" s="171"/>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="181"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
-      <c r="D52" s="134" t="s">
+      <c r="D52" s="152" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="120"/>
       <c r="F52" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="134" t="s">
+      <c r="G52" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="H52" s="134">
+      <c r="H52" s="152">
         <v>4</v>
       </c>
       <c r="I52" s="122"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="174"/>
-      <c r="B53" s="172" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="181"/>
+      <c r="B53" s="179" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
         <v>44431</v>
       </c>
-      <c r="D53" s="135" t="s">
+      <c r="D53" s="153" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="113"/>
       <c r="F53" s="106"/>
-      <c r="G53" s="135" t="s">
+      <c r="G53" s="153" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="135">
+      <c r="H53" s="153">
         <v>3</v>
       </c>
       <c r="I53" s="111"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="174"/>
-      <c r="B54" s="170"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="181"/>
+      <c r="B54" s="177"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
-      <c r="D54" s="133" t="s">
+      <c r="D54" s="151" t="s">
         <v>66</v>
       </c>
       <c r="E54" s="107"/>
       <c r="F54" s="108"/>
-      <c r="G54" s="133" t="s">
+      <c r="G54" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="H54" s="133">
+      <c r="H54" s="151">
         <v>3</v>
       </c>
       <c r="I54" s="72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="174"/>
-      <c r="B55" s="170"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="181"/>
+      <c r="B55" s="177"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
-      <c r="D55" s="133" t="s">
+      <c r="D55" s="151" t="s">
         <v>242</v>
       </c>
       <c r="E55" s="107"/>
@@ -5849,598 +6495,611 @@
       <c r="G55" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="H55" s="133">
+      <c r="H55" s="151">
         <v>4</v>
       </c>
       <c r="I55" s="112"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="174"/>
-      <c r="B56" s="170"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="181"/>
+      <c r="B56" s="177"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
-      <c r="D56" s="133" t="s">
+      <c r="D56" s="151" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="107" t="s">
         <v>244</v>
       </c>
       <c r="F56" s="108"/>
-      <c r="G56" s="133" t="s">
+      <c r="G56" s="151" t="s">
         <v>243</v>
       </c>
-      <c r="H56" s="133">
+      <c r="H56" s="151">
         <v>14</v>
       </c>
       <c r="I56" s="72" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="174"/>
-      <c r="B57" s="170"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="181"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
-      <c r="D57" s="133" t="s">
+      <c r="D57" s="151" t="s">
         <v>246</v>
       </c>
       <c r="E57" s="107" t="s">
         <v>248</v>
       </c>
       <c r="F57" s="108"/>
-      <c r="G57" s="133" t="s">
+      <c r="G57" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="H57" s="133">
+      <c r="H57" s="151">
         <v>1</v>
       </c>
       <c r="I57" s="112"/>
     </row>
-    <row r="58" spans="1:10" ht="32">
-      <c r="A58" s="174"/>
-      <c r="B58" s="170"/>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="181"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
-      <c r="D58" s="133" t="s">
+      <c r="D58" s="151" t="s">
         <v>69</v>
       </c>
       <c r="E58" s="107" t="s">
         <v>211</v>
       </c>
       <c r="F58" s="108"/>
-      <c r="G58" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="H58" s="133">
+      <c r="G58" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="H58" s="151">
         <v>13</v>
       </c>
       <c r="I58" s="112"/>
     </row>
-    <row r="59" spans="1:10" ht="16" thickBot="1">
-      <c r="A59" s="175"/>
-      <c r="B59" s="171"/>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="182"/>
+      <c r="B59" s="178"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
-      <c r="D59" s="134" t="s">
+      <c r="D59" s="152" t="s">
         <v>69</v>
       </c>
       <c r="E59" s="120" t="s">
         <v>211</v>
       </c>
       <c r="F59" s="121"/>
-      <c r="G59" s="139" t="s">
-        <v>263</v>
-      </c>
-      <c r="H59" s="134">
+      <c r="G59" s="128" t="s">
+        <v>250</v>
+      </c>
+      <c r="H59" s="152">
         <v>9</v>
       </c>
       <c r="I59" s="122"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="159" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" s="162" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="167" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="140">
+      <c r="C60" s="129">
         <v>44438</v>
       </c>
-      <c r="D60" s="141" t="s">
-        <v>266</v>
-      </c>
-      <c r="E60" s="142" t="s">
+      <c r="D60" s="144" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="F60" s="142"/>
-      <c r="G60" s="141" t="s">
-        <v>274</v>
-      </c>
-      <c r="H60" s="141">
+      <c r="F60" s="130"/>
+      <c r="G60" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="H60" s="144">
         <v>5</v>
       </c>
-      <c r="I60" s="143"/>
-      <c r="J60" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="160"/>
-      <c r="B61" s="160"/>
-      <c r="C61" s="144">
+      <c r="I60" s="131"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="132">
         <v>44439</v>
       </c>
-      <c r="D61" s="145" t="s">
+      <c r="D61" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="146" t="s">
+      <c r="E61" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="F61" s="146"/>
-      <c r="G61" s="145" t="s">
-        <v>274</v>
-      </c>
-      <c r="H61" s="145">
+      <c r="F61" s="133"/>
+      <c r="G61" s="142" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" s="142">
         <v>5</v>
       </c>
-      <c r="I61" s="147"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="160"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="144">
+      <c r="I61" s="134"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="168"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="132">
         <v>44440</v>
       </c>
-      <c r="D62" s="145" t="s">
+      <c r="D62" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="146" t="s">
+      <c r="E62" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="F62" s="146"/>
-      <c r="G62" s="145" t="s">
+      <c r="F62" s="133"/>
+      <c r="G62" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="H62" s="145">
+      <c r="H62" s="142">
         <v>4</v>
       </c>
-      <c r="I62" s="147"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="160"/>
-      <c r="B63" s="160"/>
-      <c r="C63" s="144">
+      <c r="I62" s="134"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="132">
         <v>44441</v>
       </c>
-      <c r="D63" s="158" t="s">
+      <c r="D63" s="142" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" s="133"/>
+      <c r="F63" s="133"/>
+      <c r="G63" s="142" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="142">
+        <v>3</v>
+      </c>
+      <c r="I63" s="134"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="168"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="132">
+        <v>44442</v>
+      </c>
+      <c r="D64" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="145" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" s="145">
-        <v>3</v>
-      </c>
-      <c r="I63" s="147"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="160"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="144">
-        <v>44442</v>
-      </c>
-      <c r="D64" s="145" t="s">
-        <v>281</v>
-      </c>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="147"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="160"/>
-      <c r="B65" s="160"/>
-      <c r="C65" s="144">
+      <c r="G64" s="142"/>
+      <c r="H64" s="142">
+        <v>5</v>
+      </c>
+      <c r="I64" s="134"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="168"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="132">
         <v>44443</v>
       </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="145"/>
-      <c r="H65" s="145"/>
-      <c r="I65" s="147"/>
-    </row>
-    <row r="66" spans="1:9" ht="16" thickBot="1">
-      <c r="A66" s="160"/>
-      <c r="B66" s="161"/>
-      <c r="C66" s="148">
+      <c r="D65" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="133" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="133"/>
+      <c r="G65" s="142" t="s">
+        <v>304</v>
+      </c>
+      <c r="H65" s="142">
+        <v>7</v>
+      </c>
+      <c r="I65" s="72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="168"/>
+      <c r="B66" s="169"/>
+      <c r="C66" s="135">
         <v>44444</v>
       </c>
-      <c r="D66" s="149"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="149"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="151"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="160"/>
-      <c r="B67" s="162" t="s">
+      <c r="D66" s="143"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="137"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="168"/>
+      <c r="B67" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="140">
+      <c r="C67" s="129">
         <v>44445</v>
       </c>
-      <c r="D67" s="141"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="143"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="160"/>
-      <c r="B68" s="160"/>
-      <c r="C68" s="144">
+      <c r="D67" s="144"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="131"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="168"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="132">
         <v>44446</v>
       </c>
-      <c r="D68" s="145"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="145"/>
-      <c r="H68" s="145"/>
-      <c r="I68" s="147"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="160"/>
-      <c r="B69" s="160"/>
-      <c r="C69" s="144">
+      <c r="D68" s="142"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="133"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="142"/>
+      <c r="I68" s="134"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="168"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="132">
         <v>44447</v>
       </c>
-      <c r="D69" s="145"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="145"/>
-      <c r="H69" s="145"/>
-      <c r="I69" s="147"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="160"/>
-      <c r="B70" s="160"/>
-      <c r="C70" s="144">
+      <c r="D69" s="142"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="134"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="168"/>
+      <c r="B70" s="168"/>
+      <c r="C70" s="132">
         <v>44448</v>
       </c>
-      <c r="D70" s="145"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="146"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="145"/>
-      <c r="I70" s="147"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="160"/>
-      <c r="B71" s="160"/>
-      <c r="C71" s="144">
+      <c r="D70" s="142"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="134"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="168"/>
+      <c r="B71" s="168"/>
+      <c r="C71" s="132">
         <v>44449</v>
       </c>
-      <c r="D71" s="145"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="145"/>
-      <c r="H71" s="145"/>
-      <c r="I71" s="147"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="160"/>
-      <c r="B72" s="160"/>
-      <c r="C72" s="144">
+      <c r="D71" s="142"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="133"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="134"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="168"/>
+      <c r="B72" s="168"/>
+      <c r="C72" s="132">
         <v>44450</v>
       </c>
-      <c r="D72" s="145"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="145"/>
-      <c r="H72" s="145"/>
-      <c r="I72" s="147"/>
-    </row>
-    <row r="73" spans="1:9" ht="16" thickBot="1">
-      <c r="A73" s="160"/>
-      <c r="B73" s="161"/>
-      <c r="C73" s="148">
+      <c r="D72" s="142"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="207" t="s">
+        <v>305</v>
+      </c>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="134"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="168"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="135">
         <v>44451</v>
       </c>
-      <c r="D73" s="149"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="150"/>
-      <c r="G73" s="149"/>
-      <c r="H73" s="149"/>
-      <c r="I73" s="151"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="160"/>
-      <c r="B74" s="162" t="s">
+      <c r="D73" s="143"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="137"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="168"/>
+      <c r="B74" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="C74" s="140">
+      <c r="C74" s="129">
         <v>44452</v>
       </c>
-      <c r="D74" s="141"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="143"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="160"/>
-      <c r="B75" s="160"/>
-      <c r="C75" s="144">
+      <c r="D74" s="144"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="144"/>
+      <c r="H74" s="144"/>
+      <c r="I74" s="131"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="168"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="132">
         <v>44453</v>
       </c>
-      <c r="D75" s="145"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="145"/>
-      <c r="H75" s="145"/>
-      <c r="I75" s="147"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="160"/>
-      <c r="B76" s="160"/>
-      <c r="C76" s="144">
+      <c r="D75" s="142"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="133"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="134"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="168"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="132">
         <v>44454</v>
       </c>
-      <c r="D76" s="145"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="145"/>
-      <c r="H76" s="145"/>
-      <c r="I76" s="147"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="160"/>
-      <c r="B77" s="160"/>
-      <c r="C77" s="144">
+      <c r="D76" s="142"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="142"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="134"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="168"/>
+      <c r="B77" s="168"/>
+      <c r="C77" s="132">
         <v>44455</v>
       </c>
-      <c r="D77" s="145"/>
-      <c r="E77" s="146"/>
-      <c r="F77" s="146"/>
-      <c r="G77" s="145"/>
-      <c r="H77" s="145"/>
-      <c r="I77" s="147"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="160"/>
-      <c r="B78" s="160"/>
-      <c r="C78" s="144">
+      <c r="D77" s="142"/>
+      <c r="E77" s="133"/>
+      <c r="F77" s="133"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="134"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="168"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="132">
         <v>44456</v>
       </c>
-      <c r="D78" s="145"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="145"/>
-      <c r="H78" s="145"/>
-      <c r="I78" s="147"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="160"/>
-      <c r="B79" s="160"/>
-      <c r="C79" s="144">
+      <c r="D78" s="142"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="134"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="168"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="132">
         <v>44457</v>
       </c>
-      <c r="D79" s="145"/>
-      <c r="E79" s="146"/>
-      <c r="F79" s="146"/>
-      <c r="G79" s="145"/>
-      <c r="H79" s="145"/>
-      <c r="I79" s="147"/>
-    </row>
-    <row r="80" spans="1:9" ht="16" thickBot="1">
-      <c r="A80" s="160"/>
-      <c r="B80" s="161"/>
-      <c r="C80" s="148">
+      <c r="D79" s="142"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="133"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="134"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="168"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="135">
         <v>44458</v>
       </c>
-      <c r="D80" s="149"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="149"/>
-      <c r="H80" s="149"/>
-      <c r="I80" s="151"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="160"/>
-      <c r="B81" s="162" t="s">
+      <c r="D80" s="143"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="143"/>
+      <c r="H80" s="143"/>
+      <c r="I80" s="137"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="168"/>
+      <c r="B81" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="140">
+      <c r="C81" s="129">
         <v>44459</v>
       </c>
-      <c r="D81" s="141"/>
-      <c r="E81" s="142"/>
-      <c r="F81" s="142"/>
-      <c r="G81" s="141"/>
-      <c r="H81" s="141"/>
-      <c r="I81" s="143"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="160"/>
-      <c r="B82" s="160"/>
-      <c r="C82" s="144">
+      <c r="D81" s="144"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="131"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="168"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="132">
         <v>44460</v>
       </c>
-      <c r="D82" s="145"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="146"/>
-      <c r="G82" s="145"/>
-      <c r="H82" s="145"/>
-      <c r="I82" s="147"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="160"/>
-      <c r="B83" s="160"/>
-      <c r="C83" s="144">
+      <c r="D82" s="142"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="133"/>
+      <c r="G82" s="142"/>
+      <c r="H82" s="142"/>
+      <c r="I82" s="134"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="168"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="132">
         <v>44461</v>
       </c>
-      <c r="D83" s="145"/>
-      <c r="E83" s="146"/>
-      <c r="F83" s="146"/>
-      <c r="G83" s="145"/>
-      <c r="H83" s="145"/>
-      <c r="I83" s="147"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="160"/>
-      <c r="B84" s="160"/>
-      <c r="C84" s="144">
+      <c r="D83" s="142"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="133"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="142"/>
+      <c r="I83" s="134"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="168"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="132">
         <v>44462</v>
       </c>
-      <c r="D84" s="145"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="145"/>
-      <c r="H84" s="145"/>
-      <c r="I84" s="147"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="160"/>
-      <c r="B85" s="160"/>
-      <c r="C85" s="144">
+      <c r="D84" s="142"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="133"/>
+      <c r="G84" s="142"/>
+      <c r="H84" s="142"/>
+      <c r="I84" s="134"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="168"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="132">
         <v>44463</v>
       </c>
-      <c r="D85" s="145"/>
-      <c r="E85" s="146"/>
-      <c r="F85" s="146"/>
-      <c r="G85" s="145"/>
-      <c r="H85" s="145"/>
-      <c r="I85" s="147"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="160"/>
-      <c r="B86" s="160"/>
-      <c r="C86" s="144">
+      <c r="D85" s="142"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="133"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="134"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="168"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="132">
         <v>44464</v>
       </c>
-      <c r="D86" s="145"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="145"/>
-      <c r="H86" s="145"/>
-      <c r="I86" s="147"/>
-    </row>
-    <row r="87" spans="1:9" ht="16" thickBot="1">
-      <c r="A87" s="160"/>
-      <c r="B87" s="161"/>
-      <c r="C87" s="148">
+      <c r="D86" s="142"/>
+      <c r="E86" s="133"/>
+      <c r="F86" s="133"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="134"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="135">
         <v>44465</v>
       </c>
-      <c r="D87" s="149"/>
-      <c r="E87" s="150"/>
-      <c r="F87" s="150"/>
-      <c r="G87" s="149"/>
-      <c r="H87" s="149"/>
-      <c r="I87" s="151"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="160"/>
-      <c r="B88" s="163" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" s="152">
+      <c r="D87" s="143"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="137"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="168"/>
+      <c r="B88" s="170" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="138">
         <v>44466</v>
       </c>
-      <c r="D88" s="153"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="153"/>
-      <c r="H88" s="153"/>
-      <c r="I88" s="155"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="160"/>
-      <c r="B89" s="160"/>
-      <c r="C89" s="144">
+      <c r="D88" s="139"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="139"/>
+      <c r="I88" s="141"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="168"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="132">
         <v>44467</v>
       </c>
-      <c r="D89" s="145"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="145"/>
-      <c r="H89" s="145"/>
-      <c r="I89" s="147"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="160"/>
-      <c r="B90" s="160"/>
-      <c r="C90" s="144">
+      <c r="D89" s="142"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="133"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="134"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="168"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="132">
         <v>44468</v>
       </c>
-      <c r="D90" s="145"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="145"/>
-      <c r="H90" s="145"/>
-      <c r="I90" s="147"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="160"/>
-      <c r="B91" s="160"/>
-      <c r="C91" s="144">
+      <c r="D90" s="142"/>
+      <c r="E90" s="133"/>
+      <c r="F90" s="133"/>
+      <c r="G90" s="142"/>
+      <c r="H90" s="142"/>
+      <c r="I90" s="134"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="168"/>
+      <c r="B91" s="168"/>
+      <c r="C91" s="132">
         <v>44469</v>
       </c>
-      <c r="D91" s="145"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="146"/>
-      <c r="G91" s="145"/>
-      <c r="H91" s="145"/>
-      <c r="I91" s="147"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="160"/>
-      <c r="B92" s="160"/>
-      <c r="C92" s="144">
+      <c r="D91" s="142"/>
+      <c r="E91" s="133"/>
+      <c r="F91" s="133"/>
+      <c r="G91" s="142"/>
+      <c r="H91" s="142"/>
+      <c r="I91" s="134"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="168"/>
+      <c r="B92" s="168"/>
+      <c r="C92" s="132">
         <v>44470</v>
       </c>
-      <c r="D92" s="145"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="146"/>
-      <c r="G92" s="145"/>
-      <c r="H92" s="145"/>
-      <c r="I92" s="147"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="160"/>
-      <c r="B93" s="160"/>
-      <c r="C93" s="144">
+      <c r="D92" s="142"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="133"/>
+      <c r="G92" s="142"/>
+      <c r="H92" s="142"/>
+      <c r="I92" s="134"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="168"/>
+      <c r="B93" s="168"/>
+      <c r="C93" s="132">
         <v>44471</v>
       </c>
-      <c r="D93" s="145"/>
-      <c r="E93" s="146"/>
-      <c r="F93" s="146"/>
-      <c r="G93" s="145"/>
-      <c r="H93" s="145"/>
-      <c r="I93" s="147"/>
-    </row>
-    <row r="94" spans="1:9" ht="16" thickBot="1">
-      <c r="A94" s="161"/>
-      <c r="B94" s="161"/>
-      <c r="C94" s="148">
+      <c r="D93" s="142"/>
+      <c r="E93" s="133"/>
+      <c r="F93" s="133"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
+      <c r="I93" s="134"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="169"/>
+      <c r="B94" s="169"/>
+      <c r="C94" s="135">
         <v>44472</v>
       </c>
-      <c r="D94" s="149"/>
-      <c r="E94" s="150"/>
-      <c r="F94" s="150"/>
-      <c r="G94" s="149"/>
-      <c r="H94" s="149"/>
-      <c r="I94" s="151"/>
+      <c r="D94" s="143"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="136"/>
+      <c r="G94" s="143"/>
+      <c r="H94" s="143"/>
+      <c r="I94" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6472,442 +7131,444 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373594B2-FED4-4FED-B7E8-06EFC8E46E82}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="37"/>
+    <col min="3" max="4" width="13.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1">
-      <c r="A1" s="205" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="204" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="204" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="204" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="204" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="204" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="204" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="204" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="204" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="204" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="154">
+        <v>44435</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="155" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="154">
+        <v>44435</v>
+      </c>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="156">
+        <v>44435</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="157" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="158">
+        <v>44436</v>
+      </c>
+      <c r="B4" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="159" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="159" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="158">
+        <v>44438</v>
+      </c>
+      <c r="I4" s="159"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="160">
+        <v>44436</v>
+      </c>
+      <c r="B5" s="161" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="161" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="161" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="161" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="205" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="205" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="205" t="s">
+      <c r="H5" s="162">
+        <v>44442.604166666664</v>
+      </c>
+      <c r="I5" s="161" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="205" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" s="205" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="205" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="160">
+        <v>44437</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="205" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" s="205" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="203">
-        <v>44435</v>
-      </c>
-      <c r="B2" s="204" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="204" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204" t="s">
+      <c r="D6" s="161" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="161" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="161" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="163">
+        <v>44442.791666666664</v>
+      </c>
+      <c r="I6" s="164" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="203">
-        <v>44435</v>
-      </c>
-      <c r="I2" s="204"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="137">
-        <v>44435</v>
-      </c>
-      <c r="B3" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="157">
-        <v>44436</v>
-      </c>
-      <c r="B4" s="156" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="165">
+        <v>44439</v>
+      </c>
+      <c r="B7" s="166" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="166" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="156" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="156" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="156" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="157">
-        <v>44438</v>
-      </c>
-      <c r="I4" s="156"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="196">
-        <v>44436</v>
-      </c>
-      <c r="B5" s="197" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="197" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="197" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="197" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="197" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" s="197" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="198">
-        <v>44442.604166666664</v>
-      </c>
-      <c r="I5" s="197" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="196">
-        <v>44437</v>
-      </c>
-      <c r="B6" s="197" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="166" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="197" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="197" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="197" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="197" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="197" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="199">
-        <v>44442.791666666664</v>
-      </c>
-      <c r="I6" s="200" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="201">
-        <v>44439</v>
-      </c>
-      <c r="B7" s="202" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="202" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="202" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="201">
+      <c r="H7" s="165">
         <v>44450</v>
       </c>
-      <c r="I7" s="202"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="138"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="138"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="138"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="138"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="138"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="138"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="138"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
+      <c r="I7" s="166"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="157"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="157"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="157"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="157"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="157"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="157"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="157"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="157"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="157"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="157"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="157"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="157"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="157"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="157"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6920,26 +7581,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35D18D-4B8A-4300-A1BD-4C831E6DAB9D}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="9" style="37"/>
-    <col min="16" max="16" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="37" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
@@ -6965,11 +7626,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="179" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="191" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -6987,9 +7648,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="178"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="187"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -6999,9 +7660,9 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="180"/>
-      <c r="B4" s="185" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="187"/>
+      <c r="B4" s="192" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -7019,9 +7680,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="180"/>
-      <c r="B5" s="177"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="187"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -7037,10 +7698,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="180"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="188">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="187"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="195">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -7055,10 +7716,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
-      <c r="A7" s="180"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="189"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="187"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -7073,9 +7734,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
-      <c r="A8" s="180"/>
-      <c r="B8" s="177"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="187"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -7093,9 +7754,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="177"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="187"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -7113,9 +7774,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="180"/>
-      <c r="B10" s="177"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="187"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -7125,9 +7786,9 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="178"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="187"/>
+      <c r="B11" s="185"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -7143,9 +7804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="180"/>
-      <c r="B12" s="183" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
+      <c r="B12" s="190" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -7159,10 +7820,10 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="180"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="188">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="187"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="195">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7175,10 +7836,10 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="180"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="189"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="187"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="196"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -7189,9 +7850,9 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="180"/>
-      <c r="B15" s="177"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="187"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -7199,9 +7860,9 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="180"/>
-      <c r="B16" s="177"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="187"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -7211,9 +7872,9 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="180"/>
-      <c r="B17" s="177"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="187"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -7223,10 +7884,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="180"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="188">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="187"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="195">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7237,10 +7898,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="187"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="189"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="194"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="196"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7249,9 +7910,9 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1">
-      <c r="A20" s="181"/>
-      <c r="B20" s="178"/>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="188"/>
+      <c r="B20" s="185"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7263,11 +7924,11 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="179" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="192" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7281,9 +7942,9 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="180"/>
-      <c r="B22" s="177"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="187"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7295,10 +7956,10 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="180"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="188">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="187"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="195">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7309,10 +7970,10 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="180"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="189"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="187"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="196"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7323,10 +7984,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="180"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="188">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="187"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="195">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7339,10 +8000,10 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="180"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="189"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="187"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="196"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -7351,9 +8012,9 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="180"/>
-      <c r="B27" s="177"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="187"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -7363,9 +8024,9 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="180"/>
-      <c r="B28" s="177"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="187"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -7375,9 +8036,9 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="16" thickBot="1">
-      <c r="A29" s="180"/>
-      <c r="B29" s="178"/>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="187"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -7387,9 +8048,9 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="180"/>
-      <c r="B30" s="185" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="187"/>
+      <c r="B30" s="192" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -7401,9 +8062,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="180"/>
-      <c r="B31" s="177"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="187"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -7413,9 +8074,9 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="180"/>
-      <c r="B32" s="177"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="187"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -7425,9 +8086,9 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="180"/>
-      <c r="B33" s="177"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="187"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -7437,9 +8098,9 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="180"/>
-      <c r="B34" s="177"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="187"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -7449,9 +8110,9 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="180"/>
-      <c r="B35" s="177"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="187"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -7461,9 +8122,9 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="16" thickBot="1">
-      <c r="A36" s="180"/>
-      <c r="B36" s="178"/>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="187"/>
+      <c r="B36" s="185"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -7473,9 +8134,9 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="180"/>
-      <c r="B37" s="185" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="187"/>
+      <c r="B37" s="192" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -7489,9 +8150,9 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="180"/>
-      <c r="B38" s="177"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="187"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -7505,9 +8166,9 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="180"/>
-      <c r="B39" s="177"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="187"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -7521,9 +8182,9 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="180"/>
-      <c r="B40" s="177"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="187"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -7537,9 +8198,9 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="180"/>
-      <c r="B41" s="177"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="187"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -7553,9 +8214,9 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="180"/>
-      <c r="B42" s="177"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="187"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -7569,9 +8230,9 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="16" thickBot="1">
-      <c r="A43" s="180"/>
-      <c r="B43" s="178"/>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="187"/>
+      <c r="B43" s="185"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -7585,9 +8246,9 @@
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="180"/>
-      <c r="B44" s="183" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="187"/>
+      <c r="B44" s="190" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -7603,9 +8264,9 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="180"/>
-      <c r="B45" s="177"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="187"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -7619,9 +8280,9 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="17">
-      <c r="A46" s="180"/>
-      <c r="B46" s="177"/>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="187"/>
+      <c r="B46" s="184"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -7637,9 +8298,9 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="180"/>
-      <c r="B47" s="177"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="187"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -7655,9 +8316,9 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="180"/>
-      <c r="B48" s="177"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="187"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -7671,9 +8332,9 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="180"/>
-      <c r="B49" s="177"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="187"/>
+      <c r="B49" s="184"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -7689,9 +8350,9 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="16" thickBot="1">
-      <c r="A50" s="181"/>
-      <c r="B50" s="178"/>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="188"/>
+      <c r="B50" s="185"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -7705,11 +8366,11 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="179" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="184" t="s">
+      <c r="B51" s="191" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -7727,9 +8388,9 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="180"/>
-      <c r="B52" s="177"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="187"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -7743,10 +8404,10 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="180"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="182">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="187"/>
+      <c r="B53" s="184"/>
+      <c r="C53" s="189">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7759,10 +8420,10 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="180"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="182"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="187"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="189"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -7773,9 +8434,9 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="180"/>
-      <c r="B55" s="177"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="187"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -7785,9 +8446,9 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="180"/>
-      <c r="B56" s="177"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="187"/>
+      <c r="B56" s="184"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -7799,9 +8460,9 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="180"/>
-      <c r="B57" s="177"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="187"/>
+      <c r="B57" s="184"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -7813,9 +8474,9 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="16" thickBot="1">
-      <c r="A58" s="180"/>
-      <c r="B58" s="178"/>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="187"/>
+      <c r="B58" s="185"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -7827,9 +8488,9 @@
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="180"/>
-      <c r="B59" s="184" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="187"/>
+      <c r="B59" s="191" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -7843,9 +8504,9 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="180"/>
-      <c r="B60" s="177"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="187"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -7859,9 +8520,9 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="180"/>
-      <c r="B61" s="177"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="187"/>
+      <c r="B61" s="184"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -7875,9 +8536,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="180"/>
-      <c r="B62" s="177"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="187"/>
+      <c r="B62" s="184"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -7891,9 +8552,9 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="180"/>
-      <c r="B63" s="177"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="187"/>
+      <c r="B63" s="184"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -7903,9 +8564,9 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="16" thickBot="1">
-      <c r="A64" s="180"/>
-      <c r="B64" s="177"/>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="187"/>
+      <c r="B64" s="184"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -7915,9 +8576,9 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="16" thickBot="1">
-      <c r="A65" s="180"/>
-      <c r="B65" s="178"/>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="187"/>
+      <c r="B65" s="185"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -7931,9 +8592,9 @@
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="180"/>
-      <c r="B66" s="176" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="187"/>
+      <c r="B66" s="183" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -7949,9 +8610,9 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" ht="16">
-      <c r="A67" s="180"/>
-      <c r="B67" s="177"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="187"/>
+      <c r="B67" s="184"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -7965,9 +8626,9 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="180"/>
-      <c r="B68" s="177"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="187"/>
+      <c r="B68" s="184"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -7979,9 +8640,9 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="16" thickBot="1">
-      <c r="A69" s="181"/>
-      <c r="B69" s="178"/>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="188"/>
+      <c r="B69" s="185"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -8027,21 +8688,21 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="9" style="37"/>
-    <col min="15" max="15" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="37" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -8067,11 +8728,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="177" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="184" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -8089,9 +8750,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="178"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="184"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -8107,9 +8768,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="177"/>
-      <c r="B4" s="183" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="184"/>
+      <c r="B4" s="190" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -8127,9 +8788,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="184"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -8145,9 +8806,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -8163,9 +8824,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="184"/>
+      <c r="B7" s="184"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -8181,9 +8842,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
-      <c r="A8" s="177"/>
-      <c r="B8" s="177"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="184"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -8199,9 +8860,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="184"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -8217,9 +8878,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="178"/>
-      <c r="B10" s="178"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="185"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8235,11 +8896,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="184" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="192" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8257,9 +8918,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="184"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8269,9 +8930,9 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="184"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8281,9 +8942,9 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="177"/>
-      <c r="B14" s="177"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="184"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8297,9 +8958,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="177"/>
-      <c r="B15" s="177"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="184"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8315,9 +8976,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="184"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8333,9 +8994,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32" thickBot="1">
-      <c r="A17" s="177"/>
-      <c r="B17" s="178"/>
+    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="184"/>
+      <c r="B17" s="185"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -8351,12 +9012,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="177"/>
-      <c r="B18" s="185" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="184"/>
+      <c r="B18" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="190">
+      <c r="C18" s="197">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -8371,10 +9032,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="177"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="191"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="184"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -8387,10 +9048,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="177"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="191"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="184"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -8403,9 +9064,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="184"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -8415,9 +9076,9 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="177"/>
-      <c r="B22" s="177"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="184"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -8427,9 +9088,9 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="177"/>
-      <c r="B23" s="177"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="184"/>
+      <c r="B23" s="184"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -8439,9 +9100,9 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="177"/>
-      <c r="B24" s="177"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="184"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -8451,10 +9112,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="177"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="191">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="184"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="198">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -8469,10 +9130,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="177"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="191"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="184"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="198"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -8485,9 +9146,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1">
-      <c r="A27" s="177"/>
-      <c r="B27" s="178"/>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -8503,9 +9164,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="177"/>
-      <c r="B28" s="185" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="184"/>
+      <c r="B28" s="192" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -8517,9 +9178,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="177"/>
-      <c r="B29" s="177"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="184"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -8535,9 +9196,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="177"/>
-      <c r="B30" s="177"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="184"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -8547,9 +9208,9 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="177"/>
-      <c r="B31" s="177"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="184"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -8565,9 +9226,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="177"/>
-      <c r="B32" s="177"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="184"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -8577,9 +9238,9 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="32">
-      <c r="A33" s="177"/>
-      <c r="B33" s="177"/>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="184"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -8595,10 +9256,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="177"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="191">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="184"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="198">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -8613,10 +9274,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" thickBot="1">
-      <c r="A35" s="177"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="192"/>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="184"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="199"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -8629,9 +9290,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="177"/>
-      <c r="B36" s="185" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="184"/>
+      <c r="B36" s="192" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -8643,9 +9304,9 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="177"/>
-      <c r="B37" s="177"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="184"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -8655,9 +9316,9 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="177"/>
-      <c r="B38" s="177"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="184"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="40">
         <v>44125</v>
       </c>
@@ -8667,9 +9328,9 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="177"/>
-      <c r="B39" s="177"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="184"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="40">
         <v>44126</v>
       </c>
@@ -8679,9 +9340,9 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="177"/>
-      <c r="B40" s="177"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="40">
         <v>44127</v>
       </c>
@@ -8691,9 +9352,9 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="177"/>
-      <c r="B41" s="177"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="184"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="40">
         <v>44128</v>
       </c>
@@ -8709,9 +9370,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16" thickBot="1">
-      <c r="A42" s="177"/>
-      <c r="B42" s="178"/>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="184"/>
+      <c r="B42" s="185"/>
       <c r="C42" s="52">
         <v>44129</v>
       </c>
@@ -8721,9 +9382,9 @@
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="177"/>
-      <c r="B43" s="176" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="184"/>
+      <c r="B43" s="183" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="49">
@@ -8741,9 +9402,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="177"/>
-      <c r="B44" s="177"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="184"/>
+      <c r="B44" s="184"/>
       <c r="C44" s="40">
         <v>44131</v>
       </c>
@@ -8759,9 +9420,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="184"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="40">
         <v>44132</v>
       </c>
@@ -8777,9 +9438,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="177"/>
-      <c r="B46" s="177"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="184"/>
+      <c r="B46" s="184"/>
       <c r="C46" s="40">
         <v>44133</v>
       </c>
@@ -8789,9 +9450,9 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="177"/>
-      <c r="B47" s="177"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="184"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="40">
         <v>44134</v>
       </c>
@@ -8801,9 +9462,9 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="177"/>
-      <c r="B48" s="177"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="184"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="40">
         <v>44135</v>
       </c>
@@ -8813,9 +9474,9 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="16" thickBot="1">
-      <c r="A49" s="178"/>
-      <c r="B49" s="178"/>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="185"/>
+      <c r="B49" s="185"/>
       <c r="C49" s="52">
         <v>44136</v>
       </c>
@@ -8831,11 +9492,11 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="184" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="185" t="s">
+      <c r="B50" s="192" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="57">
@@ -8847,9 +9508,9 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="177"/>
-      <c r="B51" s="177"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="184"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="40">
         <v>44138</v>
       </c>
@@ -8865,9 +9526,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="177"/>
-      <c r="B52" s="177"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="184"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="40">
         <v>44139</v>
       </c>
@@ -8877,9 +9538,9 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="177"/>
-      <c r="B53" s="177"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="184"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="40">
         <v>44140</v>
       </c>
@@ -8895,9 +9556,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="177"/>
-      <c r="B54" s="177"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="184"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="40">
         <v>44141</v>
       </c>
@@ -8907,9 +9568,9 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="184"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="40">
         <v>44142</v>
       </c>
@@ -8919,9 +9580,9 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="16" thickBot="1">
-      <c r="A56" s="177"/>
-      <c r="B56" s="178"/>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="184"/>
+      <c r="B56" s="185"/>
       <c r="C56" s="52">
         <v>44143</v>
       </c>
@@ -8937,9 +9598,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="177"/>
-      <c r="B57" s="185" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="184"/>
+      <c r="B57" s="192" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="57">
@@ -8957,9 +9618,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="177"/>
-      <c r="B58" s="177"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="184"/>
+      <c r="B58" s="184"/>
       <c r="C58" s="40">
         <v>44145</v>
       </c>
@@ -8975,9 +9636,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="177"/>
-      <c r="B59" s="177"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="184"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="40">
         <v>44146</v>
       </c>
@@ -8993,9 +9654,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="177"/>
-      <c r="B60" s="177"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="184"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="40">
         <v>44147</v>
       </c>
@@ -9011,9 +9672,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="177"/>
-      <c r="B61" s="177"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="184"/>
+      <c r="B61" s="184"/>
       <c r="C61" s="40">
         <v>44148</v>
       </c>
@@ -9023,9 +9684,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="177"/>
-      <c r="B62" s="177"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="184"/>
+      <c r="B62" s="184"/>
       <c r="C62" s="40">
         <v>44149</v>
       </c>
@@ -9041,9 +9702,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" thickBot="1">
-      <c r="A63" s="177"/>
-      <c r="B63" s="178"/>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="184"/>
+      <c r="B63" s="185"/>
       <c r="C63" s="52">
         <v>44150</v>
       </c>
@@ -9059,9 +9720,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="177"/>
-      <c r="B64" s="185" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="184"/>
+      <c r="B64" s="192" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="57">
@@ -9079,9 +9740,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="177"/>
-      <c r="B65" s="177"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="184"/>
+      <c r="B65" s="184"/>
       <c r="C65" s="40">
         <v>44152</v>
       </c>
@@ -9097,9 +9758,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="177"/>
-      <c r="B66" s="177"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="184"/>
+      <c r="B66" s="184"/>
       <c r="C66" s="40">
         <v>44153</v>
       </c>
@@ -9109,10 +9770,10 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="177"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="193">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="184"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="200">
         <v>44154</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -9127,10 +9788,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="177"/>
-      <c r="B68" s="177"/>
-      <c r="C68" s="194"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="184"/>
+      <c r="B68" s="184"/>
+      <c r="C68" s="201"/>
       <c r="D68" s="41" t="s">
         <v>107</v>
       </c>
@@ -9143,9 +9804,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="177"/>
-      <c r="B69" s="177"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="184"/>
+      <c r="B69" s="184"/>
       <c r="C69" s="40">
         <v>44155</v>
       </c>
@@ -9155,9 +9816,9 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="177"/>
-      <c r="B70" s="177"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="184"/>
+      <c r="B70" s="184"/>
       <c r="C70" s="40">
         <v>44156</v>
       </c>
@@ -9167,9 +9828,9 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="16" thickBot="1">
-      <c r="A71" s="177"/>
-      <c r="B71" s="178"/>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="184"/>
+      <c r="B71" s="185"/>
       <c r="C71" s="52">
         <v>44157</v>
       </c>
@@ -9185,9 +9846,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="177"/>
-      <c r="B72" s="176" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="184"/>
+      <c r="B72" s="183" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="49">
@@ -9205,9 +9866,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="177"/>
-      <c r="B73" s="177"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="184"/>
+      <c r="B73" s="184"/>
       <c r="C73" s="40">
         <v>44159</v>
       </c>
@@ -9217,9 +9878,9 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="16" thickBot="1">
-      <c r="A74" s="178"/>
-      <c r="B74" s="178"/>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="185"/>
+      <c r="B74" s="185"/>
       <c r="C74" s="52">
         <v>44160</v>
       </c>
@@ -9259,4 +9920,119 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AC8C15-4B05-4F2D-AAE3-34F607CB6D25}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="205"/>
+      <c r="B1" s="203" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="203" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="203" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="203" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="203" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="206" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="206" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="206" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="206" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="206" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="206" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="206" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="206" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="206" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="206" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="206" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/career/计划&复盘.xlsx
+++ b/career/计划&复盘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\inotebook\career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE08482-80C0-420F-979B-F378B6DCAC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB07CA-6281-4831-AF23-A795DA3D0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2021 Review" sheetId="2" r:id="rId3"/>
     <sheet name="2020 Review" sheetId="4" r:id="rId4"/>
     <sheet name="NIO - Reactor 模式" sheetId="6" r:id="rId5"/>
+    <sheet name="Question" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="321">
   <si>
     <t>JVM</t>
   </si>
@@ -3439,97 +3440,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">三种缓存异常
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">2. Spring run </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">做了哪些事
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">3. Kafka </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">如何实现有序
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">4. MySQL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">索引有效性
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>事务隔离级别</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -3853,6 +3763,187 @@
   </si>
   <si>
     <t>虾皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00~23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>三种缓存异常</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>跨境</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>做了哪些事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kafka </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>如何实现有序</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MySQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>索引有效性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>事务隔离级别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题分类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3863,7 +3954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3993,12 +4084,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF98C379"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4" tint="0.59999389629810485"/>
       <name val="Consolas"/>
@@ -4009,6 +4094,28 @@
       <color theme="4" tint="0.59999389629810485"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="17">
@@ -4328,7 +4435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4800,16 +4907,34 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4827,67 +4952,58 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4908,20 +5024,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5210,9 +5329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAD58-82B7-42C1-AED3-1AEC0A0D1395}">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,7 +5381,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="81"/>
@@ -5279,8 +5398,8 @@
       <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
-      <c r="B3" s="175" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="181" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="83">
@@ -5296,8 +5415,8 @@
       <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="173"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="145">
         <v>44383</v>
       </c>
@@ -5311,8 +5430,8 @@
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="145">
         <v>44384</v>
       </c>
@@ -5326,8 +5445,8 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="145">
         <v>44385</v>
       </c>
@@ -5345,8 +5464,8 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
-      <c r="B7" s="173"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="145">
         <v>44386</v>
       </c>
@@ -5362,9 +5481,9 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="171">
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="177">
         <v>44387</v>
       </c>
       <c r="D8" s="147" t="s">
@@ -5383,9 +5502,9 @@
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="173"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="67" t="s">
         <v>12</v>
       </c>
@@ -5402,8 +5521,8 @@
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173"/>
-      <c r="B10" s="174"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="84">
         <v>44388</v>
       </c>
@@ -5423,8 +5542,8 @@
       <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="175" t="s">
+      <c r="A11" s="179"/>
+      <c r="B11" s="181" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="83">
@@ -5449,8 +5568,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
-      <c r="B12" s="173"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="145">
         <v>44390</v>
       </c>
@@ -5473,8 +5592,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
-      <c r="B13" s="173"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="145">
         <v>44391</v>
       </c>
@@ -5497,8 +5616,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
-      <c r="B14" s="173"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="145">
         <v>44392</v>
       </c>
@@ -5521,8 +5640,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="173"/>
-      <c r="B15" s="173"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="145">
         <v>44393</v>
       </c>
@@ -5537,8 +5656,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
-      <c r="B16" s="173"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="145">
         <v>44394</v>
       </c>
@@ -5558,8 +5677,8 @@
       <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="84">
         <v>44395</v>
       </c>
@@ -5579,8 +5698,8 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
-      <c r="B18" s="175" t="s">
+      <c r="A18" s="179"/>
+      <c r="B18" s="181" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="83">
@@ -5605,8 +5724,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="173"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="145">
         <v>44397</v>
       </c>
@@ -5633,8 +5752,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
-      <c r="B20" s="173"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="145">
         <v>44398</v>
       </c>
@@ -5661,8 +5780,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
-      <c r="B21" s="173"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="145">
         <v>44399</v>
       </c>
@@ -5689,8 +5808,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="173"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="145">
         <v>44400</v>
       </c>
@@ -5705,8 +5824,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
-      <c r="B23" s="173"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="145">
         <v>44401</v>
       </c>
@@ -5743,8 +5862,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="84">
         <v>44402</v>
       </c>
@@ -5771,8 +5890,8 @@
       <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="173"/>
-      <c r="B25" s="175" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="181" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="83">
@@ -5798,8 +5917,8 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="173"/>
-      <c r="B26" s="173"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="145">
         <v>44404</v>
       </c>
@@ -5824,8 +5943,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
-      <c r="B27" s="173"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="145">
         <v>44405</v>
       </c>
@@ -5848,8 +5967,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
-      <c r="B28" s="173"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="145">
         <v>44406</v>
       </c>
@@ -5876,8 +5995,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="173"/>
-      <c r="B29" s="173"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="145">
         <v>44407</v>
       </c>
@@ -5902,8 +6021,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
-      <c r="B30" s="173"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="145">
         <v>44408</v>
       </c>
@@ -5928,8 +6047,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="174"/>
-      <c r="B31" s="174"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="84">
         <v>44409</v>
       </c>
@@ -5956,10 +6075,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="180" t="s">
+      <c r="A32" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="114">
@@ -5990,8 +6109,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="175"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="105">
         <v>44411</v>
       </c>
@@ -6017,8 +6136,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="175"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="105">
         <v>44412</v>
       </c>
@@ -6046,8 +6165,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="105">
         <v>44413</v>
       </c>
@@ -6071,8 +6190,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="175"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="105">
         <v>44414</v>
       </c>
@@ -6090,8 +6209,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="171"/>
       <c r="C37" s="105">
         <v>44415</v>
       </c>
@@ -6115,8 +6234,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="181"/>
-      <c r="B38" s="178"/>
+      <c r="A38" s="175"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="118">
         <v>44416</v>
       </c>
@@ -6140,8 +6259,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
-      <c r="B39" s="176" t="s">
+      <c r="A39" s="175"/>
+      <c r="B39" s="170" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="114">
@@ -6167,8 +6286,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="175"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="105">
         <v>44418</v>
       </c>
@@ -6192,8 +6311,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="175"/>
+      <c r="B41" s="171"/>
       <c r="C41" s="105">
         <v>44419</v>
       </c>
@@ -6216,8 +6335,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
-      <c r="B42" s="177"/>
+      <c r="A42" s="175"/>
+      <c r="B42" s="171"/>
       <c r="C42" s="105">
         <v>44420</v>
       </c>
@@ -6240,8 +6359,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="177"/>
+      <c r="A43" s="175"/>
+      <c r="B43" s="171"/>
       <c r="C43" s="105">
         <v>44421</v>
       </c>
@@ -6258,8 +6377,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="177"/>
+      <c r="A44" s="175"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="105">
         <v>44422</v>
       </c>
@@ -6282,8 +6401,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="181"/>
-      <c r="B45" s="178"/>
+      <c r="A45" s="175"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="118">
         <v>44423</v>
       </c>
@@ -6308,8 +6427,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
-      <c r="B46" s="176" t="s">
+      <c r="A46" s="175"/>
+      <c r="B46" s="170" t="s">
         <v>223</v>
       </c>
       <c r="C46" s="114">
@@ -6336,8 +6455,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="171"/>
       <c r="C47" s="105">
         <v>44425</v>
       </c>
@@ -6357,8 +6476,8 @@
       <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="175"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="105">
         <v>44426</v>
       </c>
@@ -6372,8 +6491,8 @@
       <c r="I48" s="112"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="181"/>
-      <c r="B49" s="177"/>
+      <c r="A49" s="175"/>
+      <c r="B49" s="171"/>
       <c r="C49" s="105">
         <v>44427</v>
       </c>
@@ -6389,8 +6508,8 @@
       <c r="I49" s="112"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="181"/>
-      <c r="B50" s="177"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="171"/>
       <c r="C50" s="105">
         <v>44428</v>
       </c>
@@ -6404,8 +6523,8 @@
       <c r="I50" s="112"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="181"/>
-      <c r="B51" s="177"/>
+      <c r="A51" s="175"/>
+      <c r="B51" s="171"/>
       <c r="C51" s="105">
         <v>44429</v>
       </c>
@@ -6419,8 +6538,8 @@
       <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="181"/>
-      <c r="B52" s="178"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="118">
         <v>44430</v>
       </c>
@@ -6440,8 +6559,8 @@
       <c r="I52" s="122"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="179" t="s">
+      <c r="A53" s="175"/>
+      <c r="B53" s="173" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="104">
@@ -6461,8 +6580,8 @@
       <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="177"/>
+      <c r="A54" s="175"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="105">
         <v>44432</v>
       </c>
@@ -6482,8 +6601,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="181"/>
-      <c r="B55" s="177"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="105">
         <v>44433</v>
       </c>
@@ -6501,8 +6620,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="181"/>
-      <c r="B56" s="177"/>
+      <c r="A56" s="175"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="105">
         <v>44434</v>
       </c>
@@ -6524,8 +6643,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="181"/>
-      <c r="B57" s="177"/>
+      <c r="A57" s="175"/>
+      <c r="B57" s="171"/>
       <c r="C57" s="105">
         <v>44435</v>
       </c>
@@ -6545,8 +6664,8 @@
       <c r="I57" s="112"/>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="181"/>
-      <c r="B58" s="177"/>
+      <c r="A58" s="175"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="105">
         <v>44436</v>
       </c>
@@ -6566,8 +6685,8 @@
       <c r="I58" s="112"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="182"/>
-      <c r="B59" s="178"/>
+      <c r="A59" s="176"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="118">
         <v>44437</v>
       </c>
@@ -6587,10 +6706,10 @@
       <c r="I59" s="122"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="167" t="s">
+      <c r="A60" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="182" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="129">
@@ -6612,8 +6731,8 @@
       <c r="I60" s="131"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
-      <c r="B61" s="168"/>
+      <c r="A61" s="183"/>
+      <c r="B61" s="183"/>
       <c r="C61" s="132">
         <v>44439</v>
       </c>
@@ -6633,8 +6752,8 @@
       <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="168"/>
-      <c r="B62" s="168"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="132">
         <v>44440</v>
       </c>
@@ -6654,13 +6773,13 @@
       <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="168"/>
-      <c r="B63" s="168"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="132">
         <v>44441</v>
       </c>
       <c r="D63" s="142" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E63" s="133"/>
       <c r="F63" s="133"/>
@@ -6673,8 +6792,8 @@
       <c r="I63" s="134"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="168"/>
-      <c r="B64" s="168"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="132">
         <v>44442</v>
       </c>
@@ -6683,7 +6802,7 @@
       </c>
       <c r="E64" s="133"/>
       <c r="F64" s="133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G64" s="142"/>
       <c r="H64" s="142">
@@ -6692,8 +6811,8 @@
       <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
-      <c r="B65" s="168"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="132">
         <v>44443</v>
       </c>
@@ -6705,7 +6824,7 @@
       </c>
       <c r="F65" s="133"/>
       <c r="G65" s="142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H65" s="142">
         <v>7</v>
@@ -6715,21 +6834,25 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="168"/>
-      <c r="B66" s="169"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="184"/>
       <c r="C66" s="135">
         <v>44444</v>
       </c>
       <c r="D66" s="143"/>
       <c r="E66" s="136"/>
       <c r="F66" s="136"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="143"/>
+      <c r="G66" s="143" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="143">
+        <v>11</v>
+      </c>
       <c r="I66" s="137"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
-      <c r="B67" s="167" t="s">
+      <c r="A67" s="183"/>
+      <c r="B67" s="182" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="129">
@@ -6743,8 +6866,8 @@
       <c r="I67" s="131"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="168"/>
-      <c r="B68" s="168"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="183"/>
       <c r="C68" s="132">
         <v>44446</v>
       </c>
@@ -6756,8 +6879,8 @@
       <c r="I68" s="134"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
-      <c r="B69" s="168"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="183"/>
       <c r="C69" s="132">
         <v>44447</v>
       </c>
@@ -6769,8 +6892,8 @@
       <c r="I69" s="134"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="168"/>
-      <c r="B70" s="168"/>
+      <c r="A70" s="183"/>
+      <c r="B70" s="183"/>
       <c r="C70" s="132">
         <v>44448</v>
       </c>
@@ -6782,8 +6905,8 @@
       <c r="I70" s="134"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
-      <c r="B71" s="168"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="183"/>
       <c r="C71" s="132">
         <v>44449</v>
       </c>
@@ -6795,23 +6918,23 @@
       <c r="I71" s="134"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
-      <c r="B72" s="168"/>
+      <c r="A72" s="183"/>
+      <c r="B72" s="183"/>
       <c r="C72" s="132">
         <v>44450</v>
       </c>
       <c r="D72" s="142"/>
       <c r="E72" s="133"/>
-      <c r="F72" s="207" t="s">
-        <v>305</v>
+      <c r="F72" s="169" t="s">
+        <v>304</v>
       </c>
       <c r="G72" s="142"/>
       <c r="H72" s="142"/>
       <c r="I72" s="134"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="168"/>
-      <c r="B73" s="169"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="184"/>
       <c r="C73" s="135">
         <v>44451</v>
       </c>
@@ -6823,8 +6946,8 @@
       <c r="I73" s="137"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="168"/>
-      <c r="B74" s="167" t="s">
+      <c r="A74" s="183"/>
+      <c r="B74" s="182" t="s">
         <v>223</v>
       </c>
       <c r="C74" s="129">
@@ -6838,8 +6961,8 @@
       <c r="I74" s="131"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="168"/>
-      <c r="B75" s="168"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="183"/>
       <c r="C75" s="132">
         <v>44453</v>
       </c>
@@ -6851,8 +6974,8 @@
       <c r="I75" s="134"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
-      <c r="B76" s="168"/>
+      <c r="A76" s="183"/>
+      <c r="B76" s="183"/>
       <c r="C76" s="132">
         <v>44454</v>
       </c>
@@ -6864,8 +6987,8 @@
       <c r="I76" s="134"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="168"/>
-      <c r="B77" s="168"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="183"/>
       <c r="C77" s="132">
         <v>44455</v>
       </c>
@@ -6877,8 +7000,8 @@
       <c r="I77" s="134"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="168"/>
-      <c r="B78" s="168"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="183"/>
       <c r="C78" s="132">
         <v>44456</v>
       </c>
@@ -6890,8 +7013,8 @@
       <c r="I78" s="134"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="168"/>
-      <c r="B79" s="168"/>
+      <c r="A79" s="183"/>
+      <c r="B79" s="183"/>
       <c r="C79" s="132">
         <v>44457</v>
       </c>
@@ -6903,8 +7026,8 @@
       <c r="I79" s="134"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="168"/>
-      <c r="B80" s="169"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="184"/>
       <c r="C80" s="135">
         <v>44458</v>
       </c>
@@ -6916,8 +7039,8 @@
       <c r="I80" s="137"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="168"/>
-      <c r="B81" s="167" t="s">
+      <c r="A81" s="183"/>
+      <c r="B81" s="182" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="129">
@@ -6931,8 +7054,8 @@
       <c r="I81" s="131"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="168"/>
-      <c r="B82" s="168"/>
+      <c r="A82" s="183"/>
+      <c r="B82" s="183"/>
       <c r="C82" s="132">
         <v>44460</v>
       </c>
@@ -6944,8 +7067,8 @@
       <c r="I82" s="134"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="168"/>
-      <c r="B83" s="168"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="183"/>
       <c r="C83" s="132">
         <v>44461</v>
       </c>
@@ -6957,8 +7080,8 @@
       <c r="I83" s="134"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="168"/>
-      <c r="B84" s="168"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="183"/>
       <c r="C84" s="132">
         <v>44462</v>
       </c>
@@ -6970,8 +7093,8 @@
       <c r="I84" s="134"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="168"/>
-      <c r="B85" s="168"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="183"/>
       <c r="C85" s="132">
         <v>44463</v>
       </c>
@@ -6983,8 +7106,8 @@
       <c r="I85" s="134"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="168"/>
-      <c r="B86" s="168"/>
+      <c r="A86" s="183"/>
+      <c r="B86" s="183"/>
       <c r="C86" s="132">
         <v>44464</v>
       </c>
@@ -6996,8 +7119,8 @@
       <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="168"/>
-      <c r="B87" s="169"/>
+      <c r="A87" s="183"/>
+      <c r="B87" s="184"/>
       <c r="C87" s="135">
         <v>44465</v>
       </c>
@@ -7009,8 +7132,8 @@
       <c r="I87" s="137"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="168"/>
-      <c r="B88" s="170" t="s">
+      <c r="A88" s="183"/>
+      <c r="B88" s="185" t="s">
         <v>138</v>
       </c>
       <c r="C88" s="138">
@@ -7024,8 +7147,8 @@
       <c r="I88" s="141"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="168"/>
-      <c r="B89" s="168"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="183"/>
       <c r="C89" s="132">
         <v>44467</v>
       </c>
@@ -7037,8 +7160,8 @@
       <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="168"/>
-      <c r="B90" s="168"/>
+      <c r="A90" s="183"/>
+      <c r="B90" s="183"/>
       <c r="C90" s="132">
         <v>44468</v>
       </c>
@@ -7050,8 +7173,8 @@
       <c r="I90" s="134"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="168"/>
-      <c r="B91" s="168"/>
+      <c r="A91" s="183"/>
+      <c r="B91" s="183"/>
       <c r="C91" s="132">
         <v>44469</v>
       </c>
@@ -7063,8 +7186,8 @@
       <c r="I91" s="134"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="168"/>
-      <c r="B92" s="168"/>
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="132">
         <v>44470</v>
       </c>
@@ -7076,8 +7199,8 @@
       <c r="I92" s="134"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="168"/>
-      <c r="B93" s="168"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="183"/>
       <c r="C93" s="132">
         <v>44471</v>
       </c>
@@ -7089,8 +7212,8 @@
       <c r="I93" s="134"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="169"/>
-      <c r="B94" s="169"/>
+      <c r="A94" s="184"/>
+      <c r="B94" s="184"/>
       <c r="C94" s="135">
         <v>44472</v>
       </c>
@@ -7103,23 +7226,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A32:A59"/>
+    <mergeCell ref="A60:A94"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="B88:B94"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A60:A94"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A32:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7133,7 +7256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7150,32 +7273,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="167" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="204" t="s">
+      <c r="C1" s="167" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="D1" s="167" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="204" t="s">
+      <c r="E1" s="167" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="204" t="s">
+      <c r="F1" s="167" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="G1" s="167" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="204" t="s">
+      <c r="H1" s="167" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="204" t="s">
+      <c r="I1" s="167" t="s">
         <v>299</v>
-      </c>
-      <c r="I1" s="204" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7301,16 +7424,14 @@
       <c r="H6" s="163">
         <v>44442.791666666664</v>
       </c>
-      <c r="I6" s="164" t="s">
-        <v>277</v>
-      </c>
+      <c r="I6" s="164"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="165">
         <v>44439</v>
       </c>
       <c r="B7" s="166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="166" t="s">
         <v>254</v>
@@ -7321,7 +7442,7 @@
         <v>275</v>
       </c>
       <c r="G7" s="166" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H7" s="165">
         <v>44450</v>
@@ -7627,10 +7748,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="197" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="17">
@@ -7649,8 +7770,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
-      <c r="B3" s="185"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="22">
         <v>44241</v>
       </c>
@@ -7661,8 +7782,8 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="187"/>
-      <c r="B4" s="192" t="s">
+      <c r="A4" s="194"/>
+      <c r="B4" s="188" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="17">
@@ -7681,8 +7802,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="187"/>
-      <c r="B5" s="184"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="2">
         <v>44243</v>
       </c>
@@ -7699,9 +7820,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="187"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="195">
+      <c r="A6" s="194"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="186">
         <v>44244</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -7717,9 +7838,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="187"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
@@ -7735,8 +7856,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="184"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="2">
         <v>44245</v>
       </c>
@@ -7755,8 +7876,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
-      <c r="B9" s="184"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="2">
         <v>44246</v>
       </c>
@@ -7775,8 +7896,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="184"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="2">
         <v>44247</v>
       </c>
@@ -7787,8 +7908,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
-      <c r="B11" s="185"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="190"/>
       <c r="C11" s="22">
         <v>44248</v>
       </c>
@@ -7805,8 +7926,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
-      <c r="B12" s="190" t="s">
+      <c r="A12" s="194"/>
+      <c r="B12" s="191" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11">
@@ -7821,9 +7942,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="187"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="195">
+      <c r="A13" s="194"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="186">
         <v>44250</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7837,9 +7958,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="196"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
@@ -7851,8 +7972,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="184"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
@@ -7861,8 +7982,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="187"/>
-      <c r="B16" s="184"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="2">
         <v>44252</v>
       </c>
@@ -7873,8 +7994,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="187"/>
-      <c r="B17" s="184"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="2">
         <v>44253</v>
       </c>
@@ -7885,9 +8006,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="195">
+      <c r="A18" s="194"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="186">
         <v>44254</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7899,9 +8020,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="194"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
@@ -7911,8 +8032,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
-      <c r="B20" s="185"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="190"/>
       <c r="C20" s="22">
         <v>44255</v>
       </c>
@@ -7925,10 +8046,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="192" t="s">
+      <c r="B21" s="188" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="17">
@@ -7943,8 +8064,8 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
-      <c r="B22" s="184"/>
+      <c r="A22" s="194"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="2">
         <v>44257</v>
       </c>
@@ -7957,9 +8078,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="187"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="195">
+      <c r="A23" s="194"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="186">
         <v>44258</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7971,9 +8092,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="196"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="187"/>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
@@ -7985,9 +8106,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="187"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="195">
+      <c r="A25" s="194"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="186">
         <v>44259</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -8001,9 +8122,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="187"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="196"/>
+      <c r="A26" s="194"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="187"/>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
@@ -8013,8 +8134,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="187"/>
-      <c r="B27" s="184"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="189"/>
       <c r="C27" s="2">
         <v>44260</v>
       </c>
@@ -8025,8 +8146,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="187"/>
-      <c r="B28" s="184"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="2">
         <v>44261</v>
       </c>
@@ -8037,8 +8158,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="187"/>
-      <c r="B29" s="185"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="190"/>
       <c r="C29" s="22">
         <v>44262</v>
       </c>
@@ -8049,8 +8170,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="187"/>
-      <c r="B30" s="192" t="s">
+      <c r="A30" s="194"/>
+      <c r="B30" s="188" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="17">
@@ -8063,8 +8184,8 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="187"/>
-      <c r="B31" s="184"/>
+      <c r="A31" s="194"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="2">
         <v>44264</v>
       </c>
@@ -8075,8 +8196,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="187"/>
-      <c r="B32" s="184"/>
+      <c r="A32" s="194"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="2">
         <v>44265</v>
       </c>
@@ -8087,8 +8208,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
-      <c r="B33" s="184"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="2">
         <v>44266</v>
       </c>
@@ -8099,8 +8220,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
-      <c r="B34" s="184"/>
+      <c r="A34" s="194"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="2">
         <v>44267</v>
       </c>
@@ -8111,8 +8232,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
-      <c r="B35" s="184"/>
+      <c r="A35" s="194"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="2">
         <v>44268</v>
       </c>
@@ -8123,8 +8244,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
-      <c r="B36" s="185"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="190"/>
       <c r="C36" s="22">
         <v>44269</v>
       </c>
@@ -8135,8 +8256,8 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="187"/>
-      <c r="B37" s="192" t="s">
+      <c r="A37" s="194"/>
+      <c r="B37" s="188" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="17">
@@ -8151,8 +8272,8 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="187"/>
-      <c r="B38" s="184"/>
+      <c r="A38" s="194"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="2">
         <v>44271</v>
       </c>
@@ -8167,8 +8288,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="187"/>
-      <c r="B39" s="184"/>
+      <c r="A39" s="194"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="2">
         <v>44272</v>
       </c>
@@ -8183,8 +8304,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="187"/>
-      <c r="B40" s="184"/>
+      <c r="A40" s="194"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="2">
         <v>44273</v>
       </c>
@@ -8199,8 +8320,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="187"/>
-      <c r="B41" s="184"/>
+      <c r="A41" s="194"/>
+      <c r="B41" s="189"/>
       <c r="C41" s="2">
         <v>44274</v>
       </c>
@@ -8215,8 +8336,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="187"/>
-      <c r="B42" s="184"/>
+      <c r="A42" s="194"/>
+      <c r="B42" s="189"/>
       <c r="C42" s="2">
         <v>44275</v>
       </c>
@@ -8231,8 +8352,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="187"/>
-      <c r="B43" s="185"/>
+      <c r="A43" s="194"/>
+      <c r="B43" s="190"/>
       <c r="C43" s="22">
         <v>44276</v>
       </c>
@@ -8247,8 +8368,8 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="187"/>
-      <c r="B44" s="190" t="s">
+      <c r="A44" s="194"/>
+      <c r="B44" s="191" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="11">
@@ -8265,8 +8386,8 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="187"/>
-      <c r="B45" s="184"/>
+      <c r="A45" s="194"/>
+      <c r="B45" s="189"/>
       <c r="C45" s="2">
         <v>44278</v>
       </c>
@@ -8281,8 +8402,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="187"/>
-      <c r="B46" s="184"/>
+      <c r="A46" s="194"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="2">
         <v>44279</v>
       </c>
@@ -8299,8 +8420,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="187"/>
-      <c r="B47" s="184"/>
+      <c r="A47" s="194"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="2">
         <v>44280</v>
       </c>
@@ -8317,8 +8438,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="187"/>
-      <c r="B48" s="184"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="189"/>
       <c r="C48" s="2">
         <v>44281</v>
       </c>
@@ -8333,8 +8454,8 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="187"/>
-      <c r="B49" s="184"/>
+      <c r="A49" s="194"/>
+      <c r="B49" s="189"/>
       <c r="C49" s="2">
         <v>44282</v>
       </c>
@@ -8351,8 +8472,8 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="188"/>
-      <c r="B50" s="185"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="190"/>
       <c r="C50" s="22">
         <v>44283</v>
       </c>
@@ -8367,10 +8488,10 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="186" t="s">
+      <c r="A51" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="191" t="s">
+      <c r="B51" s="197" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="17">
@@ -8389,8 +8510,8 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="187"/>
-      <c r="B52" s="184"/>
+      <c r="A52" s="194"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="2">
         <v>44285</v>
       </c>
@@ -8405,9 +8526,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="187"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="189">
+      <c r="A53" s="194"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="199">
         <v>44286</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -8421,9 +8542,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="187"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="189"/>
+      <c r="A54" s="194"/>
+      <c r="B54" s="189"/>
+      <c r="C54" s="199"/>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -8435,8 +8556,8 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="187"/>
-      <c r="B55" s="184"/>
+      <c r="A55" s="194"/>
+      <c r="B55" s="189"/>
       <c r="C55" s="2">
         <v>44287</v>
       </c>
@@ -8447,8 +8568,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="187"/>
-      <c r="B56" s="184"/>
+      <c r="A56" s="194"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="2">
         <v>44288</v>
       </c>
@@ -8461,8 +8582,8 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="187"/>
-      <c r="B57" s="184"/>
+      <c r="A57" s="194"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="2">
         <v>44289</v>
       </c>
@@ -8475,8 +8596,8 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="187"/>
-      <c r="B58" s="185"/>
+      <c r="A58" s="194"/>
+      <c r="B58" s="190"/>
       <c r="C58" s="22">
         <v>44290</v>
       </c>
@@ -8489,8 +8610,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="187"/>
-      <c r="B59" s="191" t="s">
+      <c r="A59" s="194"/>
+      <c r="B59" s="197" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="17">
@@ -8505,8 +8626,8 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="187"/>
-      <c r="B60" s="184"/>
+      <c r="A60" s="194"/>
+      <c r="B60" s="189"/>
       <c r="C60" s="2">
         <v>44292</v>
       </c>
@@ -8521,8 +8642,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="187"/>
-      <c r="B61" s="184"/>
+      <c r="A61" s="194"/>
+      <c r="B61" s="189"/>
       <c r="C61" s="2">
         <v>44293</v>
       </c>
@@ -8537,8 +8658,8 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="187"/>
-      <c r="B62" s="184"/>
+      <c r="A62" s="194"/>
+      <c r="B62" s="189"/>
       <c r="C62" s="2">
         <v>44294</v>
       </c>
@@ -8553,8 +8674,8 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="187"/>
-      <c r="B63" s="184"/>
+      <c r="A63" s="194"/>
+      <c r="B63" s="189"/>
       <c r="C63" s="2">
         <v>44295</v>
       </c>
@@ -8565,8 +8686,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="187"/>
-      <c r="B64" s="184"/>
+      <c r="A64" s="194"/>
+      <c r="B64" s="189"/>
       <c r="C64" s="2">
         <v>44296</v>
       </c>
@@ -8577,8 +8698,8 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="187"/>
-      <c r="B65" s="185"/>
+      <c r="A65" s="194"/>
+      <c r="B65" s="190"/>
       <c r="C65" s="22">
         <v>44297</v>
       </c>
@@ -8593,8 +8714,8 @@
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="187"/>
-      <c r="B66" s="183" t="s">
+      <c r="A66" s="194"/>
+      <c r="B66" s="198" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="11">
@@ -8611,8 +8732,8 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="187"/>
-      <c r="B67" s="184"/>
+      <c r="A67" s="194"/>
+      <c r="B67" s="189"/>
       <c r="C67" s="2">
         <v>44299</v>
       </c>
@@ -8627,8 +8748,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="187"/>
-      <c r="B68" s="184"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="189"/>
       <c r="C68" s="2">
         <v>44300</v>
       </c>
@@ -8641,8 +8762,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="188"/>
-      <c r="B69" s="185"/>
+      <c r="A69" s="195"/>
+      <c r="B69" s="190"/>
       <c r="C69" s="22">
         <v>44301</v>
       </c>
@@ -8654,11 +8775,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B65"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B12:B20"/>
@@ -8667,12 +8789,11 @@
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8729,10 +8850,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="189" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="40">
@@ -8751,8 +8872,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
-      <c r="B3" s="185"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="52">
         <v>44094</v>
       </c>
@@ -8769,8 +8890,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
-      <c r="B4" s="190" t="s">
+      <c r="A4" s="189"/>
+      <c r="B4" s="191" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="49">
@@ -8789,8 +8910,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="184"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="40">
         <v>44096</v>
       </c>
@@ -8807,8 +8928,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="40">
         <v>44097</v>
       </c>
@@ -8825,8 +8946,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="184"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="40">
         <v>44098</v>
       </c>
@@ -8843,8 +8964,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="184"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="40">
         <v>44099</v>
       </c>
@@ -8861,8 +8982,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="184"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="40">
         <v>44100</v>
       </c>
@@ -8879,8 +9000,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="52">
         <v>44101</v>
       </c>
@@ -8897,10 +9018,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="188" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="57">
@@ -8919,8 +9040,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="184"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="40">
         <v>44103</v>
       </c>
@@ -8931,8 +9052,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="184"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="40">
         <v>44104</v>
       </c>
@@ -8943,8 +9064,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="184"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="40">
         <v>44105</v>
       </c>
@@ -8959,8 +9080,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
-      <c r="B15" s="184"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="40">
         <v>44106</v>
       </c>
@@ -8977,8 +9098,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="184"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="40">
         <v>44107</v>
       </c>
@@ -8995,8 +9116,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
-      <c r="B17" s="185"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="190"/>
       <c r="C17" s="52">
         <v>44108</v>
       </c>
@@ -9013,11 +9134,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="192" t="s">
+      <c r="A18" s="189"/>
+      <c r="B18" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="197">
+      <c r="C18" s="200">
         <v>44109</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -9033,9 +9154,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="198"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="41" t="s">
         <v>129</v>
       </c>
@@ -9049,9 +9170,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="198"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="201"/>
       <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
@@ -9065,8 +9186,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="184"/>
-      <c r="B21" s="184"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="189"/>
       <c r="C21" s="40">
         <v>44110</v>
       </c>
@@ -9077,8 +9198,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="184"/>
-      <c r="B22" s="184"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="40">
         <v>44111</v>
       </c>
@@ -9089,8 +9210,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
-      <c r="B23" s="184"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="40">
         <v>44112</v>
       </c>
@@ -9101,8 +9222,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="184"/>
-      <c r="B24" s="184"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
       <c r="C24" s="40">
         <v>44113</v>
       </c>
@@ -9113,9 +9234,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="198">
+      <c r="A25" s="189"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="201">
         <v>44114</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -9131,9 +9252,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="198"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="41" t="s">
         <v>102</v>
       </c>
@@ -9147,8 +9268,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184"/>
-      <c r="B27" s="185"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="190"/>
       <c r="C27" s="52">
         <v>44115</v>
       </c>
@@ -9165,8 +9286,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="184"/>
-      <c r="B28" s="192" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="188" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="57">
@@ -9179,8 +9300,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
-      <c r="B29" s="184"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="40">
         <v>44117</v>
       </c>
@@ -9197,8 +9318,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="40">
         <v>44118</v>
       </c>
@@ -9209,8 +9330,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
-      <c r="B31" s="184"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="40">
         <v>44119</v>
       </c>
@@ -9227,8 +9348,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="40">
         <v>44120</v>
       </c>
@@ -9239,8 +9360,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="40">
         <v>44121</v>
       </c>
@@ -9257,9 +9378,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="198">
+      <c r="A34" s="189"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="201">
         <v>44122</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -9275,9 +9396,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184"/>
-      <c r="B35" s="185"/>
-      <c r="C35" s="199"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="202"/>
       <c r="D35" s="53" t="s">
         <v>103</v>
       </c>
@@ -9291,8 +9412,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="184"/>
-      <c r="B36" s="192" t="s">
+      <c r="A36" s="189"/>
+      <c r="B36" s="188" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="57">
@@ -9305,8 +9426,8 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="184"/>
-      <c r="B37" s="184"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="40">
         <v>44124</v>
       </c>
@@ -9317,8 +9438,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="3